--- a/BackTest/2019-10-08 BackTest ZRX.xlsx
+++ b/BackTest/2019-10-08 BackTest ZRX.xlsx
@@ -969,7 +969,9 @@
       <c r="J12" t="n">
         <v>8</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>14.28571428571428</v>
+      </c>
       <c r="L12" t="n">
         <v>269.6</v>
       </c>
@@ -1020,7 +1022,9 @@
       <c r="J13" t="n">
         <v>9</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>42.85714285714285</v>
+      </c>
       <c r="L13" t="n">
         <v>269.8</v>
       </c>
@@ -1065,7 +1069,9 @@
       <c r="J14" t="n">
         <v>9</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>20</v>
+      </c>
       <c r="L14" t="n">
         <v>270.1</v>
       </c>
@@ -1110,7 +1116,9 @@
       <c r="J15" t="n">
         <v>9</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>50</v>
+      </c>
       <c r="L15" t="n">
         <v>270.2</v>
       </c>
@@ -1155,7 +1163,9 @@
       <c r="J16" t="n">
         <v>9</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>50</v>
+      </c>
       <c r="L16" t="n">
         <v>270.4</v>
       </c>
@@ -1200,7 +1210,9 @@
       <c r="J17" t="n">
         <v>9</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L17" t="n">
         <v>270.6</v>
       </c>
@@ -1245,7 +1257,9 @@
       <c r="J18" t="n">
         <v>10</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>50</v>
+      </c>
       <c r="L18" t="n">
         <v>270.8</v>
       </c>
@@ -1290,7 +1304,9 @@
       <c r="J19" t="n">
         <v>10</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>50</v>
+      </c>
       <c r="L19" t="n">
         <v>271</v>
       </c>
@@ -1335,7 +1351,9 @@
       <c r="J20" t="n">
         <v>11</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
       <c r="L20" t="n">
         <v>271.1</v>
       </c>
@@ -1380,7 +1398,9 @@
       <c r="J21" t="n">
         <v>13</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>60</v>
+      </c>
       <c r="L21" t="n">
         <v>271.3</v>
       </c>
@@ -1427,7 +1447,9 @@
       <c r="J22" t="n">
         <v>16</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-14.28571428571428</v>
+      </c>
       <c r="L22" t="n">
         <v>271.3</v>
       </c>
@@ -1475,7 +1497,7 @@
         <v>17</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L23" t="n">
         <v>271.1</v>
@@ -1524,7 +1546,7 @@
         <v>18</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L24" t="n">
         <v>270.8</v>
@@ -1573,7 +1595,7 @@
         <v>18</v>
       </c>
       <c r="K25" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L25" t="n">
         <v>270.5</v>
@@ -1622,7 +1644,7 @@
         <v>19</v>
       </c>
       <c r="K26" t="n">
-        <v>-14.28571428571428</v>
+        <v>-40</v>
       </c>
       <c r="L26" t="n">
         <v>270.1</v>
@@ -1671,7 +1693,7 @@
         <v>20</v>
       </c>
       <c r="K27" t="n">
-        <v>-20</v>
+        <v>-60</v>
       </c>
       <c r="L27" t="n">
         <v>269.6</v>
@@ -1720,7 +1742,7 @@
         <v>21</v>
       </c>
       <c r="K28" t="n">
-        <v>-33.33333333333333</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L28" t="n">
         <v>268.9</v>
@@ -1769,7 +1791,7 @@
         <v>22</v>
       </c>
       <c r="K29" t="n">
-        <v>-25</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L29" t="n">
         <v>268.3</v>
@@ -1818,7 +1840,7 @@
         <v>23</v>
       </c>
       <c r="K30" t="n">
-        <v>-17.64705882352941</v>
+        <v>-60</v>
       </c>
       <c r="L30" t="n">
         <v>267.9</v>
@@ -1867,7 +1889,7 @@
         <v>23</v>
       </c>
       <c r="K31" t="n">
-        <v>-25</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L31" t="n">
         <v>267.3</v>
@@ -1918,7 +1940,7 @@
         <v>23</v>
       </c>
       <c r="K32" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L32" t="n">
         <v>267</v>
@@ -1969,7 +1991,7 @@
         <v>23</v>
       </c>
       <c r="K33" t="n">
-        <v>-28.57142857142857</v>
+        <v>-20</v>
       </c>
       <c r="L33" t="n">
         <v>266.8</v>
@@ -2020,7 +2042,7 @@
         <v>23</v>
       </c>
       <c r="K34" t="n">
-        <v>-28.57142857142857</v>
+        <v>-20</v>
       </c>
       <c r="L34" t="n">
         <v>266.7</v>
@@ -2071,7 +2093,7 @@
         <v>24</v>
       </c>
       <c r="K35" t="n">
-        <v>-20</v>
+        <v>20</v>
       </c>
       <c r="L35" t="n">
         <v>266.7</v>
@@ -2122,7 +2144,7 @@
         <v>26</v>
       </c>
       <c r="K36" t="n">
-        <v>-5.88235294117647</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L36" t="n">
         <v>267</v>
@@ -2173,7 +2195,7 @@
         <v>28</v>
       </c>
       <c r="K37" t="n">
-        <v>5.263157894736842</v>
+        <v>100</v>
       </c>
       <c r="L37" t="n">
         <v>267.6</v>
@@ -2224,7 +2246,7 @@
         <v>30</v>
       </c>
       <c r="K38" t="n">
-        <v>-10</v>
+        <v>50</v>
       </c>
       <c r="L38" t="n">
         <v>268.1</v>
@@ -2275,7 +2297,7 @@
         <v>31</v>
       </c>
       <c r="K39" t="n">
-        <v>-4.761904761904762</v>
+        <v>50</v>
       </c>
       <c r="L39" t="n">
         <v>268.6</v>
@@ -2326,7 +2348,7 @@
         <v>32</v>
       </c>
       <c r="K40" t="n">
-        <v>-4.761904761904762</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L40" t="n">
         <v>268.9</v>
@@ -2377,7 +2399,7 @@
         <v>34</v>
       </c>
       <c r="K41" t="n">
-        <v>-4.761904761904762</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L41" t="n">
         <v>269.4</v>
@@ -2428,7 +2450,7 @@
         <v>34</v>
       </c>
       <c r="K42" t="n">
-        <v>11.11111111111111</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L42" t="n">
         <v>269.9</v>
@@ -2479,7 +2501,7 @@
         <v>34</v>
       </c>
       <c r="K43" t="n">
-        <v>17.64705882352941</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L43" t="n">
         <v>270.4</v>
@@ -2530,7 +2552,7 @@
         <v>36</v>
       </c>
       <c r="K44" t="n">
-        <v>11.11111111111111</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L44" t="n">
         <v>270.7</v>
@@ -2581,7 +2603,7 @@
         <v>38</v>
       </c>
       <c r="K45" t="n">
-        <v>20</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L45" t="n">
         <v>271.1</v>
@@ -2632,7 +2654,7 @@
         <v>38</v>
       </c>
       <c r="K46" t="n">
-        <v>26.31578947368421</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>271.3</v>
@@ -2683,7 +2705,7 @@
         <v>39</v>
       </c>
       <c r="K47" t="n">
-        <v>36.84210526315789</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L47" t="n">
         <v>271.4</v>
@@ -2734,7 +2756,7 @@
         <v>42</v>
       </c>
       <c r="K48" t="n">
-        <v>23.80952380952381</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L48" t="n">
         <v>271.4</v>
@@ -2785,7 +2807,7 @@
         <v>46</v>
       </c>
       <c r="K49" t="n">
-        <v>33.33333333333333</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L49" t="n">
         <v>271.7</v>
@@ -2836,7 +2858,7 @@
         <v>46</v>
       </c>
       <c r="K50" t="n">
-        <v>30.43478260869566</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L50" t="n">
         <v>272.1</v>
@@ -2887,7 +2909,7 @@
         <v>47</v>
       </c>
       <c r="K51" t="n">
-        <v>33.33333333333333</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L51" t="n">
         <v>272.4</v>
@@ -2938,7 +2960,7 @@
         <v>47</v>
       </c>
       <c r="K52" t="n">
-        <v>33.33333333333333</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L52" t="n">
         <v>272.7</v>
@@ -2989,7 +3011,7 @@
         <v>47</v>
       </c>
       <c r="K53" t="n">
-        <v>33.33333333333333</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L53" t="n">
         <v>273</v>
@@ -3040,7 +3062,7 @@
         <v>49</v>
       </c>
       <c r="K54" t="n">
-        <v>38.46153846153847</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L54" t="n">
         <v>273.7</v>
@@ -3091,7 +3113,7 @@
         <v>51</v>
       </c>
       <c r="K55" t="n">
-        <v>25.92592592592592</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L55" t="n">
         <v>274</v>
@@ -3142,7 +3164,7 @@
         <v>51</v>
       </c>
       <c r="K56" t="n">
-        <v>20</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L56" t="n">
         <v>274.3</v>
@@ -3193,7 +3215,7 @@
         <v>51</v>
       </c>
       <c r="K57" t="n">
-        <v>13.04347826086956</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L57" t="n">
         <v>274.5</v>
@@ -3244,7 +3266,7 @@
         <v>51</v>
       </c>
       <c r="K58" t="n">
-        <v>23.80952380952381</v>
+        <v>20</v>
       </c>
       <c r="L58" t="n">
         <v>275</v>
@@ -3295,7 +3317,7 @@
         <v>52</v>
       </c>
       <c r="K59" t="n">
-        <v>23.80952380952381</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L59" t="n">
         <v>275.2</v>
@@ -3346,7 +3368,7 @@
         <v>52</v>
       </c>
       <c r="K60" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L60" t="n">
         <v>275.4</v>
@@ -3397,7 +3419,7 @@
         <v>52</v>
       </c>
       <c r="K61" t="n">
-        <v>22.22222222222222</v>
+        <v>20</v>
       </c>
       <c r="L61" t="n">
         <v>275.5</v>
@@ -3448,7 +3470,7 @@
         <v>53</v>
       </c>
       <c r="K62" t="n">
-        <v>15.78947368421053</v>
+        <v>0</v>
       </c>
       <c r="L62" t="n">
         <v>275.5</v>
@@ -3499,7 +3521,7 @@
         <v>53</v>
       </c>
       <c r="K63" t="n">
-        <v>15.78947368421053</v>
+        <v>-50</v>
       </c>
       <c r="L63" t="n">
         <v>275.5</v>
@@ -3550,7 +3572,7 @@
         <v>53</v>
       </c>
       <c r="K64" t="n">
-        <v>29.41176470588236</v>
+        <v>0</v>
       </c>
       <c r="L64" t="n">
         <v>275.3</v>
@@ -3601,7 +3623,7 @@
         <v>53</v>
       </c>
       <c r="K65" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L65" t="n">
         <v>275.3</v>
@@ -3652,7 +3674,7 @@
         <v>53</v>
       </c>
       <c r="K66" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L66" t="n">
         <v>275.3</v>
@@ -3703,7 +3725,7 @@
         <v>53</v>
       </c>
       <c r="K67" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L67" t="n">
         <v>275.3</v>
@@ -3754,7 +3776,7 @@
         <v>53</v>
       </c>
       <c r="K68" t="n">
-        <v>45.45454545454545</v>
+        <v>-100</v>
       </c>
       <c r="L68" t="n">
         <v>275.3</v>
@@ -3805,7 +3827,7 @@
         <v>53</v>
       </c>
       <c r="K69" t="n">
-        <v>14.28571428571428</v>
+        <v>-100</v>
       </c>
       <c r="L69" t="n">
         <v>275.2</v>
@@ -3856,7 +3878,7 @@
         <v>54</v>
       </c>
       <c r="K70" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L70" t="n">
         <v>275.2</v>
@@ -3907,7 +3929,7 @@
         <v>54</v>
       </c>
       <c r="K71" t="n">
-        <v>14.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="L71" t="n">
         <v>275.2</v>
@@ -4009,7 +4031,7 @@
         <v>56</v>
       </c>
       <c r="K73" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L73" t="n">
         <v>275.1</v>
@@ -4060,7 +4082,7 @@
         <v>56</v>
       </c>
       <c r="K74" t="n">
-        <v>-42.85714285714285</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L74" t="n">
         <v>275</v>
@@ -4111,7 +4133,7 @@
         <v>56</v>
       </c>
       <c r="K75" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L75" t="n">
         <v>274.9</v>
@@ -4162,7 +4184,7 @@
         <v>57</v>
       </c>
       <c r="K76" t="n">
-        <v>-33.33333333333333</v>
+        <v>-50</v>
       </c>
       <c r="L76" t="n">
         <v>274.7</v>
@@ -4213,7 +4235,7 @@
         <v>58</v>
       </c>
       <c r="K77" t="n">
-        <v>-14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L77" t="n">
         <v>274.6</v>
@@ -4264,7 +4286,7 @@
         <v>58</v>
       </c>
       <c r="K78" t="n">
-        <v>-14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L78" t="n">
         <v>274.5</v>
@@ -4315,7 +4337,7 @@
         <v>60</v>
       </c>
       <c r="K79" t="n">
-        <v>-50</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L79" t="n">
         <v>274.2</v>
@@ -4366,7 +4388,7 @@
         <v>62</v>
       </c>
       <c r="K80" t="n">
-        <v>-20</v>
+        <v>-25</v>
       </c>
       <c r="L80" t="n">
         <v>274</v>
@@ -4417,7 +4439,7 @@
         <v>63</v>
       </c>
       <c r="K81" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L81" t="n">
         <v>273.9</v>
@@ -4468,7 +4490,7 @@
         <v>64</v>
       </c>
       <c r="K82" t="n">
-        <v>9.090909090909092</v>
+        <v>25</v>
       </c>
       <c r="L82" t="n">
         <v>274</v>
@@ -4519,7 +4541,7 @@
         <v>64</v>
       </c>
       <c r="K83" t="n">
-        <v>9.090909090909092</v>
+        <v>25</v>
       </c>
       <c r="L83" t="n">
         <v>274.2</v>
@@ -4570,7 +4592,7 @@
         <v>65</v>
       </c>
       <c r="K84" t="n">
-        <v>16.66666666666666</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L84" t="n">
         <v>274.5</v>
@@ -4621,7 +4643,7 @@
         <v>66</v>
       </c>
       <c r="K85" t="n">
-        <v>23.07692307692308</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L85" t="n">
         <v>274.9</v>
@@ -4672,7 +4694,7 @@
         <v>66</v>
       </c>
       <c r="K86" t="n">
-        <v>23.07692307692308</v>
+        <v>50</v>
       </c>
       <c r="L86" t="n">
         <v>275.4</v>
@@ -4723,7 +4745,7 @@
         <v>67</v>
       </c>
       <c r="K87" t="n">
-        <v>28.57142857142857</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L87" t="n">
         <v>275.9</v>
@@ -4774,7 +4796,7 @@
         <v>68</v>
       </c>
       <c r="K88" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L88" t="n">
         <v>276.5</v>
@@ -4825,7 +4847,7 @@
         <v>69</v>
       </c>
       <c r="K89" t="n">
-        <v>37.5</v>
+        <v>100</v>
       </c>
       <c r="L89" t="n">
         <v>277.4</v>
@@ -4876,7 +4898,7 @@
         <v>69</v>
       </c>
       <c r="K90" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L90" t="n">
         <v>278.1</v>
@@ -4927,7 +4949,7 @@
         <v>70</v>
       </c>
       <c r="K91" t="n">
-        <v>37.5</v>
+        <v>100</v>
       </c>
       <c r="L91" t="n">
         <v>278.8</v>
@@ -4978,7 +5000,7 @@
         <v>70</v>
       </c>
       <c r="K92" t="n">
-        <v>46.66666666666666</v>
+        <v>100</v>
       </c>
       <c r="L92" t="n">
         <v>279.4</v>
@@ -5029,7 +5051,7 @@
         <v>71</v>
       </c>
       <c r="K93" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="L93" t="n">
         <v>280.1</v>
@@ -5080,7 +5102,7 @@
         <v>72</v>
       </c>
       <c r="K94" t="n">
-        <v>50</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L94" t="n">
         <v>280.6</v>
@@ -5131,7 +5153,7 @@
         <v>73</v>
       </c>
       <c r="K95" t="n">
-        <v>41.17647058823529</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L95" t="n">
         <v>280.9</v>
@@ -5182,7 +5204,7 @@
         <v>73</v>
       </c>
       <c r="K96" t="n">
-        <v>50</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L96" t="n">
         <v>281.2</v>
@@ -5233,7 +5255,7 @@
         <v>74</v>
       </c>
       <c r="K97" t="n">
-        <v>50</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L97" t="n">
         <v>281.5</v>
@@ -5284,7 +5306,7 @@
         <v>74</v>
       </c>
       <c r="K98" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L98" t="n">
         <v>281.7</v>
@@ -5335,7 +5357,7 @@
         <v>74</v>
       </c>
       <c r="K99" t="n">
-        <v>71.42857142857143</v>
+        <v>20</v>
       </c>
       <c r="L99" t="n">
         <v>281.8</v>
@@ -5386,7 +5408,7 @@
         <v>75</v>
       </c>
       <c r="K100" t="n">
-        <v>53.84615384615385</v>
+        <v>-20</v>
       </c>
       <c r="L100" t="n">
         <v>281.8</v>
@@ -5437,7 +5459,7 @@
         <v>75</v>
       </c>
       <c r="K101" t="n">
-        <v>50</v>
+        <v>-20</v>
       </c>
       <c r="L101" t="n">
         <v>281.7</v>
@@ -5488,7 +5510,7 @@
         <v>75</v>
       </c>
       <c r="K102" t="n">
-        <v>45.45454545454545</v>
+        <v>-50</v>
       </c>
       <c r="L102" t="n">
         <v>281.6</v>
@@ -5539,7 +5561,7 @@
         <v>77</v>
       </c>
       <c r="K103" t="n">
-        <v>23.07692307692308</v>
+        <v>-60</v>
       </c>
       <c r="L103" t="n">
         <v>281.2</v>
@@ -5590,7 +5612,7 @@
         <v>80</v>
       </c>
       <c r="K104" t="n">
-        <v>-6.666666666666667</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L104" t="n">
         <v>280.6</v>
@@ -5641,7 +5663,7 @@
         <v>82</v>
       </c>
       <c r="K105" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L105" t="n">
         <v>280.3</v>
@@ -5692,7 +5714,7 @@
         <v>83</v>
       </c>
       <c r="K106" t="n">
-        <v>-5.88235294117647</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L106" t="n">
         <v>279.9</v>
@@ -5743,7 +5765,7 @@
         <v>84</v>
       </c>
       <c r="K107" t="n">
-        <v>-5.88235294117647</v>
+        <v>-40</v>
       </c>
       <c r="L107" t="n">
         <v>279.5</v>
@@ -5794,7 +5816,7 @@
         <v>84</v>
       </c>
       <c r="K108" t="n">
-        <v>-12.5</v>
+        <v>-40</v>
       </c>
       <c r="L108" t="n">
         <v>279.1</v>
@@ -5845,7 +5867,7 @@
         <v>84</v>
       </c>
       <c r="K109" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L109" t="n">
         <v>278.7</v>
@@ -5896,7 +5918,7 @@
         <v>84</v>
       </c>
       <c r="K110" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L110" t="n">
         <v>278.4</v>
@@ -5947,7 +5969,7 @@
         <v>84</v>
       </c>
       <c r="K111" t="n">
-        <v>-28.57142857142857</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L111" t="n">
         <v>278.1</v>
@@ -5998,7 +6020,7 @@
         <v>85</v>
       </c>
       <c r="K112" t="n">
-        <v>-33.33333333333333</v>
+        <v>-25</v>
       </c>
       <c r="L112" t="n">
         <v>277.7</v>
@@ -6049,7 +6071,7 @@
         <v>85</v>
       </c>
       <c r="K113" t="n">
-        <v>-42.85714285714285</v>
+        <v>20</v>
       </c>
       <c r="L113" t="n">
         <v>277.5</v>
@@ -6100,7 +6122,7 @@
         <v>87</v>
       </c>
       <c r="K114" t="n">
-        <v>-20</v>
+        <v>20</v>
       </c>
       <c r="L114" t="n">
         <v>277.8</v>
@@ -6151,7 +6173,7 @@
         <v>89</v>
       </c>
       <c r="K115" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="L115" t="n">
         <v>277.7</v>
@@ -6202,7 +6224,7 @@
         <v>89</v>
       </c>
       <c r="K116" t="n">
-        <v>-25</v>
+        <v>-20</v>
       </c>
       <c r="L116" t="n">
         <v>277.7</v>
@@ -6253,7 +6275,7 @@
         <v>90</v>
       </c>
       <c r="K117" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="L117" t="n">
         <v>277.7</v>
@@ -6304,7 +6326,7 @@
         <v>90</v>
       </c>
       <c r="K118" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="L118" t="n">
         <v>277.7</v>
@@ -6355,7 +6377,7 @@
         <v>90</v>
       </c>
       <c r="K119" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="L119" t="n">
         <v>277.7</v>
@@ -6406,7 +6428,7 @@
         <v>90</v>
       </c>
       <c r="K120" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L120" t="n">
         <v>277.7</v>
@@ -6457,7 +6479,7 @@
         <v>91</v>
       </c>
       <c r="K121" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="L121" t="n">
         <v>277.6</v>
@@ -6508,7 +6530,7 @@
         <v>91</v>
       </c>
       <c r="K122" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="L122" t="n">
         <v>277.6</v>
@@ -6559,7 +6581,7 @@
         <v>91</v>
       </c>
       <c r="K123" t="n">
-        <v>-14.28571428571428</v>
+        <v>-50</v>
       </c>
       <c r="L123" t="n">
         <v>277.6</v>
@@ -6610,7 +6632,7 @@
         <v>91</v>
       </c>
       <c r="K124" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L124" t="n">
         <v>277.4</v>
@@ -6661,7 +6683,7 @@
         <v>91</v>
       </c>
       <c r="K125" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L125" t="n">
         <v>277.4</v>
@@ -6712,7 +6734,7 @@
         <v>91</v>
       </c>
       <c r="K126" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L126" t="n">
         <v>277.4</v>
@@ -6916,7 +6938,7 @@
         <v>92</v>
       </c>
       <c r="K130" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L130" t="n">
         <v>277.4</v>
@@ -6967,7 +6989,7 @@
         <v>93</v>
       </c>
       <c r="K131" t="n">
-        <v>11.11111111111111</v>
+        <v>100</v>
       </c>
       <c r="L131" t="n">
         <v>277.6</v>
@@ -7018,7 +7040,7 @@
         <v>95</v>
       </c>
       <c r="K132" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="L132" t="n">
         <v>278</v>
@@ -7069,7 +7091,7 @@
         <v>96</v>
       </c>
       <c r="K133" t="n">
-        <v>45.45454545454545</v>
+        <v>100</v>
       </c>
       <c r="L133" t="n">
         <v>278.5</v>
@@ -7120,7 +7142,7 @@
         <v>97</v>
       </c>
       <c r="K134" t="n">
-        <v>20</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L134" t="n">
         <v>278.9</v>
@@ -7171,7 +7193,7 @@
         <v>97</v>
       </c>
       <c r="K135" t="n">
-        <v>50</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L135" t="n">
         <v>279.3</v>
@@ -7222,7 +7244,7 @@
         <v>98</v>
       </c>
       <c r="K136" t="n">
-        <v>55.55555555555556</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L136" t="n">
         <v>279.8</v>
@@ -7273,7 +7295,7 @@
         <v>99</v>
       </c>
       <c r="K137" t="n">
-        <v>55.55555555555556</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L137" t="n">
         <v>280.3</v>
@@ -7324,7 +7346,7 @@
         <v>100</v>
       </c>
       <c r="K138" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="L138" t="n">
         <v>280.9</v>
@@ -7375,7 +7397,7 @@
         <v>100</v>
       </c>
       <c r="K139" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="L139" t="n">
         <v>281.5</v>
@@ -7426,7 +7448,7 @@
         <v>100</v>
       </c>
       <c r="K140" t="n">
-        <v>60</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L140" t="n">
         <v>282.1</v>
@@ -7477,7 +7499,7 @@
         <v>100</v>
       </c>
       <c r="K141" t="n">
-        <v>77.77777777777779</v>
+        <v>60</v>
       </c>
       <c r="L141" t="n">
         <v>282.6</v>
@@ -7528,7 +7550,7 @@
         <v>100</v>
       </c>
       <c r="K142" t="n">
-        <v>77.77777777777779</v>
+        <v>50</v>
       </c>
       <c r="L142" t="n">
         <v>282.9</v>
@@ -7579,7 +7601,7 @@
         <v>100</v>
       </c>
       <c r="K143" t="n">
-        <v>77.77777777777779</v>
+        <v>100</v>
       </c>
       <c r="L143" t="n">
         <v>283.1</v>
@@ -7630,7 +7652,7 @@
         <v>100</v>
       </c>
       <c r="K144" t="n">
-        <v>77.77777777777779</v>
+        <v>100</v>
       </c>
       <c r="L144" t="n">
         <v>283.4</v>
@@ -7681,7 +7703,7 @@
         <v>100</v>
       </c>
       <c r="K145" t="n">
-        <v>77.77777777777779</v>
+        <v>100</v>
       </c>
       <c r="L145" t="n">
         <v>283.7</v>
@@ -7732,7 +7754,7 @@
         <v>100</v>
       </c>
       <c r="K146" t="n">
-        <v>77.77777777777779</v>
+        <v>100</v>
       </c>
       <c r="L146" t="n">
         <v>283.9</v>
@@ -7782,9 +7804,7 @@
       <c r="J147" t="n">
         <v>100</v>
       </c>
-      <c r="K147" t="n">
-        <v>75</v>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>284</v>
       </c>
@@ -7833,9 +7853,7 @@
       <c r="J148" t="n">
         <v>100</v>
       </c>
-      <c r="K148" t="n">
-        <v>75</v>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>284</v>
       </c>
@@ -7884,9 +7902,7 @@
       <c r="J149" t="n">
         <v>100</v>
       </c>
-      <c r="K149" t="n">
-        <v>75</v>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>284</v>
       </c>
@@ -7935,9 +7951,7 @@
       <c r="J150" t="n">
         <v>100</v>
       </c>
-      <c r="K150" t="n">
-        <v>75</v>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>284</v>
       </c>
@@ -7987,7 +8001,7 @@
         <v>102</v>
       </c>
       <c r="K151" t="n">
-        <v>77.77777777777779</v>
+        <v>100</v>
       </c>
       <c r="L151" t="n">
         <v>284.2</v>
@@ -8038,7 +8052,7 @@
         <v>102</v>
       </c>
       <c r="K152" t="n">
-        <v>71.42857142857143</v>
+        <v>100</v>
       </c>
       <c r="L152" t="n">
         <v>284.4</v>
@@ -8089,7 +8103,7 @@
         <v>104</v>
       </c>
       <c r="K153" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="L153" t="n">
         <v>284.8</v>
@@ -8140,7 +8154,7 @@
         <v>105</v>
       </c>
       <c r="K154" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="L154" t="n">
         <v>285.1</v>
@@ -8191,7 +8205,7 @@
         <v>105</v>
       </c>
       <c r="K155" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="L155" t="n">
         <v>285.4</v>
@@ -8242,7 +8256,7 @@
         <v>105</v>
       </c>
       <c r="K156" t="n">
-        <v>71.42857142857143</v>
+        <v>60</v>
       </c>
       <c r="L156" t="n">
         <v>285.7</v>
@@ -8293,7 +8307,7 @@
         <v>105</v>
       </c>
       <c r="K157" t="n">
-        <v>66.66666666666666</v>
+        <v>60</v>
       </c>
       <c r="L157" t="n">
         <v>286</v>
@@ -8446,7 +8460,7 @@
         <v>105</v>
       </c>
       <c r="K160" t="n">
-        <v>60</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L160" t="n">
         <v>286.9</v>
@@ -8497,7 +8511,7 @@
         <v>106</v>
       </c>
       <c r="K161" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L161" t="n">
         <v>286.9</v>
@@ -8548,7 +8562,7 @@
         <v>107</v>
       </c>
       <c r="K162" t="n">
-        <v>42.85714285714285</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L162" t="n">
         <v>287</v>
@@ -8599,7 +8613,7 @@
         <v>107</v>
       </c>
       <c r="K163" t="n">
-        <v>42.85714285714285</v>
+        <v>0</v>
       </c>
       <c r="L163" t="n">
         <v>286.9</v>
@@ -8650,7 +8664,7 @@
         <v>112</v>
       </c>
       <c r="K164" t="n">
-        <v>-16.66666666666666</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L164" t="n">
         <v>286.4</v>
@@ -8701,7 +8715,7 @@
         <v>115</v>
       </c>
       <c r="K165" t="n">
-        <v>6.666666666666667</v>
+        <v>-20</v>
       </c>
       <c r="L165" t="n">
         <v>286.2</v>
@@ -8752,7 +8766,7 @@
         <v>115</v>
       </c>
       <c r="K166" t="n">
-        <v>6.666666666666667</v>
+        <v>-20</v>
       </c>
       <c r="L166" t="n">
         <v>286</v>
@@ -8803,7 +8817,7 @@
         <v>116</v>
       </c>
       <c r="K167" t="n">
-        <v>0</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L167" t="n">
         <v>285.7</v>
@@ -8854,7 +8868,7 @@
         <v>118</v>
       </c>
       <c r="K168" t="n">
-        <v>-11.11111111111111</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L168" t="n">
         <v>285.2</v>
@@ -8905,7 +8919,7 @@
         <v>118</v>
       </c>
       <c r="K169" t="n">
-        <v>-11.11111111111111</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L169" t="n">
         <v>284.7</v>
@@ -8956,7 +8970,7 @@
         <v>118</v>
       </c>
       <c r="K170" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L170" t="n">
         <v>284.2</v>
@@ -9007,7 +9021,7 @@
         <v>118</v>
       </c>
       <c r="K171" t="n">
-        <v>-25</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L171" t="n">
         <v>283.8</v>
@@ -9058,7 +9072,7 @@
         <v>118</v>
       </c>
       <c r="K172" t="n">
-        <v>-25</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L172" t="n">
         <v>283.3</v>
@@ -9109,7 +9123,7 @@
         <v>118</v>
       </c>
       <c r="K173" t="n">
-        <v>-42.85714285714285</v>
+        <v>0</v>
       </c>
       <c r="L173" t="n">
         <v>282.8</v>
@@ -9160,7 +9174,7 @@
         <v>118</v>
       </c>
       <c r="K174" t="n">
-        <v>-38.46153846153847</v>
+        <v>-100</v>
       </c>
       <c r="L174" t="n">
         <v>282.8</v>
@@ -9211,7 +9225,7 @@
         <v>118</v>
       </c>
       <c r="K175" t="n">
-        <v>-38.46153846153847</v>
+        <v>-100</v>
       </c>
       <c r="L175" t="n">
         <v>282.5</v>
@@ -9262,7 +9276,7 @@
         <v>118</v>
       </c>
       <c r="K176" t="n">
-        <v>-38.46153846153847</v>
+        <v>-100</v>
       </c>
       <c r="L176" t="n">
         <v>282.2</v>
@@ -9313,7 +9327,7 @@
         <v>120</v>
       </c>
       <c r="K177" t="n">
-        <v>-20</v>
+        <v>100</v>
       </c>
       <c r="L177" t="n">
         <v>282.2</v>
@@ -9364,7 +9378,7 @@
         <v>121</v>
       </c>
       <c r="K178" t="n">
-        <v>-25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L178" t="n">
         <v>282.3</v>
@@ -9415,7 +9429,7 @@
         <v>122</v>
       </c>
       <c r="K179" t="n">
-        <v>-17.64705882352941</v>
+        <v>50</v>
       </c>
       <c r="L179" t="n">
         <v>282.5</v>
@@ -9466,7 +9480,7 @@
         <v>123</v>
       </c>
       <c r="K180" t="n">
-        <v>-22.22222222222222</v>
+        <v>20</v>
       </c>
       <c r="L180" t="n">
         <v>282.6</v>
@@ -9517,7 +9531,7 @@
         <v>123</v>
       </c>
       <c r="K181" t="n">
-        <v>-17.64705882352941</v>
+        <v>20</v>
       </c>
       <c r="L181" t="n">
         <v>282.7</v>
@@ -9568,7 +9582,7 @@
         <v>126</v>
       </c>
       <c r="K182" t="n">
-        <v>-36.84210526315789</v>
+        <v>-25</v>
       </c>
       <c r="L182" t="n">
         <v>282.5</v>
@@ -9619,7 +9633,7 @@
         <v>126</v>
       </c>
       <c r="K183" t="n">
-        <v>-36.84210526315789</v>
+        <v>-25</v>
       </c>
       <c r="L183" t="n">
         <v>282.3</v>
@@ -9670,7 +9684,7 @@
         <v>126</v>
       </c>
       <c r="K184" t="n">
-        <v>-14.28571428571428</v>
+        <v>-25</v>
       </c>
       <c r="L184" t="n">
         <v>282.1</v>
@@ -9721,7 +9735,7 @@
         <v>127</v>
       </c>
       <c r="K185" t="n">
-        <v>-50</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L185" t="n">
         <v>281.8</v>
@@ -9772,7 +9786,7 @@
         <v>127</v>
       </c>
       <c r="K186" t="n">
-        <v>-50</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L186" t="n">
         <v>281.5</v>
@@ -9823,7 +9837,7 @@
         <v>129</v>
       </c>
       <c r="K187" t="n">
-        <v>-23.07692307692308</v>
+        <v>-25</v>
       </c>
       <c r="L187" t="n">
         <v>281.2</v>
@@ -9874,7 +9888,7 @@
         <v>130</v>
       </c>
       <c r="K188" t="n">
-        <v>-16.66666666666666</v>
+        <v>-50</v>
       </c>
       <c r="L188" t="n">
         <v>280.9</v>
@@ -9925,7 +9939,7 @@
         <v>131</v>
       </c>
       <c r="K189" t="n">
-        <v>-7.692307692307693</v>
+        <v>-25</v>
       </c>
       <c r="L189" t="n">
         <v>280.6</v>
@@ -9976,7 +9990,7 @@
         <v>132</v>
       </c>
       <c r="K190" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L190" t="n">
         <v>280.3</v>
@@ -10027,7 +10041,7 @@
         <v>133</v>
       </c>
       <c r="K191" t="n">
-        <v>-20</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L191" t="n">
         <v>279.9</v>
@@ -10078,7 +10092,7 @@
         <v>135</v>
       </c>
       <c r="K192" t="n">
-        <v>-5.88235294117647</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L192" t="n">
         <v>280</v>
@@ -10129,7 +10143,7 @@
         <v>137</v>
       </c>
       <c r="K193" t="n">
-        <v>-15.78947368421053</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L193" t="n">
         <v>279.9</v>
@@ -10180,7 +10194,7 @@
         <v>139</v>
       </c>
       <c r="K194" t="n">
-        <v>-23.80952380952381</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L194" t="n">
         <v>279.6</v>
@@ -10231,7 +10245,7 @@
         <v>140</v>
       </c>
       <c r="K195" t="n">
-        <v>-27.27272727272727</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L195" t="n">
         <v>279.3</v>
@@ -10282,7 +10296,7 @@
         <v>141</v>
       </c>
       <c r="K196" t="n">
-        <v>-21.73913043478261</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L196" t="n">
         <v>279.1</v>
@@ -10333,7 +10347,7 @@
         <v>141</v>
       </c>
       <c r="K197" t="n">
-        <v>-33.33333333333333</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L197" t="n">
         <v>278.7</v>
@@ -10384,7 +10398,7 @@
         <v>141</v>
       </c>
       <c r="K198" t="n">
-        <v>-30</v>
+        <v>-40</v>
       </c>
       <c r="L198" t="n">
         <v>278.4</v>
@@ -10435,7 +10449,7 @@
         <v>141</v>
       </c>
       <c r="K199" t="n">
-        <v>-36.84210526315789</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L199" t="n">
         <v>278</v>
@@ -10486,7 +10500,7 @@
         <v>143</v>
       </c>
       <c r="K200" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L200" t="n">
         <v>277.9</v>
@@ -10537,7 +10551,7 @@
         <v>143</v>
       </c>
       <c r="K201" t="n">
-        <v>-20</v>
+        <v>-25</v>
       </c>
       <c r="L201" t="n">
         <v>277.9</v>
@@ -10588,7 +10602,7 @@
         <v>143</v>
       </c>
       <c r="K202" t="n">
-        <v>-5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L202" t="n">
         <v>277.7</v>
@@ -10639,7 +10653,7 @@
         <v>145</v>
       </c>
       <c r="K203" t="n">
-        <v>5.263157894736842</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L203" t="n">
         <v>277.9</v>
@@ -10690,7 +10704,7 @@
         <v>146</v>
       </c>
       <c r="K204" t="n">
-        <v>0</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L204" t="n">
         <v>278.2</v>
@@ -10741,7 +10755,7 @@
         <v>147</v>
       </c>
       <c r="K205" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L205" t="n">
         <v>278.5</v>
@@ -10792,7 +10806,7 @@
         <v>148</v>
       </c>
       <c r="K206" t="n">
-        <v>4.761904761904762</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L206" t="n">
         <v>278.8</v>
@@ -10843,7 +10857,7 @@
         <v>148</v>
       </c>
       <c r="K207" t="n">
-        <v>-5.263157894736842</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L207" t="n">
         <v>279.1</v>
@@ -10894,7 +10908,7 @@
         <v>149</v>
       </c>
       <c r="K208" t="n">
-        <v>5.263157894736842</v>
+        <v>50</v>
       </c>
       <c r="L208" t="n">
         <v>279.5</v>
@@ -10945,7 +10959,7 @@
         <v>150</v>
       </c>
       <c r="K209" t="n">
-        <v>5.263157894736842</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L209" t="n">
         <v>280</v>
@@ -10996,7 +11010,7 @@
         <v>151</v>
       </c>
       <c r="K210" t="n">
-        <v>15.78947368421053</v>
+        <v>50</v>
       </c>
       <c r="L210" t="n">
         <v>280.4</v>
@@ -11047,7 +11061,7 @@
         <v>151</v>
       </c>
       <c r="K211" t="n">
-        <v>22.22222222222222</v>
+        <v>50</v>
       </c>
       <c r="L211" t="n">
         <v>280.8</v>
@@ -11098,7 +11112,7 @@
         <v>153</v>
       </c>
       <c r="K212" t="n">
-        <v>22.22222222222222</v>
+        <v>50</v>
       </c>
       <c r="L212" t="n">
         <v>281.4</v>
@@ -11149,7 +11163,7 @@
         <v>154</v>
       </c>
       <c r="K213" t="n">
-        <v>41.17647058823529</v>
+        <v>75</v>
       </c>
       <c r="L213" t="n">
         <v>281.9</v>
@@ -11200,7 +11214,7 @@
         <v>154</v>
       </c>
       <c r="K214" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="L214" t="n">
         <v>282.5</v>
@@ -11302,7 +11316,7 @@
         <v>159</v>
       </c>
       <c r="K216" t="n">
-        <v>55.55555555555556</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L216" t="n">
         <v>283.7</v>
@@ -11353,7 +11367,7 @@
         <v>160</v>
       </c>
       <c r="K217" t="n">
-        <v>47.36842105263158</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L217" t="n">
         <v>284.3</v>
@@ -11404,7 +11418,7 @@
         <v>161</v>
       </c>
       <c r="K218" t="n">
-        <v>40</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L218" t="n">
         <v>284.7</v>
@@ -11455,7 +11469,7 @@
         <v>161</v>
       </c>
       <c r="K219" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L219" t="n">
         <v>285</v>
@@ -11506,7 +11520,7 @@
         <v>161</v>
       </c>
       <c r="K220" t="n">
-        <v>33.33333333333333</v>
+        <v>20</v>
       </c>
       <c r="L220" t="n">
         <v>285.2</v>
@@ -11557,7 +11571,7 @@
         <v>162</v>
       </c>
       <c r="K221" t="n">
-        <v>36.84210526315789</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L221" t="n">
         <v>285.5</v>
@@ -11608,7 +11622,7 @@
         <v>163</v>
       </c>
       <c r="K222" t="n">
-        <v>30</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L222" t="n">
         <v>285.5</v>
@@ -11659,7 +11673,7 @@
         <v>164</v>
       </c>
       <c r="K223" t="n">
-        <v>15.78947368421053</v>
+        <v>-20</v>
       </c>
       <c r="L223" t="n">
         <v>285.3</v>
@@ -11710,7 +11724,7 @@
         <v>164</v>
       </c>
       <c r="K224" t="n">
-        <v>22.22222222222222</v>
+        <v>0</v>
       </c>
       <c r="L224" t="n">
         <v>285.1</v>
@@ -11761,7 +11775,7 @@
         <v>164</v>
       </c>
       <c r="K225" t="n">
-        <v>29.41176470588236</v>
+        <v>-60</v>
       </c>
       <c r="L225" t="n">
         <v>285.1</v>
@@ -11812,7 +11826,7 @@
         <v>165</v>
       </c>
       <c r="K226" t="n">
-        <v>29.41176470588236</v>
+        <v>-20</v>
       </c>
       <c r="L226" t="n">
         <v>284.9</v>
@@ -11863,7 +11877,7 @@
         <v>166</v>
       </c>
       <c r="K227" t="n">
-        <v>33.33333333333333</v>
+        <v>20</v>
       </c>
       <c r="L227" t="n">
         <v>284.9</v>
@@ -11914,7 +11928,7 @@
         <v>166</v>
       </c>
       <c r="K228" t="n">
-        <v>29.41176470588236</v>
+        <v>20</v>
       </c>
       <c r="L228" t="n">
         <v>285</v>
@@ -11965,7 +11979,7 @@
         <v>167</v>
       </c>
       <c r="K229" t="n">
-        <v>17.64705882352941</v>
+        <v>0</v>
       </c>
       <c r="L229" t="n">
         <v>285</v>
@@ -12016,7 +12030,7 @@
         <v>168</v>
       </c>
       <c r="K230" t="n">
-        <v>17.64705882352941</v>
+        <v>0</v>
       </c>
       <c r="L230" t="n">
         <v>285.1</v>
@@ -12067,7 +12081,7 @@
         <v>169</v>
       </c>
       <c r="K231" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L231" t="n">
         <v>285</v>
@@ -12118,7 +12132,7 @@
         <v>170</v>
       </c>
       <c r="K232" t="n">
-        <v>5.88235294117647</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L232" t="n">
         <v>285.1</v>
@@ -12169,7 +12183,7 @@
         <v>172</v>
       </c>
       <c r="K233" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L233" t="n">
         <v>285.1</v>
@@ -12220,7 +12234,7 @@
         <v>174</v>
       </c>
       <c r="K234" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L234" t="n">
         <v>285.3</v>
@@ -12271,7 +12285,7 @@
         <v>175</v>
       </c>
       <c r="K235" t="n">
-        <v>5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L235" t="n">
         <v>285.4</v>
@@ -12322,7 +12336,7 @@
         <v>175</v>
       </c>
       <c r="K236" t="n">
-        <v>-12.5</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L236" t="n">
         <v>285.4</v>
@@ -12373,7 +12387,7 @@
         <v>175</v>
       </c>
       <c r="K237" t="n">
-        <v>-6.666666666666667</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L237" t="n">
         <v>285.3</v>
@@ -12475,7 +12489,7 @@
         <v>175</v>
       </c>
       <c r="K239" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L239" t="n">
         <v>285.2</v>
@@ -12577,7 +12591,7 @@
         <v>175</v>
       </c>
       <c r="K241" t="n">
-        <v>-7.692307692307693</v>
+        <v>-20</v>
       </c>
       <c r="L241" t="n">
         <v>285.1</v>
@@ -12628,7 +12642,7 @@
         <v>176</v>
       </c>
       <c r="K242" t="n">
-        <v>7.692307692307693</v>
+        <v>50</v>
       </c>
       <c r="L242" t="n">
         <v>285.1</v>
@@ -12679,7 +12693,7 @@
         <v>176</v>
       </c>
       <c r="K243" t="n">
-        <v>16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L243" t="n">
         <v>285.3</v>
@@ -12730,7 +12744,7 @@
         <v>176</v>
       </c>
       <c r="K244" t="n">
-        <v>16.66666666666666</v>
+        <v>100</v>
       </c>
       <c r="L244" t="n">
         <v>285.3</v>
@@ -12781,7 +12795,7 @@
         <v>177</v>
       </c>
       <c r="K245" t="n">
-        <v>23.07692307692308</v>
+        <v>100</v>
       </c>
       <c r="L245" t="n">
         <v>285.5</v>
@@ -12832,7 +12846,7 @@
         <v>178</v>
       </c>
       <c r="K246" t="n">
-        <v>7.692307692307693</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L246" t="n">
         <v>285.6</v>
@@ -12883,7 +12897,7 @@
         <v>179</v>
       </c>
       <c r="K247" t="n">
-        <v>7.692307692307693</v>
+        <v>50</v>
       </c>
       <c r="L247" t="n">
         <v>285.8</v>
@@ -12934,7 +12948,7 @@
         <v>180</v>
       </c>
       <c r="K248" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L248" t="n">
         <v>285.9</v>
@@ -12985,7 +12999,7 @@
         <v>181</v>
       </c>
       <c r="K249" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L249" t="n">
         <v>286.1</v>
@@ -13036,7 +13050,7 @@
         <v>181</v>
       </c>
       <c r="K250" t="n">
-        <v>7.692307692307693</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L250" t="n">
         <v>286.3</v>
@@ -13087,7 +13101,7 @@
         <v>181</v>
       </c>
       <c r="K251" t="n">
-        <v>16.66666666666666</v>
+        <v>20</v>
       </c>
       <c r="L251" t="n">
         <v>286.5</v>
@@ -13138,7 +13152,7 @@
         <v>181</v>
       </c>
       <c r="K252" t="n">
-        <v>9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L252" t="n">
         <v>286.6</v>
@@ -13189,7 +13203,7 @@
         <v>182</v>
       </c>
       <c r="K253" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L253" t="n">
         <v>286.6</v>
@@ -13240,7 +13254,7 @@
         <v>182</v>
       </c>
       <c r="K254" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L254" t="n">
         <v>286.6</v>
@@ -13291,7 +13305,7 @@
         <v>183</v>
       </c>
       <c r="K255" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L255" t="n">
         <v>286.4</v>
@@ -13342,7 +13356,7 @@
         <v>184</v>
       </c>
       <c r="K256" t="n">
-        <v>11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L256" t="n">
         <v>286.4</v>
@@ -13393,7 +13407,7 @@
         <v>185</v>
       </c>
       <c r="K257" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L257" t="n">
         <v>286.2</v>
@@ -13444,7 +13458,7 @@
         <v>185</v>
       </c>
       <c r="K258" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="L258" t="n">
         <v>286.1</v>
@@ -13495,7 +13509,7 @@
         <v>185</v>
       </c>
       <c r="K259" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="L259" t="n">
         <v>285.9</v>
@@ -13546,7 +13560,7 @@
         <v>185</v>
       </c>
       <c r="K260" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="L260" t="n">
         <v>285.7</v>
@@ -13597,7 +13611,7 @@
         <v>187</v>
       </c>
       <c r="K261" t="n">
-        <v>16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L261" t="n">
         <v>285.7</v>
@@ -13699,7 +13713,7 @@
         <v>189</v>
       </c>
       <c r="K263" t="n">
-        <v>-7.692307692307693</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L263" t="n">
         <v>285.5</v>
@@ -13750,7 +13764,7 @@
         <v>189</v>
       </c>
       <c r="K264" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L264" t="n">
         <v>285.4</v>
@@ -13801,7 +13815,7 @@
         <v>190</v>
       </c>
       <c r="K265" t="n">
-        <v>-23.07692307692308</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L265" t="n">
         <v>285.3</v>
@@ -13852,7 +13866,7 @@
         <v>190</v>
       </c>
       <c r="K266" t="n">
-        <v>-16.66666666666666</v>
+        <v>-20</v>
       </c>
       <c r="L266" t="n">
         <v>285.1</v>
@@ -13903,7 +13917,7 @@
         <v>190</v>
       </c>
       <c r="K267" t="n">
-        <v>-27.27272727272727</v>
+        <v>-20</v>
       </c>
       <c r="L267" t="n">
         <v>285</v>
@@ -13954,7 +13968,7 @@
         <v>191</v>
       </c>
       <c r="K268" t="n">
-        <v>-27.27272727272727</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L268" t="n">
         <v>284.8</v>
@@ -14005,7 +14019,7 @@
         <v>193</v>
       </c>
       <c r="K269" t="n">
-        <v>-16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L269" t="n">
         <v>284.8</v>
@@ -14056,7 +14070,7 @@
         <v>193</v>
       </c>
       <c r="K270" t="n">
-        <v>-16.66666666666666</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L270" t="n">
         <v>284.8</v>
@@ -14107,7 +14121,7 @@
         <v>193</v>
       </c>
       <c r="K271" t="n">
-        <v>-16.66666666666666</v>
+        <v>-20</v>
       </c>
       <c r="L271" t="n">
         <v>284.6</v>
@@ -14158,7 +14172,7 @@
         <v>193</v>
       </c>
       <c r="K272" t="n">
-        <v>-16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L272" t="n">
         <v>284.5</v>
@@ -14209,7 +14223,7 @@
         <v>193</v>
       </c>
       <c r="K273" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L273" t="n">
         <v>284.5</v>
@@ -14260,7 +14274,7 @@
         <v>193</v>
       </c>
       <c r="K274" t="n">
-        <v>-9.090909090909092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L274" t="n">
         <v>284.5</v>
@@ -14311,7 +14325,7 @@
         <v>194</v>
       </c>
       <c r="K275" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L275" t="n">
         <v>284.5</v>
@@ -14362,7 +14376,7 @@
         <v>194</v>
       </c>
       <c r="K276" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L276" t="n">
         <v>284.5</v>

--- a/BackTest/2019-10-08 BackTest ZRX.xlsx
+++ b/BackTest/2019-10-08 BackTest ZRX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S276"/>
+  <dimension ref="A1:M255"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,60 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>closegap_abs_cumsum</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>CMO</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>MA5</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -483,17 +453,17 @@
       <c r="H2" t="n">
         <v>1</v>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>270</v>
+      </c>
+      <c r="K2" t="n">
+        <v>270</v>
+      </c>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -523,24 +493,20 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="n">
+        <v>269</v>
+      </c>
+      <c r="K3" t="n">
         <v>270</v>
       </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="n">
-        <v>270</v>
-      </c>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -567,29 +533,23 @@
         <v>265.4166666666667</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr">
+        <v>268</v>
+      </c>
+      <c r="K4" t="n">
+        <v>270</v>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
-          <t>capturing..</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="Q4" t="n">
-        <v>270</v>
-      </c>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -616,29 +576,19 @@
         <v>265.45</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
+        <v>270</v>
+      </c>
+      <c r="K5" t="n">
+        <v>270</v>
+      </c>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q5" t="n">
-        <v>270</v>
-      </c>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -665,29 +615,23 @@
         <v>265.4666666666666</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr">
+        <v>269</v>
+      </c>
+      <c r="K6" t="n">
+        <v>270</v>
+      </c>
+      <c r="L6" t="inlineStr">
         <is>
-          <t>capturing..</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="Q6" t="n">
-        <v>270</v>
-      </c>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -714,29 +658,23 @@
         <v>265.5</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr">
+        <v>269</v>
+      </c>
+      <c r="K7" t="n">
+        <v>270</v>
+      </c>
+      <c r="L7" t="inlineStr">
         <is>
-          <t>capturing..</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="Q7" t="n">
-        <v>270</v>
-      </c>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,29 +701,19 @@
         <v>265.55</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
+        <v>270</v>
+      </c>
+      <c r="K8" t="n">
+        <v>270</v>
+      </c>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q8" t="n">
-        <v>270</v>
-      </c>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -812,29 +740,23 @@
         <v>265.6</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>6</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr">
+        <v>270</v>
+      </c>
+      <c r="K9" t="n">
+        <v>270</v>
+      </c>
+      <c r="L9" t="inlineStr">
         <is>
-          <t>capturing..</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="Q9" t="n">
-        <v>270</v>
-      </c>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -866,24 +788,16 @@
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>6</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr">
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>270</v>
+      </c>
+      <c r="L10" t="inlineStr">
         <is>
-          <t>capturing..</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="Q10" t="n">
-        <v>270</v>
-      </c>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -913,28 +827,12 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>269.6</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q11" t="n">
-        <v>270</v>
-      </c>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -966,28 +864,10 @@
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>8</v>
-      </c>
-      <c r="K12" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L12" t="n">
-        <v>269.6</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q12" t="n">
-        <v>270</v>
-      </c>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1017,24 +897,12 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>9</v>
-      </c>
-      <c r="K13" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L13" t="n">
-        <v>269.8</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1064,24 +932,12 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>9</v>
-      </c>
-      <c r="K14" t="n">
-        <v>20</v>
-      </c>
-      <c r="L14" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1111,24 +967,12 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>9</v>
-      </c>
-      <c r="K15" t="n">
-        <v>50</v>
-      </c>
-      <c r="L15" t="n">
-        <v>270.2</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1158,24 +1002,12 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>9</v>
-      </c>
-      <c r="K16" t="n">
-        <v>50</v>
-      </c>
-      <c r="L16" t="n">
-        <v>270.4</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1205,24 +1037,12 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>9</v>
-      </c>
-      <c r="K17" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L17" t="n">
-        <v>270.6</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1252,24 +1072,12 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
-      </c>
-      <c r="J18" t="n">
-        <v>10</v>
-      </c>
-      <c r="K18" t="n">
-        <v>50</v>
-      </c>
-      <c r="L18" t="n">
-        <v>270.8</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1299,24 +1107,12 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
-      </c>
-      <c r="J19" t="n">
-        <v>10</v>
-      </c>
-      <c r="K19" t="n">
-        <v>50</v>
-      </c>
-      <c r="L19" t="n">
-        <v>271</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1346,24 +1142,12 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="n">
-        <v>11</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>271.1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,26 +1177,12 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
-      </c>
-      <c r="J21" t="n">
-        <v>13</v>
-      </c>
-      <c r="K21" t="n">
-        <v>60</v>
-      </c>
-      <c r="L21" t="n">
-        <v>271.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>270.45</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1444,24 +1214,10 @@
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>16</v>
-      </c>
-      <c r="K22" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L22" t="n">
-        <v>271.3</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>270.45</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1491,26 +1247,12 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J23" t="n">
-        <v>17</v>
-      </c>
-      <c r="K23" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L23" t="n">
-        <v>271.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>270.45</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,26 +1282,12 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J24" t="n">
-        <v>18</v>
-      </c>
-      <c r="K24" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L24" t="n">
-        <v>270.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>270.45</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1589,26 +1317,12 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J25" t="n">
-        <v>18</v>
-      </c>
-      <c r="K25" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L25" t="n">
-        <v>270.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>270.35</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,26 +1352,12 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J26" t="n">
-        <v>19</v>
-      </c>
-      <c r="K26" t="n">
-        <v>-40</v>
-      </c>
-      <c r="L26" t="n">
-        <v>270.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>270.25</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1687,26 +1387,12 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J27" t="n">
-        <v>20</v>
-      </c>
-      <c r="K27" t="n">
-        <v>-60</v>
-      </c>
-      <c r="L27" t="n">
-        <v>269.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1736,26 +1422,12 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J28" t="n">
-        <v>21</v>
-      </c>
-      <c r="K28" t="n">
-        <v>-63.63636363636363</v>
-      </c>
-      <c r="L28" t="n">
-        <v>268.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>269.85</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1782,29 +1454,21 @@
         <v>266.65</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>22</v>
-      </c>
-      <c r="K29" t="n">
-        <v>-45.45454545454545</v>
-      </c>
-      <c r="L29" t="n">
-        <v>268.3</v>
+        <v>265</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M29" t="n">
-        <v>269.65</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1831,29 +1495,21 @@
         <v>266.6833333333333</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>23</v>
-      </c>
-      <c r="K30" t="n">
-        <v>-60</v>
-      </c>
-      <c r="L30" t="n">
-        <v>267.9</v>
+        <v>267</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M30" t="n">
-        <v>269.5</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1880,31 +1536,21 @@
         <v>266.7166666666666</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>23</v>
-      </c>
-      <c r="K31" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L31" t="n">
-        <v>267.3</v>
+        <v>267</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M31" t="n">
-        <v>269.3</v>
-      </c>
-      <c r="N31" t="n">
-        <v>269.4</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1931,31 +1577,21 @@
         <v>266.75</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>23</v>
-      </c>
-      <c r="K32" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L32" t="n">
         <v>267</v>
       </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
-        <v>269.15</v>
-      </c>
-      <c r="N32" t="n">
-        <v>269.3</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1982,31 +1618,21 @@
         <v>266.7833333333334</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>23</v>
-      </c>
-      <c r="K33" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L33" t="n">
-        <v>266.8</v>
+        <v>267</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M33" t="n">
-        <v>268.95</v>
-      </c>
-      <c r="N33" t="n">
-        <v>269.2333333333333</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2033,31 +1659,21 @@
         <v>266.8166666666667</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>23</v>
-      </c>
-      <c r="K34" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L34" t="n">
-        <v>266.7</v>
+        <v>267</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M34" t="n">
-        <v>268.75</v>
-      </c>
-      <c r="N34" t="n">
-        <v>269.2</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2084,31 +1700,21 @@
         <v>266.8666666666667</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>24</v>
-      </c>
-      <c r="K35" t="n">
-        <v>20</v>
-      </c>
-      <c r="L35" t="n">
-        <v>266.7</v>
+        <v>268</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M35" t="n">
-        <v>268.6</v>
-      </c>
-      <c r="N35" t="n">
-        <v>269.1333333333333</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2135,31 +1741,21 @@
         <v>266.9666666666666</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>26</v>
-      </c>
-      <c r="K36" t="n">
-        <v>66.66666666666666</v>
-      </c>
-      <c r="L36" t="n">
-        <v>267</v>
+        <v>270</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M36" t="n">
-        <v>268.55</v>
-      </c>
-      <c r="N36" t="n">
-        <v>269.1666666666667</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2186,31 +1782,21 @@
         <v>267.0666666666667</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>28</v>
-      </c>
-      <c r="K37" t="n">
-        <v>100</v>
-      </c>
-      <c r="L37" t="n">
-        <v>267.6</v>
+        <v>271</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M37" t="n">
-        <v>268.6</v>
-      </c>
-      <c r="N37" t="n">
-        <v>269.2666666666667</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2237,31 +1823,21 @@
         <v>267.1833333333333</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>30</v>
-      </c>
-      <c r="K38" t="n">
-        <v>50</v>
-      </c>
-      <c r="L38" t="n">
-        <v>268.1</v>
+        <v>270</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M38" t="n">
-        <v>268.5</v>
-      </c>
-      <c r="N38" t="n">
-        <v>269.2666666666667</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2291,28 +1867,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
-      </c>
-      <c r="J39" t="n">
-        <v>31</v>
-      </c>
-      <c r="K39" t="n">
-        <v>50</v>
-      </c>
-      <c r="L39" t="n">
-        <v>268.6</v>
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M39" t="n">
-        <v>268.45</v>
-      </c>
-      <c r="N39" t="n">
-        <v>269.3</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2344,26 +1908,14 @@
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>32</v>
-      </c>
-      <c r="K40" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L40" t="n">
-        <v>268.9</v>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M40" t="n">
-        <v>268.4</v>
-      </c>
-      <c r="N40" t="n">
-        <v>269.3</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2393,28 +1945,16 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>2</v>
-      </c>
-      <c r="J41" t="n">
-        <v>34</v>
-      </c>
-      <c r="K41" t="n">
-        <v>45.45454545454545</v>
-      </c>
-      <c r="L41" t="n">
-        <v>269.4</v>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M41" t="n">
-        <v>268.35</v>
-      </c>
-      <c r="N41" t="n">
-        <v>269.3333333333333</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2444,28 +1984,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>2</v>
-      </c>
-      <c r="J42" t="n">
-        <v>34</v>
-      </c>
-      <c r="K42" t="n">
-        <v>45.45454545454545</v>
-      </c>
-      <c r="L42" t="n">
-        <v>269.9</v>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M42" t="n">
-        <v>268.45</v>
-      </c>
-      <c r="N42" t="n">
-        <v>269.4</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2495,28 +2023,16 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>2</v>
-      </c>
-      <c r="J43" t="n">
-        <v>34</v>
-      </c>
-      <c r="K43" t="n">
-        <v>45.45454545454545</v>
-      </c>
-      <c r="L43" t="n">
-        <v>270.4</v>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M43" t="n">
-        <v>268.6</v>
-      </c>
-      <c r="N43" t="n">
-        <v>269.4333333333333</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,26 +2064,14 @@
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>36</v>
-      </c>
-      <c r="K44" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L44" t="n">
-        <v>270.7</v>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M44" t="n">
-        <v>268.7</v>
-      </c>
-      <c r="N44" t="n">
-        <v>269.4</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2597,28 +2101,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>2</v>
-      </c>
-      <c r="J45" t="n">
-        <v>38</v>
-      </c>
-      <c r="K45" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L45" t="n">
-        <v>271.1</v>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M45" t="n">
-        <v>268.9</v>
-      </c>
-      <c r="N45" t="n">
-        <v>269.4333333333333</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2648,28 +2140,16 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>2</v>
-      </c>
-      <c r="J46" t="n">
-        <v>38</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>271.3</v>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M46" t="n">
-        <v>269.15</v>
-      </c>
-      <c r="N46" t="n">
-        <v>269.4666666666666</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2699,28 +2179,16 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>3</v>
-      </c>
-      <c r="J47" t="n">
-        <v>39</v>
-      </c>
-      <c r="K47" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L47" t="n">
-        <v>271.4</v>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M47" t="n">
-        <v>269.5</v>
-      </c>
-      <c r="N47" t="n">
-        <v>269.5333333333334</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2752,26 +2220,14 @@
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>42</v>
-      </c>
-      <c r="K48" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L48" t="n">
-        <v>271.4</v>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M48" t="n">
-        <v>269.75</v>
-      </c>
-      <c r="N48" t="n">
-        <v>269.4666666666666</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2801,28 +2257,16 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>4</v>
-      </c>
-      <c r="J49" t="n">
-        <v>46</v>
-      </c>
-      <c r="K49" t="n">
-        <v>28.57142857142857</v>
-      </c>
-      <c r="L49" t="n">
-        <v>271.7</v>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M49" t="n">
-        <v>270.15</v>
-      </c>
-      <c r="N49" t="n">
-        <v>269.5333333333334</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2852,28 +2296,16 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>4</v>
-      </c>
-      <c r="J50" t="n">
-        <v>46</v>
-      </c>
-      <c r="K50" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L50" t="n">
-        <v>272.1</v>
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M50" t="n">
-        <v>270.5</v>
-      </c>
-      <c r="N50" t="n">
-        <v>269.6333333333333</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2903,28 +2335,16 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>5</v>
-      </c>
-      <c r="J51" t="n">
-        <v>47</v>
-      </c>
-      <c r="K51" t="n">
-        <v>23.07692307692308</v>
-      </c>
-      <c r="L51" t="n">
-        <v>272.4</v>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M51" t="n">
-        <v>270.9</v>
-      </c>
-      <c r="N51" t="n">
-        <v>269.7</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2954,28 +2374,16 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>5</v>
-      </c>
-      <c r="J52" t="n">
-        <v>47</v>
-      </c>
-      <c r="K52" t="n">
-        <v>23.07692307692308</v>
-      </c>
-      <c r="L52" t="n">
-        <v>272.7</v>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M52" t="n">
-        <v>271.3</v>
-      </c>
-      <c r="N52" t="n">
-        <v>269.8666666666667</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3005,28 +2413,16 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>5</v>
-      </c>
-      <c r="J53" t="n">
-        <v>47</v>
-      </c>
-      <c r="K53" t="n">
-        <v>45.45454545454545</v>
-      </c>
-      <c r="L53" t="n">
-        <v>273</v>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M53" t="n">
-        <v>271.7</v>
-      </c>
-      <c r="N53" t="n">
-        <v>270.0666666666667</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3056,30 +2452,16 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>7</v>
-      </c>
-      <c r="J54" t="n">
-        <v>49</v>
-      </c>
-      <c r="K54" t="n">
-        <v>45.45454545454545</v>
-      </c>
-      <c r="L54" t="n">
-        <v>273.7</v>
-      </c>
-      <c r="M54" t="n">
-        <v>272.2</v>
-      </c>
-      <c r="N54" t="n">
-        <v>270.3666666666667</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -3107,28 +2489,12 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>5</v>
-      </c>
-      <c r="J55" t="n">
-        <v>51</v>
-      </c>
-      <c r="K55" t="n">
-        <v>23.07692307692308</v>
-      </c>
-      <c r="L55" t="n">
-        <v>274</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
-        <v>272.55</v>
-      </c>
-      <c r="N55" t="n">
-        <v>270.6</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3158,28 +2524,12 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>5</v>
-      </c>
-      <c r="J56" t="n">
-        <v>51</v>
-      </c>
-      <c r="K56" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L56" t="n">
-        <v>274.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
-        <v>272.8</v>
-      </c>
-      <c r="N56" t="n">
-        <v>270.8666666666667</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3209,28 +2559,12 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>5</v>
-      </c>
-      <c r="J57" t="n">
-        <v>51</v>
-      </c>
-      <c r="K57" t="n">
-        <v>55.55555555555556</v>
-      </c>
-      <c r="L57" t="n">
-        <v>274.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
-        <v>272.95</v>
-      </c>
-      <c r="N57" t="n">
-        <v>271.1666666666667</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3260,28 +2594,12 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>5</v>
-      </c>
-      <c r="J58" t="n">
-        <v>51</v>
-      </c>
-      <c r="K58" t="n">
-        <v>20</v>
-      </c>
-      <c r="L58" t="n">
-        <v>275</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
-        <v>273.2</v>
-      </c>
-      <c r="N58" t="n">
-        <v>271.5</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3311,28 +2629,12 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>6</v>
-      </c>
-      <c r="J59" t="n">
-        <v>52</v>
-      </c>
-      <c r="K59" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L59" t="n">
-        <v>275.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
-        <v>273.45</v>
-      </c>
-      <c r="N59" t="n">
-        <v>271.8333333333333</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3362,28 +2664,12 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>6</v>
-      </c>
-      <c r="J60" t="n">
-        <v>52</v>
-      </c>
-      <c r="K60" t="n">
-        <v>20</v>
-      </c>
-      <c r="L60" t="n">
-        <v>275.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
-        <v>273.75</v>
-      </c>
-      <c r="N60" t="n">
-        <v>272.1333333333333</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3413,28 +2699,12 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>6</v>
-      </c>
-      <c r="J61" t="n">
-        <v>52</v>
-      </c>
-      <c r="K61" t="n">
-        <v>20</v>
-      </c>
-      <c r="L61" t="n">
-        <v>275.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
-        <v>273.95</v>
-      </c>
-      <c r="N61" t="n">
-        <v>272.4333333333333</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3464,28 +2734,12 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>5</v>
-      </c>
-      <c r="J62" t="n">
-        <v>53</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0</v>
-      </c>
-      <c r="L62" t="n">
-        <v>275.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
-        <v>274.1</v>
-      </c>
-      <c r="N62" t="n">
-        <v>272.7</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3515,28 +2769,12 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>5</v>
-      </c>
-      <c r="J63" t="n">
-        <v>53</v>
-      </c>
-      <c r="K63" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L63" t="n">
-        <v>275.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
-        <v>274.25</v>
-      </c>
-      <c r="N63" t="n">
-        <v>272.9666666666666</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3566,28 +2804,12 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>5</v>
-      </c>
-      <c r="J64" t="n">
-        <v>53</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0</v>
-      </c>
-      <c r="L64" t="n">
-        <v>275.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
-        <v>274.5</v>
-      </c>
-      <c r="N64" t="n">
-        <v>273.2333333333333</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3617,28 +2839,12 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>5</v>
-      </c>
-      <c r="J65" t="n">
-        <v>53</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0</v>
-      </c>
-      <c r="L65" t="n">
-        <v>275.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
-        <v>274.65</v>
-      </c>
-      <c r="N65" t="n">
-        <v>273.4666666666666</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,28 +2874,12 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>5</v>
-      </c>
-      <c r="J66" t="n">
-        <v>53</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0</v>
-      </c>
-      <c r="L66" t="n">
-        <v>275.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
-        <v>274.8</v>
-      </c>
-      <c r="N66" t="n">
-        <v>273.6333333333333</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3719,28 +2909,12 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>5</v>
-      </c>
-      <c r="J67" t="n">
-        <v>53</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0</v>
-      </c>
-      <c r="L67" t="n">
-        <v>275.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
-        <v>274.9</v>
-      </c>
-      <c r="N67" t="n">
-        <v>273.7333333333333</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3770,28 +2944,12 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>5</v>
-      </c>
-      <c r="J68" t="n">
-        <v>53</v>
-      </c>
-      <c r="K68" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L68" t="n">
-        <v>275.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
-        <v>275.15</v>
-      </c>
-      <c r="N68" t="n">
-        <v>273.9</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3821,28 +2979,12 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>5</v>
-      </c>
-      <c r="J69" t="n">
-        <v>53</v>
-      </c>
-      <c r="K69" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L69" t="n">
-        <v>275.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
-        <v>275.2</v>
-      </c>
-      <c r="N69" t="n">
-        <v>274.0333333333334</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3872,28 +3014,12 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>6</v>
-      </c>
-      <c r="J70" t="n">
-        <v>54</v>
-      </c>
-      <c r="K70" t="n">
-        <v>0</v>
-      </c>
-      <c r="L70" t="n">
-        <v>275.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
-        <v>275.3</v>
-      </c>
-      <c r="N70" t="n">
-        <v>274.2333333333333</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3923,28 +3049,12 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>6</v>
-      </c>
-      <c r="J71" t="n">
-        <v>54</v>
-      </c>
-      <c r="K71" t="n">
-        <v>100</v>
-      </c>
-      <c r="L71" t="n">
-        <v>275.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
-        <v>275.35</v>
-      </c>
-      <c r="N71" t="n">
-        <v>274.3666666666667</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3974,28 +3084,12 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>5</v>
-      </c>
-      <c r="J72" t="n">
-        <v>55</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0</v>
-      </c>
-      <c r="L72" t="n">
-        <v>275.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
-        <v>275.35</v>
-      </c>
-      <c r="N72" t="n">
-        <v>274.4666666666666</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4025,28 +3119,12 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>4</v>
-      </c>
-      <c r="J73" t="n">
-        <v>56</v>
-      </c>
-      <c r="K73" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L73" t="n">
-        <v>275.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
-        <v>275.3</v>
-      </c>
-      <c r="N73" t="n">
-        <v>274.5333333333334</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4076,28 +3154,12 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>4</v>
-      </c>
-      <c r="J74" t="n">
-        <v>56</v>
-      </c>
-      <c r="K74" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L74" t="n">
-        <v>275</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
-        <v>275.15</v>
-      </c>
-      <c r="N74" t="n">
-        <v>274.6666666666667</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4127,28 +3189,12 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>4</v>
-      </c>
-      <c r="J75" t="n">
-        <v>56</v>
-      </c>
-      <c r="K75" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L75" t="n">
-        <v>274.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
-        <v>275.1</v>
-      </c>
-      <c r="N75" t="n">
-        <v>274.7333333333333</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4178,28 +3224,12 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>3</v>
-      </c>
-      <c r="J76" t="n">
-        <v>57</v>
-      </c>
-      <c r="K76" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L76" t="n">
-        <v>274.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
-        <v>275</v>
-      </c>
-      <c r="N76" t="n">
-        <v>274.7666666666667</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4229,28 +3259,12 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>4</v>
-      </c>
-      <c r="J77" t="n">
-        <v>58</v>
-      </c>
-      <c r="K77" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L77" t="n">
-        <v>274.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
-        <v>274.95</v>
-      </c>
-      <c r="N77" t="n">
-        <v>274.8</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4280,28 +3294,12 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>4</v>
-      </c>
-      <c r="J78" t="n">
-        <v>58</v>
-      </c>
-      <c r="K78" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L78" t="n">
-        <v>274.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
-        <v>274.9</v>
-      </c>
-      <c r="N78" t="n">
-        <v>274.9333333333333</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4331,28 +3329,12 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>2</v>
-      </c>
-      <c r="J79" t="n">
-        <v>60</v>
-      </c>
-      <c r="K79" t="n">
-        <v>-66.66666666666666</v>
-      </c>
-      <c r="L79" t="n">
-        <v>274.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
-        <v>274.7</v>
-      </c>
-      <c r="N79" t="n">
-        <v>274.8666666666667</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4382,28 +3364,12 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>4</v>
-      </c>
-      <c r="J80" t="n">
-        <v>62</v>
-      </c>
-      <c r="K80" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L80" t="n">
-        <v>274</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
-        <v>274.6</v>
-      </c>
-      <c r="N80" t="n">
-        <v>274.8666666666667</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4433,28 +3399,12 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>5</v>
-      </c>
-      <c r="J81" t="n">
-        <v>63</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0</v>
-      </c>
-      <c r="L81" t="n">
-        <v>273.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
-        <v>274.55</v>
-      </c>
-      <c r="N81" t="n">
-        <v>274.8666666666667</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4484,28 +3434,12 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>6</v>
-      </c>
-      <c r="J82" t="n">
-        <v>64</v>
-      </c>
-      <c r="K82" t="n">
-        <v>25</v>
-      </c>
-      <c r="L82" t="n">
-        <v>274</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
-        <v>274.6</v>
-      </c>
-      <c r="N82" t="n">
-        <v>274.9</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4535,28 +3469,12 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>6</v>
-      </c>
-      <c r="J83" t="n">
-        <v>64</v>
-      </c>
-      <c r="K83" t="n">
-        <v>25</v>
-      </c>
-      <c r="L83" t="n">
-        <v>274.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
-        <v>274.65</v>
-      </c>
-      <c r="N83" t="n">
-        <v>274.9333333333333</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4586,28 +3504,12 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>7</v>
-      </c>
-      <c r="J84" t="n">
-        <v>65</v>
-      </c>
-      <c r="K84" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L84" t="n">
-        <v>274.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
-        <v>274.75</v>
-      </c>
-      <c r="N84" t="n">
-        <v>274.9333333333333</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4637,28 +3539,12 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>8</v>
-      </c>
-      <c r="J85" t="n">
-        <v>66</v>
-      </c>
-      <c r="K85" t="n">
-        <v>55.55555555555556</v>
-      </c>
-      <c r="L85" t="n">
-        <v>274.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
-        <v>274.9</v>
-      </c>
-      <c r="N85" t="n">
-        <v>275.0333333333334</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4688,28 +3574,12 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>8</v>
-      </c>
-      <c r="J86" t="n">
-        <v>66</v>
-      </c>
-      <c r="K86" t="n">
-        <v>50</v>
-      </c>
-      <c r="L86" t="n">
-        <v>275.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
-        <v>275.05</v>
-      </c>
-      <c r="N86" t="n">
-        <v>275.1333333333333</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4739,28 +3609,12 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>9</v>
-      </c>
-      <c r="J87" t="n">
-        <v>67</v>
-      </c>
-      <c r="K87" t="n">
-        <v>55.55555555555556</v>
-      </c>
-      <c r="L87" t="n">
-        <v>275.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
-        <v>275.25</v>
-      </c>
-      <c r="N87" t="n">
-        <v>275.2666666666667</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4790,28 +3644,12 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>10</v>
-      </c>
-      <c r="J88" t="n">
-        <v>68</v>
-      </c>
-      <c r="K88" t="n">
-        <v>100</v>
-      </c>
-      <c r="L88" t="n">
-        <v>276.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
-        <v>275.5</v>
-      </c>
-      <c r="N88" t="n">
-        <v>275.4333333333333</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4841,28 +3679,12 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>11</v>
-      </c>
-      <c r="J89" t="n">
-        <v>69</v>
-      </c>
-      <c r="K89" t="n">
-        <v>100</v>
-      </c>
-      <c r="L89" t="n">
-        <v>277.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
-        <v>275.8</v>
-      </c>
-      <c r="N89" t="n">
-        <v>275.6</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4892,28 +3714,12 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>11</v>
-      </c>
-      <c r="J90" t="n">
-        <v>69</v>
-      </c>
-      <c r="K90" t="n">
-        <v>100</v>
-      </c>
-      <c r="L90" t="n">
-        <v>278.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
-        <v>276.05</v>
-      </c>
-      <c r="N90" t="n">
-        <v>275.7666666666667</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4943,28 +3749,12 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>12</v>
-      </c>
-      <c r="J91" t="n">
-        <v>70</v>
-      </c>
-      <c r="K91" t="n">
-        <v>100</v>
-      </c>
-      <c r="L91" t="n">
-        <v>278.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
-        <v>276.35</v>
-      </c>
-      <c r="N91" t="n">
-        <v>275.9666666666666</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4994,28 +3784,12 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>12</v>
-      </c>
-      <c r="J92" t="n">
-        <v>70</v>
-      </c>
-      <c r="K92" t="n">
-        <v>100</v>
-      </c>
-      <c r="L92" t="n">
-        <v>279.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
-        <v>276.7</v>
-      </c>
-      <c r="N92" t="n">
-        <v>276.2</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5045,28 +3819,12 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>13</v>
-      </c>
-      <c r="J93" t="n">
-        <v>71</v>
-      </c>
-      <c r="K93" t="n">
-        <v>100</v>
-      </c>
-      <c r="L93" t="n">
-        <v>280.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
-        <v>277.15</v>
-      </c>
-      <c r="N93" t="n">
-        <v>276.4666666666666</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5096,28 +3854,12 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>12</v>
-      </c>
-      <c r="J94" t="n">
-        <v>72</v>
-      </c>
-      <c r="K94" t="n">
-        <v>66.66666666666666</v>
-      </c>
-      <c r="L94" t="n">
-        <v>280.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
-        <v>277.55</v>
-      </c>
-      <c r="N94" t="n">
-        <v>276.7</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5147,28 +3889,12 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>11</v>
-      </c>
-      <c r="J95" t="n">
-        <v>73</v>
-      </c>
-      <c r="K95" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L95" t="n">
-        <v>280.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
-        <v>277.9</v>
-      </c>
-      <c r="N95" t="n">
-        <v>276.9</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5198,28 +3924,12 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>11</v>
-      </c>
-      <c r="J96" t="n">
-        <v>73</v>
-      </c>
-      <c r="K96" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L96" t="n">
-        <v>281.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
-        <v>278.3</v>
-      </c>
-      <c r="N96" t="n">
-        <v>277.1</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5249,28 +3959,12 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>12</v>
-      </c>
-      <c r="J97" t="n">
-        <v>74</v>
-      </c>
-      <c r="K97" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L97" t="n">
-        <v>281.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
-        <v>278.7</v>
-      </c>
-      <c r="N97" t="n">
-        <v>277.3333333333333</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5300,28 +3994,12 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>12</v>
-      </c>
-      <c r="J98" t="n">
-        <v>74</v>
-      </c>
-      <c r="K98" t="n">
-        <v>20</v>
-      </c>
-      <c r="L98" t="n">
-        <v>281.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
-        <v>279.1</v>
-      </c>
-      <c r="N98" t="n">
-        <v>277.5666666666667</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5351,28 +4029,12 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>12</v>
-      </c>
-      <c r="J99" t="n">
-        <v>74</v>
-      </c>
-      <c r="K99" t="n">
-        <v>20</v>
-      </c>
-      <c r="L99" t="n">
-        <v>281.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
-        <v>279.6</v>
-      </c>
-      <c r="N99" t="n">
-        <v>277.8</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5402,28 +4064,12 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>11</v>
-      </c>
-      <c r="J100" t="n">
-        <v>75</v>
-      </c>
-      <c r="K100" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L100" t="n">
-        <v>281.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
-        <v>279.95</v>
-      </c>
-      <c r="N100" t="n">
-        <v>277.9666666666666</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5453,28 +4099,12 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>11</v>
-      </c>
-      <c r="J101" t="n">
-        <v>75</v>
-      </c>
-      <c r="K101" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L101" t="n">
-        <v>281.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
-        <v>280.25</v>
-      </c>
-      <c r="N101" t="n">
-        <v>278.1333333333333</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5504,28 +4134,12 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>11</v>
-      </c>
-      <c r="J102" t="n">
-        <v>75</v>
-      </c>
-      <c r="K102" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L102" t="n">
-        <v>281.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
-        <v>280.5</v>
-      </c>
-      <c r="N102" t="n">
-        <v>278.3333333333333</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5555,28 +4169,12 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>9</v>
-      </c>
-      <c r="J103" t="n">
-        <v>77</v>
-      </c>
-      <c r="K103" t="n">
-        <v>-60</v>
-      </c>
-      <c r="L103" t="n">
-        <v>281.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
-        <v>280.65</v>
-      </c>
-      <c r="N103" t="n">
-        <v>278.5</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5606,28 +4204,12 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>6</v>
-      </c>
-      <c r="J104" t="n">
-        <v>80</v>
-      </c>
-      <c r="K104" t="n">
-        <v>-71.42857142857143</v>
-      </c>
-      <c r="L104" t="n">
-        <v>280.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
-        <v>280.6</v>
-      </c>
-      <c r="N104" t="n">
-        <v>278.5666666666667</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5657,28 +4239,12 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>8</v>
-      </c>
-      <c r="J105" t="n">
-        <v>82</v>
-      </c>
-      <c r="K105" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L105" t="n">
-        <v>280.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
-        <v>280.6</v>
-      </c>
-      <c r="N105" t="n">
-        <v>278.7</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5708,28 +4274,12 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>7</v>
-      </c>
-      <c r="J106" t="n">
-        <v>83</v>
-      </c>
-      <c r="K106" t="n">
-        <v>-55.55555555555556</v>
-      </c>
-      <c r="L106" t="n">
-        <v>279.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
-        <v>280.55</v>
-      </c>
-      <c r="N106" t="n">
-        <v>278.8333333333333</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5759,28 +4309,12 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>8</v>
-      </c>
-      <c r="J107" t="n">
-        <v>84</v>
-      </c>
-      <c r="K107" t="n">
-        <v>-40</v>
-      </c>
-      <c r="L107" t="n">
-        <v>279.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
-        <v>280.5</v>
-      </c>
-      <c r="N107" t="n">
-        <v>278.9666666666666</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5810,28 +4344,12 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>8</v>
-      </c>
-      <c r="J108" t="n">
-        <v>84</v>
-      </c>
-      <c r="K108" t="n">
-        <v>-40</v>
-      </c>
-      <c r="L108" t="n">
-        <v>279.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
-        <v>280.4</v>
-      </c>
-      <c r="N108" t="n">
-        <v>279.1</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5861,28 +4379,12 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>8</v>
-      </c>
-      <c r="J109" t="n">
-        <v>84</v>
-      </c>
-      <c r="K109" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L109" t="n">
-        <v>278.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
-        <v>280.25</v>
-      </c>
-      <c r="N109" t="n">
-        <v>279.3</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5912,28 +4414,12 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>8</v>
-      </c>
-      <c r="J110" t="n">
-        <v>84</v>
-      </c>
-      <c r="K110" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L110" t="n">
-        <v>278.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
-        <v>280.1</v>
-      </c>
-      <c r="N110" t="n">
-        <v>279.4333333333333</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5963,28 +4449,12 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>8</v>
-      </c>
-      <c r="J111" t="n">
-        <v>84</v>
-      </c>
-      <c r="K111" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L111" t="n">
-        <v>278.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
-        <v>279.9</v>
-      </c>
-      <c r="N111" t="n">
-        <v>279.5333333333334</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6014,28 +4484,12 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>7</v>
-      </c>
-      <c r="J112" t="n">
-        <v>85</v>
-      </c>
-      <c r="K112" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L112" t="n">
-        <v>277.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
-        <v>279.65</v>
-      </c>
-      <c r="N112" t="n">
-        <v>279.5666666666667</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6065,28 +4519,12 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>7</v>
-      </c>
-      <c r="J113" t="n">
-        <v>85</v>
-      </c>
-      <c r="K113" t="n">
-        <v>20</v>
-      </c>
-      <c r="L113" t="n">
-        <v>277.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
-        <v>279.35</v>
-      </c>
-      <c r="N113" t="n">
-        <v>279.6</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6116,28 +4554,12 @@
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>9</v>
-      </c>
-      <c r="J114" t="n">
-        <v>87</v>
-      </c>
-      <c r="K114" t="n">
-        <v>20</v>
-      </c>
-      <c r="L114" t="n">
-        <v>277.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
-        <v>279.2</v>
-      </c>
-      <c r="N114" t="n">
-        <v>279.6666666666667</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6167,28 +4589,12 @@
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>7</v>
-      </c>
-      <c r="J115" t="n">
-        <v>89</v>
-      </c>
-      <c r="K115" t="n">
-        <v>0</v>
-      </c>
-      <c r="L115" t="n">
-        <v>277.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
-        <v>279</v>
-      </c>
-      <c r="N115" t="n">
-        <v>279.6333333333333</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6218,28 +4624,12 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>7</v>
-      </c>
-      <c r="J116" t="n">
-        <v>89</v>
-      </c>
-      <c r="K116" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L116" t="n">
-        <v>277.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
-        <v>278.8</v>
-      </c>
-      <c r="N116" t="n">
-        <v>279.6</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6269,28 +4659,12 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>8</v>
-      </c>
-      <c r="J117" t="n">
-        <v>90</v>
-      </c>
-      <c r="K117" t="n">
-        <v>0</v>
-      </c>
-      <c r="L117" t="n">
-        <v>277.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
-        <v>278.6</v>
-      </c>
-      <c r="N117" t="n">
-        <v>279.5666666666667</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6320,28 +4694,12 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>8</v>
-      </c>
-      <c r="J118" t="n">
-        <v>90</v>
-      </c>
-      <c r="K118" t="n">
-        <v>0</v>
-      </c>
-      <c r="L118" t="n">
-        <v>277.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
-        <v>278.4</v>
-      </c>
-      <c r="N118" t="n">
-        <v>279.5</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6371,28 +4729,12 @@
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>8</v>
-      </c>
-      <c r="J119" t="n">
-        <v>90</v>
-      </c>
-      <c r="K119" t="n">
-        <v>0</v>
-      </c>
-      <c r="L119" t="n">
-        <v>277.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
-        <v>278.2</v>
-      </c>
-      <c r="N119" t="n">
-        <v>279.4</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6422,28 +4764,12 @@
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>8</v>
-      </c>
-      <c r="J120" t="n">
-        <v>90</v>
-      </c>
-      <c r="K120" t="n">
-        <v>0</v>
-      </c>
-      <c r="L120" t="n">
-        <v>277.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
-        <v>278.05</v>
-      </c>
-      <c r="N120" t="n">
-        <v>279.3</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6473,28 +4799,12 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>7</v>
-      </c>
-      <c r="J121" t="n">
-        <v>91</v>
-      </c>
-      <c r="K121" t="n">
-        <v>0</v>
-      </c>
-      <c r="L121" t="n">
-        <v>277.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
-        <v>277.85</v>
-      </c>
-      <c r="N121" t="n">
-        <v>279.1333333333333</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6524,28 +4834,12 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>7</v>
-      </c>
-      <c r="J122" t="n">
-        <v>91</v>
-      </c>
-      <c r="K122" t="n">
-        <v>0</v>
-      </c>
-      <c r="L122" t="n">
-        <v>277.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
-        <v>277.65</v>
-      </c>
-      <c r="N122" t="n">
-        <v>278.9666666666666</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6575,28 +4869,12 @@
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>7</v>
-      </c>
-      <c r="J123" t="n">
-        <v>91</v>
-      </c>
-      <c r="K123" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L123" t="n">
-        <v>277.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
-        <v>277.55</v>
-      </c>
-      <c r="N123" t="n">
-        <v>278.7666666666667</v>
-      </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6626,28 +4904,12 @@
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>7</v>
-      </c>
-      <c r="J124" t="n">
-        <v>91</v>
-      </c>
-      <c r="K124" t="n">
-        <v>0</v>
-      </c>
-      <c r="L124" t="n">
-        <v>277.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
-        <v>277.6</v>
-      </c>
-      <c r="N124" t="n">
-        <v>278.6</v>
-      </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6677,28 +4939,12 @@
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>7</v>
-      </c>
-      <c r="J125" t="n">
-        <v>91</v>
-      </c>
-      <c r="K125" t="n">
-        <v>0</v>
-      </c>
-      <c r="L125" t="n">
-        <v>277.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
-        <v>277.55</v>
-      </c>
-      <c r="N125" t="n">
-        <v>278.4666666666666</v>
-      </c>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6728,28 +4974,12 @@
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>7</v>
-      </c>
-      <c r="J126" t="n">
-        <v>91</v>
-      </c>
-      <c r="K126" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L126" t="n">
-        <v>277.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
-        <v>277.55</v>
-      </c>
-      <c r="N126" t="n">
-        <v>278.3333333333333</v>
-      </c>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6779,28 +5009,12 @@
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>8</v>
-      </c>
-      <c r="J127" t="n">
-        <v>92</v>
-      </c>
-      <c r="K127" t="n">
-        <v>0</v>
-      </c>
-      <c r="L127" t="n">
-        <v>277.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
-        <v>277.55</v>
-      </c>
-      <c r="N127" t="n">
-        <v>278.2</v>
-      </c>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6830,28 +5044,12 @@
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>8</v>
-      </c>
-      <c r="J128" t="n">
-        <v>92</v>
-      </c>
-      <c r="K128" t="n">
-        <v>0</v>
-      </c>
-      <c r="L128" t="n">
-        <v>277.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
-        <v>277.55</v>
-      </c>
-      <c r="N128" t="n">
-        <v>278.0666666666667</v>
-      </c>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6881,28 +5079,12 @@
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>8</v>
-      </c>
-      <c r="J129" t="n">
-        <v>92</v>
-      </c>
-      <c r="K129" t="n">
-        <v>0</v>
-      </c>
-      <c r="L129" t="n">
-        <v>277.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
-        <v>277.55</v>
-      </c>
-      <c r="N129" t="n">
-        <v>277.9333333333333</v>
-      </c>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6932,28 +5114,12 @@
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>8</v>
-      </c>
-      <c r="J130" t="n">
-        <v>92</v>
-      </c>
-      <c r="K130" t="n">
-        <v>100</v>
-      </c>
-      <c r="L130" t="n">
-        <v>277.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
-        <v>277.55</v>
-      </c>
-      <c r="N130" t="n">
-        <v>277.8333333333333</v>
-      </c>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6983,28 +5149,12 @@
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>9</v>
-      </c>
-      <c r="J131" t="n">
-        <v>93</v>
-      </c>
-      <c r="K131" t="n">
-        <v>100</v>
-      </c>
-      <c r="L131" t="n">
-        <v>277.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
-        <v>277.6</v>
-      </c>
-      <c r="N131" t="n">
-        <v>277.7666666666667</v>
-      </c>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7034,28 +5184,12 @@
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>11</v>
-      </c>
-      <c r="J132" t="n">
-        <v>95</v>
-      </c>
-      <c r="K132" t="n">
-        <v>100</v>
-      </c>
-      <c r="L132" t="n">
-        <v>278</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
-        <v>277.8</v>
-      </c>
-      <c r="N132" t="n">
-        <v>277.7666666666667</v>
-      </c>
-      <c r="O132" t="inlineStr"/>
-      <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7085,28 +5219,12 @@
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>12</v>
-      </c>
-      <c r="J133" t="n">
-        <v>96</v>
-      </c>
-      <c r="K133" t="n">
-        <v>100</v>
-      </c>
-      <c r="L133" t="n">
-        <v>278.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
-        <v>278.05</v>
-      </c>
-      <c r="N133" t="n">
-        <v>277.8666666666667</v>
-      </c>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7136,28 +5254,12 @@
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>11</v>
-      </c>
-      <c r="J134" t="n">
-        <v>97</v>
-      </c>
-      <c r="K134" t="n">
-        <v>66.66666666666666</v>
-      </c>
-      <c r="L134" t="n">
-        <v>278.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
-        <v>278.15</v>
-      </c>
-      <c r="N134" t="n">
-        <v>278.0333333333334</v>
-      </c>
-      <c r="O134" t="inlineStr"/>
-      <c r="P134" t="inlineStr"/>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7187,28 +5289,12 @@
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>11</v>
-      </c>
-      <c r="J135" t="n">
-        <v>97</v>
-      </c>
-      <c r="K135" t="n">
-        <v>66.66666666666666</v>
-      </c>
-      <c r="L135" t="n">
-        <v>279.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
-        <v>278.35</v>
-      </c>
-      <c r="N135" t="n">
-        <v>278.1333333333333</v>
-      </c>
-      <c r="O135" t="inlineStr"/>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7238,28 +5324,12 @@
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>12</v>
-      </c>
-      <c r="J136" t="n">
-        <v>98</v>
-      </c>
-      <c r="K136" t="n">
-        <v>66.66666666666666</v>
-      </c>
-      <c r="L136" t="n">
-        <v>279.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
-        <v>278.6</v>
-      </c>
-      <c r="N136" t="n">
-        <v>278.3</v>
-      </c>
-      <c r="O136" t="inlineStr"/>
-      <c r="P136" t="inlineStr"/>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7289,28 +5359,12 @@
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>13</v>
-      </c>
-      <c r="J137" t="n">
-        <v>99</v>
-      </c>
-      <c r="K137" t="n">
-        <v>71.42857142857143</v>
-      </c>
-      <c r="L137" t="n">
-        <v>280.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
-        <v>278.85</v>
-      </c>
-      <c r="N137" t="n">
-        <v>278.4666666666666</v>
-      </c>
-      <c r="O137" t="inlineStr"/>
-      <c r="P137" t="inlineStr"/>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
-      <c r="S137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7340,28 +5394,12 @@
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>14</v>
-      </c>
-      <c r="J138" t="n">
-        <v>100</v>
-      </c>
-      <c r="K138" t="n">
-        <v>75</v>
-      </c>
-      <c r="L138" t="n">
-        <v>280.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
-        <v>279.15</v>
-      </c>
-      <c r="N138" t="n">
-        <v>278.6666666666667</v>
-      </c>
-      <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7391,28 +5429,12 @@
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>14</v>
-      </c>
-      <c r="J139" t="n">
-        <v>100</v>
-      </c>
-      <c r="K139" t="n">
-        <v>75</v>
-      </c>
-      <c r="L139" t="n">
-        <v>281.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
-        <v>279.45</v>
-      </c>
-      <c r="N139" t="n">
-        <v>278.8666666666667</v>
-      </c>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7442,28 +5464,12 @@
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>14</v>
-      </c>
-      <c r="J140" t="n">
-        <v>100</v>
-      </c>
-      <c r="K140" t="n">
-        <v>71.42857142857143</v>
-      </c>
-      <c r="L140" t="n">
-        <v>282.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
-        <v>279.75</v>
-      </c>
-      <c r="N140" t="n">
-        <v>279.0666666666667</v>
-      </c>
-      <c r="O140" t="inlineStr"/>
-      <c r="P140" t="inlineStr"/>
-      <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
-      <c r="S140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7493,28 +5499,12 @@
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>14</v>
-      </c>
-      <c r="J141" t="n">
-        <v>100</v>
-      </c>
-      <c r="K141" t="n">
-        <v>60</v>
-      </c>
-      <c r="L141" t="n">
-        <v>282.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
-        <v>280.1</v>
-      </c>
-      <c r="N141" t="n">
-        <v>279.2666666666667</v>
-      </c>
-      <c r="O141" t="inlineStr"/>
-      <c r="P141" t="inlineStr"/>
-      <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
-      <c r="S141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7544,28 +5534,12 @@
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>14</v>
-      </c>
-      <c r="J142" t="n">
-        <v>100</v>
-      </c>
-      <c r="K142" t="n">
-        <v>50</v>
-      </c>
-      <c r="L142" t="n">
-        <v>282.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
-        <v>280.45</v>
-      </c>
-      <c r="N142" t="n">
-        <v>279.5</v>
-      </c>
-      <c r="O142" t="inlineStr"/>
-      <c r="P142" t="inlineStr"/>
-      <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
-      <c r="S142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7595,28 +5569,12 @@
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>14</v>
-      </c>
-      <c r="J143" t="n">
-        <v>100</v>
-      </c>
-      <c r="K143" t="n">
-        <v>100</v>
-      </c>
-      <c r="L143" t="n">
-        <v>283.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
-        <v>280.8</v>
-      </c>
-      <c r="N143" t="n">
-        <v>279.7333333333333</v>
-      </c>
-      <c r="O143" t="inlineStr"/>
-      <c r="P143" t="inlineStr"/>
-      <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr"/>
-      <c r="S143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7646,28 +5604,12 @@
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>14</v>
-      </c>
-      <c r="J144" t="n">
-        <v>100</v>
-      </c>
-      <c r="K144" t="n">
-        <v>100</v>
-      </c>
-      <c r="L144" t="n">
-        <v>283.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
-        <v>281.15</v>
-      </c>
-      <c r="N144" t="n">
-        <v>279.9</v>
-      </c>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
-      <c r="S144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7697,28 +5639,12 @@
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>14</v>
-      </c>
-      <c r="J145" t="n">
-        <v>100</v>
-      </c>
-      <c r="K145" t="n">
-        <v>100</v>
-      </c>
-      <c r="L145" t="n">
-        <v>283.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
-        <v>281.5</v>
-      </c>
-      <c r="N145" t="n">
-        <v>280.1333333333333</v>
-      </c>
-      <c r="O145" t="inlineStr"/>
-      <c r="P145" t="inlineStr"/>
-      <c r="Q145" t="inlineStr"/>
-      <c r="R145" t="inlineStr"/>
-      <c r="S145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7748,28 +5674,12 @@
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>14</v>
-      </c>
-      <c r="J146" t="n">
-        <v>100</v>
-      </c>
-      <c r="K146" t="n">
-        <v>100</v>
-      </c>
-      <c r="L146" t="n">
-        <v>283.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
-        <v>281.85</v>
-      </c>
-      <c r="N146" t="n">
-        <v>280.3666666666667</v>
-      </c>
-      <c r="O146" t="inlineStr"/>
-      <c r="P146" t="inlineStr"/>
-      <c r="Q146" t="inlineStr"/>
-      <c r="R146" t="inlineStr"/>
-      <c r="S146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7799,26 +5709,12 @@
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>14</v>
-      </c>
-      <c r="J147" t="n">
-        <v>100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>284</v>
-      </c>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
-        <v>282.15</v>
-      </c>
-      <c r="N147" t="n">
-        <v>280.5666666666667</v>
-      </c>
-      <c r="O147" t="inlineStr"/>
-      <c r="P147" t="inlineStr"/>
-      <c r="Q147" t="inlineStr"/>
-      <c r="R147" t="inlineStr"/>
-      <c r="S147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7848,26 +5744,12 @@
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>14</v>
-      </c>
-      <c r="J148" t="n">
-        <v>100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>284</v>
-      </c>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
-        <v>282.45</v>
-      </c>
-      <c r="N148" t="n">
-        <v>280.7666666666667</v>
-      </c>
-      <c r="O148" t="inlineStr"/>
-      <c r="P148" t="inlineStr"/>
-      <c r="Q148" t="inlineStr"/>
-      <c r="R148" t="inlineStr"/>
-      <c r="S148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7897,26 +5779,12 @@
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>14</v>
-      </c>
-      <c r="J149" t="n">
-        <v>100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>284</v>
-      </c>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
-        <v>282.75</v>
-      </c>
-      <c r="N149" t="n">
-        <v>280.9666666666666</v>
-      </c>
-      <c r="O149" t="inlineStr"/>
-      <c r="P149" t="inlineStr"/>
-      <c r="Q149" t="inlineStr"/>
-      <c r="R149" t="inlineStr"/>
-      <c r="S149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7946,26 +5814,12 @@
         <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>14</v>
-      </c>
-      <c r="J150" t="n">
-        <v>100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>284</v>
-      </c>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
-        <v>283.05</v>
-      </c>
-      <c r="N150" t="n">
-        <v>281.1666666666667</v>
-      </c>
-      <c r="O150" t="inlineStr"/>
-      <c r="P150" t="inlineStr"/>
-      <c r="Q150" t="inlineStr"/>
-      <c r="R150" t="inlineStr"/>
-      <c r="S150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7995,28 +5849,12 @@
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>16</v>
-      </c>
-      <c r="J151" t="n">
-        <v>102</v>
-      </c>
-      <c r="K151" t="n">
-        <v>100</v>
-      </c>
-      <c r="L151" t="n">
-        <v>284.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
-        <v>283.4</v>
-      </c>
-      <c r="N151" t="n">
-        <v>281.4666666666666</v>
-      </c>
-      <c r="O151" t="inlineStr"/>
-      <c r="P151" t="inlineStr"/>
-      <c r="Q151" t="inlineStr"/>
-      <c r="R151" t="inlineStr"/>
-      <c r="S151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8046,28 +5884,12 @@
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>16</v>
-      </c>
-      <c r="J152" t="n">
-        <v>102</v>
-      </c>
-      <c r="K152" t="n">
-        <v>100</v>
-      </c>
-      <c r="L152" t="n">
-        <v>284.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
-        <v>283.65</v>
-      </c>
-      <c r="N152" t="n">
-        <v>281.7666666666667</v>
-      </c>
-      <c r="O152" t="inlineStr"/>
-      <c r="P152" t="inlineStr"/>
-      <c r="Q152" t="inlineStr"/>
-      <c r="R152" t="inlineStr"/>
-      <c r="S152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8097,28 +5919,12 @@
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>18</v>
-      </c>
-      <c r="J153" t="n">
-        <v>104</v>
-      </c>
-      <c r="K153" t="n">
-        <v>100</v>
-      </c>
-      <c r="L153" t="n">
-        <v>284.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
-        <v>283.95</v>
-      </c>
-      <c r="N153" t="n">
-        <v>282.1333333333333</v>
-      </c>
-      <c r="O153" t="inlineStr"/>
-      <c r="P153" t="inlineStr"/>
-      <c r="Q153" t="inlineStr"/>
-      <c r="R153" t="inlineStr"/>
-      <c r="S153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8148,28 +5954,12 @@
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>17</v>
-      </c>
-      <c r="J154" t="n">
-        <v>105</v>
-      </c>
-      <c r="K154" t="n">
-        <v>60</v>
-      </c>
-      <c r="L154" t="n">
-        <v>285.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
-        <v>284.25</v>
-      </c>
-      <c r="N154" t="n">
-        <v>282.4666666666666</v>
-      </c>
-      <c r="O154" t="inlineStr"/>
-      <c r="P154" t="inlineStr"/>
-      <c r="Q154" t="inlineStr"/>
-      <c r="R154" t="inlineStr"/>
-      <c r="S154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8199,28 +5989,12 @@
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>17</v>
-      </c>
-      <c r="J155" t="n">
-        <v>105</v>
-      </c>
-      <c r="K155" t="n">
-        <v>60</v>
-      </c>
-      <c r="L155" t="n">
-        <v>285.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
-        <v>284.55</v>
-      </c>
-      <c r="N155" t="n">
-        <v>282.8</v>
-      </c>
-      <c r="O155" t="inlineStr"/>
-      <c r="P155" t="inlineStr"/>
-      <c r="Q155" t="inlineStr"/>
-      <c r="R155" t="inlineStr"/>
-      <c r="S155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8250,28 +6024,12 @@
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>17</v>
-      </c>
-      <c r="J156" t="n">
-        <v>105</v>
-      </c>
-      <c r="K156" t="n">
-        <v>60</v>
-      </c>
-      <c r="L156" t="n">
-        <v>285.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
-        <v>284.8</v>
-      </c>
-      <c r="N156" t="n">
-        <v>283.1333333333333</v>
-      </c>
-      <c r="O156" t="inlineStr"/>
-      <c r="P156" t="inlineStr"/>
-      <c r="Q156" t="inlineStr"/>
-      <c r="R156" t="inlineStr"/>
-      <c r="S156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8301,28 +6059,12 @@
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>17</v>
-      </c>
-      <c r="J157" t="n">
-        <v>105</v>
-      </c>
-      <c r="K157" t="n">
-        <v>60</v>
-      </c>
-      <c r="L157" t="n">
-        <v>286</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
-        <v>285</v>
-      </c>
-      <c r="N157" t="n">
-        <v>283.4333333333333</v>
-      </c>
-      <c r="O157" t="inlineStr"/>
-      <c r="P157" t="inlineStr"/>
-      <c r="Q157" t="inlineStr"/>
-      <c r="R157" t="inlineStr"/>
-      <c r="S157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8352,28 +6094,12 @@
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>17</v>
-      </c>
-      <c r="J158" t="n">
-        <v>105</v>
-      </c>
-      <c r="K158" t="n">
-        <v>60</v>
-      </c>
-      <c r="L158" t="n">
-        <v>286.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
-        <v>285.15</v>
-      </c>
-      <c r="N158" t="n">
-        <v>283.7333333333333</v>
-      </c>
-      <c r="O158" t="inlineStr"/>
-      <c r="P158" t="inlineStr"/>
-      <c r="Q158" t="inlineStr"/>
-      <c r="R158" t="inlineStr"/>
-      <c r="S158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8403,28 +6129,12 @@
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>17</v>
-      </c>
-      <c r="J159" t="n">
-        <v>105</v>
-      </c>
-      <c r="K159" t="n">
-        <v>60</v>
-      </c>
-      <c r="L159" t="n">
-        <v>286.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
-        <v>285.3</v>
-      </c>
-      <c r="N159" t="n">
-        <v>284.0333333333334</v>
-      </c>
-      <c r="O159" t="inlineStr"/>
-      <c r="P159" t="inlineStr"/>
-      <c r="Q159" t="inlineStr"/>
-      <c r="R159" t="inlineStr"/>
-      <c r="S159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8454,28 +6164,12 @@
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>17</v>
-      </c>
-      <c r="J160" t="n">
-        <v>105</v>
-      </c>
-      <c r="K160" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L160" t="n">
-        <v>286.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
-        <v>285.45</v>
-      </c>
-      <c r="N160" t="n">
-        <v>284.3333333333333</v>
-      </c>
-      <c r="O160" t="inlineStr"/>
-      <c r="P160" t="inlineStr"/>
-      <c r="Q160" t="inlineStr"/>
-      <c r="R160" t="inlineStr"/>
-      <c r="S160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8505,28 +6199,12 @@
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>16</v>
-      </c>
-      <c r="J161" t="n">
-        <v>106</v>
-      </c>
-      <c r="K161" t="n">
-        <v>0</v>
-      </c>
-      <c r="L161" t="n">
-        <v>286.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
-        <v>285.55</v>
-      </c>
-      <c r="N161" t="n">
-        <v>284.5666666666667</v>
-      </c>
-      <c r="O161" t="inlineStr"/>
-      <c r="P161" t="inlineStr"/>
-      <c r="Q161" t="inlineStr"/>
-      <c r="R161" t="inlineStr"/>
-      <c r="S161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8556,28 +6234,12 @@
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>17</v>
-      </c>
-      <c r="J162" t="n">
-        <v>107</v>
-      </c>
-      <c r="K162" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L162" t="n">
-        <v>287</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
-        <v>285.7</v>
-      </c>
-      <c r="N162" t="n">
-        <v>284.7666666666667</v>
-      </c>
-      <c r="O162" t="inlineStr"/>
-      <c r="P162" t="inlineStr"/>
-      <c r="Q162" t="inlineStr"/>
-      <c r="R162" t="inlineStr"/>
-      <c r="S162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8607,28 +6269,12 @@
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>17</v>
-      </c>
-      <c r="J163" t="n">
-        <v>107</v>
-      </c>
-      <c r="K163" t="n">
-        <v>0</v>
-      </c>
-      <c r="L163" t="n">
-        <v>286.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
-        <v>285.85</v>
-      </c>
-      <c r="N163" t="n">
-        <v>284.9333333333333</v>
-      </c>
-      <c r="O163" t="inlineStr"/>
-      <c r="P163" t="inlineStr"/>
-      <c r="Q163" t="inlineStr"/>
-      <c r="R163" t="inlineStr"/>
-      <c r="S163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8658,28 +6304,12 @@
         <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>12</v>
-      </c>
-      <c r="J164" t="n">
-        <v>112</v>
-      </c>
-      <c r="K164" t="n">
-        <v>-71.42857142857143</v>
-      </c>
-      <c r="L164" t="n">
-        <v>286.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
-        <v>285.75</v>
-      </c>
-      <c r="N164" t="n">
-        <v>284.9666666666666</v>
-      </c>
-      <c r="O164" t="inlineStr"/>
-      <c r="P164" t="inlineStr"/>
-      <c r="Q164" t="inlineStr"/>
-      <c r="R164" t="inlineStr"/>
-      <c r="S164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8709,28 +6339,12 @@
         <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>15</v>
-      </c>
-      <c r="J165" t="n">
-        <v>115</v>
-      </c>
-      <c r="K165" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L165" t="n">
-        <v>286.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
-        <v>285.8</v>
-      </c>
-      <c r="N165" t="n">
-        <v>285.1</v>
-      </c>
-      <c r="O165" t="inlineStr"/>
-      <c r="P165" t="inlineStr"/>
-      <c r="Q165" t="inlineStr"/>
-      <c r="R165" t="inlineStr"/>
-      <c r="S165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8760,28 +6374,12 @@
         <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>15</v>
-      </c>
-      <c r="J166" t="n">
-        <v>115</v>
-      </c>
-      <c r="K166" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L166" t="n">
-        <v>286</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
-        <v>285.85</v>
-      </c>
-      <c r="N166" t="n">
-        <v>285.2</v>
-      </c>
-      <c r="O166" t="inlineStr"/>
-      <c r="P166" t="inlineStr"/>
-      <c r="Q166" t="inlineStr"/>
-      <c r="R166" t="inlineStr"/>
-      <c r="S166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8811,28 +6409,12 @@
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>14</v>
-      </c>
-      <c r="J167" t="n">
-        <v>116</v>
-      </c>
-      <c r="K167" t="n">
-        <v>-27.27272727272727</v>
-      </c>
-      <c r="L167" t="n">
-        <v>285.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
-        <v>285.85</v>
-      </c>
-      <c r="N167" t="n">
-        <v>285.2333333333333</v>
-      </c>
-      <c r="O167" t="inlineStr"/>
-      <c r="P167" t="inlineStr"/>
-      <c r="Q167" t="inlineStr"/>
-      <c r="R167" t="inlineStr"/>
-      <c r="S167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8862,28 +6444,12 @@
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>12</v>
-      </c>
-      <c r="J168" t="n">
-        <v>118</v>
-      </c>
-      <c r="K168" t="n">
-        <v>-38.46153846153847</v>
-      </c>
-      <c r="L168" t="n">
-        <v>285.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
-        <v>285.75</v>
-      </c>
-      <c r="N168" t="n">
-        <v>285.1666666666667</v>
-      </c>
-      <c r="O168" t="inlineStr"/>
-      <c r="P168" t="inlineStr"/>
-      <c r="Q168" t="inlineStr"/>
-      <c r="R168" t="inlineStr"/>
-      <c r="S168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8913,28 +6479,12 @@
         <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>12</v>
-      </c>
-      <c r="J169" t="n">
-        <v>118</v>
-      </c>
-      <c r="K169" t="n">
-        <v>-38.46153846153847</v>
-      </c>
-      <c r="L169" t="n">
-        <v>284.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
-        <v>285.65</v>
-      </c>
-      <c r="N169" t="n">
-        <v>285.1</v>
-      </c>
-      <c r="O169" t="inlineStr"/>
-      <c r="P169" t="inlineStr"/>
-      <c r="Q169" t="inlineStr"/>
-      <c r="R169" t="inlineStr"/>
-      <c r="S169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8964,28 +6514,12 @@
         <v>0</v>
       </c>
       <c r="I170" t="n">
-        <v>12</v>
-      </c>
-      <c r="J170" t="n">
-        <v>118</v>
-      </c>
-      <c r="K170" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L170" t="n">
-        <v>284.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
-        <v>285.55</v>
-      </c>
-      <c r="N170" t="n">
-        <v>285.0333333333334</v>
-      </c>
-      <c r="O170" t="inlineStr"/>
-      <c r="P170" t="inlineStr"/>
-      <c r="Q170" t="inlineStr"/>
-      <c r="R170" t="inlineStr"/>
-      <c r="S170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9015,28 +6549,12 @@
         <v>0</v>
       </c>
       <c r="I171" t="n">
-        <v>12</v>
-      </c>
-      <c r="J171" t="n">
-        <v>118</v>
-      </c>
-      <c r="K171" t="n">
-        <v>-45.45454545454545</v>
-      </c>
-      <c r="L171" t="n">
-        <v>283.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
-        <v>285.35</v>
-      </c>
-      <c r="N171" t="n">
-        <v>284.9666666666666</v>
-      </c>
-      <c r="O171" t="inlineStr"/>
-      <c r="P171" t="inlineStr"/>
-      <c r="Q171" t="inlineStr"/>
-      <c r="R171" t="inlineStr"/>
-      <c r="S171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9066,28 +6584,12 @@
         <v>0</v>
       </c>
       <c r="I172" t="n">
-        <v>12</v>
-      </c>
-      <c r="J172" t="n">
-        <v>118</v>
-      </c>
-      <c r="K172" t="n">
-        <v>-45.45454545454545</v>
-      </c>
-      <c r="L172" t="n">
-        <v>283.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
-        <v>285.15</v>
-      </c>
-      <c r="N172" t="n">
-        <v>284.9</v>
-      </c>
-      <c r="O172" t="inlineStr"/>
-      <c r="P172" t="inlineStr"/>
-      <c r="Q172" t="inlineStr"/>
-      <c r="R172" t="inlineStr"/>
-      <c r="S172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9117,28 +6619,12 @@
         <v>0</v>
       </c>
       <c r="I173" t="n">
-        <v>12</v>
-      </c>
-      <c r="J173" t="n">
-        <v>118</v>
-      </c>
-      <c r="K173" t="n">
-        <v>0</v>
-      </c>
-      <c r="L173" t="n">
-        <v>282.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
-        <v>284.85</v>
-      </c>
-      <c r="N173" t="n">
-        <v>284.8333333333333</v>
-      </c>
-      <c r="O173" t="inlineStr"/>
-      <c r="P173" t="inlineStr"/>
-      <c r="Q173" t="inlineStr"/>
-      <c r="R173" t="inlineStr"/>
-      <c r="S173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9168,28 +6654,12 @@
         <v>0</v>
       </c>
       <c r="I174" t="n">
-        <v>12</v>
-      </c>
-      <c r="J174" t="n">
-        <v>118</v>
-      </c>
-      <c r="K174" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L174" t="n">
-        <v>282.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
-        <v>284.6</v>
-      </c>
-      <c r="N174" t="n">
-        <v>284.7666666666667</v>
-      </c>
-      <c r="O174" t="inlineStr"/>
-      <c r="P174" t="inlineStr"/>
-      <c r="Q174" t="inlineStr"/>
-      <c r="R174" t="inlineStr"/>
-      <c r="S174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9219,28 +6689,12 @@
         <v>0</v>
       </c>
       <c r="I175" t="n">
-        <v>12</v>
-      </c>
-      <c r="J175" t="n">
-        <v>118</v>
-      </c>
-      <c r="K175" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L175" t="n">
-        <v>282.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
-        <v>284.35</v>
-      </c>
-      <c r="N175" t="n">
-        <v>284.7</v>
-      </c>
-      <c r="O175" t="inlineStr"/>
-      <c r="P175" t="inlineStr"/>
-      <c r="Q175" t="inlineStr"/>
-      <c r="R175" t="inlineStr"/>
-      <c r="S175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9270,28 +6724,12 @@
         <v>0</v>
       </c>
       <c r="I176" t="n">
-        <v>12</v>
-      </c>
-      <c r="J176" t="n">
-        <v>118</v>
-      </c>
-      <c r="K176" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L176" t="n">
-        <v>282.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
-        <v>284.1</v>
-      </c>
-      <c r="N176" t="n">
-        <v>284.6333333333333</v>
-      </c>
-      <c r="O176" t="inlineStr"/>
-      <c r="P176" t="inlineStr"/>
-      <c r="Q176" t="inlineStr"/>
-      <c r="R176" t="inlineStr"/>
-      <c r="S176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9321,28 +6759,12 @@
         <v>0</v>
       </c>
       <c r="I177" t="n">
-        <v>14</v>
-      </c>
-      <c r="J177" t="n">
-        <v>120</v>
-      </c>
-      <c r="K177" t="n">
-        <v>100</v>
-      </c>
-      <c r="L177" t="n">
-        <v>282.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
-        <v>283.95</v>
-      </c>
-      <c r="N177" t="n">
-        <v>284.6333333333333</v>
-      </c>
-      <c r="O177" t="inlineStr"/>
-      <c r="P177" t="inlineStr"/>
-      <c r="Q177" t="inlineStr"/>
-      <c r="R177" t="inlineStr"/>
-      <c r="S177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9372,28 +6794,12 @@
         <v>0</v>
       </c>
       <c r="I178" t="n">
-        <v>13</v>
-      </c>
-      <c r="J178" t="n">
-        <v>121</v>
-      </c>
-      <c r="K178" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L178" t="n">
-        <v>282.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
-        <v>283.75</v>
-      </c>
-      <c r="N178" t="n">
-        <v>284.6</v>
-      </c>
-      <c r="O178" t="inlineStr"/>
-      <c r="P178" t="inlineStr"/>
-      <c r="Q178" t="inlineStr"/>
-      <c r="R178" t="inlineStr"/>
-      <c r="S178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9423,28 +6829,12 @@
         <v>0</v>
       </c>
       <c r="I179" t="n">
-        <v>14</v>
-      </c>
-      <c r="J179" t="n">
-        <v>122</v>
-      </c>
-      <c r="K179" t="n">
-        <v>50</v>
-      </c>
-      <c r="L179" t="n">
-        <v>282.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
-        <v>283.6</v>
-      </c>
-      <c r="N179" t="n">
-        <v>284.6</v>
-      </c>
-      <c r="O179" t="inlineStr"/>
-      <c r="P179" t="inlineStr"/>
-      <c r="Q179" t="inlineStr"/>
-      <c r="R179" t="inlineStr"/>
-      <c r="S179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9474,28 +6864,12 @@
         <v>0</v>
       </c>
       <c r="I180" t="n">
-        <v>13</v>
-      </c>
-      <c r="J180" t="n">
-        <v>123</v>
-      </c>
-      <c r="K180" t="n">
-        <v>20</v>
-      </c>
-      <c r="L180" t="n">
-        <v>282.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
-        <v>283.4</v>
-      </c>
-      <c r="N180" t="n">
-        <v>284.5666666666667</v>
-      </c>
-      <c r="O180" t="inlineStr"/>
-      <c r="P180" t="inlineStr"/>
-      <c r="Q180" t="inlineStr"/>
-      <c r="R180" t="inlineStr"/>
-      <c r="S180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9525,28 +6899,12 @@
         <v>0</v>
       </c>
       <c r="I181" t="n">
-        <v>13</v>
-      </c>
-      <c r="J181" t="n">
-        <v>123</v>
-      </c>
-      <c r="K181" t="n">
-        <v>20</v>
-      </c>
-      <c r="L181" t="n">
-        <v>282.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
-        <v>283.25</v>
-      </c>
-      <c r="N181" t="n">
-        <v>284.4666666666666</v>
-      </c>
-      <c r="O181" t="inlineStr"/>
-      <c r="P181" t="inlineStr"/>
-      <c r="Q181" t="inlineStr"/>
-      <c r="R181" t="inlineStr"/>
-      <c r="S181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9576,28 +6934,12 @@
         <v>0</v>
       </c>
       <c r="I182" t="n">
-        <v>10</v>
-      </c>
-      <c r="J182" t="n">
-        <v>126</v>
-      </c>
-      <c r="K182" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L182" t="n">
-        <v>282.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
-        <v>282.9</v>
-      </c>
-      <c r="N182" t="n">
-        <v>284.2666666666667</v>
-      </c>
-      <c r="O182" t="inlineStr"/>
-      <c r="P182" t="inlineStr"/>
-      <c r="Q182" t="inlineStr"/>
-      <c r="R182" t="inlineStr"/>
-      <c r="S182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9627,28 +6969,12 @@
         <v>0</v>
       </c>
       <c r="I183" t="n">
-        <v>10</v>
-      </c>
-      <c r="J183" t="n">
-        <v>126</v>
-      </c>
-      <c r="K183" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L183" t="n">
-        <v>282.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
-        <v>282.55</v>
-      </c>
-      <c r="N183" t="n">
-        <v>284</v>
-      </c>
-      <c r="O183" t="inlineStr"/>
-      <c r="P183" t="inlineStr"/>
-      <c r="Q183" t="inlineStr"/>
-      <c r="R183" t="inlineStr"/>
-      <c r="S183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9678,28 +7004,12 @@
         <v>0</v>
       </c>
       <c r="I184" t="n">
-        <v>10</v>
-      </c>
-      <c r="J184" t="n">
-        <v>126</v>
-      </c>
-      <c r="K184" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L184" t="n">
-        <v>282.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
-        <v>282.45</v>
-      </c>
-      <c r="N184" t="n">
-        <v>283.7666666666667</v>
-      </c>
-      <c r="O184" t="inlineStr"/>
-      <c r="P184" t="inlineStr"/>
-      <c r="Q184" t="inlineStr"/>
-      <c r="R184" t="inlineStr"/>
-      <c r="S184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9729,28 +7039,12 @@
         <v>0</v>
       </c>
       <c r="I185" t="n">
-        <v>9</v>
-      </c>
-      <c r="J185" t="n">
-        <v>127</v>
-      </c>
-      <c r="K185" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L185" t="n">
-        <v>281.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
-        <v>282.15</v>
-      </c>
-      <c r="N185" t="n">
-        <v>283.5</v>
-      </c>
-      <c r="O185" t="inlineStr"/>
-      <c r="P185" t="inlineStr"/>
-      <c r="Q185" t="inlineStr"/>
-      <c r="R185" t="inlineStr"/>
-      <c r="S185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9780,28 +7074,12 @@
         <v>0</v>
       </c>
       <c r="I186" t="n">
-        <v>9</v>
-      </c>
-      <c r="J186" t="n">
-        <v>127</v>
-      </c>
-      <c r="K186" t="n">
-        <v>-71.42857142857143</v>
-      </c>
-      <c r="L186" t="n">
-        <v>281.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
-        <v>281.85</v>
-      </c>
-      <c r="N186" t="n">
-        <v>283.2333333333333</v>
-      </c>
-      <c r="O186" t="inlineStr"/>
-      <c r="P186" t="inlineStr"/>
-      <c r="Q186" t="inlineStr"/>
-      <c r="R186" t="inlineStr"/>
-      <c r="S186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9831,28 +7109,12 @@
         <v>0</v>
       </c>
       <c r="I187" t="n">
-        <v>11</v>
-      </c>
-      <c r="J187" t="n">
-        <v>129</v>
-      </c>
-      <c r="K187" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L187" t="n">
-        <v>281.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
-        <v>281.7</v>
-      </c>
-      <c r="N187" t="n">
-        <v>283.0333333333334</v>
-      </c>
-      <c r="O187" t="inlineStr"/>
-      <c r="P187" t="inlineStr"/>
-      <c r="Q187" t="inlineStr"/>
-      <c r="R187" t="inlineStr"/>
-      <c r="S187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9882,28 +7144,12 @@
         <v>0</v>
       </c>
       <c r="I188" t="n">
-        <v>10</v>
-      </c>
-      <c r="J188" t="n">
-        <v>130</v>
-      </c>
-      <c r="K188" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L188" t="n">
-        <v>280.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
-        <v>281.6</v>
-      </c>
-      <c r="N188" t="n">
-        <v>282.8</v>
-      </c>
-      <c r="O188" t="inlineStr"/>
-      <c r="P188" t="inlineStr"/>
-      <c r="Q188" t="inlineStr"/>
-      <c r="R188" t="inlineStr"/>
-      <c r="S188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9933,28 +7179,12 @@
         <v>0</v>
       </c>
       <c r="I189" t="n">
-        <v>11</v>
-      </c>
-      <c r="J189" t="n">
-        <v>131</v>
-      </c>
-      <c r="K189" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L189" t="n">
-        <v>280.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
-        <v>281.55</v>
-      </c>
-      <c r="N189" t="n">
-        <v>282.6</v>
-      </c>
-      <c r="O189" t="inlineStr"/>
-      <c r="P189" t="inlineStr"/>
-      <c r="Q189" t="inlineStr"/>
-      <c r="R189" t="inlineStr"/>
-      <c r="S189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9984,28 +7214,12 @@
         <v>0</v>
       </c>
       <c r="I190" t="n">
-        <v>10</v>
-      </c>
-      <c r="J190" t="n">
-        <v>132</v>
-      </c>
-      <c r="K190" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L190" t="n">
-        <v>280.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
-        <v>281.45</v>
-      </c>
-      <c r="N190" t="n">
-        <v>282.3666666666667</v>
-      </c>
-      <c r="O190" t="inlineStr"/>
-      <c r="P190" t="inlineStr"/>
-      <c r="Q190" t="inlineStr"/>
-      <c r="R190" t="inlineStr"/>
-      <c r="S190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10035,28 +7249,12 @@
         <v>0</v>
       </c>
       <c r="I191" t="n">
-        <v>9</v>
-      </c>
-      <c r="J191" t="n">
-        <v>133</v>
-      </c>
-      <c r="K191" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L191" t="n">
-        <v>279.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
-        <v>281.3</v>
-      </c>
-      <c r="N191" t="n">
-        <v>282.1333333333333</v>
-      </c>
-      <c r="O191" t="inlineStr"/>
-      <c r="P191" t="inlineStr"/>
-      <c r="Q191" t="inlineStr"/>
-      <c r="R191" t="inlineStr"/>
-      <c r="S191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10086,28 +7284,12 @@
         <v>0</v>
       </c>
       <c r="I192" t="n">
-        <v>11</v>
-      </c>
-      <c r="J192" t="n">
-        <v>135</v>
-      </c>
-      <c r="K192" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L192" t="n">
-        <v>280</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
-        <v>281.25</v>
-      </c>
-      <c r="N192" t="n">
-        <v>281.9333333333333</v>
-      </c>
-      <c r="O192" t="inlineStr"/>
-      <c r="P192" t="inlineStr"/>
-      <c r="Q192" t="inlineStr"/>
-      <c r="R192" t="inlineStr"/>
-      <c r="S192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10137,28 +7319,12 @@
         <v>0</v>
       </c>
       <c r="I193" t="n">
-        <v>9</v>
-      </c>
-      <c r="J193" t="n">
-        <v>137</v>
-      </c>
-      <c r="K193" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L193" t="n">
-        <v>279.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
-        <v>281.1</v>
-      </c>
-      <c r="N193" t="n">
-        <v>281.6666666666667</v>
-      </c>
-      <c r="O193" t="inlineStr"/>
-      <c r="P193" t="inlineStr"/>
-      <c r="Q193" t="inlineStr"/>
-      <c r="R193" t="inlineStr"/>
-      <c r="S193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10188,28 +7354,12 @@
         <v>0</v>
       </c>
       <c r="I194" t="n">
-        <v>7</v>
-      </c>
-      <c r="J194" t="n">
-        <v>139</v>
-      </c>
-      <c r="K194" t="n">
-        <v>-16.66666666666666</v>
-      </c>
-      <c r="L194" t="n">
-        <v>279.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
-        <v>280.85</v>
-      </c>
-      <c r="N194" t="n">
-        <v>281.5</v>
-      </c>
-      <c r="O194" t="inlineStr"/>
-      <c r="P194" t="inlineStr"/>
-      <c r="Q194" t="inlineStr"/>
-      <c r="R194" t="inlineStr"/>
-      <c r="S194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10239,28 +7389,12 @@
         <v>0</v>
       </c>
       <c r="I195" t="n">
-        <v>6</v>
-      </c>
-      <c r="J195" t="n">
-        <v>140</v>
-      </c>
-      <c r="K195" t="n">
-        <v>-23.07692307692308</v>
-      </c>
-      <c r="L195" t="n">
-        <v>279.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
-        <v>280.55</v>
-      </c>
-      <c r="N195" t="n">
-        <v>281.2</v>
-      </c>
-      <c r="O195" t="inlineStr"/>
-      <c r="P195" t="inlineStr"/>
-      <c r="Q195" t="inlineStr"/>
-      <c r="R195" t="inlineStr"/>
-      <c r="S195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10290,28 +7424,12 @@
         <v>0</v>
       </c>
       <c r="I196" t="n">
-        <v>7</v>
-      </c>
-      <c r="J196" t="n">
-        <v>141</v>
-      </c>
-      <c r="K196" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L196" t="n">
-        <v>279.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
-        <v>280.3</v>
-      </c>
-      <c r="N196" t="n">
-        <v>280.9333333333333</v>
-      </c>
-      <c r="O196" t="inlineStr"/>
-      <c r="P196" t="inlineStr"/>
-      <c r="Q196" t="inlineStr"/>
-      <c r="R196" t="inlineStr"/>
-      <c r="S196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10341,28 +7459,12 @@
         <v>0</v>
       </c>
       <c r="I197" t="n">
-        <v>7</v>
-      </c>
-      <c r="J197" t="n">
-        <v>141</v>
-      </c>
-      <c r="K197" t="n">
-        <v>-27.27272727272727</v>
-      </c>
-      <c r="L197" t="n">
-        <v>278.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
-        <v>279.95</v>
-      </c>
-      <c r="N197" t="n">
-        <v>280.7</v>
-      </c>
-      <c r="O197" t="inlineStr"/>
-      <c r="P197" t="inlineStr"/>
-      <c r="Q197" t="inlineStr"/>
-      <c r="R197" t="inlineStr"/>
-      <c r="S197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10392,28 +7494,12 @@
         <v>0</v>
       </c>
       <c r="I198" t="n">
-        <v>7</v>
-      </c>
-      <c r="J198" t="n">
-        <v>141</v>
-      </c>
-      <c r="K198" t="n">
-        <v>-40</v>
-      </c>
-      <c r="L198" t="n">
-        <v>278.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
-        <v>279.65</v>
-      </c>
-      <c r="N198" t="n">
-        <v>280.5333333333334</v>
-      </c>
-      <c r="O198" t="inlineStr"/>
-      <c r="P198" t="inlineStr"/>
-      <c r="Q198" t="inlineStr"/>
-      <c r="R198" t="inlineStr"/>
-      <c r="S198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10443,28 +7529,12 @@
         <v>0</v>
       </c>
       <c r="I199" t="n">
-        <v>7</v>
-      </c>
-      <c r="J199" t="n">
-        <v>141</v>
-      </c>
-      <c r="K199" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L199" t="n">
-        <v>278</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
-        <v>279.3</v>
-      </c>
-      <c r="N199" t="n">
-        <v>280.3666666666667</v>
-      </c>
-      <c r="O199" t="inlineStr"/>
-      <c r="P199" t="inlineStr"/>
-      <c r="Q199" t="inlineStr"/>
-      <c r="R199" t="inlineStr"/>
-      <c r="S199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10494,28 +7564,12 @@
         <v>0</v>
       </c>
       <c r="I200" t="n">
-        <v>9</v>
-      </c>
-      <c r="J200" t="n">
-        <v>143</v>
-      </c>
-      <c r="K200" t="n">
-        <v>0</v>
-      </c>
-      <c r="L200" t="n">
-        <v>277.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
-        <v>279.1</v>
-      </c>
-      <c r="N200" t="n">
-        <v>280.2666666666667</v>
-      </c>
-      <c r="O200" t="inlineStr"/>
-      <c r="P200" t="inlineStr"/>
-      <c r="Q200" t="inlineStr"/>
-      <c r="R200" t="inlineStr"/>
-      <c r="S200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10545,28 +7599,12 @@
         <v>0</v>
       </c>
       <c r="I201" t="n">
-        <v>9</v>
-      </c>
-      <c r="J201" t="n">
-        <v>143</v>
-      </c>
-      <c r="K201" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L201" t="n">
-        <v>277.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
-        <v>278.9</v>
-      </c>
-      <c r="N201" t="n">
-        <v>280.1666666666667</v>
-      </c>
-      <c r="O201" t="inlineStr"/>
-      <c r="P201" t="inlineStr"/>
-      <c r="Q201" t="inlineStr"/>
-      <c r="R201" t="inlineStr"/>
-      <c r="S201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10596,28 +7634,12 @@
         <v>0</v>
       </c>
       <c r="I202" t="n">
-        <v>9</v>
-      </c>
-      <c r="J202" t="n">
-        <v>143</v>
-      </c>
-      <c r="K202" t="n">
-        <v>0</v>
-      </c>
-      <c r="L202" t="n">
-        <v>277.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
-        <v>278.85</v>
-      </c>
-      <c r="N202" t="n">
-        <v>280.0666666666667</v>
-      </c>
-      <c r="O202" t="inlineStr"/>
-      <c r="P202" t="inlineStr"/>
-      <c r="Q202" t="inlineStr"/>
-      <c r="R202" t="inlineStr"/>
-      <c r="S202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10647,28 +7669,12 @@
         <v>0</v>
       </c>
       <c r="I203" t="n">
-        <v>11</v>
-      </c>
-      <c r="J203" t="n">
-        <v>145</v>
-      </c>
-      <c r="K203" t="n">
-        <v>66.66666666666666</v>
-      </c>
-      <c r="L203" t="n">
-        <v>277.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
-        <v>278.9</v>
-      </c>
-      <c r="N203" t="n">
-        <v>280.0333333333334</v>
-      </c>
-      <c r="O203" t="inlineStr"/>
-      <c r="P203" t="inlineStr"/>
-      <c r="Q203" t="inlineStr"/>
-      <c r="R203" t="inlineStr"/>
-      <c r="S203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10698,28 +7704,12 @@
         <v>0</v>
       </c>
       <c r="I204" t="n">
-        <v>10</v>
-      </c>
-      <c r="J204" t="n">
-        <v>146</v>
-      </c>
-      <c r="K204" t="n">
-        <v>66.66666666666666</v>
-      </c>
-      <c r="L204" t="n">
-        <v>278.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
-        <v>278.9</v>
-      </c>
-      <c r="N204" t="n">
-        <v>279.9666666666666</v>
-      </c>
-      <c r="O204" t="inlineStr"/>
-      <c r="P204" t="inlineStr"/>
-      <c r="Q204" t="inlineStr"/>
-      <c r="R204" t="inlineStr"/>
-      <c r="S204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10749,28 +7739,12 @@
         <v>0</v>
       </c>
       <c r="I205" t="n">
-        <v>9</v>
-      </c>
-      <c r="J205" t="n">
-        <v>147</v>
-      </c>
-      <c r="K205" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L205" t="n">
-        <v>278.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
-        <v>278.9</v>
-      </c>
-      <c r="N205" t="n">
-        <v>279.8666666666667</v>
-      </c>
-      <c r="O205" t="inlineStr"/>
-      <c r="P205" t="inlineStr"/>
-      <c r="Q205" t="inlineStr"/>
-      <c r="R205" t="inlineStr"/>
-      <c r="S205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10800,28 +7774,12 @@
         <v>0</v>
       </c>
       <c r="I206" t="n">
-        <v>10</v>
-      </c>
-      <c r="J206" t="n">
-        <v>148</v>
-      </c>
-      <c r="K206" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L206" t="n">
-        <v>278.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
-        <v>278.95</v>
-      </c>
-      <c r="N206" t="n">
-        <v>279.8</v>
-      </c>
-      <c r="O206" t="inlineStr"/>
-      <c r="P206" t="inlineStr"/>
-      <c r="Q206" t="inlineStr"/>
-      <c r="R206" t="inlineStr"/>
-      <c r="S206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10851,28 +7809,12 @@
         <v>0</v>
       </c>
       <c r="I207" t="n">
-        <v>10</v>
-      </c>
-      <c r="J207" t="n">
-        <v>148</v>
-      </c>
-      <c r="K207" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L207" t="n">
-        <v>279.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
-        <v>278.9</v>
-      </c>
-      <c r="N207" t="n">
-        <v>279.6666666666667</v>
-      </c>
-      <c r="O207" t="inlineStr"/>
-      <c r="P207" t="inlineStr"/>
-      <c r="Q207" t="inlineStr"/>
-      <c r="R207" t="inlineStr"/>
-      <c r="S207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10902,28 +7844,12 @@
         <v>0</v>
       </c>
       <c r="I208" t="n">
-        <v>11</v>
-      </c>
-      <c r="J208" t="n">
-        <v>149</v>
-      </c>
-      <c r="K208" t="n">
-        <v>50</v>
-      </c>
-      <c r="L208" t="n">
-        <v>279.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
-        <v>278.95</v>
-      </c>
-      <c r="N208" t="n">
-        <v>279.6</v>
-      </c>
-      <c r="O208" t="inlineStr"/>
-      <c r="P208" t="inlineStr"/>
-      <c r="Q208" t="inlineStr"/>
-      <c r="R208" t="inlineStr"/>
-      <c r="S208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10953,28 +7879,12 @@
         <v>0</v>
       </c>
       <c r="I209" t="n">
-        <v>12</v>
-      </c>
-      <c r="J209" t="n">
-        <v>150</v>
-      </c>
-      <c r="K209" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L209" t="n">
-        <v>280</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
-        <v>279</v>
-      </c>
-      <c r="N209" t="n">
-        <v>279.5333333333334</v>
-      </c>
-      <c r="O209" t="inlineStr"/>
-      <c r="P209" t="inlineStr"/>
-      <c r="Q209" t="inlineStr"/>
-      <c r="R209" t="inlineStr"/>
-      <c r="S209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11004,28 +7914,12 @@
         <v>0</v>
       </c>
       <c r="I210" t="n">
-        <v>13</v>
-      </c>
-      <c r="J210" t="n">
-        <v>151</v>
-      </c>
-      <c r="K210" t="n">
-        <v>50</v>
-      </c>
-      <c r="L210" t="n">
-        <v>280.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
-        <v>279.15</v>
-      </c>
-      <c r="N210" t="n">
-        <v>279.5333333333334</v>
-      </c>
-      <c r="O210" t="inlineStr"/>
-      <c r="P210" t="inlineStr"/>
-      <c r="Q210" t="inlineStr"/>
-      <c r="R210" t="inlineStr"/>
-      <c r="S210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11055,28 +7949,12 @@
         <v>0</v>
       </c>
       <c r="I211" t="n">
-        <v>13</v>
-      </c>
-      <c r="J211" t="n">
-        <v>151</v>
-      </c>
-      <c r="K211" t="n">
-        <v>50</v>
-      </c>
-      <c r="L211" t="n">
-        <v>280.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
-        <v>279.35</v>
-      </c>
-      <c r="N211" t="n">
-        <v>279.5333333333334</v>
-      </c>
-      <c r="O211" t="inlineStr"/>
-      <c r="P211" t="inlineStr"/>
-      <c r="Q211" t="inlineStr"/>
-      <c r="R211" t="inlineStr"/>
-      <c r="S211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11106,28 +7984,12 @@
         <v>0</v>
       </c>
       <c r="I212" t="n">
-        <v>15</v>
-      </c>
-      <c r="J212" t="n">
-        <v>153</v>
-      </c>
-      <c r="K212" t="n">
-        <v>50</v>
-      </c>
-      <c r="L212" t="n">
-        <v>281.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
-        <v>279.55</v>
-      </c>
-      <c r="N212" t="n">
-        <v>279.7</v>
-      </c>
-      <c r="O212" t="inlineStr"/>
-      <c r="P212" t="inlineStr"/>
-      <c r="Q212" t="inlineStr"/>
-      <c r="R212" t="inlineStr"/>
-      <c r="S212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11157,28 +8019,12 @@
         <v>0</v>
       </c>
       <c r="I213" t="n">
-        <v>16</v>
-      </c>
-      <c r="J213" t="n">
-        <v>154</v>
-      </c>
-      <c r="K213" t="n">
-        <v>75</v>
-      </c>
-      <c r="L213" t="n">
-        <v>281.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
       <c r="M213" t="n">
-        <v>279.9</v>
-      </c>
-      <c r="N213" t="n">
-        <v>279.9</v>
-      </c>
-      <c r="O213" t="inlineStr"/>
-      <c r="P213" t="inlineStr"/>
-      <c r="Q213" t="inlineStr"/>
-      <c r="R213" t="inlineStr"/>
-      <c r="S213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11208,28 +8054,12 @@
         <v>0</v>
       </c>
       <c r="I214" t="n">
-        <v>16</v>
-      </c>
-      <c r="J214" t="n">
-        <v>154</v>
-      </c>
-      <c r="K214" t="n">
-        <v>100</v>
-      </c>
-      <c r="L214" t="n">
-        <v>282.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
       <c r="M214" t="n">
-        <v>280.35</v>
-      </c>
-      <c r="N214" t="n">
-        <v>280.1</v>
-      </c>
-      <c r="O214" t="inlineStr"/>
-      <c r="P214" t="inlineStr"/>
-      <c r="Q214" t="inlineStr"/>
-      <c r="R214" t="inlineStr"/>
-      <c r="S214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11259,28 +8089,12 @@
         <v>0</v>
       </c>
       <c r="I215" t="n">
-        <v>14</v>
-      </c>
-      <c r="J215" t="n">
-        <v>156</v>
-      </c>
-      <c r="K215" t="n">
-        <v>50</v>
-      </c>
-      <c r="L215" t="n">
-        <v>283</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
       <c r="M215" t="n">
-        <v>280.75</v>
-      </c>
-      <c r="N215" t="n">
-        <v>280.2666666666667</v>
-      </c>
-      <c r="O215" t="inlineStr"/>
-      <c r="P215" t="inlineStr"/>
-      <c r="Q215" t="inlineStr"/>
-      <c r="R215" t="inlineStr"/>
-      <c r="S215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11310,28 +8124,12 @@
         <v>0</v>
       </c>
       <c r="I216" t="n">
-        <v>17</v>
-      </c>
-      <c r="J216" t="n">
-        <v>159</v>
-      </c>
-      <c r="K216" t="n">
-        <v>63.63636363636363</v>
-      </c>
-      <c r="L216" t="n">
-        <v>283.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
       <c r="M216" t="n">
-        <v>281.25</v>
-      </c>
-      <c r="N216" t="n">
-        <v>280.5333333333334</v>
-      </c>
-      <c r="O216" t="inlineStr"/>
-      <c r="P216" t="inlineStr"/>
-      <c r="Q216" t="inlineStr"/>
-      <c r="R216" t="inlineStr"/>
-      <c r="S216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11361,28 +8159,12 @@
         <v>0</v>
       </c>
       <c r="I217" t="n">
-        <v>16</v>
-      </c>
-      <c r="J217" t="n">
-        <v>160</v>
-      </c>
-      <c r="K217" t="n">
-        <v>45.45454545454545</v>
-      </c>
-      <c r="L217" t="n">
-        <v>284.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
       <c r="M217" t="n">
-        <v>281.7</v>
-      </c>
-      <c r="N217" t="n">
-        <v>280.7</v>
-      </c>
-      <c r="O217" t="inlineStr"/>
-      <c r="P217" t="inlineStr"/>
-      <c r="Q217" t="inlineStr"/>
-      <c r="R217" t="inlineStr"/>
-      <c r="S217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11412,28 +8194,12 @@
         <v>0</v>
       </c>
       <c r="I218" t="n">
-        <v>15</v>
-      </c>
-      <c r="J218" t="n">
-        <v>161</v>
-      </c>
-      <c r="K218" t="n">
-        <v>27.27272727272727</v>
-      </c>
-      <c r="L218" t="n">
-        <v>284.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
       <c r="M218" t="n">
-        <v>282.1</v>
-      </c>
-      <c r="N218" t="n">
-        <v>280.8666666666667</v>
-      </c>
-      <c r="O218" t="inlineStr"/>
-      <c r="P218" t="inlineStr"/>
-      <c r="Q218" t="inlineStr"/>
-      <c r="R218" t="inlineStr"/>
-      <c r="S218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11463,28 +8229,12 @@
         <v>0</v>
       </c>
       <c r="I219" t="n">
-        <v>15</v>
-      </c>
-      <c r="J219" t="n">
-        <v>161</v>
-      </c>
-      <c r="K219" t="n">
-        <v>20</v>
-      </c>
-      <c r="L219" t="n">
-        <v>285</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
-        <v>282.5</v>
-      </c>
-      <c r="N219" t="n">
-        <v>281</v>
-      </c>
-      <c r="O219" t="inlineStr"/>
-      <c r="P219" t="inlineStr"/>
-      <c r="Q219" t="inlineStr"/>
-      <c r="R219" t="inlineStr"/>
-      <c r="S219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11514,28 +8264,12 @@
         <v>0</v>
       </c>
       <c r="I220" t="n">
-        <v>15</v>
-      </c>
-      <c r="J220" t="n">
-        <v>161</v>
-      </c>
-      <c r="K220" t="n">
-        <v>20</v>
-      </c>
-      <c r="L220" t="n">
-        <v>285.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
       <c r="M220" t="n">
-        <v>282.8</v>
-      </c>
-      <c r="N220" t="n">
-        <v>281.1666666666667</v>
-      </c>
-      <c r="O220" t="inlineStr"/>
-      <c r="P220" t="inlineStr"/>
-      <c r="Q220" t="inlineStr"/>
-      <c r="R220" t="inlineStr"/>
-      <c r="S220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11565,28 +8299,12 @@
         <v>0</v>
       </c>
       <c r="I221" t="n">
-        <v>16</v>
-      </c>
-      <c r="J221" t="n">
-        <v>162</v>
-      </c>
-      <c r="K221" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L221" t="n">
-        <v>285.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
       <c r="M221" t="n">
-        <v>283.15</v>
-      </c>
-      <c r="N221" t="n">
-        <v>281.4</v>
-      </c>
-      <c r="O221" t="inlineStr"/>
-      <c r="P221" t="inlineStr"/>
-      <c r="Q221" t="inlineStr"/>
-      <c r="R221" t="inlineStr"/>
-      <c r="S221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11616,28 +8334,12 @@
         <v>0</v>
       </c>
       <c r="I222" t="n">
-        <v>15</v>
-      </c>
-      <c r="J222" t="n">
-        <v>163</v>
-      </c>
-      <c r="K222" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L222" t="n">
-        <v>285.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
       <c r="M222" t="n">
-        <v>283.45</v>
-      </c>
-      <c r="N222" t="n">
-        <v>281.5333333333334</v>
-      </c>
-      <c r="O222" t="inlineStr"/>
-      <c r="P222" t="inlineStr"/>
-      <c r="Q222" t="inlineStr"/>
-      <c r="R222" t="inlineStr"/>
-      <c r="S222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11667,28 +8369,12 @@
         <v>0</v>
       </c>
       <c r="I223" t="n">
-        <v>14</v>
-      </c>
-      <c r="J223" t="n">
-        <v>164</v>
-      </c>
-      <c r="K223" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L223" t="n">
-        <v>285.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
       <c r="M223" t="n">
-        <v>283.6</v>
-      </c>
-      <c r="N223" t="n">
-        <v>281.7</v>
-      </c>
-      <c r="O223" t="inlineStr"/>
-      <c r="P223" t="inlineStr"/>
-      <c r="Q223" t="inlineStr"/>
-      <c r="R223" t="inlineStr"/>
-      <c r="S223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11718,28 +8404,12 @@
         <v>0</v>
       </c>
       <c r="I224" t="n">
-        <v>14</v>
-      </c>
-      <c r="J224" t="n">
-        <v>164</v>
-      </c>
-      <c r="K224" t="n">
-        <v>0</v>
-      </c>
-      <c r="L224" t="n">
-        <v>285.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
       <c r="M224" t="n">
-        <v>283.8</v>
-      </c>
-      <c r="N224" t="n">
-        <v>281.9333333333333</v>
-      </c>
-      <c r="O224" t="inlineStr"/>
-      <c r="P224" t="inlineStr"/>
-      <c r="Q224" t="inlineStr"/>
-      <c r="R224" t="inlineStr"/>
-      <c r="S224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11769,28 +8439,12 @@
         <v>0</v>
       </c>
       <c r="I225" t="n">
-        <v>14</v>
-      </c>
-      <c r="J225" t="n">
-        <v>164</v>
-      </c>
-      <c r="K225" t="n">
-        <v>-60</v>
-      </c>
-      <c r="L225" t="n">
-        <v>285.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
       <c r="M225" t="n">
-        <v>284.05</v>
-      </c>
-      <c r="N225" t="n">
-        <v>282.2</v>
-      </c>
-      <c r="O225" t="inlineStr"/>
-      <c r="P225" t="inlineStr"/>
-      <c r="Q225" t="inlineStr"/>
-      <c r="R225" t="inlineStr"/>
-      <c r="S225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11820,28 +8474,12 @@
         <v>0</v>
       </c>
       <c r="I226" t="n">
-        <v>15</v>
-      </c>
-      <c r="J226" t="n">
-        <v>165</v>
-      </c>
-      <c r="K226" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L226" t="n">
-        <v>284.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
       <c r="M226" t="n">
-        <v>284.3</v>
-      </c>
-      <c r="N226" t="n">
-        <v>282.4666666666666</v>
-      </c>
-      <c r="O226" t="inlineStr"/>
-      <c r="P226" t="inlineStr"/>
-      <c r="Q226" t="inlineStr"/>
-      <c r="R226" t="inlineStr"/>
-      <c r="S226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11871,28 +8509,12 @@
         <v>0</v>
       </c>
       <c r="I227" t="n">
-        <v>16</v>
-      </c>
-      <c r="J227" t="n">
-        <v>166</v>
-      </c>
-      <c r="K227" t="n">
-        <v>20</v>
-      </c>
-      <c r="L227" t="n">
-        <v>284.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
       <c r="M227" t="n">
-        <v>284.6</v>
-      </c>
-      <c r="N227" t="n">
-        <v>282.7666666666667</v>
-      </c>
-      <c r="O227" t="inlineStr"/>
-      <c r="P227" t="inlineStr"/>
-      <c r="Q227" t="inlineStr"/>
-      <c r="R227" t="inlineStr"/>
-      <c r="S227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11922,28 +8544,12 @@
         <v>0</v>
       </c>
       <c r="I228" t="n">
-        <v>16</v>
-      </c>
-      <c r="J228" t="n">
-        <v>166</v>
-      </c>
-      <c r="K228" t="n">
-        <v>20</v>
-      </c>
-      <c r="L228" t="n">
-        <v>285</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
       <c r="M228" t="n">
-        <v>284.85</v>
-      </c>
-      <c r="N228" t="n">
-        <v>283.0666666666667</v>
-      </c>
-      <c r="O228" t="inlineStr"/>
-      <c r="P228" t="inlineStr"/>
-      <c r="Q228" t="inlineStr"/>
-      <c r="R228" t="inlineStr"/>
-      <c r="S228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11973,28 +8579,12 @@
         <v>0</v>
       </c>
       <c r="I229" t="n">
-        <v>15</v>
-      </c>
-      <c r="J229" t="n">
-        <v>167</v>
-      </c>
-      <c r="K229" t="n">
-        <v>0</v>
-      </c>
-      <c r="L229" t="n">
-        <v>285</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
       <c r="M229" t="n">
-        <v>285</v>
-      </c>
-      <c r="N229" t="n">
-        <v>283.3333333333333</v>
-      </c>
-      <c r="O229" t="inlineStr"/>
-      <c r="P229" t="inlineStr"/>
-      <c r="Q229" t="inlineStr"/>
-      <c r="R229" t="inlineStr"/>
-      <c r="S229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12024,28 +8614,12 @@
         <v>0</v>
       </c>
       <c r="I230" t="n">
-        <v>16</v>
-      </c>
-      <c r="J230" t="n">
-        <v>168</v>
-      </c>
-      <c r="K230" t="n">
-        <v>0</v>
-      </c>
-      <c r="L230" t="n">
-        <v>285.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
       <c r="M230" t="n">
-        <v>285.15</v>
-      </c>
-      <c r="N230" t="n">
-        <v>283.5666666666667</v>
-      </c>
-      <c r="O230" t="inlineStr"/>
-      <c r="P230" t="inlineStr"/>
-      <c r="Q230" t="inlineStr"/>
-      <c r="R230" t="inlineStr"/>
-      <c r="S230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12075,28 +8649,12 @@
         <v>0</v>
       </c>
       <c r="I231" t="n">
-        <v>15</v>
-      </c>
-      <c r="J231" t="n">
-        <v>169</v>
-      </c>
-      <c r="K231" t="n">
-        <v>0</v>
-      </c>
-      <c r="L231" t="n">
-        <v>285</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
       <c r="M231" t="n">
-        <v>285.25</v>
-      </c>
-      <c r="N231" t="n">
-        <v>283.7666666666667</v>
-      </c>
-      <c r="O231" t="inlineStr"/>
-      <c r="P231" t="inlineStr"/>
-      <c r="Q231" t="inlineStr"/>
-      <c r="R231" t="inlineStr"/>
-      <c r="S231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12126,28 +8684,12 @@
         <v>0</v>
       </c>
       <c r="I232" t="n">
-        <v>16</v>
-      </c>
-      <c r="J232" t="n">
-        <v>170</v>
-      </c>
-      <c r="K232" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L232" t="n">
-        <v>285.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
       <c r="M232" t="n">
-        <v>285.3</v>
-      </c>
-      <c r="N232" t="n">
-        <v>284</v>
-      </c>
-      <c r="O232" t="inlineStr"/>
-      <c r="P232" t="inlineStr"/>
-      <c r="Q232" t="inlineStr"/>
-      <c r="R232" t="inlineStr"/>
-      <c r="S232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12177,28 +8719,12 @@
         <v>0</v>
       </c>
       <c r="I233" t="n">
-        <v>14</v>
-      </c>
-      <c r="J233" t="n">
-        <v>172</v>
-      </c>
-      <c r="K233" t="n">
-        <v>0</v>
-      </c>
-      <c r="L233" t="n">
-        <v>285.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
       <c r="M233" t="n">
-        <v>285.2</v>
-      </c>
-      <c r="N233" t="n">
-        <v>284.1</v>
-      </c>
-      <c r="O233" t="inlineStr"/>
-      <c r="P233" t="inlineStr"/>
-      <c r="Q233" t="inlineStr"/>
-      <c r="R233" t="inlineStr"/>
-      <c r="S233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12228,28 +8754,12 @@
         <v>0</v>
       </c>
       <c r="I234" t="n">
-        <v>16</v>
-      </c>
-      <c r="J234" t="n">
-        <v>174</v>
-      </c>
-      <c r="K234" t="n">
-        <v>20</v>
-      </c>
-      <c r="L234" t="n">
-        <v>285.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
       <c r="M234" t="n">
-        <v>285.2</v>
-      </c>
-      <c r="N234" t="n">
-        <v>284.3</v>
-      </c>
-      <c r="O234" t="inlineStr"/>
-      <c r="P234" t="inlineStr"/>
-      <c r="Q234" t="inlineStr"/>
-      <c r="R234" t="inlineStr"/>
-      <c r="S234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12279,28 +8789,12 @@
         <v>0</v>
       </c>
       <c r="I235" t="n">
-        <v>15</v>
-      </c>
-      <c r="J235" t="n">
-        <v>175</v>
-      </c>
-      <c r="K235" t="n">
-        <v>0</v>
-      </c>
-      <c r="L235" t="n">
-        <v>285.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
       <c r="M235" t="n">
-        <v>285.25</v>
-      </c>
-      <c r="N235" t="n">
-        <v>284.5</v>
-      </c>
-      <c r="O235" t="inlineStr"/>
-      <c r="P235" t="inlineStr"/>
-      <c r="Q235" t="inlineStr"/>
-      <c r="R235" t="inlineStr"/>
-      <c r="S235" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12330,28 +8824,12 @@
         <v>0</v>
       </c>
       <c r="I236" t="n">
-        <v>15</v>
-      </c>
-      <c r="J236" t="n">
-        <v>175</v>
-      </c>
-      <c r="K236" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L236" t="n">
-        <v>285.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
       <c r="M236" t="n">
-        <v>285.15</v>
-      </c>
-      <c r="N236" t="n">
-        <v>284.6666666666667</v>
-      </c>
-      <c r="O236" t="inlineStr"/>
-      <c r="P236" t="inlineStr"/>
-      <c r="Q236" t="inlineStr"/>
-      <c r="R236" t="inlineStr"/>
-      <c r="S236" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12381,28 +8859,12 @@
         <v>0</v>
       </c>
       <c r="I237" t="n">
-        <v>15</v>
-      </c>
-      <c r="J237" t="n">
-        <v>175</v>
-      </c>
-      <c r="K237" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L237" t="n">
-        <v>285.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
       <c r="M237" t="n">
-        <v>285.1</v>
-      </c>
-      <c r="N237" t="n">
-        <v>284.8333333333333</v>
-      </c>
-      <c r="O237" t="inlineStr"/>
-      <c r="P237" t="inlineStr"/>
-      <c r="Q237" t="inlineStr"/>
-      <c r="R237" t="inlineStr"/>
-      <c r="S237" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12432,28 +8894,12 @@
         <v>0</v>
       </c>
       <c r="I238" t="n">
-        <v>15</v>
-      </c>
-      <c r="J238" t="n">
-        <v>175</v>
-      </c>
-      <c r="K238" t="n">
-        <v>0</v>
-      </c>
-      <c r="L238" t="n">
-        <v>285.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
       <c r="M238" t="n">
-        <v>285.1</v>
-      </c>
-      <c r="N238" t="n">
-        <v>284.9666666666666</v>
-      </c>
-      <c r="O238" t="inlineStr"/>
-      <c r="P238" t="inlineStr"/>
-      <c r="Q238" t="inlineStr"/>
-      <c r="R238" t="inlineStr"/>
-      <c r="S238" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12483,28 +8929,12 @@
         <v>0</v>
       </c>
       <c r="I239" t="n">
-        <v>15</v>
-      </c>
-      <c r="J239" t="n">
-        <v>175</v>
-      </c>
-      <c r="K239" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L239" t="n">
-        <v>285.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
       <c r="M239" t="n">
-        <v>285.1</v>
-      </c>
-      <c r="N239" t="n">
-        <v>285.0666666666667</v>
-      </c>
-      <c r="O239" t="inlineStr"/>
-      <c r="P239" t="inlineStr"/>
-      <c r="Q239" t="inlineStr"/>
-      <c r="R239" t="inlineStr"/>
-      <c r="S239" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12534,28 +8964,12 @@
         <v>0</v>
       </c>
       <c r="I240" t="n">
-        <v>15</v>
-      </c>
-      <c r="J240" t="n">
-        <v>175</v>
-      </c>
-      <c r="K240" t="n">
-        <v>0</v>
-      </c>
-      <c r="L240" t="n">
-        <v>285.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
       <c r="M240" t="n">
-        <v>285.1</v>
-      </c>
-      <c r="N240" t="n">
-        <v>285.1333333333333</v>
-      </c>
-      <c r="O240" t="inlineStr"/>
-      <c r="P240" t="inlineStr"/>
-      <c r="Q240" t="inlineStr"/>
-      <c r="R240" t="inlineStr"/>
-      <c r="S240" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12585,28 +8999,12 @@
         <v>0</v>
       </c>
       <c r="I241" t="n">
-        <v>15</v>
-      </c>
-      <c r="J241" t="n">
-        <v>175</v>
-      </c>
-      <c r="K241" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L241" t="n">
-        <v>285.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
       <c r="M241" t="n">
-        <v>285.05</v>
-      </c>
-      <c r="N241" t="n">
-        <v>285.2</v>
-      </c>
-      <c r="O241" t="inlineStr"/>
-      <c r="P241" t="inlineStr"/>
-      <c r="Q241" t="inlineStr"/>
-      <c r="R241" t="inlineStr"/>
-      <c r="S241" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12636,28 +9034,12 @@
         <v>0</v>
       </c>
       <c r="I242" t="n">
-        <v>16</v>
-      </c>
-      <c r="J242" t="n">
-        <v>176</v>
-      </c>
-      <c r="K242" t="n">
-        <v>50</v>
-      </c>
-      <c r="L242" t="n">
-        <v>285.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
       <c r="M242" t="n">
-        <v>285.1</v>
-      </c>
-      <c r="N242" t="n">
-        <v>285.2333333333333</v>
-      </c>
-      <c r="O242" t="inlineStr"/>
-      <c r="P242" t="inlineStr"/>
-      <c r="Q242" t="inlineStr"/>
-      <c r="R242" t="inlineStr"/>
-      <c r="S242" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12687,28 +9069,12 @@
         <v>0</v>
       </c>
       <c r="I243" t="n">
-        <v>16</v>
-      </c>
-      <c r="J243" t="n">
-        <v>176</v>
-      </c>
-      <c r="K243" t="n">
-        <v>0</v>
-      </c>
-      <c r="L243" t="n">
-        <v>285.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
       <c r="M243" t="n">
-        <v>285.2</v>
-      </c>
-      <c r="N243" t="n">
-        <v>285.2333333333333</v>
-      </c>
-      <c r="O243" t="inlineStr"/>
-      <c r="P243" t="inlineStr"/>
-      <c r="Q243" t="inlineStr"/>
-      <c r="R243" t="inlineStr"/>
-      <c r="S243" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12738,28 +9104,12 @@
         <v>0</v>
       </c>
       <c r="I244" t="n">
-        <v>16</v>
-      </c>
-      <c r="J244" t="n">
-        <v>176</v>
-      </c>
-      <c r="K244" t="n">
-        <v>100</v>
-      </c>
-      <c r="L244" t="n">
-        <v>285.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
       <c r="M244" t="n">
-        <v>285.3</v>
-      </c>
-      <c r="N244" t="n">
-        <v>285.2333333333333</v>
-      </c>
-      <c r="O244" t="inlineStr"/>
-      <c r="P244" t="inlineStr"/>
-      <c r="Q244" t="inlineStr"/>
-      <c r="R244" t="inlineStr"/>
-      <c r="S244" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12789,28 +9139,12 @@
         <v>0</v>
       </c>
       <c r="I245" t="n">
-        <v>17</v>
-      </c>
-      <c r="J245" t="n">
-        <v>177</v>
-      </c>
-      <c r="K245" t="n">
-        <v>100</v>
-      </c>
-      <c r="L245" t="n">
-        <v>285.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
       <c r="M245" t="n">
-        <v>285.45</v>
-      </c>
-      <c r="N245" t="n">
-        <v>285.3333333333333</v>
-      </c>
-      <c r="O245" t="inlineStr"/>
-      <c r="P245" t="inlineStr"/>
-      <c r="Q245" t="inlineStr"/>
-      <c r="R245" t="inlineStr"/>
-      <c r="S245" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12840,28 +9174,12 @@
         <v>0</v>
       </c>
       <c r="I246" t="n">
-        <v>16</v>
-      </c>
-      <c r="J246" t="n">
-        <v>178</v>
-      </c>
-      <c r="K246" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L246" t="n">
-        <v>285.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
       <c r="M246" t="n">
-        <v>285.5</v>
-      </c>
-      <c r="N246" t="n">
-        <v>285.3</v>
-      </c>
-      <c r="O246" t="inlineStr"/>
-      <c r="P246" t="inlineStr"/>
-      <c r="Q246" t="inlineStr"/>
-      <c r="R246" t="inlineStr"/>
-      <c r="S246" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12891,28 +9209,12 @@
         <v>0</v>
       </c>
       <c r="I247" t="n">
-        <v>17</v>
-      </c>
-      <c r="J247" t="n">
-        <v>179</v>
-      </c>
-      <c r="K247" t="n">
-        <v>50</v>
-      </c>
-      <c r="L247" t="n">
-        <v>285.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
       <c r="M247" t="n">
-        <v>285.55</v>
-      </c>
-      <c r="N247" t="n">
-        <v>285.3333333333333</v>
-      </c>
-      <c r="O247" t="inlineStr"/>
-      <c r="P247" t="inlineStr"/>
-      <c r="Q247" t="inlineStr"/>
-      <c r="R247" t="inlineStr"/>
-      <c r="S247" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12942,28 +9244,12 @@
         <v>0</v>
       </c>
       <c r="I248" t="n">
-        <v>16</v>
-      </c>
-      <c r="J248" t="n">
-        <v>180</v>
-      </c>
-      <c r="K248" t="n">
-        <v>20</v>
-      </c>
-      <c r="L248" t="n">
-        <v>285.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
       <c r="M248" t="n">
-        <v>285.55</v>
-      </c>
-      <c r="N248" t="n">
-        <v>285.3666666666667</v>
-      </c>
-      <c r="O248" t="inlineStr"/>
-      <c r="P248" t="inlineStr"/>
-      <c r="Q248" t="inlineStr"/>
-      <c r="R248" t="inlineStr"/>
-      <c r="S248" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12993,28 +9279,12 @@
         <v>0</v>
       </c>
       <c r="I249" t="n">
-        <v>17</v>
-      </c>
-      <c r="J249" t="n">
-        <v>181</v>
-      </c>
-      <c r="K249" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L249" t="n">
-        <v>286.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
       <c r="M249" t="n">
-        <v>285.65</v>
-      </c>
-      <c r="N249" t="n">
-        <v>285.4333333333333</v>
-      </c>
-      <c r="O249" t="inlineStr"/>
-      <c r="P249" t="inlineStr"/>
-      <c r="Q249" t="inlineStr"/>
-      <c r="R249" t="inlineStr"/>
-      <c r="S249" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13044,28 +9314,12 @@
         <v>0</v>
       </c>
       <c r="I250" t="n">
-        <v>17</v>
-      </c>
-      <c r="J250" t="n">
-        <v>181</v>
-      </c>
-      <c r="K250" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L250" t="n">
-        <v>286.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr"/>
       <c r="M250" t="n">
-        <v>285.7</v>
-      </c>
-      <c r="N250" t="n">
-        <v>285.5</v>
-      </c>
-      <c r="O250" t="inlineStr"/>
-      <c r="P250" t="inlineStr"/>
-      <c r="Q250" t="inlineStr"/>
-      <c r="R250" t="inlineStr"/>
-      <c r="S250" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13095,28 +9349,12 @@
         <v>0</v>
       </c>
       <c r="I251" t="n">
-        <v>17</v>
-      </c>
-      <c r="J251" t="n">
-        <v>181</v>
-      </c>
-      <c r="K251" t="n">
-        <v>20</v>
-      </c>
-      <c r="L251" t="n">
-        <v>286.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
       <c r="M251" t="n">
-        <v>285.8</v>
-      </c>
-      <c r="N251" t="n">
-        <v>285.5333333333334</v>
-      </c>
-      <c r="O251" t="inlineStr"/>
-      <c r="P251" t="inlineStr"/>
-      <c r="Q251" t="inlineStr"/>
-      <c r="R251" t="inlineStr"/>
-      <c r="S251" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13146,28 +9384,12 @@
         <v>0</v>
       </c>
       <c r="I252" t="n">
-        <v>17</v>
-      </c>
-      <c r="J252" t="n">
-        <v>181</v>
-      </c>
-      <c r="K252" t="n">
-        <v>20</v>
-      </c>
-      <c r="L252" t="n">
-        <v>286.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
       <c r="M252" t="n">
-        <v>285.85</v>
-      </c>
-      <c r="N252" t="n">
-        <v>285.6</v>
-      </c>
-      <c r="O252" t="inlineStr"/>
-      <c r="P252" t="inlineStr"/>
-      <c r="Q252" t="inlineStr"/>
-      <c r="R252" t="inlineStr"/>
-      <c r="S252" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13197,28 +9419,12 @@
         <v>0</v>
       </c>
       <c r="I253" t="n">
-        <v>16</v>
-      </c>
-      <c r="J253" t="n">
-        <v>182</v>
-      </c>
-      <c r="K253" t="n">
-        <v>0</v>
-      </c>
-      <c r="L253" t="n">
-        <v>286.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr"/>
       <c r="M253" t="n">
-        <v>285.95</v>
-      </c>
-      <c r="N253" t="n">
-        <v>285.6666666666667</v>
-      </c>
-      <c r="O253" t="inlineStr"/>
-      <c r="P253" t="inlineStr"/>
-      <c r="Q253" t="inlineStr"/>
-      <c r="R253" t="inlineStr"/>
-      <c r="S253" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13248,28 +9454,12 @@
         <v>0</v>
       </c>
       <c r="I254" t="n">
-        <v>16</v>
-      </c>
-      <c r="J254" t="n">
-        <v>182</v>
-      </c>
-      <c r="K254" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L254" t="n">
-        <v>286.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="inlineStr"/>
       <c r="M254" t="n">
-        <v>285.95</v>
-      </c>
-      <c r="N254" t="n">
-        <v>285.7333333333333</v>
-      </c>
-      <c r="O254" t="inlineStr"/>
-      <c r="P254" t="inlineStr"/>
-      <c r="Q254" t="inlineStr"/>
-      <c r="R254" t="inlineStr"/>
-      <c r="S254" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13299,1099 +9489,12 @@
         <v>0</v>
       </c>
       <c r="I255" t="n">
-        <v>15</v>
-      </c>
-      <c r="J255" t="n">
-        <v>183</v>
-      </c>
-      <c r="K255" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L255" t="n">
-        <v>286.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="inlineStr"/>
       <c r="M255" t="n">
-        <v>285.95</v>
-      </c>
-      <c r="N255" t="n">
-        <v>285.7666666666667</v>
-      </c>
-      <c r="O255" t="inlineStr"/>
-      <c r="P255" t="inlineStr"/>
-      <c r="Q255" t="inlineStr"/>
-      <c r="R255" t="inlineStr"/>
-      <c r="S255" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B256" t="n">
-        <v>285</v>
-      </c>
-      <c r="C256" t="n">
-        <v>286</v>
-      </c>
-      <c r="D256" t="n">
-        <v>286</v>
-      </c>
-      <c r="E256" t="n">
-        <v>284</v>
-      </c>
-      <c r="F256" t="n">
-        <v>4759.222</v>
-      </c>
-      <c r="G256" t="n">
-        <v>284.1333333333333</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="n">
-        <v>16</v>
-      </c>
-      <c r="J256" t="n">
-        <v>184</v>
-      </c>
-      <c r="K256" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L256" t="n">
-        <v>286.4</v>
-      </c>
-      <c r="M256" t="n">
-        <v>286</v>
-      </c>
-      <c r="N256" t="n">
-        <v>285.8</v>
-      </c>
-      <c r="O256" t="inlineStr"/>
-      <c r="P256" t="inlineStr"/>
-      <c r="Q256" t="inlineStr"/>
-      <c r="R256" t="inlineStr"/>
-      <c r="S256" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B257" t="n">
-        <v>285</v>
-      </c>
-      <c r="C257" t="n">
-        <v>285</v>
-      </c>
-      <c r="D257" t="n">
-        <v>285</v>
-      </c>
-      <c r="E257" t="n">
-        <v>285</v>
-      </c>
-      <c r="F257" t="n">
-        <v>3554.0197</v>
-      </c>
-      <c r="G257" t="n">
-        <v>284.2666666666667</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="n">
-        <v>15</v>
-      </c>
-      <c r="J257" t="n">
-        <v>185</v>
-      </c>
-      <c r="K257" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L257" t="n">
-        <v>286.2</v>
-      </c>
-      <c r="M257" t="n">
-        <v>286</v>
-      </c>
-      <c r="N257" t="n">
-        <v>285.7666666666667</v>
-      </c>
-      <c r="O257" t="inlineStr"/>
-      <c r="P257" t="inlineStr"/>
-      <c r="Q257" t="inlineStr"/>
-      <c r="R257" t="inlineStr"/>
-      <c r="S257" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B258" t="n">
-        <v>285</v>
-      </c>
-      <c r="C258" t="n">
-        <v>285</v>
-      </c>
-      <c r="D258" t="n">
-        <v>285</v>
-      </c>
-      <c r="E258" t="n">
-        <v>285</v>
-      </c>
-      <c r="F258" t="n">
-        <v>22.782</v>
-      </c>
-      <c r="G258" t="n">
-        <v>284.4</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="n">
-        <v>15</v>
-      </c>
-      <c r="J258" t="n">
-        <v>185</v>
-      </c>
-      <c r="K258" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L258" t="n">
-        <v>286.1</v>
-      </c>
-      <c r="M258" t="n">
-        <v>286</v>
-      </c>
-      <c r="N258" t="n">
-        <v>285.7333333333333</v>
-      </c>
-      <c r="O258" t="inlineStr"/>
-      <c r="P258" t="inlineStr"/>
-      <c r="Q258" t="inlineStr"/>
-      <c r="R258" t="inlineStr"/>
-      <c r="S258" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>257</v>
-      </c>
-      <c r="B259" t="n">
-        <v>285</v>
-      </c>
-      <c r="C259" t="n">
-        <v>285</v>
-      </c>
-      <c r="D259" t="n">
-        <v>285</v>
-      </c>
-      <c r="E259" t="n">
-        <v>285</v>
-      </c>
-      <c r="F259" t="n">
-        <v>2.2532</v>
-      </c>
-      <c r="G259" t="n">
-        <v>284.5333333333334</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="n">
-        <v>15</v>
-      </c>
-      <c r="J259" t="n">
-        <v>185</v>
-      </c>
-      <c r="K259" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L259" t="n">
-        <v>285.9</v>
-      </c>
-      <c r="M259" t="n">
-        <v>286</v>
-      </c>
-      <c r="N259" t="n">
-        <v>285.7333333333333</v>
-      </c>
-      <c r="O259" t="inlineStr"/>
-      <c r="P259" t="inlineStr"/>
-      <c r="Q259" t="inlineStr"/>
-      <c r="R259" t="inlineStr"/>
-      <c r="S259" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
-        <v>258</v>
-      </c>
-      <c r="B260" t="n">
-        <v>285</v>
-      </c>
-      <c r="C260" t="n">
-        <v>285</v>
-      </c>
-      <c r="D260" t="n">
-        <v>285</v>
-      </c>
-      <c r="E260" t="n">
-        <v>285</v>
-      </c>
-      <c r="F260" t="n">
-        <v>6850.8475</v>
-      </c>
-      <c r="G260" t="n">
-        <v>284.6333333333333</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="n">
-        <v>15</v>
-      </c>
-      <c r="J260" t="n">
-        <v>185</v>
-      </c>
-      <c r="K260" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L260" t="n">
-        <v>285.7</v>
-      </c>
-      <c r="M260" t="n">
-        <v>286</v>
-      </c>
-      <c r="N260" t="n">
-        <v>285.7</v>
-      </c>
-      <c r="O260" t="inlineStr"/>
-      <c r="P260" t="inlineStr"/>
-      <c r="Q260" t="inlineStr"/>
-      <c r="R260" t="inlineStr"/>
-      <c r="S260" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="B261" t="n">
-        <v>287</v>
-      </c>
-      <c r="C261" t="n">
-        <v>287</v>
-      </c>
-      <c r="D261" t="n">
-        <v>287</v>
-      </c>
-      <c r="E261" t="n">
-        <v>287</v>
-      </c>
-      <c r="F261" t="n">
-        <v>310</v>
-      </c>
-      <c r="G261" t="n">
-        <v>284.7666666666667</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="n">
-        <v>17</v>
-      </c>
-      <c r="J261" t="n">
-        <v>187</v>
-      </c>
-      <c r="K261" t="n">
-        <v>0</v>
-      </c>
-      <c r="L261" t="n">
-        <v>285.7</v>
-      </c>
-      <c r="M261" t="n">
-        <v>286.1</v>
-      </c>
-      <c r="N261" t="n">
-        <v>285.7666666666667</v>
-      </c>
-      <c r="O261" t="inlineStr"/>
-      <c r="P261" t="inlineStr"/>
-      <c r="Q261" t="inlineStr"/>
-      <c r="R261" t="inlineStr"/>
-      <c r="S261" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="B262" t="n">
-        <v>286</v>
-      </c>
-      <c r="C262" t="n">
-        <v>286</v>
-      </c>
-      <c r="D262" t="n">
-        <v>286</v>
-      </c>
-      <c r="E262" t="n">
-        <v>286</v>
-      </c>
-      <c r="F262" t="n">
-        <v>60.5299</v>
-      </c>
-      <c r="G262" t="n">
-        <v>284.8833333333333</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="n">
-        <v>16</v>
-      </c>
-      <c r="J262" t="n">
-        <v>188</v>
-      </c>
-      <c r="K262" t="n">
-        <v>0</v>
-      </c>
-      <c r="L262" t="n">
-        <v>285.6</v>
-      </c>
-      <c r="M262" t="n">
-        <v>286.1</v>
-      </c>
-      <c r="N262" t="n">
-        <v>285.7666666666667</v>
-      </c>
-      <c r="O262" t="inlineStr"/>
-      <c r="P262" t="inlineStr"/>
-      <c r="Q262" t="inlineStr"/>
-      <c r="R262" t="inlineStr"/>
-      <c r="S262" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
-        <v>261</v>
-      </c>
-      <c r="B263" t="n">
-        <v>287</v>
-      </c>
-      <c r="C263" t="n">
-        <v>285</v>
-      </c>
-      <c r="D263" t="n">
-        <v>287</v>
-      </c>
-      <c r="E263" t="n">
-        <v>285</v>
-      </c>
-      <c r="F263" t="n">
-        <v>1476</v>
-      </c>
-      <c r="G263" t="n">
-        <v>284.95</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="n">
-        <v>15</v>
-      </c>
-      <c r="J263" t="n">
-        <v>189</v>
-      </c>
-      <c r="K263" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L263" t="n">
-        <v>285.5</v>
-      </c>
-      <c r="M263" t="n">
-        <v>286.05</v>
-      </c>
-      <c r="N263" t="n">
-        <v>285.8</v>
-      </c>
-      <c r="O263" t="inlineStr"/>
-      <c r="P263" t="inlineStr"/>
-      <c r="Q263" t="inlineStr"/>
-      <c r="R263" t="inlineStr"/>
-      <c r="S263" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="B264" t="n">
-        <v>285</v>
-      </c>
-      <c r="C264" t="n">
-        <v>285</v>
-      </c>
-      <c r="D264" t="n">
-        <v>285</v>
-      </c>
-      <c r="E264" t="n">
-        <v>285</v>
-      </c>
-      <c r="F264" t="n">
-        <v>1372.673</v>
-      </c>
-      <c r="G264" t="n">
-        <v>285.0333333333334</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="n">
-        <v>15</v>
-      </c>
-      <c r="J264" t="n">
-        <v>189</v>
-      </c>
-      <c r="K264" t="n">
-        <v>0</v>
-      </c>
-      <c r="L264" t="n">
-        <v>285.4</v>
-      </c>
-      <c r="M264" t="n">
-        <v>286</v>
-      </c>
-      <c r="N264" t="n">
-        <v>285.7666666666667</v>
-      </c>
-      <c r="O264" t="inlineStr"/>
-      <c r="P264" t="inlineStr"/>
-      <c r="Q264" t="inlineStr"/>
-      <c r="R264" t="inlineStr"/>
-      <c r="S264" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B265" t="n">
-        <v>285</v>
-      </c>
-      <c r="C265" t="n">
-        <v>284</v>
-      </c>
-      <c r="D265" t="n">
-        <v>285</v>
-      </c>
-      <c r="E265" t="n">
-        <v>284</v>
-      </c>
-      <c r="F265" t="n">
-        <v>3143.2275</v>
-      </c>
-      <c r="G265" t="n">
-        <v>285.1166666666667</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="n">
-        <v>14</v>
-      </c>
-      <c r="J265" t="n">
-        <v>190</v>
-      </c>
-      <c r="K265" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L265" t="n">
-        <v>285.3</v>
-      </c>
-      <c r="M265" t="n">
-        <v>285.85</v>
-      </c>
-      <c r="N265" t="n">
-        <v>285.7333333333333</v>
-      </c>
-      <c r="O265" t="inlineStr"/>
-      <c r="P265" t="inlineStr"/>
-      <c r="Q265" t="inlineStr"/>
-      <c r="R265" t="inlineStr"/>
-      <c r="S265" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B266" t="n">
-        <v>284</v>
-      </c>
-      <c r="C266" t="n">
-        <v>284</v>
-      </c>
-      <c r="D266" t="n">
-        <v>284</v>
-      </c>
-      <c r="E266" t="n">
-        <v>284</v>
-      </c>
-      <c r="F266" t="n">
-        <v>997.5</v>
-      </c>
-      <c r="G266" t="n">
-        <v>285.1833333333333</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="n">
-        <v>14</v>
-      </c>
-      <c r="J266" t="n">
-        <v>190</v>
-      </c>
-      <c r="K266" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L266" t="n">
-        <v>285.1</v>
-      </c>
-      <c r="M266" t="n">
-        <v>285.75</v>
-      </c>
-      <c r="N266" t="n">
-        <v>285.7</v>
-      </c>
-      <c r="O266" t="inlineStr"/>
-      <c r="P266" t="inlineStr"/>
-      <c r="Q266" t="inlineStr"/>
-      <c r="R266" t="inlineStr"/>
-      <c r="S266" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="n">
-        <v>284</v>
-      </c>
-      <c r="C267" t="n">
-        <v>284</v>
-      </c>
-      <c r="D267" t="n">
-        <v>284</v>
-      </c>
-      <c r="E267" t="n">
-        <v>284</v>
-      </c>
-      <c r="F267" t="n">
-        <v>98.07850000000001</v>
-      </c>
-      <c r="G267" t="n">
-        <v>285.25</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="n">
-        <v>14</v>
-      </c>
-      <c r="J267" t="n">
-        <v>190</v>
-      </c>
-      <c r="K267" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L267" t="n">
-        <v>285</v>
-      </c>
-      <c r="M267" t="n">
-        <v>285.6</v>
-      </c>
-      <c r="N267" t="n">
-        <v>285.6666666666667</v>
-      </c>
-      <c r="O267" t="inlineStr"/>
-      <c r="P267" t="inlineStr"/>
-      <c r="Q267" t="inlineStr"/>
-      <c r="R267" t="inlineStr"/>
-      <c r="S267" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B268" t="n">
-        <v>284</v>
-      </c>
-      <c r="C268" t="n">
-        <v>283</v>
-      </c>
-      <c r="D268" t="n">
-        <v>284</v>
-      </c>
-      <c r="E268" t="n">
-        <v>283</v>
-      </c>
-      <c r="F268" t="n">
-        <v>997.5</v>
-      </c>
-      <c r="G268" t="n">
-        <v>285.2833333333334</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="n">
-        <v>13</v>
-      </c>
-      <c r="J268" t="n">
-        <v>191</v>
-      </c>
-      <c r="K268" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L268" t="n">
-        <v>284.8</v>
-      </c>
-      <c r="M268" t="n">
-        <v>285.45</v>
-      </c>
-      <c r="N268" t="n">
-        <v>285.6</v>
-      </c>
-      <c r="O268" t="inlineStr"/>
-      <c r="P268" t="inlineStr"/>
-      <c r="Q268" t="inlineStr"/>
-      <c r="R268" t="inlineStr"/>
-      <c r="S268" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>267</v>
-      </c>
-      <c r="B269" t="n">
-        <v>285</v>
-      </c>
-      <c r="C269" t="n">
-        <v>285</v>
-      </c>
-      <c r="D269" t="n">
-        <v>285</v>
-      </c>
-      <c r="E269" t="n">
-        <v>285</v>
-      </c>
-      <c r="F269" t="n">
-        <v>17021.821</v>
-      </c>
-      <c r="G269" t="n">
-        <v>285.3333333333333</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="n">
-        <v>15</v>
-      </c>
-      <c r="J269" t="n">
-        <v>193</v>
-      </c>
-      <c r="K269" t="n">
-        <v>0</v>
-      </c>
-      <c r="L269" t="n">
-        <v>284.8</v>
-      </c>
-      <c r="M269" t="n">
-        <v>285.35</v>
-      </c>
-      <c r="N269" t="n">
-        <v>285.6</v>
-      </c>
-      <c r="O269" t="inlineStr"/>
-      <c r="P269" t="inlineStr"/>
-      <c r="Q269" t="inlineStr"/>
-      <c r="R269" t="inlineStr"/>
-      <c r="S269" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="n">
-        <v>285</v>
-      </c>
-      <c r="C270" t="n">
-        <v>285</v>
-      </c>
-      <c r="D270" t="n">
-        <v>285</v>
-      </c>
-      <c r="E270" t="n">
-        <v>285</v>
-      </c>
-      <c r="F270" t="n">
-        <v>671.3728</v>
-      </c>
-      <c r="G270" t="n">
-        <v>285.3666666666667</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="n">
-        <v>15</v>
-      </c>
-      <c r="J270" t="n">
-        <v>193</v>
-      </c>
-      <c r="K270" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L270" t="n">
-        <v>284.8</v>
-      </c>
-      <c r="M270" t="n">
-        <v>285.25</v>
-      </c>
-      <c r="N270" t="n">
-        <v>285.6</v>
-      </c>
-      <c r="O270" t="inlineStr"/>
-      <c r="P270" t="inlineStr"/>
-      <c r="Q270" t="inlineStr"/>
-      <c r="R270" t="inlineStr"/>
-      <c r="S270" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="n">
-        <v>284</v>
-      </c>
-      <c r="C271" t="n">
-        <v>285</v>
-      </c>
-      <c r="D271" t="n">
-        <v>285</v>
-      </c>
-      <c r="E271" t="n">
-        <v>284</v>
-      </c>
-      <c r="F271" t="n">
-        <v>3032.8501</v>
-      </c>
-      <c r="G271" t="n">
-        <v>285.4</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="n">
-        <v>15</v>
-      </c>
-      <c r="J271" t="n">
-        <v>193</v>
-      </c>
-      <c r="K271" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L271" t="n">
-        <v>284.6</v>
-      </c>
-      <c r="M271" t="n">
-        <v>285.15</v>
-      </c>
-      <c r="N271" t="n">
-        <v>285.6</v>
-      </c>
-      <c r="O271" t="inlineStr"/>
-      <c r="P271" t="inlineStr"/>
-      <c r="Q271" t="inlineStr"/>
-      <c r="R271" t="inlineStr"/>
-      <c r="S271" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
-        <v>270</v>
-      </c>
-      <c r="B272" t="n">
-        <v>285</v>
-      </c>
-      <c r="C272" t="n">
-        <v>285</v>
-      </c>
-      <c r="D272" t="n">
-        <v>285</v>
-      </c>
-      <c r="E272" t="n">
-        <v>285</v>
-      </c>
-      <c r="F272" t="n">
-        <v>478.3586</v>
-      </c>
-      <c r="G272" t="n">
-        <v>285.4</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="n">
-        <v>15</v>
-      </c>
-      <c r="J272" t="n">
-        <v>193</v>
-      </c>
-      <c r="K272" t="n">
-        <v>0</v>
-      </c>
-      <c r="L272" t="n">
-        <v>284.5</v>
-      </c>
-      <c r="M272" t="n">
-        <v>285.05</v>
-      </c>
-      <c r="N272" t="n">
-        <v>285.5666666666667</v>
-      </c>
-      <c r="O272" t="inlineStr"/>
-      <c r="P272" t="inlineStr"/>
-      <c r="Q272" t="inlineStr"/>
-      <c r="R272" t="inlineStr"/>
-      <c r="S272" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>271</v>
-      </c>
-      <c r="B273" t="n">
-        <v>285</v>
-      </c>
-      <c r="C273" t="n">
-        <v>285</v>
-      </c>
-      <c r="D273" t="n">
-        <v>285</v>
-      </c>
-      <c r="E273" t="n">
-        <v>285</v>
-      </c>
-      <c r="F273" t="n">
-        <v>1274.4484</v>
-      </c>
-      <c r="G273" t="n">
-        <v>285.3833333333333</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="n">
-        <v>15</v>
-      </c>
-      <c r="J273" t="n">
-        <v>193</v>
-      </c>
-      <c r="K273" t="n">
-        <v>0</v>
-      </c>
-      <c r="L273" t="n">
-        <v>284.5</v>
-      </c>
-      <c r="M273" t="n">
-        <v>285</v>
-      </c>
-      <c r="N273" t="n">
-        <v>285.5333333333334</v>
-      </c>
-      <c r="O273" t="inlineStr"/>
-      <c r="P273" t="inlineStr"/>
-      <c r="Q273" t="inlineStr"/>
-      <c r="R273" t="inlineStr"/>
-      <c r="S273" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
-        <v>272</v>
-      </c>
-      <c r="B274" t="n">
-        <v>284</v>
-      </c>
-      <c r="C274" t="n">
-        <v>285</v>
-      </c>
-      <c r="D274" t="n">
-        <v>285</v>
-      </c>
-      <c r="E274" t="n">
-        <v>284</v>
-      </c>
-      <c r="F274" t="n">
-        <v>697.6895</v>
-      </c>
-      <c r="G274" t="n">
-        <v>285.3666666666667</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="n">
-        <v>15</v>
-      </c>
-      <c r="J274" t="n">
-        <v>193</v>
-      </c>
-      <c r="K274" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L274" t="n">
-        <v>284.5</v>
-      </c>
-      <c r="M274" t="n">
-        <v>284.95</v>
-      </c>
-      <c r="N274" t="n">
-        <v>285.5</v>
-      </c>
-      <c r="O274" t="inlineStr"/>
-      <c r="P274" t="inlineStr"/>
-      <c r="Q274" t="inlineStr"/>
-      <c r="R274" t="inlineStr"/>
-      <c r="S274" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B275" t="n">
-        <v>285</v>
-      </c>
-      <c r="C275" t="n">
-        <v>284</v>
-      </c>
-      <c r="D275" t="n">
-        <v>285</v>
-      </c>
-      <c r="E275" t="n">
-        <v>284</v>
-      </c>
-      <c r="F275" t="n">
-        <v>1741.555</v>
-      </c>
-      <c r="G275" t="n">
-        <v>285.3666666666667</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="n">
-        <v>14</v>
-      </c>
-      <c r="J275" t="n">
-        <v>194</v>
-      </c>
-      <c r="K275" t="n">
-        <v>0</v>
-      </c>
-      <c r="L275" t="n">
-        <v>284.5</v>
-      </c>
-      <c r="M275" t="n">
-        <v>284.9</v>
-      </c>
-      <c r="N275" t="n">
-        <v>285.4</v>
-      </c>
-      <c r="O275" t="inlineStr"/>
-      <c r="P275" t="inlineStr"/>
-      <c r="Q275" t="inlineStr"/>
-      <c r="R275" t="inlineStr"/>
-      <c r="S275" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
-        <v>274</v>
-      </c>
-      <c r="B276" t="n">
-        <v>285</v>
-      </c>
-      <c r="C276" t="n">
-        <v>284</v>
-      </c>
-      <c r="D276" t="n">
-        <v>285</v>
-      </c>
-      <c r="E276" t="n">
-        <v>284</v>
-      </c>
-      <c r="F276" t="n">
-        <v>2563.5906</v>
-      </c>
-      <c r="G276" t="n">
-        <v>285.3166666666667</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="n">
-        <v>14</v>
-      </c>
-      <c r="J276" t="n">
-        <v>194</v>
-      </c>
-      <c r="K276" t="n">
-        <v>0</v>
-      </c>
-      <c r="L276" t="n">
-        <v>284.5</v>
-      </c>
-      <c r="M276" t="n">
-        <v>284.8</v>
-      </c>
-      <c r="N276" t="n">
-        <v>285.3333333333333</v>
-      </c>
-      <c r="O276" t="inlineStr"/>
-      <c r="P276" t="inlineStr"/>
-      <c r="Q276" t="inlineStr"/>
-      <c r="R276" t="inlineStr"/>
-      <c r="S276" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-08 BackTest ZRX.xlsx
+++ b/BackTest/2019-10-08 BackTest ZRX.xlsx
@@ -451,17 +451,13 @@
         <v>265.35</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>270</v>
-      </c>
-      <c r="K2" t="n">
-        <v>270</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>265.3666666666667</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>269</v>
-      </c>
-      <c r="K3" t="n">
-        <v>270</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>265.4166666666667</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>268</v>
-      </c>
-      <c r="K4" t="n">
-        <v>270</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -576,17 +556,13 @@
         <v>265.45</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>270</v>
-      </c>
-      <c r="K5" t="n">
-        <v>270</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
@@ -615,22 +591,14 @@
         <v>265.4666666666666</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>269</v>
-      </c>
-      <c r="K6" t="n">
-        <v>270</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -658,22 +626,14 @@
         <v>265.5</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>269</v>
-      </c>
-      <c r="K7" t="n">
-        <v>270</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -701,17 +661,13 @@
         <v>265.55</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>270</v>
-      </c>
-      <c r="K8" t="n">
-        <v>270</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
@@ -740,22 +696,14 @@
         <v>265.6</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>270</v>
-      </c>
-      <c r="K9" t="n">
-        <v>270</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -789,14 +737,8 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>270</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -1454,20 +1396,14 @@
         <v>266.65</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>265</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1495,20 +1431,14 @@
         <v>266.6833333333333</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>267</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1536,20 +1466,14 @@
         <v>266.7166666666666</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>267</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1577,20 +1501,14 @@
         <v>266.75</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>267</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1618,20 +1536,14 @@
         <v>266.7833333333334</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>267</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1659,20 +1571,14 @@
         <v>266.8166666666667</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>267</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1700,20 +1606,14 @@
         <v>266.8666666666667</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>268</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1741,20 +1641,14 @@
         <v>266.9666666666666</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>270</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1782,20 +1676,14 @@
         <v>267.0666666666667</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>271</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1823,20 +1711,14 @@
         <v>267.1833333333333</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>270</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1871,11 +1753,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1910,11 +1788,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1949,11 +1823,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1988,11 +1858,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2027,11 +1893,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2066,11 +1928,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2105,11 +1963,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2144,11 +1998,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2183,11 +2033,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2222,11 +2068,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2261,11 +2103,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2300,11 +2138,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2339,11 +2173,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2378,11 +2208,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2417,11 +2243,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2452,16 +2274,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2489,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2524,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -2559,7 +2379,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -2594,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -3784,7 +3604,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -3819,7 +3639,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -3889,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -3924,7 +3744,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -4134,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -5041,13 +4861,17 @@
         <v>277.8166666666667</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>278</v>
+      </c>
+      <c r="K128" t="n">
+        <v>278</v>
+      </c>
       <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
@@ -5076,14 +4900,22 @@
         <v>277.8666666666667</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>278</v>
+      </c>
+      <c r="K129" t="n">
+        <v>278</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5111,14 +4943,22 @@
         <v>277.9</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>278</v>
+      </c>
+      <c r="K130" t="n">
+        <v>278</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5146,14 +4986,22 @@
         <v>277.95</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>278</v>
+      </c>
+      <c r="K131" t="n">
+        <v>278</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5181,14 +5029,22 @@
         <v>278.05</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>279</v>
+      </c>
+      <c r="K132" t="n">
+        <v>278</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5216,14 +5072,22 @@
         <v>278.1833333333333</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>281</v>
+      </c>
+      <c r="K133" t="n">
+        <v>278</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5257,8 +5121,14 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>278</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5292,8 +5162,14 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>278</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5327,8 +5203,14 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>278</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5362,8 +5244,14 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>278</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5397,8 +5285,14 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>278</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5432,8 +5326,14 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>278</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5467,8 +5367,14 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>278</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5502,8 +5408,14 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>278</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5537,8 +5449,14 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>278</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5572,8 +5490,14 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>278</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5607,8 +5531,14 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>278</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5642,8 +5572,14 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>278</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5677,8 +5613,14 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>278</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5712,8 +5654,14 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>278</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5747,8 +5695,14 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>278</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5782,8 +5736,14 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>278</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5817,8 +5777,14 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>278</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5852,8 +5818,14 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>278</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5887,8 +5859,14 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>278</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5922,8 +5900,14 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>278</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5957,8 +5941,14 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>278</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5992,8 +5982,14 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>278</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6027,8 +6023,14 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>278</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6062,8 +6064,14 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>278</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6097,8 +6105,14 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>278</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6132,8 +6146,14 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>278</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6167,8 +6187,14 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>278</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6202,8 +6228,14 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>278</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6237,8 +6269,14 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>278</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6272,8 +6310,14 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>278</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6307,8 +6351,14 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>278</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6342,8 +6392,14 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>278</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6377,8 +6433,14 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>278</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6412,8 +6474,14 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>278</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6447,8 +6515,14 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>278</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6482,8 +6556,14 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>278</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6517,8 +6597,14 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>278</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6552,8 +6638,14 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>278</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6587,8 +6679,14 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>278</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6622,8 +6720,14 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>278</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6657,8 +6761,14 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>278</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6692,8 +6802,14 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>278</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6727,8 +6843,14 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>278</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6762,8 +6884,14 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>278</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6797,8 +6925,14 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>278</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6832,8 +6966,14 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>278</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6867,8 +7007,14 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>278</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6902,8 +7048,14 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>278</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -6937,8 +7089,14 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>278</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -6972,8 +7130,14 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>278</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7007,8 +7171,14 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>278</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7042,8 +7212,14 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>278</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7077,8 +7253,14 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>278</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7112,8 +7294,14 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>278</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7147,8 +7335,14 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>278</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7182,8 +7376,14 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>278</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7217,8 +7417,14 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>278</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7252,8 +7458,14 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>278</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7287,8 +7499,14 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>278</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7322,8 +7540,14 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>278</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7357,8 +7581,14 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>278</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7392,8 +7622,14 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>278</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7427,8 +7663,14 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>278</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7462,8 +7704,14 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>278</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7497,8 +7745,14 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>278</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7532,8 +7786,14 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>278</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7567,8 +7827,14 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>278</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7602,8 +7868,14 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>278</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7637,8 +7909,14 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>278</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7672,8 +7950,14 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>278</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7707,8 +7991,14 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>278</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7742,8 +8032,14 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>278</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -7777,8 +8073,14 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>278</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -7812,8 +8114,14 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>278</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -7847,8 +8155,14 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>278</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -7882,8 +8196,14 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>278</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -7917,8 +8237,14 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>278</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -7952,8 +8278,14 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>278</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -7987,8 +8319,14 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>278</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8022,8 +8360,14 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>278</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8057,8 +8401,14 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>278</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8092,8 +8442,14 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>278</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8127,8 +8483,14 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>278</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8162,8 +8524,14 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>278</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8197,8 +8565,14 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>278</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8232,8 +8606,14 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>278</v>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8267,8 +8647,14 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>278</v>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8302,8 +8688,14 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>278</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8337,8 +8729,14 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>278</v>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8372,8 +8770,14 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>278</v>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8407,8 +8811,14 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>278</v>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8442,8 +8852,14 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>278</v>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8477,8 +8893,14 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>278</v>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8512,8 +8934,14 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>278</v>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -8547,8 +8975,14 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>278</v>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -8582,8 +9016,14 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>278</v>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -8617,8 +9057,14 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>278</v>
+      </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -8652,8 +9098,14 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>278</v>
+      </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -8687,8 +9139,14 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>278</v>
+      </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -8722,8 +9180,14 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>278</v>
+      </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -8757,8 +9221,14 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>278</v>
+      </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -8792,8 +9262,14 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>278</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -8827,8 +9303,14 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>278</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -8862,8 +9344,14 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>278</v>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -8897,8 +9385,14 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>278</v>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -8932,8 +9426,14 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>278</v>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -8967,8 +9467,14 @@
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>278</v>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -9002,8 +9508,14 @@
         <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>278</v>
+      </c>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -9037,8 +9549,14 @@
         <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>278</v>
+      </c>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -9072,8 +9590,14 @@
         <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>278</v>
+      </c>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9107,8 +9631,14 @@
         <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>278</v>
+      </c>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -9142,8 +9672,14 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>278</v>
+      </c>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -9177,8 +9713,14 @@
         <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>278</v>
+      </c>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9212,8 +9754,14 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>278</v>
+      </c>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -9247,8 +9795,14 @@
         <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>278</v>
+      </c>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9282,8 +9836,14 @@
         <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>278</v>
+      </c>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -9317,8 +9877,14 @@
         <v>0</v>
       </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>278</v>
+      </c>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -9352,8 +9918,14 @@
         <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>278</v>
+      </c>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -9387,8 +9959,14 @@
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>278</v>
+      </c>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -9422,8 +10000,14 @@
         <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>278</v>
+      </c>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -9457,8 +10041,14 @@
         <v>0</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>278</v>
+      </c>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -9492,8 +10082,14 @@
         <v>0</v>
       </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>278</v>
+      </c>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M255" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-08 BackTest ZRX.xlsx
+++ b/BackTest/2019-10-08 BackTest ZRX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M255"/>
+  <dimension ref="A1:M256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C2" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D2" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E2" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F2" t="n">
-        <v>100</v>
+        <v>9.1028</v>
       </c>
       <c r="G2" t="n">
-        <v>265.35</v>
+        <v>265.3333333333333</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C3" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D3" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E3" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F3" t="n">
-        <v>2200</v>
+        <v>100</v>
       </c>
       <c r="G3" t="n">
-        <v>265.3666666666667</v>
+        <v>265.35</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C4" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D4" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E4" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F4" t="n">
-        <v>73.9559</v>
+        <v>2200</v>
       </c>
       <c r="G4" t="n">
-        <v>265.4166666666667</v>
+        <v>265.3666666666667</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C5" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D5" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E5" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F5" t="n">
-        <v>1978.5356</v>
+        <v>73.9559</v>
       </c>
       <c r="G5" t="n">
-        <v>265.45</v>
+        <v>265.4166666666667</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C6" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D6" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E6" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F6" t="n">
-        <v>268</v>
+        <v>1978.5356</v>
       </c>
       <c r="G6" t="n">
-        <v>265.4666666666666</v>
+        <v>265.45</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>269</v>
       </c>
       <c r="F7" t="n">
-        <v>138.1642</v>
+        <v>268</v>
       </c>
       <c r="G7" t="n">
-        <v>265.5</v>
+        <v>265.4666666666666</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C8" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D8" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E8" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F8" t="n">
-        <v>119</v>
+        <v>138.1642</v>
       </c>
       <c r="G8" t="n">
-        <v>265.55</v>
+        <v>265.5</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,16 +690,16 @@
         <v>270</v>
       </c>
       <c r="F9" t="n">
-        <v>576.9999</v>
+        <v>119</v>
       </c>
       <c r="G9" t="n">
-        <v>265.6</v>
+        <v>265.55</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -725,16 +725,16 @@
         <v>270</v>
       </c>
       <c r="F10" t="n">
-        <v>899.8799222222223</v>
+        <v>576.9999</v>
       </c>
       <c r="G10" t="n">
-        <v>265.65</v>
+        <v>265.6</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -748,28 +748,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C11" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D11" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E11" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F11" t="n">
-        <v>50</v>
+        <v>899.8799222222223</v>
       </c>
       <c r="G11" t="n">
-        <v>265.7333333333333</v>
+        <v>265.65</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -783,28 +783,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C12" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D12" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E12" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F12" t="n">
-        <v>152</v>
+        <v>50</v>
       </c>
       <c r="G12" t="n">
-        <v>265.8333333333333</v>
+        <v>265.7333333333333</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -818,28 +818,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C13" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D13" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E13" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F13" t="n">
-        <v>348</v>
+        <v>152</v>
       </c>
       <c r="G13" t="n">
-        <v>265.95</v>
+        <v>265.8333333333333</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -865,16 +865,16 @@
         <v>271</v>
       </c>
       <c r="F14" t="n">
-        <v>427</v>
+        <v>348</v>
       </c>
       <c r="G14" t="n">
-        <v>266.0833333333333</v>
+        <v>265.95</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -900,16 +900,16 @@
         <v>271</v>
       </c>
       <c r="F15" t="n">
-        <v>1732.8955</v>
+        <v>427</v>
       </c>
       <c r="G15" t="n">
-        <v>266.2</v>
+        <v>266.0833333333333</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -935,16 +935,16 @@
         <v>271</v>
       </c>
       <c r="F16" t="n">
-        <v>595.41</v>
+        <v>1732.8955</v>
       </c>
       <c r="G16" t="n">
-        <v>266.2666666666667</v>
+        <v>266.2</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -970,10 +970,10 @@
         <v>271</v>
       </c>
       <c r="F17" t="n">
-        <v>745.3874</v>
+        <v>595.41</v>
       </c>
       <c r="G17" t="n">
-        <v>266.35</v>
+        <v>266.2666666666667</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -996,19 +996,19 @@
         <v>271</v>
       </c>
       <c r="C18" t="n">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D18" t="n">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E18" t="n">
         <v>271</v>
       </c>
       <c r="F18" t="n">
-        <v>3056.1693</v>
+        <v>745.3874</v>
       </c>
       <c r="G18" t="n">
-        <v>266.4166666666667</v>
+        <v>266.35</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C19" t="n">
         <v>272</v>
@@ -1037,19 +1037,19 @@
         <v>272</v>
       </c>
       <c r="E19" t="n">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F19" t="n">
-        <v>1372.408</v>
+        <v>3056.1693</v>
       </c>
       <c r="G19" t="n">
-        <v>266.4833333333333</v>
+        <v>266.4166666666667</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C20" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D20" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E20" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F20" t="n">
-        <v>17.975</v>
+        <v>1372.408</v>
       </c>
       <c r="G20" t="n">
-        <v>266.55</v>
+        <v>266.4833333333333</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,28 +1098,28 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C21" t="n">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D21" t="n">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E21" t="n">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F21" t="n">
-        <v>50</v>
+        <v>17.975</v>
       </c>
       <c r="G21" t="n">
-        <v>266.6666666666667</v>
+        <v>266.55</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C22" t="n">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D22" t="n">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E22" t="n">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F22" t="n">
-        <v>84.02</v>
+        <v>50</v>
       </c>
       <c r="G22" t="n">
-        <v>266.7166666666666</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C23" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D23" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E23" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>84.02</v>
       </c>
       <c r="G23" t="n">
-        <v>266.7333333333333</v>
+        <v>266.7166666666666</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,19 +1203,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C24" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D24" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E24" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F24" t="n">
-        <v>168.1247</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
         <v>266.7333333333333</v>
@@ -1250,7 +1250,7 @@
         <v>268</v>
       </c>
       <c r="F25" t="n">
-        <v>292.823</v>
+        <v>168.1247</v>
       </c>
       <c r="G25" t="n">
         <v>266.7333333333333</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C26" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D26" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E26" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F26" t="n">
-        <v>1130.2081</v>
+        <v>292.823</v>
       </c>
       <c r="G26" t="n">
-        <v>266.6833333333333</v>
+        <v>266.7333333333333</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C27" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D27" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E27" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F27" t="n">
-        <v>4.9875</v>
+        <v>1130.2081</v>
       </c>
       <c r="G27" t="n">
-        <v>266.65</v>
+        <v>266.6833333333333</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C28" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D28" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E28" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F28" t="n">
-        <v>5.114</v>
+        <v>4.9875</v>
       </c>
       <c r="G28" t="n">
-        <v>266.6333333333333</v>
+        <v>266.65</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1381,19 +1381,19 @@
         <v>265</v>
       </c>
       <c r="C29" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D29" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E29" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F29" t="n">
-        <v>8397.5908</v>
+        <v>5.114</v>
       </c>
       <c r="G29" t="n">
-        <v>266.65</v>
+        <v>266.6333333333333</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C30" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D30" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E30" t="n">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F30" t="n">
-        <v>46.0262</v>
+        <v>8397.5908</v>
       </c>
       <c r="G30" t="n">
-        <v>266.6833333333333</v>
+        <v>266.65</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>267</v>
       </c>
       <c r="F31" t="n">
-        <v>525.4794000000001</v>
+        <v>46.0262</v>
       </c>
       <c r="G31" t="n">
-        <v>266.7166666666666</v>
+        <v>266.6833333333333</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1495,10 +1495,10 @@
         <v>267</v>
       </c>
       <c r="F32" t="n">
-        <v>674.8873</v>
+        <v>525.4794000000001</v>
       </c>
       <c r="G32" t="n">
-        <v>266.75</v>
+        <v>266.7166666666666</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>267</v>
       </c>
       <c r="F33" t="n">
-        <v>1383.6525</v>
+        <v>674.8873</v>
       </c>
       <c r="G33" t="n">
-        <v>266.7833333333334</v>
+        <v>266.75</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1565,10 +1565,10 @@
         <v>267</v>
       </c>
       <c r="F34" t="n">
-        <v>592.994</v>
+        <v>1383.6525</v>
       </c>
       <c r="G34" t="n">
-        <v>266.8166666666667</v>
+        <v>266.7833333333334</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C35" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D35" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E35" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F35" t="n">
-        <v>128</v>
+        <v>592.994</v>
       </c>
       <c r="G35" t="n">
-        <v>266.8666666666667</v>
+        <v>266.8166666666667</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C36" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D36" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E36" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F36" t="n">
-        <v>24.3207</v>
+        <v>128</v>
       </c>
       <c r="G36" t="n">
-        <v>266.9666666666666</v>
+        <v>266.8666666666667</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C37" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D37" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E37" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F37" t="n">
-        <v>960.9526930147059</v>
+        <v>24.3207</v>
       </c>
       <c r="G37" t="n">
-        <v>267.0666666666667</v>
+        <v>266.9666666666666</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C38" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D38" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E38" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
+        <v>960.9526930147059</v>
       </c>
       <c r="G38" t="n">
-        <v>267.1833333333333</v>
+        <v>267.0666666666667</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C39" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D39" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E39" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F39" t="n">
         <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>267.3166666666667</v>
+        <v>267.1833333333333</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C40" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D40" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E40" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F40" t="n">
-        <v>10.1245</v>
+        <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>267.4666666666666</v>
+        <v>267.3166666666667</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C41" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D41" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E41" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F41" t="n">
-        <v>17051.7638</v>
+        <v>10.1245</v>
       </c>
       <c r="G41" t="n">
-        <v>267.65</v>
+        <v>267.4666666666666</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1845,10 +1845,10 @@
         <v>272</v>
       </c>
       <c r="F42" t="n">
-        <v>1244.7663</v>
+        <v>17051.7638</v>
       </c>
       <c r="G42" t="n">
-        <v>267.8333333333333</v>
+        <v>267.65</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1880,10 +1880,10 @@
         <v>272</v>
       </c>
       <c r="F43" t="n">
-        <v>3637.5356</v>
+        <v>1244.7663</v>
       </c>
       <c r="G43" t="n">
-        <v>268.0333333333334</v>
+        <v>267.8333333333333</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,28 +1903,28 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C44" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D44" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E44" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F44" t="n">
-        <v>227.3306</v>
+        <v>3637.5356</v>
       </c>
       <c r="G44" t="n">
-        <v>268.2</v>
+        <v>268.0333333333334</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -1938,28 +1938,28 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C45" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D45" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E45" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F45" t="n">
-        <v>3242.1828</v>
+        <v>227.3306</v>
       </c>
       <c r="G45" t="n">
-        <v>268.3833333333333</v>
+        <v>268.2</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -1985,10 +1985,10 @@
         <v>272</v>
       </c>
       <c r="F46" t="n">
-        <v>1650.799006985294</v>
+        <v>3242.1828</v>
       </c>
       <c r="G46" t="n">
-        <v>268.55</v>
+        <v>268.3833333333333</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C47" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D47" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E47" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F47" t="n">
-        <v>240.2624</v>
+        <v>1650.799006985294</v>
       </c>
       <c r="G47" t="n">
-        <v>268.7333333333333</v>
+        <v>268.55</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C48" t="n">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D48" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E48" t="n">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F48" t="n">
-        <v>15000</v>
+        <v>240.2624</v>
       </c>
       <c r="G48" t="n">
-        <v>268.8666666666667</v>
+        <v>268.7333333333333</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C49" t="n">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D49" t="n">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E49" t="n">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F49" t="n">
-        <v>733.8013</v>
+        <v>15000</v>
       </c>
       <c r="G49" t="n">
-        <v>269.0666666666667</v>
+        <v>268.8666666666667</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>274</v>
       </c>
       <c r="F50" t="n">
-        <v>395.9062</v>
+        <v>733.8013</v>
       </c>
       <c r="G50" t="n">
-        <v>269.2666666666667</v>
+        <v>269.0666666666667</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,28 +2148,28 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C51" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D51" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E51" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F51" t="n">
-        <v>500</v>
+        <v>395.9062</v>
       </c>
       <c r="G51" t="n">
-        <v>269.4833333333333</v>
+        <v>269.2666666666667</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -2195,16 +2195,16 @@
         <v>275</v>
       </c>
       <c r="F52" t="n">
-        <v>385.2109090909091</v>
+        <v>500</v>
       </c>
       <c r="G52" t="n">
-        <v>269.6666666666667</v>
+        <v>269.4833333333333</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -2230,16 +2230,16 @@
         <v>275</v>
       </c>
       <c r="F53" t="n">
-        <v>3323.4582</v>
+        <v>385.2109090909091</v>
       </c>
       <c r="G53" t="n">
-        <v>269.8666666666667</v>
+        <v>269.6666666666667</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2256,25 +2256,25 @@
         <v>275</v>
       </c>
       <c r="C54" t="n">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D54" t="n">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E54" t="n">
         <v>275</v>
       </c>
       <c r="F54" t="n">
-        <v>1221.771419428947</v>
+        <v>3323.4582</v>
       </c>
       <c r="G54" t="n">
-        <v>270.05</v>
+        <v>269.8666666666667</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2291,25 +2291,25 @@
         <v>275</v>
       </c>
       <c r="C55" t="n">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D55" t="n">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E55" t="n">
         <v>275</v>
       </c>
       <c r="F55" t="n">
-        <v>106.3202</v>
+        <v>1221.771419428947</v>
       </c>
       <c r="G55" t="n">
-        <v>270.1833333333333</v>
+        <v>270.05</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2335,16 +2335,16 @@
         <v>275</v>
       </c>
       <c r="F56" t="n">
-        <v>1000</v>
+        <v>106.3202</v>
       </c>
       <c r="G56" t="n">
-        <v>270.2833333333334</v>
+        <v>270.1833333333333</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C57" t="n">
         <v>275</v>
       </c>
       <c r="D57" t="n">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E57" t="n">
         <v>275</v>
       </c>
       <c r="F57" t="n">
-        <v>19771.9061</v>
+        <v>1000</v>
       </c>
       <c r="G57" t="n">
-        <v>270.3833333333333</v>
+        <v>270.2833333333334</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C58" t="n">
         <v>275</v>
       </c>
       <c r="D58" t="n">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E58" t="n">
         <v>275</v>
       </c>
       <c r="F58" t="n">
-        <v>893</v>
+        <v>19771.9061</v>
       </c>
       <c r="G58" t="n">
-        <v>270.5</v>
+        <v>270.3833333333333</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,28 +2428,28 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C59" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D59" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E59" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F59" t="n">
-        <v>494.463768115942</v>
+        <v>893</v>
       </c>
       <c r="G59" t="n">
-        <v>270.6333333333333</v>
+        <v>270.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
@@ -2463,7 +2463,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C60" t="n">
         <v>276</v>
@@ -2472,13 +2472,13 @@
         <v>276</v>
       </c>
       <c r="E60" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F60" t="n">
-        <v>8349.413</v>
+        <v>494.463768115942</v>
       </c>
       <c r="G60" t="n">
-        <v>270.7833333333334</v>
+        <v>270.6333333333333</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,7 +2498,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C61" t="n">
         <v>276</v>
@@ -2507,13 +2507,13 @@
         <v>276</v>
       </c>
       <c r="E61" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F61" t="n">
-        <v>4.0198</v>
+        <v>8349.413</v>
       </c>
       <c r="G61" t="n">
-        <v>270.9166666666667</v>
+        <v>270.7833333333334</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C62" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D62" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E62" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F62" t="n">
-        <v>419.9695</v>
+        <v>4.0198</v>
       </c>
       <c r="G62" t="n">
-        <v>271</v>
+        <v>270.9166666666667</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2580,10 +2580,10 @@
         <v>275</v>
       </c>
       <c r="F63" t="n">
-        <v>819.9999</v>
+        <v>419.9695</v>
       </c>
       <c r="G63" t="n">
-        <v>271.1</v>
+        <v>271</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2615,10 +2615,10 @@
         <v>275</v>
       </c>
       <c r="F64" t="n">
-        <v>236.7767</v>
+        <v>819.9999</v>
       </c>
       <c r="G64" t="n">
-        <v>271.2166666666666</v>
+        <v>271.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2650,10 +2650,10 @@
         <v>275</v>
       </c>
       <c r="F65" t="n">
-        <v>200.5375</v>
+        <v>236.7767</v>
       </c>
       <c r="G65" t="n">
-        <v>271.3</v>
+        <v>271.2166666666666</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2685,10 +2685,10 @@
         <v>275</v>
       </c>
       <c r="F66" t="n">
-        <v>3323.1032</v>
+        <v>200.5375</v>
       </c>
       <c r="G66" t="n">
-        <v>271.4</v>
+        <v>271.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2720,10 +2720,10 @@
         <v>275</v>
       </c>
       <c r="F67" t="n">
-        <v>921.4307</v>
+        <v>3323.1032</v>
       </c>
       <c r="G67" t="n">
-        <v>271.5</v>
+        <v>271.4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2755,10 +2755,10 @@
         <v>275</v>
       </c>
       <c r="F68" t="n">
-        <v>1021.277</v>
+        <v>921.4307</v>
       </c>
       <c r="G68" t="n">
-        <v>271.5833333333333</v>
+        <v>271.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C69" t="n">
         <v>275</v>
@@ -2787,13 +2787,13 @@
         <v>275</v>
       </c>
       <c r="E69" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F69" t="n">
-        <v>29001.9182</v>
+        <v>1021.277</v>
       </c>
       <c r="G69" t="n">
-        <v>271.6666666666667</v>
+        <v>271.5833333333333</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
+        <v>274</v>
+      </c>
+      <c r="C70" t="n">
         <v>275</v>
       </c>
-      <c r="C70" t="n">
-        <v>276</v>
-      </c>
       <c r="D70" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E70" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F70" t="n">
-        <v>1952.3757</v>
+        <v>29001.9182</v>
       </c>
       <c r="G70" t="n">
-        <v>271.7666666666667</v>
+        <v>271.6666666666667</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C71" t="n">
         <v>276</v>
@@ -2857,13 +2857,13 @@
         <v>276</v>
       </c>
       <c r="E71" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F71" t="n">
-        <v>343.7463</v>
+        <v>1952.3757</v>
       </c>
       <c r="G71" t="n">
-        <v>271.85</v>
+        <v>271.7666666666667</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C72" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D72" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E72" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F72" t="n">
-        <v>1250.105</v>
+        <v>343.7463</v>
       </c>
       <c r="G72" t="n">
-        <v>271.9333333333333</v>
+        <v>271.85</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C73" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D73" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E73" t="n">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F73" t="n">
-        <v>5722.2918</v>
+        <v>1250.105</v>
       </c>
       <c r="G73" t="n">
-        <v>271.9833333333333</v>
+        <v>271.9333333333333</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>274</v>
       </c>
       <c r="E74" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F74" t="n">
-        <v>360</v>
+        <v>5722.2918</v>
       </c>
       <c r="G74" t="n">
-        <v>272.0333333333334</v>
+        <v>271.9833333333333</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>274</v>
       </c>
       <c r="F75" t="n">
-        <v>2412.4087</v>
+        <v>360</v>
       </c>
       <c r="G75" t="n">
-        <v>272.0833333333333</v>
+        <v>272.0333333333334</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3026,19 +3026,19 @@
         <v>274</v>
       </c>
       <c r="C76" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D76" t="n">
         <v>274</v>
       </c>
       <c r="E76" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F76" t="n">
-        <v>1244.544</v>
+        <v>2412.4087</v>
       </c>
       <c r="G76" t="n">
-        <v>272.1166666666667</v>
+        <v>272.0833333333333</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,10 +3058,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
+        <v>274</v>
+      </c>
+      <c r="C77" t="n">
         <v>273</v>
-      </c>
-      <c r="C77" t="n">
-        <v>274</v>
       </c>
       <c r="D77" t="n">
         <v>274</v>
@@ -3070,10 +3070,10 @@
         <v>273</v>
       </c>
       <c r="F77" t="n">
-        <v>12482.2183</v>
+        <v>1244.544</v>
       </c>
       <c r="G77" t="n">
-        <v>272.1666666666667</v>
+        <v>272.1166666666667</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,7 +3093,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C78" t="n">
         <v>274</v>
@@ -3102,13 +3102,13 @@
         <v>274</v>
       </c>
       <c r="E78" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F78" t="n">
-        <v>16859.6012</v>
+        <v>12482.2183</v>
       </c>
       <c r="G78" t="n">
-        <v>272.2</v>
+        <v>272.1666666666667</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,31 +3128,35 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C79" t="n">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D79" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E79" t="n">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F79" t="n">
-        <v>18510.5139</v>
+        <v>16859.6012</v>
       </c>
       <c r="G79" t="n">
         <v>272.2</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>274</v>
+      </c>
+      <c r="K79" t="n">
+        <v>274</v>
+      </c>
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
@@ -3163,22 +3167,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C80" t="n">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D80" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E80" t="n">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F80" t="n">
-        <v>356.5811</v>
+        <v>18510.5139</v>
       </c>
       <c r="G80" t="n">
-        <v>272.25</v>
+        <v>272.2</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3187,8 +3191,14 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>274</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3198,32 +3208,40 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C81" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D81" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E81" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F81" t="n">
-        <v>824.3801</v>
+        <v>356.5811</v>
       </c>
       <c r="G81" t="n">
-        <v>272.2833333333334</v>
+        <v>272.25</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>272</v>
+      </c>
+      <c r="K81" t="n">
+        <v>274</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3233,32 +3251,40 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C82" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D82" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E82" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F82" t="n">
-        <v>47.448</v>
+        <v>824.3801</v>
       </c>
       <c r="G82" t="n">
-        <v>272.3833333333333</v>
+        <v>272.2833333333334</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>274</v>
+      </c>
+      <c r="K82" t="n">
+        <v>274</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3280,20 +3306,28 @@
         <v>276</v>
       </c>
       <c r="F83" t="n">
-        <v>5772.4585</v>
+        <v>47.448</v>
       </c>
       <c r="G83" t="n">
-        <v>272.5</v>
+        <v>272.3833333333333</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>275</v>
+      </c>
+      <c r="K83" t="n">
+        <v>274</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3303,22 +3337,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C84" t="n">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D84" t="n">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E84" t="n">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F84" t="n">
-        <v>368.8079</v>
+        <v>5772.4585</v>
       </c>
       <c r="G84" t="n">
-        <v>272.65</v>
+        <v>272.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3327,8 +3361,14 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>274</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3338,22 +3378,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C85" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D85" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E85" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F85" t="n">
-        <v>15</v>
+        <v>368.8079</v>
       </c>
       <c r="G85" t="n">
-        <v>272.8166666666667</v>
+        <v>272.65</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3362,8 +3402,14 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>274</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3385,10 +3431,10 @@
         <v>278</v>
       </c>
       <c r="F86" t="n">
-        <v>1387</v>
+        <v>15</v>
       </c>
       <c r="G86" t="n">
-        <v>273</v>
+        <v>272.8166666666667</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3397,8 +3443,14 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>274</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3408,22 +3460,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C87" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D87" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E87" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F87" t="n">
-        <v>223.025</v>
+        <v>1387</v>
       </c>
       <c r="G87" t="n">
-        <v>273.2166666666666</v>
+        <v>273</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3432,8 +3484,14 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>274</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3446,19 +3504,19 @@
         <v>279</v>
       </c>
       <c r="C88" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D88" t="n">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E88" t="n">
         <v>279</v>
       </c>
       <c r="F88" t="n">
-        <v>21776.0202</v>
+        <v>223.025</v>
       </c>
       <c r="G88" t="n">
-        <v>273.4666666666666</v>
+        <v>273.2166666666666</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3467,8 +3525,14 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>274</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3478,22 +3542,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C89" t="n">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D89" t="n">
         <v>281</v>
       </c>
       <c r="E89" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F89" t="n">
-        <v>7741.7146</v>
+        <v>21776.0202</v>
       </c>
       <c r="G89" t="n">
-        <v>273.7166666666666</v>
+        <v>273.4666666666666</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3502,8 +3566,14 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>274</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3522,13 +3592,13 @@
         <v>281</v>
       </c>
       <c r="E90" t="n">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F90" t="n">
-        <v>8330.852000000001</v>
+        <v>7741.7146</v>
       </c>
       <c r="G90" t="n">
-        <v>273.95</v>
+        <v>273.7166666666666</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3537,8 +3607,14 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>274</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3548,22 +3624,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C91" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D91" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E91" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F91" t="n">
-        <v>9378.0015</v>
+        <v>8330.852000000001</v>
       </c>
       <c r="G91" t="n">
-        <v>274.2</v>
+        <v>273.95</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3572,8 +3648,14 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>274</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3595,10 +3677,10 @@
         <v>282</v>
       </c>
       <c r="F92" t="n">
-        <v>18677.3286</v>
+        <v>9378.0015</v>
       </c>
       <c r="G92" t="n">
-        <v>274.45</v>
+        <v>274.2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3607,8 +3689,14 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>274</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3621,19 +3709,19 @@
         <v>282</v>
       </c>
       <c r="C93" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D93" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E93" t="n">
         <v>282</v>
       </c>
       <c r="F93" t="n">
-        <v>2141.530269257951</v>
+        <v>18677.3286</v>
       </c>
       <c r="G93" t="n">
-        <v>274.7166666666666</v>
+        <v>274.45</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3642,8 +3730,14 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>274</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3656,7 +3750,7 @@
         <v>282</v>
       </c>
       <c r="C94" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D94" t="n">
         <v>283</v>
@@ -3665,20 +3759,26 @@
         <v>282</v>
       </c>
       <c r="F94" t="n">
-        <v>6213.232690070922</v>
+        <v>2141.530269257951</v>
       </c>
       <c r="G94" t="n">
-        <v>274.9666666666666</v>
+        <v>274.7166666666666</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>274</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3688,22 +3788,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C95" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D95" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E95" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F95" t="n">
-        <v>1561.096</v>
+        <v>6213.232690070922</v>
       </c>
       <c r="G95" t="n">
-        <v>275.1833333333333</v>
+        <v>274.9666666666666</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3712,8 +3812,14 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>274</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3723,7 +3829,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C96" t="n">
         <v>281</v>
@@ -3732,13 +3838,13 @@
         <v>281</v>
       </c>
       <c r="E96" t="n">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F96" t="n">
-        <v>3190.8631</v>
+        <v>1561.096</v>
       </c>
       <c r="G96" t="n">
-        <v>275.3666666666667</v>
+        <v>275.1833333333333</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3747,8 +3853,14 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>274</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3758,22 +3870,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C97" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D97" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E97" t="n">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F97" t="n">
-        <v>1016.0057</v>
+        <v>3190.8631</v>
       </c>
       <c r="G97" t="n">
-        <v>275.5333333333334</v>
+        <v>275.3666666666667</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3782,8 +3894,14 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>274</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3805,10 +3923,10 @@
         <v>282</v>
       </c>
       <c r="F98" t="n">
-        <v>327.308409929078</v>
+        <v>1016.0057</v>
       </c>
       <c r="G98" t="n">
-        <v>275.7333333333333</v>
+        <v>275.5333333333334</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3817,8 +3935,14 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>274</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3840,10 +3964,10 @@
         <v>282</v>
       </c>
       <c r="F99" t="n">
-        <v>2.691590070921986</v>
+        <v>327.308409929078</v>
       </c>
       <c r="G99" t="n">
-        <v>275.9166666666667</v>
+        <v>275.7333333333333</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3852,8 +3976,14 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>274</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3863,22 +3993,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C100" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D100" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E100" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F100" t="n">
-        <v>16936.5518</v>
+        <v>2.691590070921986</v>
       </c>
       <c r="G100" t="n">
-        <v>276.1</v>
+        <v>275.9166666666667</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3887,8 +4017,14 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>274</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3910,10 +4046,10 @@
         <v>281</v>
       </c>
       <c r="F101" t="n">
-        <v>6024.9653</v>
+        <v>16936.5518</v>
       </c>
       <c r="G101" t="n">
-        <v>276.25</v>
+        <v>276.1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3922,8 +4058,14 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>274</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3945,20 +4087,26 @@
         <v>281</v>
       </c>
       <c r="F102" t="n">
-        <v>6162.4487</v>
+        <v>6024.9653</v>
       </c>
       <c r="G102" t="n">
-        <v>276.4</v>
+        <v>276.25</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>274</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -3968,22 +4116,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C103" t="n">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D103" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E103" t="n">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F103" t="n">
-        <v>7139.7642</v>
+        <v>6162.4487</v>
       </c>
       <c r="G103" t="n">
-        <v>276.5166666666667</v>
+        <v>276.4</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3992,8 +4140,14 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>274</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4003,22 +4157,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
+        <v>280</v>
+      </c>
+      <c r="C104" t="n">
         <v>279</v>
       </c>
-      <c r="C104" t="n">
-        <v>276</v>
-      </c>
       <c r="D104" t="n">
+        <v>280</v>
+      </c>
+      <c r="E104" t="n">
         <v>279</v>
       </c>
-      <c r="E104" t="n">
-        <v>276</v>
-      </c>
       <c r="F104" t="n">
-        <v>2558.1434</v>
+        <v>7139.7642</v>
       </c>
       <c r="G104" t="n">
-        <v>276.6166666666667</v>
+        <v>276.5166666666667</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4027,8 +4181,14 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>274</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4038,22 +4198,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C105" t="n">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D105" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E105" t="n">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F105" t="n">
-        <v>61</v>
+        <v>2558.1434</v>
       </c>
       <c r="G105" t="n">
-        <v>276.7166666666666</v>
+        <v>276.6166666666667</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4062,8 +4222,14 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>274</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4073,22 +4239,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C106" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D106" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E106" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F106" t="n">
-        <v>129.546</v>
+        <v>61</v>
       </c>
       <c r="G106" t="n">
-        <v>276.8</v>
+        <v>276.7166666666666</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4097,8 +4263,14 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>274</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4108,22 +4280,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C107" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D107" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E107" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F107" t="n">
-        <v>862.9126</v>
+        <v>129.546</v>
       </c>
       <c r="G107" t="n">
-        <v>276.8833333333333</v>
+        <v>276.8</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4132,8 +4304,14 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>274</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4155,10 +4333,10 @@
         <v>278</v>
       </c>
       <c r="F108" t="n">
-        <v>746</v>
+        <v>862.9126</v>
       </c>
       <c r="G108" t="n">
-        <v>277.0166666666667</v>
+        <v>276.8833333333333</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4167,8 +4345,14 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>274</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4190,10 +4374,10 @@
         <v>278</v>
       </c>
       <c r="F109" t="n">
-        <v>3477.6228</v>
+        <v>746</v>
       </c>
       <c r="G109" t="n">
-        <v>277.0833333333333</v>
+        <v>277.0166666666667</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4202,8 +4386,14 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>274</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4225,10 +4415,10 @@
         <v>278</v>
       </c>
       <c r="F110" t="n">
-        <v>1414.926</v>
+        <v>3477.6228</v>
       </c>
       <c r="G110" t="n">
-        <v>277.15</v>
+        <v>277.0833333333333</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4237,8 +4427,14 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>274</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4260,10 +4456,10 @@
         <v>278</v>
       </c>
       <c r="F111" t="n">
-        <v>4.5386</v>
+        <v>1414.926</v>
       </c>
       <c r="G111" t="n">
-        <v>277.2</v>
+        <v>277.15</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4272,8 +4468,14 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>274</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4286,19 +4488,19 @@
         <v>278</v>
       </c>
       <c r="C112" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D112" t="n">
         <v>278</v>
       </c>
       <c r="E112" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F112" t="n">
-        <v>7465.5342</v>
+        <v>4.5386</v>
       </c>
       <c r="G112" t="n">
-        <v>277.2333333333333</v>
+        <v>277.2</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4307,8 +4509,14 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>274</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4318,22 +4526,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C113" t="n">
         <v>277</v>
       </c>
       <c r="D113" t="n">
+        <v>278</v>
+      </c>
+      <c r="E113" t="n">
         <v>277</v>
       </c>
-      <c r="E113" t="n">
-        <v>276</v>
-      </c>
       <c r="F113" t="n">
-        <v>8337.7575</v>
+        <v>7465.5342</v>
       </c>
       <c r="G113" t="n">
-        <v>277.2666666666667</v>
+        <v>277.2333333333333</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4342,8 +4550,14 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>274</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4353,22 +4567,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
+        <v>276</v>
+      </c>
+      <c r="C114" t="n">
         <v>277</v>
       </c>
-      <c r="C114" t="n">
-        <v>279</v>
-      </c>
       <c r="D114" t="n">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E114" t="n">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F114" t="n">
-        <v>101</v>
+        <v>8337.7575</v>
       </c>
       <c r="G114" t="n">
-        <v>277.3</v>
+        <v>277.2666666666667</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4377,8 +4591,14 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>274</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4391,29 +4611,37 @@
         <v>277</v>
       </c>
       <c r="C115" t="n">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D115" t="n">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E115" t="n">
         <v>277</v>
       </c>
       <c r="F115" t="n">
-        <v>699.2137</v>
+        <v>101</v>
       </c>
       <c r="G115" t="n">
-        <v>277.3333333333333</v>
+        <v>277.3</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>277</v>
+      </c>
+      <c r="K115" t="n">
+        <v>274</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4423,22 +4651,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C116" t="n">
         <v>277</v>
       </c>
       <c r="D116" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E116" t="n">
         <v>277</v>
       </c>
       <c r="F116" t="n">
-        <v>2074.8413</v>
+        <v>699.2137</v>
       </c>
       <c r="G116" t="n">
-        <v>277.3666666666667</v>
+        <v>277.3333333333333</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4447,8 +4675,14 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>274</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4461,19 +4695,19 @@
         <v>278</v>
       </c>
       <c r="C117" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D117" t="n">
         <v>278</v>
       </c>
       <c r="E117" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F117" t="n">
-        <v>738.2374</v>
+        <v>2074.8413</v>
       </c>
       <c r="G117" t="n">
-        <v>277.4166666666667</v>
+        <v>277.3666666666667</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4482,8 +4716,14 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>274</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4505,10 +4745,10 @@
         <v>278</v>
       </c>
       <c r="F118" t="n">
-        <v>197.9568</v>
+        <v>738.2374</v>
       </c>
       <c r="G118" t="n">
-        <v>277.4666666666666</v>
+        <v>277.4166666666667</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4517,8 +4757,14 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>274</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4528,7 +4774,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C119" t="n">
         <v>278</v>
@@ -4537,13 +4783,13 @@
         <v>278</v>
       </c>
       <c r="E119" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F119" t="n">
-        <v>492.4799</v>
+        <v>197.9568</v>
       </c>
       <c r="G119" t="n">
-        <v>277.5</v>
+        <v>277.4666666666666</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4552,8 +4798,14 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>274</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4563,7 +4815,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C120" t="n">
         <v>278</v>
@@ -4572,13 +4824,13 @@
         <v>278</v>
       </c>
       <c r="E120" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F120" t="n">
-        <v>1812.1654</v>
+        <v>492.4799</v>
       </c>
       <c r="G120" t="n">
-        <v>277.5333333333334</v>
+        <v>277.5</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4587,8 +4839,14 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>274</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4601,19 +4859,19 @@
         <v>278</v>
       </c>
       <c r="C121" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D121" t="n">
         <v>278</v>
       </c>
       <c r="E121" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F121" t="n">
-        <v>349.2841</v>
+        <v>1812.1654</v>
       </c>
       <c r="G121" t="n">
-        <v>277.55</v>
+        <v>277.5333333333334</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4622,8 +4880,14 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>274</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4645,10 +4909,10 @@
         <v>277</v>
       </c>
       <c r="F122" t="n">
-        <v>395.2136</v>
+        <v>349.2841</v>
       </c>
       <c r="G122" t="n">
-        <v>277.5833333333333</v>
+        <v>277.55</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4657,8 +4921,14 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>274</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4668,22 +4938,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C123" t="n">
         <v>277</v>
       </c>
       <c r="D123" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E123" t="n">
         <v>277</v>
       </c>
       <c r="F123" t="n">
-        <v>8619.9627</v>
+        <v>395.2136</v>
       </c>
       <c r="G123" t="n">
-        <v>277.6166666666667</v>
+        <v>277.5833333333333</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4692,8 +4962,14 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>274</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4715,10 +4991,10 @@
         <v>277</v>
       </c>
       <c r="F124" t="n">
-        <v>238.2134</v>
+        <v>8619.9627</v>
       </c>
       <c r="G124" t="n">
-        <v>277.65</v>
+        <v>277.6166666666667</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4727,8 +5003,14 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>274</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4750,10 +5032,10 @@
         <v>277</v>
       </c>
       <c r="F125" t="n">
-        <v>53.21</v>
+        <v>238.2134</v>
       </c>
       <c r="G125" t="n">
-        <v>277.6833333333333</v>
+        <v>277.65</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4762,8 +5044,14 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>274</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4785,10 +5073,10 @@
         <v>277</v>
       </c>
       <c r="F126" t="n">
-        <v>2363.8646</v>
+        <v>53.21</v>
       </c>
       <c r="G126" t="n">
-        <v>277.7166666666666</v>
+        <v>277.6833333333333</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4797,8 +5085,14 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>274</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4808,22 +5102,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C127" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D127" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E127" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F127" t="n">
-        <v>3491.9944</v>
+        <v>2363.8646</v>
       </c>
       <c r="G127" t="n">
-        <v>277.7666666666667</v>
+        <v>277.7166666666666</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4832,8 +5126,14 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>274</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4855,24 +5155,26 @@
         <v>278</v>
       </c>
       <c r="F128" t="n">
-        <v>10668.0661</v>
+        <v>3491.9944</v>
       </c>
       <c r="G128" t="n">
-        <v>277.8166666666667</v>
+        <v>277.7666666666667</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>278</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
-        <v>278</v>
-      </c>
-      <c r="L128" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -4894,26 +5196,24 @@
         <v>278</v>
       </c>
       <c r="F129" t="n">
-        <v>2080.8198</v>
+        <v>10668.0661</v>
       </c>
       <c r="G129" t="n">
-        <v>277.8666666666667</v>
+        <v>277.8166666666667</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>278</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M129" t="n">
@@ -4937,26 +5237,24 @@
         <v>278</v>
       </c>
       <c r="F130" t="n">
-        <v>5825.0176</v>
+        <v>2080.8198</v>
       </c>
       <c r="G130" t="n">
-        <v>277.9</v>
+        <v>277.8666666666667</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>278</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M130" t="n">
@@ -4971,35 +5269,33 @@
         <v>278</v>
       </c>
       <c r="C131" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D131" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E131" t="n">
         <v>278</v>
       </c>
       <c r="F131" t="n">
-        <v>1402.8943</v>
+        <v>5825.0176</v>
       </c>
       <c r="G131" t="n">
-        <v>277.95</v>
+        <v>277.9</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>278</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M131" t="n">
@@ -5011,34 +5307,32 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C132" t="n">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D132" t="n">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E132" t="n">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F132" t="n">
-        <v>1215.3443</v>
+        <v>1402.8943</v>
       </c>
       <c r="G132" t="n">
-        <v>278.05</v>
+        <v>277.95</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>279</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L132" t="inlineStr">
         <is>
@@ -5054,34 +5348,32 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C133" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D133" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E133" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F133" t="n">
-        <v>10890.5212</v>
+        <v>1215.3443</v>
       </c>
       <c r="G133" t="n">
-        <v>278.1833333333333</v>
+        <v>278.05</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>281</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L133" t="inlineStr">
         <is>
@@ -5097,22 +5389,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C134" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D134" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E134" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F134" t="n">
-        <v>1.54</v>
+        <v>10890.5212</v>
       </c>
       <c r="G134" t="n">
-        <v>278.3</v>
+        <v>278.1833333333333</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5122,7 +5414,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L134" t="inlineStr">
         <is>
@@ -5150,10 +5442,10 @@
         <v>281</v>
       </c>
       <c r="F135" t="n">
-        <v>1</v>
+        <v>1.54</v>
       </c>
       <c r="G135" t="n">
-        <v>278.4166666666667</v>
+        <v>278.3</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5163,7 +5455,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
@@ -5182,19 +5474,19 @@
         <v>281</v>
       </c>
       <c r="C136" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D136" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E136" t="n">
         <v>281</v>
       </c>
       <c r="F136" t="n">
-        <v>711.4165</v>
+        <v>1</v>
       </c>
       <c r="G136" t="n">
-        <v>278.5666666666667</v>
+        <v>278.4166666666667</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5204,7 +5496,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L136" t="inlineStr">
         <is>
@@ -5223,19 +5515,19 @@
         <v>281</v>
       </c>
       <c r="C137" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D137" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E137" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F137" t="n">
-        <v>40855.5433</v>
+        <v>711.4165</v>
       </c>
       <c r="G137" t="n">
-        <v>278.7166666666666</v>
+        <v>278.5666666666667</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5245,7 +5537,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L137" t="inlineStr">
         <is>
@@ -5261,22 +5553,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
+        <v>281</v>
+      </c>
+      <c r="C138" t="n">
         <v>283</v>
       </c>
-      <c r="C138" t="n">
-        <v>284</v>
-      </c>
       <c r="D138" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E138" t="n">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F138" t="n">
-        <v>306.2777</v>
+        <v>40855.5433</v>
       </c>
       <c r="G138" t="n">
-        <v>278.8833333333333</v>
+        <v>278.7166666666666</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5286,7 +5578,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L138" t="inlineStr">
         <is>
@@ -5302,7 +5594,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C139" t="n">
         <v>284</v>
@@ -5311,13 +5603,13 @@
         <v>284</v>
       </c>
       <c r="E139" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F139" t="n">
-        <v>328.8238</v>
+        <v>306.2777</v>
       </c>
       <c r="G139" t="n">
-        <v>279.0833333333333</v>
+        <v>278.8833333333333</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5327,7 +5619,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L139" t="inlineStr">
         <is>
@@ -5355,10 +5647,10 @@
         <v>284</v>
       </c>
       <c r="F140" t="n">
-        <v>34.3992</v>
+        <v>328.8238</v>
       </c>
       <c r="G140" t="n">
-        <v>279.25</v>
+        <v>279.0833333333333</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5368,7 +5660,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L140" t="inlineStr">
         <is>
@@ -5396,10 +5688,10 @@
         <v>284</v>
       </c>
       <c r="F141" t="n">
-        <v>685.2963999999999</v>
+        <v>34.3992</v>
       </c>
       <c r="G141" t="n">
-        <v>279.4</v>
+        <v>279.25</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5409,7 +5701,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L141" t="inlineStr">
         <is>
@@ -5437,10 +5729,10 @@
         <v>284</v>
       </c>
       <c r="F142" t="n">
-        <v>690.8169</v>
+        <v>685.2963999999999</v>
       </c>
       <c r="G142" t="n">
-        <v>279.5333333333334</v>
+        <v>279.4</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5450,7 +5742,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L142" t="inlineStr">
         <is>
@@ -5478,10 +5770,10 @@
         <v>284</v>
       </c>
       <c r="F143" t="n">
-        <v>44655.2566</v>
+        <v>690.8169</v>
       </c>
       <c r="G143" t="n">
-        <v>279.6666666666667</v>
+        <v>279.5333333333334</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5491,7 +5783,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L143" t="inlineStr">
         <is>
@@ -5519,10 +5811,10 @@
         <v>284</v>
       </c>
       <c r="F144" t="n">
-        <v>719.9999</v>
+        <v>44655.2566</v>
       </c>
       <c r="G144" t="n">
-        <v>279.7833333333334</v>
+        <v>279.6666666666667</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5532,7 +5824,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L144" t="inlineStr">
         <is>
@@ -5554,16 +5846,16 @@
         <v>284</v>
       </c>
       <c r="D145" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E145" t="n">
         <v>284</v>
       </c>
       <c r="F145" t="n">
-        <v>3204.7993</v>
+        <v>719.9999</v>
       </c>
       <c r="G145" t="n">
-        <v>279.8833333333333</v>
+        <v>279.7833333333334</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5573,7 +5865,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L145" t="inlineStr">
         <is>
@@ -5595,16 +5887,16 @@
         <v>284</v>
       </c>
       <c r="D146" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E146" t="n">
         <v>284</v>
       </c>
       <c r="F146" t="n">
-        <v>104.4283</v>
+        <v>3204.7993</v>
       </c>
       <c r="G146" t="n">
-        <v>279.9833333333333</v>
+        <v>279.8833333333333</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5614,7 +5906,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L146" t="inlineStr">
         <is>
@@ -5642,10 +5934,10 @@
         <v>284</v>
       </c>
       <c r="F147" t="n">
-        <v>912.2599</v>
+        <v>104.4283</v>
       </c>
       <c r="G147" t="n">
-        <v>280.0666666666667</v>
+        <v>279.9833333333333</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5655,7 +5947,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L147" t="inlineStr">
         <is>
@@ -5683,10 +5975,10 @@
         <v>284</v>
       </c>
       <c r="F148" t="n">
-        <v>85.0257</v>
+        <v>912.2599</v>
       </c>
       <c r="G148" t="n">
-        <v>280.1333333333333</v>
+        <v>280.0666666666667</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5696,7 +5988,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L148" t="inlineStr">
         <is>
@@ -5724,10 +6016,10 @@
         <v>284</v>
       </c>
       <c r="F149" t="n">
-        <v>4</v>
+        <v>85.0257</v>
       </c>
       <c r="G149" t="n">
-        <v>280.1833333333333</v>
+        <v>280.1333333333333</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5737,7 +6029,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L149" t="inlineStr">
         <is>
@@ -5765,10 +6057,10 @@
         <v>284</v>
       </c>
       <c r="F150" t="n">
-        <v>3.708</v>
+        <v>4</v>
       </c>
       <c r="G150" t="n">
-        <v>280.2333333333333</v>
+        <v>280.1833333333333</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5778,7 +6070,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L150" t="inlineStr">
         <is>
@@ -5794,22 +6086,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C151" t="n">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D151" t="n">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E151" t="n">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F151" t="n">
-        <v>231.3714</v>
+        <v>3.708</v>
       </c>
       <c r="G151" t="n">
-        <v>280.3</v>
+        <v>280.2333333333333</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5819,7 +6111,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L151" t="inlineStr">
         <is>
@@ -5835,22 +6127,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C152" t="n">
         <v>286</v>
       </c>
       <c r="D152" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E152" t="n">
         <v>286</v>
       </c>
       <c r="F152" t="n">
-        <v>812.9541</v>
+        <v>231.3714</v>
       </c>
       <c r="G152" t="n">
-        <v>280.3666666666667</v>
+        <v>280.3</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5860,7 +6152,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L152" t="inlineStr">
         <is>
@@ -5879,19 +6171,19 @@
         <v>287</v>
       </c>
       <c r="C153" t="n">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D153" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E153" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F153" t="n">
-        <v>16583.0972</v>
+        <v>812.9541</v>
       </c>
       <c r="G153" t="n">
-        <v>280.45</v>
+        <v>280.3666666666667</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5901,7 +6193,7 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L153" t="inlineStr">
         <is>
@@ -5920,7 +6212,7 @@
         <v>287</v>
       </c>
       <c r="C154" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D154" t="n">
         <v>288</v>
@@ -5929,10 +6221,10 @@
         <v>287</v>
       </c>
       <c r="F154" t="n">
-        <v>13891.731</v>
+        <v>16583.0972</v>
       </c>
       <c r="G154" t="n">
-        <v>280.5333333333334</v>
+        <v>280.45</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5942,7 +6234,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L154" t="inlineStr">
         <is>
@@ -5964,16 +6256,16 @@
         <v>287</v>
       </c>
       <c r="D155" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E155" t="n">
         <v>287</v>
       </c>
       <c r="F155" t="n">
-        <v>1225.0015</v>
+        <v>13891.731</v>
       </c>
       <c r="G155" t="n">
-        <v>280.6333333333333</v>
+        <v>280.5333333333334</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5983,7 +6275,7 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L155" t="inlineStr">
         <is>
@@ -6011,10 +6303,10 @@
         <v>287</v>
       </c>
       <c r="F156" t="n">
-        <v>4035.5514</v>
+        <v>1225.0015</v>
       </c>
       <c r="G156" t="n">
-        <v>280.7333333333333</v>
+        <v>280.6333333333333</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6024,7 +6316,7 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L156" t="inlineStr">
         <is>
@@ -6052,10 +6344,10 @@
         <v>287</v>
       </c>
       <c r="F157" t="n">
-        <v>1140.3588</v>
+        <v>4035.5514</v>
       </c>
       <c r="G157" t="n">
-        <v>280.8166666666667</v>
+        <v>280.7333333333333</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6065,7 +6357,7 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L157" t="inlineStr">
         <is>
@@ -6093,10 +6385,10 @@
         <v>287</v>
       </c>
       <c r="F158" t="n">
-        <v>9.202</v>
+        <v>1140.3588</v>
       </c>
       <c r="G158" t="n">
-        <v>280.9</v>
+        <v>280.8166666666667</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6106,7 +6398,7 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L158" t="inlineStr">
         <is>
@@ -6134,10 +6426,10 @@
         <v>287</v>
       </c>
       <c r="F159" t="n">
-        <v>6535</v>
+        <v>9.202</v>
       </c>
       <c r="G159" t="n">
-        <v>280.9833333333333</v>
+        <v>280.9</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6147,7 +6439,7 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L159" t="inlineStr">
         <is>
@@ -6175,10 +6467,10 @@
         <v>287</v>
       </c>
       <c r="F160" t="n">
-        <v>355.4396</v>
+        <v>6535</v>
       </c>
       <c r="G160" t="n">
-        <v>281.0833333333333</v>
+        <v>280.9833333333333</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6188,7 +6480,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L160" t="inlineStr">
         <is>
@@ -6207,19 +6499,19 @@
         <v>287</v>
       </c>
       <c r="C161" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D161" t="n">
         <v>287</v>
       </c>
       <c r="E161" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F161" t="n">
-        <v>1772.4079</v>
+        <v>355.4396</v>
       </c>
       <c r="G161" t="n">
-        <v>281.1666666666667</v>
+        <v>281.0833333333333</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6229,7 +6521,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L161" t="inlineStr">
         <is>
@@ -6248,19 +6540,19 @@
         <v>287</v>
       </c>
       <c r="C162" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D162" t="n">
         <v>287</v>
       </c>
       <c r="E162" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F162" t="n">
-        <v>4.0555</v>
+        <v>1772.4079</v>
       </c>
       <c r="G162" t="n">
-        <v>281.2666666666667</v>
+        <v>281.1666666666667</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6270,7 +6562,7 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L162" t="inlineStr">
         <is>
@@ -6298,10 +6590,10 @@
         <v>287</v>
       </c>
       <c r="F163" t="n">
-        <v>0.8112</v>
+        <v>4.0555</v>
       </c>
       <c r="G163" t="n">
-        <v>281.4</v>
+        <v>281.2666666666667</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6311,7 +6603,7 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L163" t="inlineStr">
         <is>
@@ -6327,22 +6619,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C164" t="n">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="D164" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E164" t="n">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="F164" t="n">
-        <v>16541.6395</v>
+        <v>0.8112</v>
       </c>
       <c r="G164" t="n">
-        <v>281.5</v>
+        <v>281.4</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6352,7 +6644,7 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L164" t="inlineStr">
         <is>
@@ -6371,19 +6663,19 @@
         <v>285</v>
       </c>
       <c r="C165" t="n">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D165" t="n">
         <v>285</v>
       </c>
       <c r="E165" t="n">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F165" t="n">
-        <v>1077</v>
+        <v>16541.6395</v>
       </c>
       <c r="G165" t="n">
-        <v>281.6166666666667</v>
+        <v>281.5</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6393,7 +6685,7 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L165" t="inlineStr">
         <is>
@@ -6409,7 +6701,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C166" t="n">
         <v>285</v>
@@ -6418,13 +6710,13 @@
         <v>285</v>
       </c>
       <c r="E166" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F166" t="n">
-        <v>718.3449000000001</v>
+        <v>1077</v>
       </c>
       <c r="G166" t="n">
-        <v>281.75</v>
+        <v>281.6166666666667</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6434,7 +6726,7 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L166" t="inlineStr">
         <is>
@@ -6453,19 +6745,19 @@
         <v>284</v>
       </c>
       <c r="C167" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D167" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E167" t="n">
         <v>284</v>
       </c>
       <c r="F167" t="n">
-        <v>177.3901</v>
+        <v>718.3449000000001</v>
       </c>
       <c r="G167" t="n">
-        <v>281.85</v>
+        <v>281.75</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6475,7 +6767,7 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L167" t="inlineStr">
         <is>
@@ -6494,19 +6786,19 @@
         <v>284</v>
       </c>
       <c r="C168" t="n">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D168" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E168" t="n">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F168" t="n">
-        <v>13434.8676</v>
+        <v>177.3901</v>
       </c>
       <c r="G168" t="n">
-        <v>281.9166666666667</v>
+        <v>281.85</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6516,7 +6808,7 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L168" t="inlineStr">
         <is>
@@ -6532,22 +6824,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C169" t="n">
         <v>282</v>
       </c>
       <c r="D169" t="n">
+        <v>285</v>
+      </c>
+      <c r="E169" t="n">
         <v>282</v>
       </c>
-      <c r="E169" t="n">
-        <v>280</v>
-      </c>
       <c r="F169" t="n">
-        <v>10115.7948</v>
+        <v>13434.8676</v>
       </c>
       <c r="G169" t="n">
-        <v>281.9833333333333</v>
+        <v>281.9166666666667</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6557,7 +6849,7 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L169" t="inlineStr">
         <is>
@@ -6582,13 +6874,13 @@
         <v>282</v>
       </c>
       <c r="E170" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F170" t="n">
-        <v>16953.8201</v>
+        <v>10115.7948</v>
       </c>
       <c r="G170" t="n">
-        <v>282.05</v>
+        <v>281.9833333333333</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6598,7 +6890,7 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L170" t="inlineStr">
         <is>
@@ -6614,7 +6906,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C171" t="n">
         <v>282</v>
@@ -6623,13 +6915,13 @@
         <v>282</v>
       </c>
       <c r="E171" t="n">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F171" t="n">
-        <v>1094.3011</v>
+        <v>16953.8201</v>
       </c>
       <c r="G171" t="n">
-        <v>282.1166666666667</v>
+        <v>282.05</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6639,7 +6931,7 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L171" t="inlineStr">
         <is>
@@ -6667,10 +6959,10 @@
         <v>282</v>
       </c>
       <c r="F172" t="n">
-        <v>4543.9999</v>
+        <v>1094.3011</v>
       </c>
       <c r="G172" t="n">
-        <v>282.2</v>
+        <v>282.1166666666667</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6680,7 +6972,7 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L172" t="inlineStr">
         <is>
@@ -6705,13 +6997,13 @@
         <v>282</v>
       </c>
       <c r="E173" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F173" t="n">
-        <v>8415.8369</v>
+        <v>4543.9999</v>
       </c>
       <c r="G173" t="n">
-        <v>282.2833333333334</v>
+        <v>282.2</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6721,7 +7013,7 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L173" t="inlineStr">
         <is>
@@ -6737,7 +7029,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C174" t="n">
         <v>282</v>
@@ -6749,10 +7041,10 @@
         <v>280</v>
       </c>
       <c r="F174" t="n">
-        <v>12726.5141</v>
+        <v>8415.8369</v>
       </c>
       <c r="G174" t="n">
-        <v>282.3333333333333</v>
+        <v>282.2833333333334</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6762,7 +7054,7 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L174" t="inlineStr">
         <is>
@@ -6778,7 +7070,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C175" t="n">
         <v>282</v>
@@ -6787,13 +7079,13 @@
         <v>282</v>
       </c>
       <c r="E175" t="n">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F175" t="n">
-        <v>6133.3452</v>
+        <v>12726.5141</v>
       </c>
       <c r="G175" t="n">
-        <v>282.4166666666667</v>
+        <v>282.3333333333333</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6803,7 +7095,7 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L175" t="inlineStr">
         <is>
@@ -6831,10 +7123,10 @@
         <v>282</v>
       </c>
       <c r="F176" t="n">
-        <v>7259.7516</v>
+        <v>6133.3452</v>
       </c>
       <c r="G176" t="n">
-        <v>282.5</v>
+        <v>282.4166666666667</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6844,7 +7136,7 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L176" t="inlineStr">
         <is>
@@ -6860,22 +7152,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C177" t="n">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D177" t="n">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E177" t="n">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F177" t="n">
-        <v>42.6428</v>
+        <v>7259.7516</v>
       </c>
       <c r="G177" t="n">
-        <v>282.6</v>
+        <v>282.5</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6885,7 +7177,7 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L177" t="inlineStr">
         <is>
@@ -6901,22 +7193,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C178" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D178" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E178" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F178" t="n">
-        <v>1137.5079</v>
+        <v>42.6428</v>
       </c>
       <c r="G178" t="n">
-        <v>282.6833333333333</v>
+        <v>282.6</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6926,7 +7218,7 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L178" t="inlineStr">
         <is>
@@ -6942,22 +7234,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C179" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D179" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E179" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F179" t="n">
-        <v>965.6494</v>
+        <v>1137.5079</v>
       </c>
       <c r="G179" t="n">
-        <v>282.7833333333334</v>
+        <v>282.6833333333333</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6967,7 +7259,7 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L179" t="inlineStr">
         <is>
@@ -6983,22 +7275,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C180" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D180" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E180" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F180" t="n">
-        <v>4.9415</v>
+        <v>965.6494</v>
       </c>
       <c r="G180" t="n">
-        <v>282.8666666666667</v>
+        <v>282.7833333333334</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7008,7 +7300,7 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L180" t="inlineStr">
         <is>
@@ -7024,7 +7316,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C181" t="n">
         <v>283</v>
@@ -7033,13 +7325,13 @@
         <v>283</v>
       </c>
       <c r="E181" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F181" t="n">
-        <v>509</v>
+        <v>4.9415</v>
       </c>
       <c r="G181" t="n">
-        <v>282.9666666666666</v>
+        <v>282.8666666666667</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7049,7 +7341,7 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L181" t="inlineStr">
         <is>
@@ -7065,22 +7357,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C182" t="n">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D182" t="n">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E182" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F182" t="n">
-        <v>177.9359</v>
+        <v>509</v>
       </c>
       <c r="G182" t="n">
-        <v>283.0166666666667</v>
+        <v>282.9666666666666</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7090,7 +7382,7 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L182" t="inlineStr">
         <is>
@@ -7118,10 +7410,10 @@
         <v>280</v>
       </c>
       <c r="F183" t="n">
-        <v>3841.8726</v>
+        <v>177.9359</v>
       </c>
       <c r="G183" t="n">
-        <v>283.0666666666667</v>
+        <v>283.0166666666667</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7131,7 +7423,7 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L183" t="inlineStr">
         <is>
@@ -7159,10 +7451,10 @@
         <v>280</v>
       </c>
       <c r="F184" t="n">
-        <v>57.4979</v>
+        <v>3841.8726</v>
       </c>
       <c r="G184" t="n">
-        <v>283.1166666666667</v>
+        <v>283.0666666666667</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7172,7 +7464,7 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L184" t="inlineStr">
         <is>
@@ -7188,22 +7480,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C185" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D185" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E185" t="n">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F185" t="n">
-        <v>842.7513</v>
+        <v>57.4979</v>
       </c>
       <c r="G185" t="n">
-        <v>283.15</v>
+        <v>283.1166666666667</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7213,7 +7505,7 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L185" t="inlineStr">
         <is>
@@ -7229,7 +7521,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C186" t="n">
         <v>279</v>
@@ -7238,13 +7530,13 @@
         <v>279</v>
       </c>
       <c r="E186" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F186" t="n">
-        <v>2437.1723</v>
+        <v>842.7513</v>
       </c>
       <c r="G186" t="n">
-        <v>283.1833333333333</v>
+        <v>283.15</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7254,7 +7546,7 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L186" t="inlineStr">
         <is>
@@ -7270,22 +7562,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C187" t="n">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D187" t="n">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E187" t="n">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F187" t="n">
-        <v>57.4979</v>
+        <v>2437.1723</v>
       </c>
       <c r="G187" t="n">
-        <v>283.2333333333333</v>
+        <v>283.1833333333333</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7295,7 +7587,7 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L187" t="inlineStr">
         <is>
@@ -7314,19 +7606,19 @@
         <v>281</v>
       </c>
       <c r="C188" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D188" t="n">
         <v>281</v>
       </c>
       <c r="E188" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F188" t="n">
-        <v>218.8768</v>
+        <v>57.4979</v>
       </c>
       <c r="G188" t="n">
-        <v>283.2666666666667</v>
+        <v>283.2333333333333</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7336,7 +7628,7 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L188" t="inlineStr">
         <is>
@@ -7352,10 +7644,10 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
+        <v>281</v>
+      </c>
+      <c r="C189" t="n">
         <v>280</v>
-      </c>
-      <c r="C189" t="n">
-        <v>281</v>
       </c>
       <c r="D189" t="n">
         <v>281</v>
@@ -7364,10 +7656,10 @@
         <v>280</v>
       </c>
       <c r="F189" t="n">
-        <v>2712.1201</v>
+        <v>218.8768</v>
       </c>
       <c r="G189" t="n">
-        <v>283.3166666666667</v>
+        <v>283.2666666666667</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7377,7 +7669,7 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L189" t="inlineStr">
         <is>
@@ -7396,19 +7688,19 @@
         <v>280</v>
       </c>
       <c r="C190" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D190" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E190" t="n">
         <v>280</v>
       </c>
       <c r="F190" t="n">
-        <v>761.056</v>
+        <v>2712.1201</v>
       </c>
       <c r="G190" t="n">
-        <v>283.35</v>
+        <v>283.3166666666667</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7418,7 +7710,7 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L190" t="inlineStr">
         <is>
@@ -7437,16 +7729,16 @@
         <v>280</v>
       </c>
       <c r="C191" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D191" t="n">
         <v>280</v>
       </c>
       <c r="E191" t="n">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="F191" t="n">
-        <v>9585.826800000001</v>
+        <v>761.056</v>
       </c>
       <c r="G191" t="n">
         <v>283.35</v>
@@ -7459,7 +7751,7 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L191" t="inlineStr">
         <is>
@@ -7475,19 +7767,19 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
+        <v>280</v>
+      </c>
+      <c r="C192" t="n">
         <v>279</v>
       </c>
-      <c r="C192" t="n">
-        <v>281</v>
-      </c>
       <c r="D192" t="n">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E192" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F192" t="n">
-        <v>12523.0092</v>
+        <v>9585.826800000001</v>
       </c>
       <c r="G192" t="n">
         <v>283.35</v>
@@ -7500,7 +7792,7 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L192" t="inlineStr">
         <is>
@@ -7519,19 +7811,19 @@
         <v>279</v>
       </c>
       <c r="C193" t="n">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D193" t="n">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E193" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F193" t="n">
-        <v>1210.7168</v>
+        <v>12523.0092</v>
       </c>
       <c r="G193" t="n">
-        <v>283.3</v>
+        <v>283.35</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7541,7 +7833,7 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L193" t="inlineStr">
         <is>
@@ -7560,19 +7852,19 @@
         <v>279</v>
       </c>
       <c r="C194" t="n">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D194" t="n">
         <v>279</v>
       </c>
       <c r="E194" t="n">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F194" t="n">
-        <v>3019.5266</v>
+        <v>1210.7168</v>
       </c>
       <c r="G194" t="n">
-        <v>283.2333333333333</v>
+        <v>283.3</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7582,7 +7874,7 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L194" t="inlineStr">
         <is>
@@ -7598,22 +7890,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
+        <v>279</v>
+      </c>
+      <c r="C195" t="n">
         <v>277</v>
       </c>
-      <c r="C195" t="n">
-        <v>276</v>
-      </c>
       <c r="D195" t="n">
+        <v>279</v>
+      </c>
+      <c r="E195" t="n">
         <v>277</v>
       </c>
-      <c r="E195" t="n">
-        <v>276</v>
-      </c>
       <c r="F195" t="n">
-        <v>1714.5187</v>
+        <v>3019.5266</v>
       </c>
       <c r="G195" t="n">
-        <v>283.15</v>
+        <v>283.2333333333333</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7623,7 +7915,7 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L195" t="inlineStr">
         <is>
@@ -7642,19 +7934,19 @@
         <v>277</v>
       </c>
       <c r="C196" t="n">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D196" t="n">
         <v>277</v>
       </c>
       <c r="E196" t="n">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F196" t="n">
-        <v>106.2498</v>
+        <v>1714.5187</v>
       </c>
       <c r="G196" t="n">
-        <v>283.0666666666667</v>
+        <v>283.15</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7664,7 +7956,7 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L196" t="inlineStr">
         <is>
@@ -7692,10 +7984,10 @@
         <v>277</v>
       </c>
       <c r="F197" t="n">
-        <v>605.7528</v>
+        <v>106.2498</v>
       </c>
       <c r="G197" t="n">
-        <v>282.9666666666666</v>
+        <v>283.0666666666667</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7705,7 +7997,7 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L197" t="inlineStr">
         <is>
@@ -7733,10 +8025,10 @@
         <v>277</v>
       </c>
       <c r="F198" t="n">
-        <v>106.2498</v>
+        <v>605.7528</v>
       </c>
       <c r="G198" t="n">
-        <v>282.85</v>
+        <v>282.9666666666666</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7746,7 +8038,7 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L198" t="inlineStr">
         <is>
@@ -7762,22 +8054,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C199" t="n">
         <v>277</v>
       </c>
       <c r="D199" t="n">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E199" t="n">
         <v>277</v>
       </c>
       <c r="F199" t="n">
-        <v>1854.0019</v>
+        <v>106.2498</v>
       </c>
       <c r="G199" t="n">
-        <v>282.7333333333333</v>
+        <v>282.85</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7787,7 +8079,7 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L199" t="inlineStr">
         <is>
@@ -7803,10 +8095,10 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
+        <v>279</v>
+      </c>
+      <c r="C200" t="n">
         <v>277</v>
-      </c>
-      <c r="C200" t="n">
-        <v>279</v>
       </c>
       <c r="D200" t="n">
         <v>279</v>
@@ -7815,10 +8107,10 @@
         <v>277</v>
       </c>
       <c r="F200" t="n">
-        <v>164.9007</v>
+        <v>1854.0019</v>
       </c>
       <c r="G200" t="n">
-        <v>282.65</v>
+        <v>282.7333333333333</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7828,7 +8120,7 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L200" t="inlineStr">
         <is>
@@ -7844,7 +8136,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C201" t="n">
         <v>279</v>
@@ -7853,13 +8145,13 @@
         <v>279</v>
       </c>
       <c r="E201" t="n">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F201" t="n">
-        <v>1824.5999</v>
+        <v>164.9007</v>
       </c>
       <c r="G201" t="n">
-        <v>282.5666666666667</v>
+        <v>282.65</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7869,7 +8161,7 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L201" t="inlineStr">
         <is>
@@ -7897,10 +8189,10 @@
         <v>279</v>
       </c>
       <c r="F202" t="n">
-        <v>9.4726</v>
+        <v>1824.5999</v>
       </c>
       <c r="G202" t="n">
-        <v>282.4833333333333</v>
+        <v>282.5666666666667</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7910,7 +8202,7 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L202" t="inlineStr">
         <is>
@@ -7926,22 +8218,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C203" t="n">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D203" t="n">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E203" t="n">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F203" t="n">
-        <v>8008.1137</v>
+        <v>9.4726</v>
       </c>
       <c r="G203" t="n">
-        <v>282.4333333333333</v>
+        <v>282.4833333333333</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7951,7 +8243,7 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L203" t="inlineStr">
         <is>
@@ -7967,22 +8259,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C204" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D204" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E204" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F204" t="n">
-        <v>6929.2892</v>
+        <v>8008.1137</v>
       </c>
       <c r="G204" t="n">
-        <v>282.3666666666667</v>
+        <v>282.4333333333333</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7992,7 +8284,7 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L204" t="inlineStr">
         <is>
@@ -8008,22 +8300,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C205" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D205" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E205" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F205" t="n">
-        <v>403.7398</v>
+        <v>6929.2892</v>
       </c>
       <c r="G205" t="n">
-        <v>282.2833333333334</v>
+        <v>282.3666666666667</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -8033,7 +8325,7 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L205" t="inlineStr">
         <is>
@@ -8052,19 +8344,19 @@
         <v>279</v>
       </c>
       <c r="C206" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D206" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E206" t="n">
         <v>279</v>
       </c>
       <c r="F206" t="n">
-        <v>1846.6787</v>
+        <v>403.7398</v>
       </c>
       <c r="G206" t="n">
-        <v>282.2166666666666</v>
+        <v>282.2833333333334</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -8074,7 +8366,7 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L206" t="inlineStr">
         <is>
@@ -8090,7 +8382,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C207" t="n">
         <v>280</v>
@@ -8099,13 +8391,13 @@
         <v>280</v>
       </c>
       <c r="E207" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F207" t="n">
-        <v>922.6188</v>
+        <v>1846.6787</v>
       </c>
       <c r="G207" t="n">
-        <v>282.15</v>
+        <v>282.2166666666666</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -8115,7 +8407,7 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L207" t="inlineStr">
         <is>
@@ -8134,19 +8426,19 @@
         <v>280</v>
       </c>
       <c r="C208" t="n">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D208" t="n">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E208" t="n">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="F208" t="n">
-        <v>8292.4293</v>
+        <v>922.6188</v>
       </c>
       <c r="G208" t="n">
-        <v>282.1</v>
+        <v>282.15</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -8156,7 +8448,7 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L208" t="inlineStr">
         <is>
@@ -8172,22 +8464,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C209" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D209" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E209" t="n">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="F209" t="n">
-        <v>876.256</v>
+        <v>8292.4293</v>
       </c>
       <c r="G209" t="n">
-        <v>282.0666666666667</v>
+        <v>282.1</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -8197,7 +8489,7 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L209" t="inlineStr">
         <is>
@@ -8213,22 +8505,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C210" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D210" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E210" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F210" t="n">
-        <v>3276.1272</v>
+        <v>876.256</v>
       </c>
       <c r="G210" t="n">
-        <v>282.05</v>
+        <v>282.0666666666667</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -8238,7 +8530,7 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L210" t="inlineStr">
         <is>
@@ -8260,16 +8552,16 @@
         <v>283</v>
       </c>
       <c r="D211" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E211" t="n">
         <v>283</v>
       </c>
       <c r="F211" t="n">
-        <v>3449.916054225352</v>
+        <v>3276.1272</v>
       </c>
       <c r="G211" t="n">
-        <v>282</v>
+        <v>282.05</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -8279,7 +8571,7 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L211" t="inlineStr">
         <is>
@@ -8295,22 +8587,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
+        <v>283</v>
+      </c>
+      <c r="C212" t="n">
+        <v>283</v>
+      </c>
+      <c r="D212" t="n">
         <v>284</v>
       </c>
-      <c r="C212" t="n">
-        <v>285</v>
-      </c>
-      <c r="D212" t="n">
-        <v>287</v>
-      </c>
       <c r="E212" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F212" t="n">
-        <v>11872.62914577465</v>
+        <v>3449.916054225352</v>
       </c>
       <c r="G212" t="n">
-        <v>281.9833333333333</v>
+        <v>282</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -8320,7 +8612,7 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L212" t="inlineStr">
         <is>
@@ -8336,22 +8628,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
+        <v>284</v>
+      </c>
+      <c r="C213" t="n">
         <v>285</v>
       </c>
-      <c r="C213" t="n">
-        <v>286</v>
-      </c>
       <c r="D213" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E213" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F213" t="n">
-        <v>1541.902</v>
+        <v>11872.62914577465</v>
       </c>
       <c r="G213" t="n">
-        <v>281.95</v>
+        <v>281.9833333333333</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8361,7 +8653,7 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L213" t="inlineStr">
         <is>
@@ -8377,7 +8669,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C214" t="n">
         <v>286</v>
@@ -8386,13 +8678,13 @@
         <v>286</v>
       </c>
       <c r="E214" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F214" t="n">
-        <v>7154.1188</v>
+        <v>1541.902</v>
       </c>
       <c r="G214" t="n">
-        <v>281.9333333333333</v>
+        <v>281.95</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8402,7 +8694,7 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L214" t="inlineStr">
         <is>
@@ -8421,19 +8713,19 @@
         <v>286</v>
       </c>
       <c r="C215" t="n">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D215" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E215" t="n">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F215" t="n">
-        <v>5470.6932</v>
+        <v>7154.1188</v>
       </c>
       <c r="G215" t="n">
-        <v>281.8833333333333</v>
+        <v>281.9333333333333</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8443,7 +8735,7 @@
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L215" t="inlineStr">
         <is>
@@ -8459,19 +8751,19 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C216" t="n">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D216" t="n">
         <v>287</v>
       </c>
       <c r="E216" t="n">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F216" t="n">
-        <v>865</v>
+        <v>5470.6932</v>
       </c>
       <c r="G216" t="n">
         <v>281.8833333333333</v>
@@ -8484,7 +8776,7 @@
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L216" t="inlineStr">
         <is>
@@ -8503,19 +8795,19 @@
         <v>287</v>
       </c>
       <c r="C217" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D217" t="n">
         <v>287</v>
       </c>
       <c r="E217" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F217" t="n">
-        <v>1169.374361672474</v>
+        <v>865</v>
       </c>
       <c r="G217" t="n">
-        <v>281.8666666666667</v>
+        <v>281.8833333333333</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8525,7 +8817,7 @@
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L217" t="inlineStr">
         <is>
@@ -8544,19 +8836,19 @@
         <v>287</v>
       </c>
       <c r="C218" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D218" t="n">
         <v>287</v>
       </c>
       <c r="E218" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F218" t="n">
-        <v>25825.297</v>
+        <v>1169.374361672474</v>
       </c>
       <c r="G218" t="n">
-        <v>281.8333333333333</v>
+        <v>281.8666666666667</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8566,7 +8858,7 @@
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L218" t="inlineStr">
         <is>
@@ -8582,22 +8874,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C219" t="n">
         <v>285</v>
       </c>
       <c r="D219" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E219" t="n">
         <v>285</v>
       </c>
       <c r="F219" t="n">
-        <v>2577.3323</v>
+        <v>25825.297</v>
       </c>
       <c r="G219" t="n">
-        <v>281.8</v>
+        <v>281.8333333333333</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8607,7 +8899,7 @@
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L219" t="inlineStr">
         <is>
@@ -8623,7 +8915,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C220" t="n">
         <v>285</v>
@@ -8632,13 +8924,13 @@
         <v>285</v>
       </c>
       <c r="E220" t="n">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F220" t="n">
-        <v>2305.8961</v>
+        <v>2577.3323</v>
       </c>
       <c r="G220" t="n">
-        <v>281.7666666666667</v>
+        <v>281.8</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8648,7 +8940,7 @@
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L220" t="inlineStr">
         <is>
@@ -8664,19 +8956,19 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
+        <v>284</v>
+      </c>
+      <c r="C221" t="n">
         <v>285</v>
       </c>
-      <c r="C221" t="n">
-        <v>286</v>
-      </c>
       <c r="D221" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E221" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F221" t="n">
-        <v>1892.0592</v>
+        <v>2305.8961</v>
       </c>
       <c r="G221" t="n">
         <v>281.7666666666667</v>
@@ -8689,7 +8981,7 @@
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L221" t="inlineStr">
         <is>
@@ -8705,22 +8997,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
+        <v>285</v>
+      </c>
+      <c r="C222" t="n">
         <v>286</v>
-      </c>
-      <c r="C222" t="n">
-        <v>285</v>
       </c>
       <c r="D222" t="n">
         <v>286</v>
       </c>
       <c r="E222" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F222" t="n">
-        <v>440.5879</v>
+        <v>1892.0592</v>
       </c>
       <c r="G222" t="n">
-        <v>281.7333333333333</v>
+        <v>281.7666666666667</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8730,7 +9022,7 @@
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L222" t="inlineStr">
         <is>
@@ -8746,22 +9038,22 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C223" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D223" t="n">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E223" t="n">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F223" t="n">
-        <v>1702.7588</v>
+        <v>440.5879</v>
       </c>
       <c r="G223" t="n">
-        <v>281.6833333333333</v>
+        <v>281.7333333333333</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8771,7 +9063,7 @@
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L223" t="inlineStr">
         <is>
@@ -8787,7 +9079,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C224" t="n">
         <v>284</v>
@@ -8796,13 +9088,13 @@
         <v>284</v>
       </c>
       <c r="E224" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F224" t="n">
-        <v>420.3455</v>
+        <v>1702.7588</v>
       </c>
       <c r="G224" t="n">
-        <v>281.7166666666666</v>
+        <v>281.6833333333333</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8812,7 +9104,7 @@
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L224" t="inlineStr">
         <is>
@@ -8840,10 +9132,10 @@
         <v>284</v>
       </c>
       <c r="F225" t="n">
-        <v>241.5274</v>
+        <v>420.3455</v>
       </c>
       <c r="G225" t="n">
-        <v>281.7</v>
+        <v>281.7166666666666</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8853,7 +9145,7 @@
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L225" t="inlineStr">
         <is>
@@ -8869,19 +9161,19 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C226" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D226" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E226" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F226" t="n">
-        <v>600.6273</v>
+        <v>241.5274</v>
       </c>
       <c r="G226" t="n">
         <v>281.7</v>
@@ -8894,7 +9186,7 @@
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L226" t="inlineStr">
         <is>
@@ -8910,22 +9202,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C227" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D227" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E227" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F227" t="n">
-        <v>120.6363</v>
+        <v>600.6273</v>
       </c>
       <c r="G227" t="n">
-        <v>281.7333333333333</v>
+        <v>281.7</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8935,7 +9227,7 @@
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L227" t="inlineStr">
         <is>
@@ -8963,10 +9255,10 @@
         <v>286</v>
       </c>
       <c r="F228" t="n">
-        <v>6855.6062</v>
+        <v>120.6363</v>
       </c>
       <c r="G228" t="n">
-        <v>281.8</v>
+        <v>281.7333333333333</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8976,7 +9268,7 @@
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L228" t="inlineStr">
         <is>
@@ -8992,22 +9284,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C229" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D229" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E229" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F229" t="n">
-        <v>842.8875</v>
+        <v>6855.6062</v>
       </c>
       <c r="G229" t="n">
-        <v>281.85</v>
+        <v>281.8</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -9017,7 +9309,7 @@
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L229" t="inlineStr">
         <is>
@@ -9033,22 +9325,22 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C230" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D230" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E230" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F230" t="n">
-        <v>300</v>
+        <v>842.8875</v>
       </c>
       <c r="G230" t="n">
-        <v>281.9166666666667</v>
+        <v>281.85</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -9058,7 +9350,7 @@
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L230" t="inlineStr">
         <is>
@@ -9074,22 +9366,22 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C231" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D231" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E231" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F231" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="G231" t="n">
-        <v>281.9666666666666</v>
+        <v>281.9166666666667</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -9099,7 +9391,7 @@
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L231" t="inlineStr">
         <is>
@@ -9115,22 +9407,22 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C232" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D232" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E232" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F232" t="n">
-        <v>1</v>
+        <v>550</v>
       </c>
       <c r="G232" t="n">
-        <v>282.0333333333334</v>
+        <v>281.9666666666666</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -9140,7 +9432,7 @@
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L232" t="inlineStr">
         <is>
@@ -9156,22 +9448,22 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C233" t="n">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D233" t="n">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E233" t="n">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F233" t="n">
-        <v>229.3212</v>
+        <v>1</v>
       </c>
       <c r="G233" t="n">
-        <v>282.0666666666667</v>
+        <v>282.0333333333334</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -9181,7 +9473,7 @@
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L233" t="inlineStr">
         <is>
@@ -9197,22 +9489,22 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C234" t="n">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D234" t="n">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E234" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F234" t="n">
-        <v>3520.6171</v>
+        <v>229.3212</v>
       </c>
       <c r="G234" t="n">
-        <v>282.1333333333333</v>
+        <v>282.0666666666667</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -9222,7 +9514,7 @@
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L234" t="inlineStr">
         <is>
@@ -9238,22 +9530,22 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C235" t="n">
+        <v>286</v>
+      </c>
+      <c r="D235" t="n">
+        <v>286</v>
+      </c>
+      <c r="E235" t="n">
         <v>285</v>
       </c>
-      <c r="D235" t="n">
-        <v>285</v>
-      </c>
-      <c r="E235" t="n">
-        <v>283</v>
-      </c>
       <c r="F235" t="n">
-        <v>343.8869</v>
+        <v>3520.6171</v>
       </c>
       <c r="G235" t="n">
-        <v>282.1833333333333</v>
+        <v>282.1333333333333</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -9263,7 +9555,7 @@
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L235" t="inlineStr">
         <is>
@@ -9279,7 +9571,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C236" t="n">
         <v>285</v>
@@ -9288,13 +9580,13 @@
         <v>285</v>
       </c>
       <c r="E236" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F236" t="n">
-        <v>2250</v>
+        <v>343.8869</v>
       </c>
       <c r="G236" t="n">
-        <v>282.2333333333333</v>
+        <v>282.1833333333333</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -9304,7 +9596,7 @@
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L236" t="inlineStr">
         <is>
@@ -9320,7 +9612,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C237" t="n">
         <v>285</v>
@@ -9329,13 +9621,13 @@
         <v>285</v>
       </c>
       <c r="E237" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F237" t="n">
-        <v>158</v>
+        <v>2250</v>
       </c>
       <c r="G237" t="n">
-        <v>282.25</v>
+        <v>282.2333333333333</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -9345,7 +9637,7 @@
       </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L237" t="inlineStr">
         <is>
@@ -9373,10 +9665,10 @@
         <v>285</v>
       </c>
       <c r="F238" t="n">
-        <v>909.7361</v>
+        <v>158</v>
       </c>
       <c r="G238" t="n">
-        <v>282.2833333333334</v>
+        <v>282.25</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -9386,7 +9678,7 @@
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L238" t="inlineStr">
         <is>
@@ -9414,10 +9706,10 @@
         <v>285</v>
       </c>
       <c r="F239" t="n">
-        <v>2967.1435</v>
+        <v>909.7361</v>
       </c>
       <c r="G239" t="n">
-        <v>282.3</v>
+        <v>282.2833333333334</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -9427,7 +9719,7 @@
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L239" t="inlineStr">
         <is>
@@ -9455,10 +9747,10 @@
         <v>285</v>
       </c>
       <c r="F240" t="n">
-        <v>850</v>
+        <v>2967.1435</v>
       </c>
       <c r="G240" t="n">
-        <v>282.3333333333333</v>
+        <v>282.3</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -9468,7 +9760,7 @@
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L240" t="inlineStr">
         <is>
@@ -9496,10 +9788,10 @@
         <v>285</v>
       </c>
       <c r="F241" t="n">
-        <v>4110.1829</v>
+        <v>850</v>
       </c>
       <c r="G241" t="n">
-        <v>282.3666666666667</v>
+        <v>282.3333333333333</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -9509,7 +9801,7 @@
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L241" t="inlineStr">
         <is>
@@ -9528,19 +9820,19 @@
         <v>285</v>
       </c>
       <c r="C242" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D242" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E242" t="n">
         <v>285</v>
       </c>
       <c r="F242" t="n">
-        <v>58.6129</v>
+        <v>4110.1829</v>
       </c>
       <c r="G242" t="n">
-        <v>282.4666666666666</v>
+        <v>282.3666666666667</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -9550,7 +9842,7 @@
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L242" t="inlineStr">
         <is>
@@ -9566,7 +9858,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C243" t="n">
         <v>286</v>
@@ -9575,13 +9867,13 @@
         <v>286</v>
       </c>
       <c r="E243" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F243" t="n">
-        <v>1370</v>
+        <v>58.6129</v>
       </c>
       <c r="G243" t="n">
-        <v>282.5666666666667</v>
+        <v>282.4666666666666</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -9591,7 +9883,7 @@
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L243" t="inlineStr">
         <is>
@@ -9607,7 +9899,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C244" t="n">
         <v>286</v>
@@ -9616,13 +9908,13 @@
         <v>286</v>
       </c>
       <c r="E244" t="n">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F244" t="n">
-        <v>17945.6068</v>
+        <v>1370</v>
       </c>
       <c r="G244" t="n">
-        <v>282.6666666666667</v>
+        <v>282.5666666666667</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -9632,7 +9924,7 @@
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L244" t="inlineStr">
         <is>
@@ -9648,22 +9940,22 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C245" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D245" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E245" t="n">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F245" t="n">
-        <v>1078.9547</v>
+        <v>17945.6068</v>
       </c>
       <c r="G245" t="n">
-        <v>282.8</v>
+        <v>282.6666666666667</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -9673,7 +9965,7 @@
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L245" t="inlineStr">
         <is>
@@ -9689,22 +9981,22 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C246" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D246" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E246" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F246" t="n">
-        <v>11.5244</v>
+        <v>1078.9547</v>
       </c>
       <c r="G246" t="n">
-        <v>282.9166666666667</v>
+        <v>282.8</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9714,7 +10006,7 @@
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L246" t="inlineStr">
         <is>
@@ -9730,22 +10022,22 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C247" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D247" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E247" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F247" t="n">
-        <v>1</v>
+        <v>11.5244</v>
       </c>
       <c r="G247" t="n">
-        <v>283.0166666666667</v>
+        <v>282.9166666666667</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9755,7 +10047,7 @@
       </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L247" t="inlineStr">
         <is>
@@ -9771,22 +10063,22 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C248" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D248" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E248" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F248" t="n">
-        <v>800</v>
+        <v>1</v>
       </c>
       <c r="G248" t="n">
-        <v>283.1166666666667</v>
+        <v>283.0166666666667</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9796,7 +10088,7 @@
       </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L248" t="inlineStr">
         <is>
@@ -9812,22 +10104,22 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C249" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D249" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E249" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F249" t="n">
-        <v>1</v>
+        <v>800</v>
       </c>
       <c r="G249" t="n">
-        <v>283.2166666666666</v>
+        <v>283.1166666666667</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9837,7 +10129,7 @@
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L249" t="inlineStr">
         <is>
@@ -9865,10 +10157,10 @@
         <v>287</v>
       </c>
       <c r="F250" t="n">
-        <v>4429.7699</v>
+        <v>1</v>
       </c>
       <c r="G250" t="n">
-        <v>283.3333333333333</v>
+        <v>283.2166666666666</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9878,7 +10170,7 @@
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L250" t="inlineStr">
         <is>
@@ -9906,10 +10198,10 @@
         <v>287</v>
       </c>
       <c r="F251" t="n">
-        <v>3579.0549</v>
+        <v>4429.7699</v>
       </c>
       <c r="G251" t="n">
-        <v>283.4666666666666</v>
+        <v>283.3333333333333</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9919,7 +10211,7 @@
       </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L251" t="inlineStr">
         <is>
@@ -9947,10 +10239,10 @@
         <v>287</v>
       </c>
       <c r="F252" t="n">
-        <v>3096.1184</v>
+        <v>3579.0549</v>
       </c>
       <c r="G252" t="n">
-        <v>283.5666666666667</v>
+        <v>283.4666666666666</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9960,7 +10252,7 @@
       </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L252" t="inlineStr">
         <is>
@@ -9979,19 +10271,19 @@
         <v>287</v>
       </c>
       <c r="C253" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D253" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E253" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F253" t="n">
-        <v>9645.0504</v>
+        <v>3096.1184</v>
       </c>
       <c r="G253" t="n">
-        <v>283.6833333333333</v>
+        <v>283.5666666666667</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -10001,7 +10293,7 @@
       </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L253" t="inlineStr">
         <is>
@@ -10017,22 +10309,22 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C254" t="n">
         <v>286</v>
       </c>
       <c r="D254" t="n">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E254" t="n">
         <v>286</v>
       </c>
       <c r="F254" t="n">
-        <v>7.8148</v>
+        <v>9645.0504</v>
       </c>
       <c r="G254" t="n">
-        <v>283.8333333333333</v>
+        <v>283.6833333333333</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -10042,7 +10334,7 @@
       </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L254" t="inlineStr">
         <is>
@@ -10058,22 +10350,22 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C255" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D255" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E255" t="n">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F255" t="n">
-        <v>1989.3515</v>
+        <v>7.8148</v>
       </c>
       <c r="G255" t="n">
-        <v>283.9833333333333</v>
+        <v>283.8333333333333</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -10083,7 +10375,7 @@
       </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L255" t="inlineStr">
         <is>
@@ -10091,6 +10383,47 @@
         </is>
       </c>
       <c r="M255" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>285</v>
+      </c>
+      <c r="C256" t="n">
+        <v>285</v>
+      </c>
+      <c r="D256" t="n">
+        <v>285</v>
+      </c>
+      <c r="E256" t="n">
+        <v>284</v>
+      </c>
+      <c r="F256" t="n">
+        <v>1989.3515</v>
+      </c>
+      <c r="G256" t="n">
+        <v>283.9833333333333</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="n">
+        <v>0</v>
+      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>274</v>
+      </c>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M256" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-08 BackTest ZRX.xlsx
+++ b/BackTest/2019-10-08 BackTest ZRX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M256"/>
+  <dimension ref="A1:N266"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>9.1028</v>
       </c>
       <c r="G2" t="n">
+        <v>265.2666666666667</v>
+      </c>
+      <c r="H2" t="n">
         <v>265.3333333333333</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,25 @@
         <v>100</v>
       </c>
       <c r="G3" t="n">
+        <v>265.8</v>
+      </c>
+      <c r="H3" t="n">
         <v>265.35</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>268</v>
+      </c>
+      <c r="L3" t="n">
+        <v>268</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +533,27 @@
         <v>2200</v>
       </c>
       <c r="G4" t="n">
+        <v>266.2666666666667</v>
+      </c>
+      <c r="H4" t="n">
         <v>265.3666666666667</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="L4" t="n">
+        <v>268</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +577,27 @@
         <v>73.9559</v>
       </c>
       <c r="G5" t="n">
+        <v>266.6666666666667</v>
+      </c>
+      <c r="H5" t="n">
         <v>265.4166666666667</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="L5" t="n">
+        <v>268</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +621,21 @@
         <v>1978.5356</v>
       </c>
       <c r="G6" t="n">
+        <v>267.2</v>
+      </c>
+      <c r="H6" t="n">
         <v>265.45</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +659,21 @@
         <v>268</v>
       </c>
       <c r="G7" t="n">
+        <v>267.6666666666667</v>
+      </c>
+      <c r="H7" t="n">
         <v>265.4666666666666</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +697,21 @@
         <v>138.1642</v>
       </c>
       <c r="G8" t="n">
+        <v>268</v>
+      </c>
+      <c r="H8" t="n">
         <v>265.5</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +735,25 @@
         <v>119</v>
       </c>
       <c r="G9" t="n">
+        <v>268.4666666666666</v>
+      </c>
+      <c r="H9" t="n">
         <v>265.55</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>269</v>
+      </c>
+      <c r="L9" t="n">
+        <v>269</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +777,29 @@
         <v>576.9999</v>
       </c>
       <c r="G10" t="n">
+        <v>268.7333333333333</v>
+      </c>
+      <c r="H10" t="n">
         <v>265.6</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>1</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>270</v>
+      </c>
+      <c r="L10" t="n">
+        <v>269</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +823,27 @@
         <v>899.8799222222223</v>
       </c>
       <c r="G11" t="n">
+        <v>268.9333333333333</v>
+      </c>
+      <c r="H11" t="n">
         <v>265.65</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="L11" t="n">
+        <v>269</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +867,21 @@
         <v>50</v>
       </c>
       <c r="G12" t="n">
+        <v>269.0666666666667</v>
+      </c>
+      <c r="H12" t="n">
         <v>265.7333333333333</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +905,21 @@
         <v>152</v>
       </c>
       <c r="G13" t="n">
+        <v>269.1333333333333</v>
+      </c>
+      <c r="H13" t="n">
         <v>265.8333333333333</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +943,21 @@
         <v>348</v>
       </c>
       <c r="G14" t="n">
+        <v>269.3333333333333</v>
+      </c>
+      <c r="H14" t="n">
         <v>265.95</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +981,21 @@
         <v>427</v>
       </c>
       <c r="G15" t="n">
+        <v>269.5333333333334</v>
+      </c>
+      <c r="H15" t="n">
         <v>266.0833333333333</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1019,21 @@
         <v>1732.8955</v>
       </c>
       <c r="G16" t="n">
+        <v>269.8</v>
+      </c>
+      <c r="H16" t="n">
         <v>266.2</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1057,21 @@
         <v>595.41</v>
       </c>
       <c r="G17" t="n">
+        <v>270</v>
+      </c>
+      <c r="H17" t="n">
         <v>266.2666666666667</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1095,21 @@
         <v>745.3874</v>
       </c>
       <c r="G18" t="n">
+        <v>270.0666666666667</v>
+      </c>
+      <c r="H18" t="n">
         <v>266.35</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1133,21 @@
         <v>3056.1693</v>
       </c>
       <c r="G19" t="n">
+        <v>270.2666666666667</v>
+      </c>
+      <c r="H19" t="n">
         <v>266.4166666666667</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1171,21 @@
         <v>1372.408</v>
       </c>
       <c r="G20" t="n">
+        <v>270.5333333333334</v>
+      </c>
+      <c r="H20" t="n">
         <v>266.4833333333333</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1209,21 @@
         <v>17.975</v>
       </c>
       <c r="G21" t="n">
+        <v>270.6</v>
+      </c>
+      <c r="H21" t="n">
         <v>266.55</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1247,21 @@
         <v>50</v>
       </c>
       <c r="G22" t="n">
+        <v>270.8666666666667</v>
+      </c>
+      <c r="H22" t="n">
         <v>266.6666666666667</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1285,21 @@
         <v>84.02</v>
       </c>
       <c r="G23" t="n">
+        <v>270.9333333333333</v>
+      </c>
+      <c r="H23" t="n">
         <v>266.7166666666666</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1323,21 @@
         <v>1</v>
       </c>
       <c r="G24" t="n">
+        <v>270.8666666666667</v>
+      </c>
+      <c r="H24" t="n">
         <v>266.7333333333333</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1361,21 @@
         <v>168.1247</v>
       </c>
       <c r="G25" t="n">
+        <v>270.7333333333333</v>
+      </c>
+      <c r="H25" t="n">
         <v>266.7333333333333</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1399,21 @@
         <v>292.823</v>
       </c>
       <c r="G26" t="n">
+        <v>270.6</v>
+      </c>
+      <c r="H26" t="n">
         <v>266.7333333333333</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1437,21 @@
         <v>1130.2081</v>
       </c>
       <c r="G27" t="n">
+        <v>270.3333333333333</v>
+      </c>
+      <c r="H27" t="n">
         <v>266.6833333333333</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1475,25 @@
         <v>4.9875</v>
       </c>
       <c r="G28" t="n">
+        <v>270.0666666666667</v>
+      </c>
+      <c r="H28" t="n">
         <v>266.65</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>267</v>
+      </c>
+      <c r="L28" t="n">
+        <v>267</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1517,29 @@
         <v>5.114</v>
       </c>
       <c r="G29" t="n">
+        <v>269.6666666666667</v>
+      </c>
+      <c r="H29" t="n">
         <v>266.6333333333333</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>266</v>
+      </c>
+      <c r="L29" t="n">
+        <v>267</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1563,29 @@
         <v>8397.5908</v>
       </c>
       <c r="G30" t="n">
+        <v>269.3333333333333</v>
+      </c>
+      <c r="H30" t="n">
         <v>266.65</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>265</v>
+      </c>
+      <c r="L30" t="n">
+        <v>267</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1609,29 @@
         <v>46.0262</v>
       </c>
       <c r="G31" t="n">
+        <v>269.0666666666667</v>
+      </c>
+      <c r="H31" t="n">
         <v>266.6833333333333</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>266</v>
+      </c>
+      <c r="L31" t="n">
+        <v>267</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1655,29 @@
         <v>525.4794000000001</v>
       </c>
       <c r="G32" t="n">
+        <v>268.8</v>
+      </c>
+      <c r="H32" t="n">
         <v>266.7166666666666</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>267</v>
+      </c>
+      <c r="L32" t="n">
+        <v>267</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1701,29 @@
         <v>674.8873</v>
       </c>
       <c r="G33" t="n">
+        <v>268.5333333333334</v>
+      </c>
+      <c r="H33" t="n">
         <v>266.75</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>267</v>
+      </c>
+      <c r="L33" t="n">
+        <v>267</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1747,29 @@
         <v>1383.6525</v>
       </c>
       <c r="G34" t="n">
+        <v>268.2</v>
+      </c>
+      <c r="H34" t="n">
         <v>266.7833333333334</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>267</v>
+      </c>
+      <c r="L34" t="n">
+        <v>267</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1793,29 @@
         <v>592.994</v>
       </c>
       <c r="G35" t="n">
+        <v>267.8666666666667</v>
+      </c>
+      <c r="H35" t="n">
         <v>266.8166666666667</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>267</v>
+      </c>
+      <c r="L35" t="n">
+        <v>267</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1839,29 @@
         <v>128</v>
       </c>
       <c r="G36" t="n">
+        <v>267.6666666666667</v>
+      </c>
+      <c r="H36" t="n">
         <v>266.8666666666667</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>267</v>
+      </c>
+      <c r="L36" t="n">
+        <v>267</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1885,29 @@
         <v>24.3207</v>
       </c>
       <c r="G37" t="n">
+        <v>267.4666666666666</v>
+      </c>
+      <c r="H37" t="n">
         <v>266.9666666666666</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>268</v>
+      </c>
+      <c r="L37" t="n">
+        <v>267</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1931,27 @@
         <v>960.9526930147059</v>
       </c>
       <c r="G38" t="n">
+        <v>267.6</v>
+      </c>
+      <c r="H38" t="n">
         <v>267.0666666666667</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="L38" t="n">
+        <v>267</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1975,27 @@
         <v>1</v>
       </c>
       <c r="G39" t="n">
+        <v>267.6666666666667</v>
+      </c>
+      <c r="H39" t="n">
         <v>267.1833333333333</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="L39" t="n">
+        <v>267</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +2019,27 @@
         <v>1</v>
       </c>
       <c r="G40" t="n">
+        <v>267.8666666666667</v>
+      </c>
+      <c r="H40" t="n">
         <v>267.3166666666667</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="L40" t="n">
+        <v>267</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +2063,27 @@
         <v>10.1245</v>
       </c>
       <c r="G41" t="n">
+        <v>268</v>
+      </c>
+      <c r="H41" t="n">
         <v>267.4666666666666</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="L41" t="n">
+        <v>267</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +2107,27 @@
         <v>17051.7638</v>
       </c>
       <c r="G42" t="n">
+        <v>268.3333333333333</v>
+      </c>
+      <c r="H42" t="n">
         <v>267.65</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="L42" t="n">
+        <v>267</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2151,27 @@
         <v>1244.7663</v>
       </c>
       <c r="G43" t="n">
+        <v>268.7333333333333</v>
+      </c>
+      <c r="H43" t="n">
         <v>267.8333333333333</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="L43" t="n">
+        <v>267</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2195,27 @@
         <v>3637.5356</v>
       </c>
       <c r="G44" t="n">
+        <v>269.2</v>
+      </c>
+      <c r="H44" t="n">
         <v>268.0333333333334</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
-        <v>1</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="L44" t="n">
+        <v>267</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2239,27 @@
         <v>227.3306</v>
       </c>
       <c r="G45" t="n">
+        <v>269.4666666666666</v>
+      </c>
+      <c r="H45" t="n">
         <v>268.2</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
-        <v>1</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="L45" t="n">
+        <v>267</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2283,27 @@
         <v>3242.1828</v>
       </c>
       <c r="G46" t="n">
+        <v>269.8</v>
+      </c>
+      <c r="H46" t="n">
         <v>268.3833333333333</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="L46" t="n">
+        <v>267</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2327,27 @@
         <v>1650.799006985294</v>
       </c>
       <c r="G47" t="n">
+        <v>270.1333333333333</v>
+      </c>
+      <c r="H47" t="n">
         <v>268.55</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="L47" t="n">
+        <v>267</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2371,27 @@
         <v>240.2624</v>
       </c>
       <c r="G48" t="n">
+        <v>270.5333333333334</v>
+      </c>
+      <c r="H48" t="n">
         <v>268.7333333333333</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="L48" t="n">
+        <v>267</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2415,27 @@
         <v>15000</v>
       </c>
       <c r="G49" t="n">
+        <v>270.7333333333333</v>
+      </c>
+      <c r="H49" t="n">
         <v>268.8666666666667</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="L49" t="n">
+        <v>267</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2459,27 @@
         <v>733.8013</v>
       </c>
       <c r="G50" t="n">
+        <v>271.2</v>
+      </c>
+      <c r="H50" t="n">
         <v>269.0666666666667</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="L50" t="n">
+        <v>267</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2503,27 @@
         <v>395.9062</v>
       </c>
       <c r="G51" t="n">
+        <v>271.6</v>
+      </c>
+      <c r="H51" t="n">
         <v>269.2666666666667</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
-        <v>1</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="L51" t="n">
+        <v>267</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2547,27 @@
         <v>500</v>
       </c>
       <c r="G52" t="n">
+        <v>271.9333333333333</v>
+      </c>
+      <c r="H52" t="n">
         <v>269.4833333333333</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
-        <v>1</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="L52" t="n">
+        <v>267</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2591,27 @@
         <v>385.2109090909091</v>
       </c>
       <c r="G53" t="n">
+        <v>272.1333333333333</v>
+      </c>
+      <c r="H53" t="n">
         <v>269.6666666666667</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
-        <v>1</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="L53" t="n">
+        <v>267</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2635,27 @@
         <v>3323.4582</v>
       </c>
       <c r="G54" t="n">
+        <v>272.4666666666666</v>
+      </c>
+      <c r="H54" t="n">
         <v>269.8666666666667</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
-        <v>1</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="L54" t="n">
+        <v>267</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2679,27 @@
         <v>1221.771419428947</v>
       </c>
       <c r="G55" t="n">
+        <v>272.8666666666667</v>
+      </c>
+      <c r="H55" t="n">
         <v>270.05</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
-        <v>1</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="L55" t="n">
+        <v>267</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2723,27 @@
         <v>106.3202</v>
       </c>
       <c r="G56" t="n">
+        <v>273.2</v>
+      </c>
+      <c r="H56" t="n">
         <v>270.1833333333333</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
-        <v>1</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="L56" t="n">
+        <v>267</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2767,27 @@
         <v>1000</v>
       </c>
       <c r="G57" t="n">
+        <v>273.4</v>
+      </c>
+      <c r="H57" t="n">
         <v>270.2833333333334</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="L57" t="n">
+        <v>267</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2811,27 @@
         <v>19771.9061</v>
       </c>
       <c r="G58" t="n">
+        <v>273.6</v>
+      </c>
+      <c r="H58" t="n">
         <v>270.3833333333333</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="L58" t="n">
+        <v>267</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2855,27 @@
         <v>893</v>
       </c>
       <c r="G59" t="n">
+        <v>273.8</v>
+      </c>
+      <c r="H59" t="n">
         <v>270.5</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="L59" t="n">
+        <v>267</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2899,27 @@
         <v>494.463768115942</v>
       </c>
       <c r="G60" t="n">
+        <v>274.2</v>
+      </c>
+      <c r="H60" t="n">
         <v>270.6333333333333</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="L60" t="n">
+        <v>267</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2943,27 @@
         <v>8349.413</v>
       </c>
       <c r="G61" t="n">
+        <v>274.4666666666666</v>
+      </c>
+      <c r="H61" t="n">
         <v>270.7833333333334</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="L61" t="n">
+        <v>267</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2987,27 @@
         <v>4.0198</v>
       </c>
       <c r="G62" t="n">
+        <v>274.7333333333333</v>
+      </c>
+      <c r="H62" t="n">
         <v>270.9166666666667</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="L62" t="n">
+        <v>267</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +3031,27 @@
         <v>419.9695</v>
       </c>
       <c r="G63" t="n">
+        <v>274.8666666666667</v>
+      </c>
+      <c r="H63" t="n">
         <v>271</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="L63" t="n">
+        <v>267</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +3075,27 @@
         <v>819.9999</v>
       </c>
       <c r="G64" t="n">
+        <v>275.2</v>
+      </c>
+      <c r="H64" t="n">
         <v>271.1</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="L64" t="n">
+        <v>267</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +3119,27 @@
         <v>236.7767</v>
       </c>
       <c r="G65" t="n">
+        <v>275.2666666666667</v>
+      </c>
+      <c r="H65" t="n">
         <v>271.2166666666666</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="L65" t="n">
+        <v>267</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +3163,27 @@
         <v>200.5375</v>
       </c>
       <c r="G66" t="n">
+        <v>275.3333333333333</v>
+      </c>
+      <c r="H66" t="n">
         <v>271.3</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="L66" t="n">
+        <v>267</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +3207,27 @@
         <v>3323.1032</v>
       </c>
       <c r="G67" t="n">
+        <v>275.3333333333333</v>
+      </c>
+      <c r="H67" t="n">
         <v>271.4</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="L67" t="n">
+        <v>267</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +3251,27 @@
         <v>921.4307</v>
       </c>
       <c r="G68" t="n">
+        <v>275.3333333333333</v>
+      </c>
+      <c r="H68" t="n">
         <v>271.5</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="L68" t="n">
+        <v>267</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +3295,27 @@
         <v>1021.277</v>
       </c>
       <c r="G69" t="n">
+        <v>275.3333333333333</v>
+      </c>
+      <c r="H69" t="n">
         <v>271.5833333333333</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="L69" t="n">
+        <v>267</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3339,27 @@
         <v>29001.9182</v>
       </c>
       <c r="G70" t="n">
+        <v>275.2</v>
+      </c>
+      <c r="H70" t="n">
         <v>271.6666666666667</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="L70" t="n">
+        <v>267</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3383,27 @@
         <v>1952.3757</v>
       </c>
       <c r="G71" t="n">
+        <v>275.2666666666667</v>
+      </c>
+      <c r="H71" t="n">
         <v>271.7666666666667</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="L71" t="n">
+        <v>267</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3427,27 @@
         <v>343.7463</v>
       </c>
       <c r="G72" t="n">
+        <v>275.3333333333333</v>
+      </c>
+      <c r="H72" t="n">
         <v>271.85</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="L72" t="n">
+        <v>267</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3471,27 @@
         <v>1250.105</v>
       </c>
       <c r="G73" t="n">
+        <v>275.3333333333333</v>
+      </c>
+      <c r="H73" t="n">
         <v>271.9333333333333</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="L73" t="n">
+        <v>267</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3515,27 @@
         <v>5722.2918</v>
       </c>
       <c r="G74" t="n">
+        <v>275.2666666666667</v>
+      </c>
+      <c r="H74" t="n">
         <v>271.9833333333333</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="L74" t="n">
+        <v>267</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3559,27 @@
         <v>360</v>
       </c>
       <c r="G75" t="n">
+        <v>275.1333333333333</v>
+      </c>
+      <c r="H75" t="n">
         <v>272.0333333333334</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="L75" t="n">
+        <v>267</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3603,27 @@
         <v>2412.4087</v>
       </c>
       <c r="G76" t="n">
+        <v>275</v>
+      </c>
+      <c r="H76" t="n">
         <v>272.0833333333333</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="L76" t="n">
+        <v>267</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3647,27 @@
         <v>1244.544</v>
       </c>
       <c r="G77" t="n">
+        <v>274.8</v>
+      </c>
+      <c r="H77" t="n">
         <v>272.1166666666667</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="L77" t="n">
+        <v>267</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3691,27 @@
         <v>12482.2183</v>
       </c>
       <c r="G78" t="n">
+        <v>274.7333333333333</v>
+      </c>
+      <c r="H78" t="n">
         <v>272.1666666666667</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="L78" t="n">
+        <v>267</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,22 +3735,27 @@
         <v>16859.6012</v>
       </c>
       <c r="G79" t="n">
+        <v>274.6666666666667</v>
+      </c>
+      <c r="H79" t="n">
         <v>272.2</v>
       </c>
-      <c r="H79" t="n">
-        <v>1</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>274</v>
-      </c>
-      <c r="K79" t="n">
-        <v>274</v>
-      </c>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>267</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3182,24 +3779,27 @@
         <v>18510.5139</v>
       </c>
       <c r="G80" t="n">
+        <v>274.4666666666666</v>
+      </c>
+      <c r="H80" t="n">
         <v>272.2</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>274</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>267</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3223,26 +3823,27 @@
         <v>356.5811</v>
       </c>
       <c r="G81" t="n">
+        <v>274.4</v>
+      </c>
+      <c r="H81" t="n">
         <v>272.25</v>
       </c>
-      <c r="H81" t="n">
-        <v>1</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>272</v>
-      </c>
-      <c r="K81" t="n">
-        <v>274</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>267</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3266,26 +3867,27 @@
         <v>824.3801</v>
       </c>
       <c r="G82" t="n">
+        <v>274.4</v>
+      </c>
+      <c r="H82" t="n">
         <v>272.2833333333334</v>
       </c>
-      <c r="H82" t="n">
-        <v>1</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>274</v>
-      </c>
-      <c r="K82" t="n">
-        <v>274</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>267</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3309,26 +3911,27 @@
         <v>47.448</v>
       </c>
       <c r="G83" t="n">
+        <v>274.4666666666666</v>
+      </c>
+      <c r="H83" t="n">
         <v>272.3833333333333</v>
       </c>
-      <c r="H83" t="n">
-        <v>1</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>275</v>
-      </c>
-      <c r="K83" t="n">
-        <v>274</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>267</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3352,24 +3955,27 @@
         <v>5772.4585</v>
       </c>
       <c r="G84" t="n">
+        <v>274.5333333333334</v>
+      </c>
+      <c r="H84" t="n">
         <v>272.5</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>274</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>267</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3393,24 +3999,27 @@
         <v>368.8079</v>
       </c>
       <c r="G85" t="n">
+        <v>274.6666666666667</v>
+      </c>
+      <c r="H85" t="n">
         <v>272.65</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>274</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>267</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3434,24 +4043,27 @@
         <v>15</v>
       </c>
       <c r="G86" t="n">
+        <v>274.8</v>
+      </c>
+      <c r="H86" t="n">
         <v>272.8166666666667</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>274</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>267</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3475,24 +4087,27 @@
         <v>1387</v>
       </c>
       <c r="G87" t="n">
+        <v>274.9333333333333</v>
+      </c>
+      <c r="H87" t="n">
         <v>273</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>274</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>267</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3516,24 +4131,27 @@
         <v>223.025</v>
       </c>
       <c r="G88" t="n">
+        <v>275.2</v>
+      </c>
+      <c r="H88" t="n">
         <v>273.2166666666666</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>274</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>267</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3557,24 +4175,27 @@
         <v>21776.0202</v>
       </c>
       <c r="G89" t="n">
+        <v>275.6</v>
+      </c>
+      <c r="H89" t="n">
         <v>273.4666666666666</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>274</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>267</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,24 +4219,27 @@
         <v>7741.7146</v>
       </c>
       <c r="G90" t="n">
+        <v>276.0666666666667</v>
+      </c>
+      <c r="H90" t="n">
         <v>273.7166666666666</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>274</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>267</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3639,24 +4263,27 @@
         <v>8330.852000000001</v>
       </c>
       <c r="G91" t="n">
+        <v>276.5333333333334</v>
+      </c>
+      <c r="H91" t="n">
         <v>273.95</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>274</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>267</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3680,24 +4307,27 @@
         <v>9378.0015</v>
       </c>
       <c r="G92" t="n">
+        <v>277.1333333333333</v>
+      </c>
+      <c r="H92" t="n">
         <v>274.2</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>274</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>267</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3721,24 +4351,27 @@
         <v>18677.3286</v>
       </c>
       <c r="G93" t="n">
+        <v>277.6666666666667</v>
+      </c>
+      <c r="H93" t="n">
         <v>274.45</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>274</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>267</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3762,24 +4395,27 @@
         <v>2141.530269257951</v>
       </c>
       <c r="G94" t="n">
+        <v>278.2666666666667</v>
+      </c>
+      <c r="H94" t="n">
         <v>274.7166666666666</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>274</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>267</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3803,24 +4439,27 @@
         <v>6213.232690070922</v>
       </c>
       <c r="G95" t="n">
+        <v>278.9333333333333</v>
+      </c>
+      <c r="H95" t="n">
         <v>274.9666666666666</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>274</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>267</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3844,24 +4483,27 @@
         <v>1561.096</v>
       </c>
       <c r="G96" t="n">
+        <v>279.4</v>
+      </c>
+      <c r="H96" t="n">
         <v>275.1833333333333</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>274</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>267</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3885,24 +4527,27 @@
         <v>3190.8631</v>
       </c>
       <c r="G97" t="n">
+        <v>279.8</v>
+      </c>
+      <c r="H97" t="n">
         <v>275.3666666666667</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>274</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>267</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3926,24 +4571,27 @@
         <v>1016.0057</v>
       </c>
       <c r="G98" t="n">
+        <v>280.2</v>
+      </c>
+      <c r="H98" t="n">
         <v>275.5333333333334</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>274</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>267</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3967,24 +4615,27 @@
         <v>327.308409929078</v>
       </c>
       <c r="G99" t="n">
+        <v>280.6</v>
+      </c>
+      <c r="H99" t="n">
         <v>275.7333333333333</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>274</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>267</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4008,24 +4659,27 @@
         <v>2.691590070921986</v>
       </c>
       <c r="G100" t="n">
+        <v>280.9333333333333</v>
+      </c>
+      <c r="H100" t="n">
         <v>275.9166666666667</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>274</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>267</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4049,24 +4703,27 @@
         <v>16936.5518</v>
       </c>
       <c r="G101" t="n">
+        <v>281.1333333333333</v>
+      </c>
+      <c r="H101" t="n">
         <v>276.1</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>274</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>267</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4090,24 +4747,27 @@
         <v>6024.9653</v>
       </c>
       <c r="G102" t="n">
+        <v>281.3333333333333</v>
+      </c>
+      <c r="H102" t="n">
         <v>276.25</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>274</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>267</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4131,24 +4791,27 @@
         <v>6162.4487</v>
       </c>
       <c r="G103" t="n">
+        <v>281.4666666666666</v>
+      </c>
+      <c r="H103" t="n">
         <v>276.4</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>274</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>267</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4172,24 +4835,27 @@
         <v>7139.7642</v>
       </c>
       <c r="G104" t="n">
+        <v>281.4</v>
+      </c>
+      <c r="H104" t="n">
         <v>276.5166666666667</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>274</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>267</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4213,24 +4879,27 @@
         <v>2558.1434</v>
       </c>
       <c r="G105" t="n">
+        <v>281.0666666666667</v>
+      </c>
+      <c r="H105" t="n">
         <v>276.6166666666667</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>274</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>267</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4254,24 +4923,27 @@
         <v>61</v>
       </c>
       <c r="G106" t="n">
+        <v>280.8666666666667</v>
+      </c>
+      <c r="H106" t="n">
         <v>276.7166666666666</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>274</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>267</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4295,24 +4967,27 @@
         <v>129.546</v>
       </c>
       <c r="G107" t="n">
+        <v>280.5333333333334</v>
+      </c>
+      <c r="H107" t="n">
         <v>276.8</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>274</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>267</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4336,24 +5011,27 @@
         <v>862.9126</v>
       </c>
       <c r="G108" t="n">
+        <v>280.2666666666667</v>
+      </c>
+      <c r="H108" t="n">
         <v>276.8833333333333</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>274</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>267</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4377,24 +5055,27 @@
         <v>746</v>
       </c>
       <c r="G109" t="n">
+        <v>279.9333333333333</v>
+      </c>
+      <c r="H109" t="n">
         <v>277.0166666666667</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>274</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>267</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4418,24 +5099,27 @@
         <v>3477.6228</v>
       </c>
       <c r="G110" t="n">
+        <v>279.6666666666667</v>
+      </c>
+      <c r="H110" t="n">
         <v>277.0833333333333</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>274</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>267</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4459,24 +5143,27 @@
         <v>1414.926</v>
       </c>
       <c r="G111" t="n">
+        <v>279.4666666666666</v>
+      </c>
+      <c r="H111" t="n">
         <v>277.15</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>274</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>267</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4500,24 +5187,27 @@
         <v>4.5386</v>
       </c>
       <c r="G112" t="n">
+        <v>279.2666666666667</v>
+      </c>
+      <c r="H112" t="n">
         <v>277.2</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>274</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>267</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4541,24 +5231,27 @@
         <v>7465.5342</v>
       </c>
       <c r="G113" t="n">
+        <v>278.9333333333333</v>
+      </c>
+      <c r="H113" t="n">
         <v>277.2333333333333</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>274</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>267</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4582,24 +5275,27 @@
         <v>8337.7575</v>
       </c>
       <c r="G114" t="n">
+        <v>278.6</v>
+      </c>
+      <c r="H114" t="n">
         <v>277.2666666666667</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>274</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>267</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4623,26 +5319,27 @@
         <v>101</v>
       </c>
       <c r="G115" t="n">
+        <v>278.4</v>
+      </c>
+      <c r="H115" t="n">
         <v>277.3</v>
       </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>277</v>
-      </c>
-      <c r="K115" t="n">
-        <v>274</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>267</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4666,24 +5363,27 @@
         <v>699.2137</v>
       </c>
       <c r="G116" t="n">
+        <v>278.1333333333333</v>
+      </c>
+      <c r="H116" t="n">
         <v>277.3333333333333</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>274</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>267</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4707,24 +5407,27 @@
         <v>2074.8413</v>
       </c>
       <c r="G117" t="n">
+        <v>277.8666666666667</v>
+      </c>
+      <c r="H117" t="n">
         <v>277.3666666666667</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>274</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>267</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4748,24 +5451,27 @@
         <v>738.2374</v>
       </c>
       <c r="G118" t="n">
+        <v>277.6666666666667</v>
+      </c>
+      <c r="H118" t="n">
         <v>277.4166666666667</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>274</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>267</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4789,24 +5495,27 @@
         <v>197.9568</v>
       </c>
       <c r="G119" t="n">
+        <v>277.6</v>
+      </c>
+      <c r="H119" t="n">
         <v>277.4666666666666</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>274</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>267</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4830,24 +5539,27 @@
         <v>492.4799</v>
       </c>
       <c r="G120" t="n">
+        <v>277.7333333333333</v>
+      </c>
+      <c r="H120" t="n">
         <v>277.5</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>274</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>267</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4871,24 +5583,27 @@
         <v>1812.1654</v>
       </c>
       <c r="G121" t="n">
+        <v>277.7333333333333</v>
+      </c>
+      <c r="H121" t="n">
         <v>277.5333333333334</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>274</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>267</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4912,24 +5627,27 @@
         <v>349.2841</v>
       </c>
       <c r="G122" t="n">
+        <v>277.7333333333333</v>
+      </c>
+      <c r="H122" t="n">
         <v>277.55</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>274</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>267</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4953,24 +5671,27 @@
         <v>395.2136</v>
       </c>
       <c r="G123" t="n">
+        <v>277.6666666666667</v>
+      </c>
+      <c r="H123" t="n">
         <v>277.5833333333333</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>274</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>267</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4994,24 +5715,27 @@
         <v>8619.9627</v>
       </c>
       <c r="G124" t="n">
+        <v>277.6</v>
+      </c>
+      <c r="H124" t="n">
         <v>277.6166666666667</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>274</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>267</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5035,24 +5759,27 @@
         <v>238.2134</v>
       </c>
       <c r="G125" t="n">
+        <v>277.5333333333334</v>
+      </c>
+      <c r="H125" t="n">
         <v>277.65</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>274</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>267</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5076,24 +5803,27 @@
         <v>53.21</v>
       </c>
       <c r="G126" t="n">
+        <v>277.4666666666666</v>
+      </c>
+      <c r="H126" t="n">
         <v>277.6833333333333</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>274</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>267</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5117,24 +5847,27 @@
         <v>2363.8646</v>
       </c>
       <c r="G127" t="n">
+        <v>277.4</v>
+      </c>
+      <c r="H127" t="n">
         <v>277.7166666666666</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>274</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>267</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5158,24 +5891,27 @@
         <v>3491.9944</v>
       </c>
       <c r="G128" t="n">
+        <v>277.4666666666666</v>
+      </c>
+      <c r="H128" t="n">
         <v>277.7666666666667</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>274</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>267</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5199,24 +5935,27 @@
         <v>10668.0661</v>
       </c>
       <c r="G129" t="n">
+        <v>277.5333333333334</v>
+      </c>
+      <c r="H129" t="n">
         <v>277.8166666666667</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>274</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>267</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5240,24 +5979,27 @@
         <v>2080.8198</v>
       </c>
       <c r="G130" t="n">
+        <v>277.4666666666666</v>
+      </c>
+      <c r="H130" t="n">
         <v>277.8666666666667</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>274</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>267</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5281,24 +6023,27 @@
         <v>5825.0176</v>
       </c>
       <c r="G131" t="n">
+        <v>277.5333333333334</v>
+      </c>
+      <c r="H131" t="n">
         <v>277.9</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>274</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>267</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5322,24 +6067,27 @@
         <v>1402.8943</v>
       </c>
       <c r="G132" t="n">
+        <v>277.6666666666667</v>
+      </c>
+      <c r="H132" t="n">
         <v>277.95</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>274</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>267</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5363,24 +6111,27 @@
         <v>1215.3443</v>
       </c>
       <c r="G133" t="n">
+        <v>277.8666666666667</v>
+      </c>
+      <c r="H133" t="n">
         <v>278.05</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>274</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>267</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5404,24 +6155,27 @@
         <v>10890.5212</v>
       </c>
       <c r="G134" t="n">
+        <v>278.1333333333333</v>
+      </c>
+      <c r="H134" t="n">
         <v>278.1833333333333</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>274</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>267</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5445,24 +6199,27 @@
         <v>1.54</v>
       </c>
       <c r="G135" t="n">
+        <v>278.3333333333333</v>
+      </c>
+      <c r="H135" t="n">
         <v>278.3</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>274</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>267</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5486,24 +6243,27 @@
         <v>1</v>
       </c>
       <c r="G136" t="n">
+        <v>278.5333333333334</v>
+      </c>
+      <c r="H136" t="n">
         <v>278.4166666666667</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>274</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>267</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5527,24 +6287,27 @@
         <v>711.4165</v>
       </c>
       <c r="G137" t="n">
+        <v>278.8666666666667</v>
+      </c>
+      <c r="H137" t="n">
         <v>278.5666666666667</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>274</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>267</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5568,24 +6331,27 @@
         <v>40855.5433</v>
       </c>
       <c r="G138" t="n">
+        <v>279.2666666666667</v>
+      </c>
+      <c r="H138" t="n">
         <v>278.7166666666666</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>274</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>267</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5609,24 +6375,27 @@
         <v>306.2777</v>
       </c>
       <c r="G139" t="n">
+        <v>279.7333333333333</v>
+      </c>
+      <c r="H139" t="n">
         <v>278.8833333333333</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>274</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>267</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5650,24 +6419,27 @@
         <v>328.8238</v>
       </c>
       <c r="G140" t="n">
+        <v>280.2</v>
+      </c>
+      <c r="H140" t="n">
         <v>279.0833333333333</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>274</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>267</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5691,24 +6463,27 @@
         <v>34.3992</v>
       </c>
       <c r="G141" t="n">
+        <v>280.6666666666667</v>
+      </c>
+      <c r="H141" t="n">
         <v>279.25</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>274</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>267</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5732,24 +6507,27 @@
         <v>685.2963999999999</v>
       </c>
       <c r="G142" t="n">
+        <v>281.1333333333333</v>
+      </c>
+      <c r="H142" t="n">
         <v>279.4</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>274</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>267</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5773,24 +6551,27 @@
         <v>690.8169</v>
       </c>
       <c r="G143" t="n">
+        <v>281.5333333333334</v>
+      </c>
+      <c r="H143" t="n">
         <v>279.5333333333334</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>274</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>267</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5814,24 +6595,27 @@
         <v>44655.2566</v>
       </c>
       <c r="G144" t="n">
+        <v>281.9333333333333</v>
+      </c>
+      <c r="H144" t="n">
         <v>279.6666666666667</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>274</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>267</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5855,24 +6639,27 @@
         <v>719.9999</v>
       </c>
       <c r="G145" t="n">
+        <v>282.3333333333333</v>
+      </c>
+      <c r="H145" t="n">
         <v>279.7833333333334</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>274</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>267</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5896,24 +6683,27 @@
         <v>3204.7993</v>
       </c>
       <c r="G146" t="n">
+        <v>282.7333333333333</v>
+      </c>
+      <c r="H146" t="n">
         <v>279.8833333333333</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>274</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>267</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5937,24 +6727,27 @@
         <v>104.4283</v>
       </c>
       <c r="G147" t="n">
+        <v>283.0666666666667</v>
+      </c>
+      <c r="H147" t="n">
         <v>279.9833333333333</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>274</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>267</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5978,24 +6771,27 @@
         <v>912.2599</v>
       </c>
       <c r="G148" t="n">
+        <v>283.2666666666667</v>
+      </c>
+      <c r="H148" t="n">
         <v>280.0666666666667</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>274</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>267</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6019,24 +6815,27 @@
         <v>85.0257</v>
       </c>
       <c r="G149" t="n">
+        <v>283.4</v>
+      </c>
+      <c r="H149" t="n">
         <v>280.1333333333333</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>274</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>267</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6060,24 +6859,27 @@
         <v>4</v>
       </c>
       <c r="G150" t="n">
+        <v>283.6</v>
+      </c>
+      <c r="H150" t="n">
         <v>280.1833333333333</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>274</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>267</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6101,24 +6903,27 @@
         <v>3.708</v>
       </c>
       <c r="G151" t="n">
+        <v>283.8</v>
+      </c>
+      <c r="H151" t="n">
         <v>280.2333333333333</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>274</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>267</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6142,24 +6947,27 @@
         <v>231.3714</v>
       </c>
       <c r="G152" t="n">
+        <v>284.0666666666667</v>
+      </c>
+      <c r="H152" t="n">
         <v>280.3</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>274</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>267</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6183,24 +6991,27 @@
         <v>812.9541</v>
       </c>
       <c r="G153" t="n">
+        <v>284.2666666666667</v>
+      </c>
+      <c r="H153" t="n">
         <v>280.3666666666667</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>274</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>267</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6224,24 +7035,27 @@
         <v>16583.0972</v>
       </c>
       <c r="G154" t="n">
+        <v>284.5333333333334</v>
+      </c>
+      <c r="H154" t="n">
         <v>280.45</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>274</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>267</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6265,24 +7079,27 @@
         <v>13891.731</v>
       </c>
       <c r="G155" t="n">
+        <v>284.7333333333333</v>
+      </c>
+      <c r="H155" t="n">
         <v>280.5333333333334</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>274</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>267</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6306,25 +7123,28 @@
         <v>1225.0015</v>
       </c>
       <c r="G156" t="n">
+        <v>284.9333333333333</v>
+      </c>
+      <c r="H156" t="n">
         <v>280.6333333333333</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>274</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
+      <c r="J156" t="n">
+        <v>1</v>
+      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>267</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
+        <v>1.069906367041199</v>
       </c>
     </row>
     <row r="157">
@@ -6347,24 +7167,21 @@
         <v>4035.5514</v>
       </c>
       <c r="G157" t="n">
+        <v>285.1333333333333</v>
+      </c>
+      <c r="H157" t="n">
         <v>280.7333333333333</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>274</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
+      <c r="J157" t="n">
+        <v>1</v>
+      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6388,24 +7205,21 @@
         <v>1140.3588</v>
       </c>
       <c r="G158" t="n">
+        <v>285.3333333333333</v>
+      </c>
+      <c r="H158" t="n">
         <v>280.8166666666667</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>274</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
+      <c r="J158" t="n">
+        <v>1</v>
+      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6429,24 +7243,21 @@
         <v>9.202</v>
       </c>
       <c r="G159" t="n">
+        <v>285.5333333333334</v>
+      </c>
+      <c r="H159" t="n">
         <v>280.9</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>274</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
+      <c r="J159" t="n">
+        <v>1</v>
+      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6470,24 +7281,21 @@
         <v>6535</v>
       </c>
       <c r="G160" t="n">
+        <v>285.7333333333333</v>
+      </c>
+      <c r="H160" t="n">
         <v>280.9833333333333</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>274</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
+      <c r="J160" t="n">
+        <v>1</v>
+      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6511,24 +7319,21 @@
         <v>355.4396</v>
       </c>
       <c r="G161" t="n">
+        <v>285.9333333333333</v>
+      </c>
+      <c r="H161" t="n">
         <v>281.0833333333333</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>274</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
+      <c r="J161" t="n">
+        <v>1</v>
+      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6552,24 +7357,21 @@
         <v>1772.4079</v>
       </c>
       <c r="G162" t="n">
+        <v>286.0666666666667</v>
+      </c>
+      <c r="H162" t="n">
         <v>281.1666666666667</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>274</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
+      <c r="J162" t="n">
+        <v>1</v>
+      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6593,24 +7395,21 @@
         <v>4.0555</v>
       </c>
       <c r="G163" t="n">
+        <v>286.2666666666667</v>
+      </c>
+      <c r="H163" t="n">
         <v>281.2666666666667</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>274</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
+      <c r="J163" t="n">
+        <v>1</v>
+      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6634,24 +7433,21 @@
         <v>0.8112</v>
       </c>
       <c r="G164" t="n">
+        <v>286.4666666666666</v>
+      </c>
+      <c r="H164" t="n">
         <v>281.4</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>274</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
+      <c r="J164" t="n">
+        <v>1</v>
+      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6675,24 +7471,21 @@
         <v>16541.6395</v>
       </c>
       <c r="G165" t="n">
+        <v>286.3333333333333</v>
+      </c>
+      <c r="H165" t="n">
         <v>281.5</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>274</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
+      <c r="J165" t="n">
+        <v>1</v>
+      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6716,24 +7509,21 @@
         <v>1077</v>
       </c>
       <c r="G166" t="n">
+        <v>286.4</v>
+      </c>
+      <c r="H166" t="n">
         <v>281.6166666666667</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>274</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
+      <c r="J166" t="n">
+        <v>1</v>
+      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6757,24 +7547,21 @@
         <v>718.3449000000001</v>
       </c>
       <c r="G167" t="n">
+        <v>286.3333333333333</v>
+      </c>
+      <c r="H167" t="n">
         <v>281.75</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>274</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
+      <c r="J167" t="n">
+        <v>1</v>
+      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6798,24 +7585,21 @@
         <v>177.3901</v>
       </c>
       <c r="G168" t="n">
+        <v>286.2</v>
+      </c>
+      <c r="H168" t="n">
         <v>281.85</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>274</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
+      <c r="J168" t="n">
+        <v>1</v>
+      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6839,24 +7623,21 @@
         <v>13434.8676</v>
       </c>
       <c r="G169" t="n">
+        <v>285.8</v>
+      </c>
+      <c r="H169" t="n">
         <v>281.9166666666667</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>274</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
+      <c r="J169" t="n">
+        <v>1</v>
+      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6880,24 +7661,21 @@
         <v>10115.7948</v>
       </c>
       <c r="G170" t="n">
+        <v>285.4666666666666</v>
+      </c>
+      <c r="H170" t="n">
         <v>281.9833333333333</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>274</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
+      <c r="J170" t="n">
+        <v>1</v>
+      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6921,24 +7699,21 @@
         <v>16953.8201</v>
       </c>
       <c r="G171" t="n">
+        <v>285.1333333333333</v>
+      </c>
+      <c r="H171" t="n">
         <v>282.05</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>274</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
+      <c r="J171" t="n">
+        <v>1</v>
+      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6962,24 +7737,21 @@
         <v>1094.3011</v>
       </c>
       <c r="G172" t="n">
+        <v>284.8</v>
+      </c>
+      <c r="H172" t="n">
         <v>282.1166666666667</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>274</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
+      <c r="J172" t="n">
+        <v>1</v>
+      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7003,24 +7775,21 @@
         <v>4543.9999</v>
       </c>
       <c r="G173" t="n">
+        <v>284.4666666666666</v>
+      </c>
+      <c r="H173" t="n">
         <v>282.2</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>274</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
+      <c r="J173" t="n">
+        <v>1</v>
+      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7044,24 +7813,21 @@
         <v>8415.8369</v>
       </c>
       <c r="G174" t="n">
+        <v>284.1333333333333</v>
+      </c>
+      <c r="H174" t="n">
         <v>282.2833333333334</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>274</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
+      <c r="J174" t="n">
+        <v>1</v>
+      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7085,24 +7851,21 @@
         <v>12726.5141</v>
       </c>
       <c r="G175" t="n">
+        <v>283.8</v>
+      </c>
+      <c r="H175" t="n">
         <v>282.3333333333333</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>274</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7126,24 +7889,21 @@
         <v>6133.3452</v>
       </c>
       <c r="G176" t="n">
+        <v>283.4666666666666</v>
+      </c>
+      <c r="H176" t="n">
         <v>282.4166666666667</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>274</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7167,24 +7927,21 @@
         <v>7259.7516</v>
       </c>
       <c r="G177" t="n">
+        <v>283.2</v>
+      </c>
+      <c r="H177" t="n">
         <v>282.5</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>274</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7208,24 +7965,21 @@
         <v>42.6428</v>
       </c>
       <c r="G178" t="n">
+        <v>283</v>
+      </c>
+      <c r="H178" t="n">
         <v>282.6</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>274</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7249,24 +8003,21 @@
         <v>1137.5079</v>
       </c>
       <c r="G179" t="n">
+        <v>282.7333333333333</v>
+      </c>
+      <c r="H179" t="n">
         <v>282.6833333333333</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>274</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7290,24 +8041,21 @@
         <v>965.6494</v>
       </c>
       <c r="G180" t="n">
+        <v>282.8666666666667</v>
+      </c>
+      <c r="H180" t="n">
         <v>282.7833333333334</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>274</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7331,24 +8079,21 @@
         <v>4.9415</v>
       </c>
       <c r="G181" t="n">
+        <v>282.7333333333333</v>
+      </c>
+      <c r="H181" t="n">
         <v>282.8666666666667</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>274</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7372,24 +8117,21 @@
         <v>509</v>
       </c>
       <c r="G182" t="n">
+        <v>282.6</v>
+      </c>
+      <c r="H182" t="n">
         <v>282.9666666666666</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>274</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7413,24 +8155,21 @@
         <v>177.9359</v>
       </c>
       <c r="G183" t="n">
+        <v>282.3333333333333</v>
+      </c>
+      <c r="H183" t="n">
         <v>283.0166666666667</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>274</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7454,24 +8193,21 @@
         <v>3841.8726</v>
       </c>
       <c r="G184" t="n">
+        <v>282.2</v>
+      </c>
+      <c r="H184" t="n">
         <v>283.0666666666667</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>274</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7495,24 +8231,21 @@
         <v>57.4979</v>
       </c>
       <c r="G185" t="n">
+        <v>282.0666666666667</v>
+      </c>
+      <c r="H185" t="n">
         <v>283.1166666666667</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>274</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7536,24 +8269,21 @@
         <v>842.7513</v>
       </c>
       <c r="G186" t="n">
+        <v>281.8666666666667</v>
+      </c>
+      <c r="H186" t="n">
         <v>283.15</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>274</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7577,24 +8307,21 @@
         <v>2437.1723</v>
       </c>
       <c r="G187" t="n">
+        <v>281.6666666666667</v>
+      </c>
+      <c r="H187" t="n">
         <v>283.1833333333333</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>274</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7618,24 +8345,21 @@
         <v>57.4979</v>
       </c>
       <c r="G188" t="n">
+        <v>281.6</v>
+      </c>
+      <c r="H188" t="n">
         <v>283.2333333333333</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>274</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7659,24 +8383,21 @@
         <v>218.8768</v>
       </c>
       <c r="G189" t="n">
+        <v>281.4666666666666</v>
+      </c>
+      <c r="H189" t="n">
         <v>283.2666666666667</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>274</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7700,24 +8421,21 @@
         <v>2712.1201</v>
       </c>
       <c r="G190" t="n">
+        <v>281.4</v>
+      </c>
+      <c r="H190" t="n">
         <v>283.3166666666667</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>274</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7741,24 +8459,21 @@
         <v>761.056</v>
       </c>
       <c r="G191" t="n">
+        <v>281.2666666666667</v>
+      </c>
+      <c r="H191" t="n">
         <v>283.35</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>274</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7782,24 +8497,21 @@
         <v>9585.826800000001</v>
       </c>
       <c r="G192" t="n">
+        <v>281.0666666666667</v>
+      </c>
+      <c r="H192" t="n">
         <v>283.35</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>274</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7823,24 +8535,21 @@
         <v>12523.0092</v>
       </c>
       <c r="G193" t="n">
+        <v>280.8666666666667</v>
+      </c>
+      <c r="H193" t="n">
         <v>283.35</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>274</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7864,24 +8573,21 @@
         <v>1210.7168</v>
       </c>
       <c r="G194" t="n">
+        <v>280.6</v>
+      </c>
+      <c r="H194" t="n">
         <v>283.3</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>274</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7905,24 +8611,21 @@
         <v>3019.5266</v>
       </c>
       <c r="G195" t="n">
+        <v>280.1333333333333</v>
+      </c>
+      <c r="H195" t="n">
         <v>283.2333333333333</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>274</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7946,24 +8649,21 @@
         <v>1714.5187</v>
       </c>
       <c r="G196" t="n">
+        <v>279.6666666666667</v>
+      </c>
+      <c r="H196" t="n">
         <v>283.15</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>274</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7987,24 +8687,21 @@
         <v>106.2498</v>
       </c>
       <c r="G197" t="n">
+        <v>279.2666666666667</v>
+      </c>
+      <c r="H197" t="n">
         <v>283.0666666666667</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>274</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8028,24 +8725,21 @@
         <v>605.7528</v>
       </c>
       <c r="G198" t="n">
+        <v>279.0666666666667</v>
+      </c>
+      <c r="H198" t="n">
         <v>282.9666666666666</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>274</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8069,24 +8763,21 @@
         <v>106.2498</v>
       </c>
       <c r="G199" t="n">
+        <v>278.8666666666667</v>
+      </c>
+      <c r="H199" t="n">
         <v>282.85</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>274</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8110,24 +8801,21 @@
         <v>1854.0019</v>
       </c>
       <c r="G200" t="n">
+        <v>278.6666666666667</v>
+      </c>
+      <c r="H200" t="n">
         <v>282.7333333333333</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>274</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8151,24 +8839,21 @@
         <v>164.9007</v>
       </c>
       <c r="G201" t="n">
+        <v>278.6666666666667</v>
+      </c>
+      <c r="H201" t="n">
         <v>282.65</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>274</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8192,24 +8877,21 @@
         <v>1824.5999</v>
       </c>
       <c r="G202" t="n">
+        <v>278.6666666666667</v>
+      </c>
+      <c r="H202" t="n">
         <v>282.5666666666667</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>274</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8233,24 +8915,21 @@
         <v>9.4726</v>
       </c>
       <c r="G203" t="n">
+        <v>278.5333333333334</v>
+      </c>
+      <c r="H203" t="n">
         <v>282.4833333333333</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>274</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8274,24 +8953,21 @@
         <v>8008.1137</v>
       </c>
       <c r="G204" t="n">
+        <v>278.6</v>
+      </c>
+      <c r="H204" t="n">
         <v>282.4333333333333</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>274</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8315,24 +8991,21 @@
         <v>6929.2892</v>
       </c>
       <c r="G205" t="n">
+        <v>278.5333333333334</v>
+      </c>
+      <c r="H205" t="n">
         <v>282.3666666666667</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>274</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8356,24 +9029,21 @@
         <v>403.7398</v>
       </c>
       <c r="G206" t="n">
+        <v>278.4666666666666</v>
+      </c>
+      <c r="H206" t="n">
         <v>282.2833333333334</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>274</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8397,24 +9067,21 @@
         <v>1846.6787</v>
       </c>
       <c r="G207" t="n">
+        <v>278.5333333333334</v>
+      </c>
+      <c r="H207" t="n">
         <v>282.2166666666666</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>274</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8438,24 +9105,21 @@
         <v>922.6188</v>
       </c>
       <c r="G208" t="n">
+        <v>278.4666666666666</v>
+      </c>
+      <c r="H208" t="n">
         <v>282.15</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>274</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8479,24 +9143,21 @@
         <v>8292.4293</v>
       </c>
       <c r="G209" t="n">
+        <v>278.6</v>
+      </c>
+      <c r="H209" t="n">
         <v>282.1</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>274</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8520,24 +9181,21 @@
         <v>876.256</v>
       </c>
       <c r="G210" t="n">
+        <v>278.9333333333333</v>
+      </c>
+      <c r="H210" t="n">
         <v>282.0666666666667</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>274</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8561,24 +9219,21 @@
         <v>3276.1272</v>
       </c>
       <c r="G211" t="n">
+        <v>279.4</v>
+      </c>
+      <c r="H211" t="n">
         <v>282.05</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>274</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8602,24 +9257,21 @@
         <v>3449.916054225352</v>
       </c>
       <c r="G212" t="n">
+        <v>279.8</v>
+      </c>
+      <c r="H212" t="n">
         <v>282</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>274</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8643,24 +9295,21 @@
         <v>11872.62914577465</v>
       </c>
       <c r="G213" t="n">
+        <v>280.3333333333333</v>
+      </c>
+      <c r="H213" t="n">
         <v>281.9833333333333</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>274</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8684,24 +9333,21 @@
         <v>1541.902</v>
       </c>
       <c r="G214" t="n">
+        <v>280.9333333333333</v>
+      </c>
+      <c r="H214" t="n">
         <v>281.95</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>274</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8725,24 +9371,21 @@
         <v>7154.1188</v>
       </c>
       <c r="G215" t="n">
+        <v>281.5333333333334</v>
+      </c>
+      <c r="H215" t="n">
         <v>281.9333333333333</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>274</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8766,24 +9409,21 @@
         <v>5470.6932</v>
       </c>
       <c r="G216" t="n">
+        <v>281.8666666666667</v>
+      </c>
+      <c r="H216" t="n">
         <v>281.8833333333333</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>274</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="inlineStr"/>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8807,24 +9447,21 @@
         <v>865</v>
       </c>
       <c r="G217" t="n">
+        <v>282.4</v>
+      </c>
+      <c r="H217" t="n">
         <v>281.8833333333333</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>274</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="inlineStr"/>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8848,24 +9485,21 @@
         <v>1169.374361672474</v>
       </c>
       <c r="G218" t="n">
+        <v>282.8666666666667</v>
+      </c>
+      <c r="H218" t="n">
         <v>281.8666666666667</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>274</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="inlineStr"/>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8889,24 +9523,21 @@
         <v>25825.297</v>
       </c>
       <c r="G219" t="n">
+        <v>283.1333333333333</v>
+      </c>
+      <c r="H219" t="n">
         <v>281.8333333333333</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>274</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="inlineStr"/>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8930,24 +9561,21 @@
         <v>2577.3323</v>
       </c>
       <c r="G220" t="n">
+        <v>283.4666666666666</v>
+      </c>
+      <c r="H220" t="n">
         <v>281.8</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>274</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="inlineStr"/>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8971,24 +9599,21 @@
         <v>2305.8961</v>
       </c>
       <c r="G221" t="n">
+        <v>283.8666666666667</v>
+      </c>
+      <c r="H221" t="n">
         <v>281.7666666666667</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>274</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="inlineStr"/>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9012,24 +9637,21 @@
         <v>1892.0592</v>
       </c>
       <c r="G222" t="n">
+        <v>284.2666666666667</v>
+      </c>
+      <c r="H222" t="n">
         <v>281.7666666666667</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>274</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="inlineStr"/>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9053,24 +9675,21 @@
         <v>440.5879</v>
       </c>
       <c r="G223" t="n">
+        <v>284.6</v>
+      </c>
+      <c r="H223" t="n">
         <v>281.7333333333333</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>274</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="inlineStr"/>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9094,24 +9713,21 @@
         <v>1702.7588</v>
       </c>
       <c r="G224" t="n">
+        <v>284.8</v>
+      </c>
+      <c r="H224" t="n">
         <v>281.6833333333333</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>274</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="inlineStr"/>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9135,24 +9751,21 @@
         <v>420.3455</v>
       </c>
       <c r="G225" t="n">
+        <v>284.9333333333333</v>
+      </c>
+      <c r="H225" t="n">
         <v>281.7166666666666</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>274</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="inlineStr"/>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9176,24 +9789,21 @@
         <v>241.5274</v>
       </c>
       <c r="G226" t="n">
+        <v>285</v>
+      </c>
+      <c r="H226" t="n">
         <v>281.7</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>274</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M226" t="n">
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
+      <c r="M226" t="inlineStr"/>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9217,24 +9827,21 @@
         <v>600.6273</v>
       </c>
       <c r="G227" t="n">
+        <v>285.1333333333333</v>
+      </c>
+      <c r="H227" t="n">
         <v>281.7</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>274</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M227" t="n">
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
+      <c r="M227" t="inlineStr"/>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9258,24 +9865,21 @@
         <v>120.6363</v>
       </c>
       <c r="G228" t="n">
+        <v>285.2</v>
+      </c>
+      <c r="H228" t="n">
         <v>281.7333333333333</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>274</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M228" t="n">
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
+      <c r="M228" t="inlineStr"/>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9299,24 +9903,21 @@
         <v>6855.6062</v>
       </c>
       <c r="G229" t="n">
+        <v>285.2</v>
+      </c>
+      <c r="H229" t="n">
         <v>281.8</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>274</v>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M229" t="n">
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
+      <c r="M229" t="inlineStr"/>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9340,24 +9941,21 @@
         <v>842.8875</v>
       </c>
       <c r="G230" t="n">
+        <v>285.1333333333333</v>
+      </c>
+      <c r="H230" t="n">
         <v>281.85</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>274</v>
-      </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M230" t="n">
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
+      <c r="M230" t="inlineStr"/>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9381,24 +9979,21 @@
         <v>300</v>
       </c>
       <c r="G231" t="n">
+        <v>285.2666666666667</v>
+      </c>
+      <c r="H231" t="n">
         <v>281.9166666666667</v>
       </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>274</v>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M231" t="n">
+      <c r="J231" t="n">
+        <v>1</v>
+      </c>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9422,24 +10017,21 @@
         <v>550</v>
       </c>
       <c r="G232" t="n">
+        <v>285.1333333333333</v>
+      </c>
+      <c r="H232" t="n">
         <v>281.9666666666666</v>
       </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>274</v>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M232" t="n">
+      <c r="J232" t="n">
+        <v>1</v>
+      </c>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="inlineStr"/>
+      <c r="N232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9463,24 +10055,21 @@
         <v>1</v>
       </c>
       <c r="G233" t="n">
+        <v>285.1333333333333</v>
+      </c>
+      <c r="H233" t="n">
         <v>282.0333333333334</v>
       </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>274</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M233" t="n">
+      <c r="J233" t="n">
+        <v>1</v>
+      </c>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="inlineStr"/>
+      <c r="N233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9504,24 +10093,21 @@
         <v>229.3212</v>
       </c>
       <c r="G234" t="n">
+        <v>285.0666666666667</v>
+      </c>
+      <c r="H234" t="n">
         <v>282.0666666666667</v>
       </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>274</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M234" t="n">
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="inlineStr"/>
+      <c r="N234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9545,24 +10131,21 @@
         <v>3520.6171</v>
       </c>
       <c r="G235" t="n">
+        <v>285.1333333333333</v>
+      </c>
+      <c r="H235" t="n">
         <v>282.1333333333333</v>
       </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>274</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M235" t="n">
+      <c r="J235" t="n">
+        <v>1</v>
+      </c>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="inlineStr"/>
+      <c r="N235" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9586,24 +10169,21 @@
         <v>343.8869</v>
       </c>
       <c r="G236" t="n">
+        <v>285.1333333333333</v>
+      </c>
+      <c r="H236" t="n">
         <v>282.1833333333333</v>
       </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="n">
-        <v>274</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M236" t="n">
+      <c r="J236" t="n">
+        <v>1</v>
+      </c>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" t="inlineStr"/>
+      <c r="N236" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9627,24 +10207,21 @@
         <v>2250</v>
       </c>
       <c r="G237" t="n">
+        <v>285.0666666666667</v>
+      </c>
+      <c r="H237" t="n">
         <v>282.2333333333333</v>
       </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>274</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M237" t="n">
+      <c r="J237" t="n">
+        <v>1</v>
+      </c>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
+      <c r="M237" t="inlineStr"/>
+      <c r="N237" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9668,24 +10245,21 @@
         <v>158</v>
       </c>
       <c r="G238" t="n">
+        <v>285.0666666666667</v>
+      </c>
+      <c r="H238" t="n">
         <v>282.25</v>
       </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="n">
-        <v>274</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M238" t="n">
+      <c r="J238" t="n">
+        <v>1</v>
+      </c>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
+      <c r="M238" t="inlineStr"/>
+      <c r="N238" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9709,24 +10283,21 @@
         <v>909.7361</v>
       </c>
       <c r="G239" t="n">
+        <v>285.1333333333333</v>
+      </c>
+      <c r="H239" t="n">
         <v>282.2833333333334</v>
       </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="n">
-        <v>274</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M239" t="n">
+      <c r="J239" t="n">
+        <v>1</v>
+      </c>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
+      <c r="M239" t="inlineStr"/>
+      <c r="N239" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9750,24 +10321,21 @@
         <v>2967.1435</v>
       </c>
       <c r="G240" t="n">
+        <v>285.2</v>
+      </c>
+      <c r="H240" t="n">
         <v>282.3</v>
       </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="n">
-        <v>274</v>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M240" t="n">
+      <c r="J240" t="n">
+        <v>1</v>
+      </c>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
+      <c r="M240" t="inlineStr"/>
+      <c r="N240" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9791,24 +10359,21 @@
         <v>850</v>
       </c>
       <c r="G241" t="n">
+        <v>285.2666666666667</v>
+      </c>
+      <c r="H241" t="n">
         <v>282.3333333333333</v>
       </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="n">
-        <v>274</v>
-      </c>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M241" t="n">
+      <c r="J241" t="n">
+        <v>1</v>
+      </c>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
+      <c r="M241" t="inlineStr"/>
+      <c r="N241" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9832,24 +10397,21 @@
         <v>4110.1829</v>
       </c>
       <c r="G242" t="n">
+        <v>285.2666666666667</v>
+      </c>
+      <c r="H242" t="n">
         <v>282.3666666666667</v>
       </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="n">
-        <v>274</v>
-      </c>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M242" t="n">
+      <c r="J242" t="n">
+        <v>1</v>
+      </c>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
+      <c r="M242" t="inlineStr"/>
+      <c r="N242" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9873,24 +10435,21 @@
         <v>58.6129</v>
       </c>
       <c r="G243" t="n">
+        <v>285.2666666666667</v>
+      </c>
+      <c r="H243" t="n">
         <v>282.4666666666666</v>
       </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="n">
-        <v>274</v>
-      </c>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M243" t="n">
+      <c r="J243" t="n">
+        <v>1</v>
+      </c>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
+      <c r="M243" t="inlineStr"/>
+      <c r="N243" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9914,24 +10473,21 @@
         <v>1370</v>
       </c>
       <c r="G244" t="n">
+        <v>285.2666666666667</v>
+      </c>
+      <c r="H244" t="n">
         <v>282.5666666666667</v>
       </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="n">
-        <v>274</v>
-      </c>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M244" t="n">
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
+      <c r="M244" t="inlineStr"/>
+      <c r="N244" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9955,24 +10511,21 @@
         <v>17945.6068</v>
       </c>
       <c r="G245" t="n">
+        <v>285.3333333333333</v>
+      </c>
+      <c r="H245" t="n">
         <v>282.6666666666667</v>
       </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="n">
-        <v>274</v>
-      </c>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M245" t="n">
+      <c r="J245" t="n">
+        <v>1</v>
+      </c>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
+      <c r="M245" t="inlineStr"/>
+      <c r="N245" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9996,24 +10549,21 @@
         <v>1078.9547</v>
       </c>
       <c r="G246" t="n">
+        <v>285.4</v>
+      </c>
+      <c r="H246" t="n">
         <v>282.8</v>
       </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="n">
-        <v>274</v>
-      </c>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M246" t="n">
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
+      <c r="M246" t="inlineStr"/>
+      <c r="N246" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10037,24 +10587,21 @@
         <v>11.5244</v>
       </c>
       <c r="G247" t="n">
+        <v>285.4666666666666</v>
+      </c>
+      <c r="H247" t="n">
         <v>282.9166666666667</v>
       </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="n">
-        <v>274</v>
-      </c>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M247" t="n">
+      <c r="J247" t="n">
+        <v>1</v>
+      </c>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
+      <c r="M247" t="inlineStr"/>
+      <c r="N247" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10078,24 +10625,21 @@
         <v>1</v>
       </c>
       <c r="G248" t="n">
+        <v>285.5333333333334</v>
+      </c>
+      <c r="H248" t="n">
         <v>283.0166666666667</v>
       </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="n">
-        <v>274</v>
-      </c>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M248" t="n">
+      <c r="J248" t="n">
+        <v>1</v>
+      </c>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
+      <c r="M248" t="inlineStr"/>
+      <c r="N248" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10119,24 +10663,21 @@
         <v>800</v>
       </c>
       <c r="G249" t="n">
+        <v>285.6666666666667</v>
+      </c>
+      <c r="H249" t="n">
         <v>283.1166666666667</v>
       </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="n">
-        <v>274</v>
-      </c>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M249" t="n">
+      <c r="J249" t="n">
+        <v>1</v>
+      </c>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
+      <c r="M249" t="inlineStr"/>
+      <c r="N249" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10160,24 +10701,21 @@
         <v>1</v>
       </c>
       <c r="G250" t="n">
+        <v>285.7333333333333</v>
+      </c>
+      <c r="H250" t="n">
         <v>283.2166666666666</v>
       </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="n">
-        <v>274</v>
-      </c>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M250" t="n">
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr"/>
+      <c r="M250" t="inlineStr"/>
+      <c r="N250" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10201,24 +10739,21 @@
         <v>4429.7699</v>
       </c>
       <c r="G251" t="n">
+        <v>285.8666666666667</v>
+      </c>
+      <c r="H251" t="n">
         <v>283.3333333333333</v>
       </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="n">
-        <v>274</v>
-      </c>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M251" t="n">
+      <c r="J251" t="n">
+        <v>1</v>
+      </c>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
+      <c r="M251" t="inlineStr"/>
+      <c r="N251" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10242,24 +10777,21 @@
         <v>3579.0549</v>
       </c>
       <c r="G252" t="n">
+        <v>286</v>
+      </c>
+      <c r="H252" t="n">
         <v>283.4666666666666</v>
       </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="n">
-        <v>274</v>
-      </c>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M252" t="n">
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
+      <c r="M252" t="inlineStr"/>
+      <c r="N252" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10283,24 +10815,21 @@
         <v>3096.1184</v>
       </c>
       <c r="G253" t="n">
+        <v>286.1333333333333</v>
+      </c>
+      <c r="H253" t="n">
         <v>283.5666666666667</v>
       </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="n">
-        <v>274</v>
-      </c>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M253" t="n">
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr"/>
+      <c r="M253" t="inlineStr"/>
+      <c r="N253" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10324,24 +10853,21 @@
         <v>9645.0504</v>
       </c>
       <c r="G254" t="n">
+        <v>286.2</v>
+      </c>
+      <c r="H254" t="n">
         <v>283.6833333333333</v>
       </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="n">
-        <v>274</v>
-      </c>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M254" t="n">
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="inlineStr"/>
+      <c r="M254" t="inlineStr"/>
+      <c r="N254" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10365,24 +10891,21 @@
         <v>7.8148</v>
       </c>
       <c r="G255" t="n">
+        <v>286.2666666666667</v>
+      </c>
+      <c r="H255" t="n">
         <v>283.8333333333333</v>
       </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="n">
-        <v>274</v>
-      </c>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M255" t="n">
+      <c r="J255" t="n">
+        <v>0</v>
+      </c>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="inlineStr"/>
+      <c r="M255" t="inlineStr"/>
+      <c r="N255" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10406,24 +10929,401 @@
         <v>1989.3515</v>
       </c>
       <c r="G256" t="n">
+        <v>286.2666666666667</v>
+      </c>
+      <c r="H256" t="n">
         <v>283.9833333333333</v>
       </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="n">
-        <v>274</v>
-      </c>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M256" t="n">
+      <c r="J256" t="n">
+        <v>0</v>
+      </c>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="inlineStr"/>
+      <c r="M256" t="inlineStr"/>
+      <c r="N256" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>285</v>
+      </c>
+      <c r="C257" t="n">
+        <v>286</v>
+      </c>
+      <c r="D257" t="n">
+        <v>286</v>
+      </c>
+      <c r="E257" t="n">
+        <v>284</v>
+      </c>
+      <c r="F257" t="n">
+        <v>4759.222</v>
+      </c>
+      <c r="G257" t="n">
+        <v>286.3333333333333</v>
+      </c>
+      <c r="H257" t="n">
+        <v>284.1333333333333</v>
+      </c>
+      <c r="I257" t="n">
+        <v>0</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="inlineStr"/>
+      <c r="M257" t="inlineStr"/>
+      <c r="N257" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>285</v>
+      </c>
+      <c r="C258" t="n">
+        <v>285</v>
+      </c>
+      <c r="D258" t="n">
+        <v>285</v>
+      </c>
+      <c r="E258" t="n">
+        <v>285</v>
+      </c>
+      <c r="F258" t="n">
+        <v>3554.0197</v>
+      </c>
+      <c r="G258" t="n">
+        <v>286.2666666666667</v>
+      </c>
+      <c r="H258" t="n">
+        <v>284.2666666666667</v>
+      </c>
+      <c r="I258" t="n">
+        <v>0</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="inlineStr"/>
+      <c r="M258" t="inlineStr"/>
+      <c r="N258" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>285</v>
+      </c>
+      <c r="C259" t="n">
+        <v>285</v>
+      </c>
+      <c r="D259" t="n">
+        <v>285</v>
+      </c>
+      <c r="E259" t="n">
+        <v>285</v>
+      </c>
+      <c r="F259" t="n">
+        <v>22.782</v>
+      </c>
+      <c r="G259" t="n">
+        <v>286.2</v>
+      </c>
+      <c r="H259" t="n">
+        <v>284.4</v>
+      </c>
+      <c r="I259" t="n">
+        <v>0</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="inlineStr"/>
+      <c r="M259" t="inlineStr"/>
+      <c r="N259" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>285</v>
+      </c>
+      <c r="C260" t="n">
+        <v>285</v>
+      </c>
+      <c r="D260" t="n">
+        <v>285</v>
+      </c>
+      <c r="E260" t="n">
+        <v>285</v>
+      </c>
+      <c r="F260" t="n">
+        <v>2.2532</v>
+      </c>
+      <c r="G260" t="n">
+        <v>286.1333333333333</v>
+      </c>
+      <c r="H260" t="n">
+        <v>284.5333333333334</v>
+      </c>
+      <c r="I260" t="n">
+        <v>0</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0</v>
+      </c>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="inlineStr"/>
+      <c r="M260" t="inlineStr"/>
+      <c r="N260" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>285</v>
+      </c>
+      <c r="C261" t="n">
+        <v>285</v>
+      </c>
+      <c r="D261" t="n">
+        <v>285</v>
+      </c>
+      <c r="E261" t="n">
+        <v>285</v>
+      </c>
+      <c r="F261" t="n">
+        <v>6850.8475</v>
+      </c>
+      <c r="G261" t="n">
+        <v>286</v>
+      </c>
+      <c r="H261" t="n">
+        <v>284.6333333333333</v>
+      </c>
+      <c r="I261" t="n">
+        <v>0</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0</v>
+      </c>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="inlineStr"/>
+      <c r="M261" t="inlineStr"/>
+      <c r="N261" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>287</v>
+      </c>
+      <c r="C262" t="n">
+        <v>287</v>
+      </c>
+      <c r="D262" t="n">
+        <v>287</v>
+      </c>
+      <c r="E262" t="n">
+        <v>287</v>
+      </c>
+      <c r="F262" t="n">
+        <v>310</v>
+      </c>
+      <c r="G262" t="n">
+        <v>286.0666666666667</v>
+      </c>
+      <c r="H262" t="n">
+        <v>284.7666666666667</v>
+      </c>
+      <c r="I262" t="n">
+        <v>0</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0</v>
+      </c>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="inlineStr"/>
+      <c r="M262" t="inlineStr"/>
+      <c r="N262" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>286</v>
+      </c>
+      <c r="C263" t="n">
+        <v>286</v>
+      </c>
+      <c r="D263" t="n">
+        <v>286</v>
+      </c>
+      <c r="E263" t="n">
+        <v>286</v>
+      </c>
+      <c r="F263" t="n">
+        <v>60.5299</v>
+      </c>
+      <c r="G263" t="n">
+        <v>286</v>
+      </c>
+      <c r="H263" t="n">
+        <v>284.8833333333333</v>
+      </c>
+      <c r="I263" t="n">
+        <v>0</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0</v>
+      </c>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="inlineStr"/>
+      <c r="M263" t="inlineStr"/>
+      <c r="N263" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>287</v>
+      </c>
+      <c r="C264" t="n">
+        <v>285</v>
+      </c>
+      <c r="D264" t="n">
+        <v>287</v>
+      </c>
+      <c r="E264" t="n">
+        <v>285</v>
+      </c>
+      <c r="F264" t="n">
+        <v>1476</v>
+      </c>
+      <c r="G264" t="n">
+        <v>285.9333333333333</v>
+      </c>
+      <c r="H264" t="n">
+        <v>284.95</v>
+      </c>
+      <c r="I264" t="n">
+        <v>0</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0</v>
+      </c>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="inlineStr"/>
+      <c r="M264" t="inlineStr"/>
+      <c r="N264" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>285</v>
+      </c>
+      <c r="C265" t="n">
+        <v>285</v>
+      </c>
+      <c r="D265" t="n">
+        <v>285</v>
+      </c>
+      <c r="E265" t="n">
+        <v>285</v>
+      </c>
+      <c r="F265" t="n">
+        <v>1372.673</v>
+      </c>
+      <c r="G265" t="n">
+        <v>285.8</v>
+      </c>
+      <c r="H265" t="n">
+        <v>285.0333333333334</v>
+      </c>
+      <c r="I265" t="n">
+        <v>0</v>
+      </c>
+      <c r="J265" t="n">
+        <v>0</v>
+      </c>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="inlineStr"/>
+      <c r="M265" t="inlineStr"/>
+      <c r="N265" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>285</v>
+      </c>
+      <c r="C266" t="n">
+        <v>284</v>
+      </c>
+      <c r="D266" t="n">
+        <v>285</v>
+      </c>
+      <c r="E266" t="n">
+        <v>284</v>
+      </c>
+      <c r="F266" t="n">
+        <v>3143.2275</v>
+      </c>
+      <c r="G266" t="n">
+        <v>285.6</v>
+      </c>
+      <c r="H266" t="n">
+        <v>285.1166666666667</v>
+      </c>
+      <c r="I266" t="n">
+        <v>0</v>
+      </c>
+      <c r="J266" t="n">
+        <v>0</v>
+      </c>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="inlineStr"/>
+      <c r="M266" t="inlineStr"/>
+      <c r="N266" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-08 BackTest ZRX.xlsx
+++ b/BackTest/2019-10-08 BackTest ZRX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N324"/>
+  <dimension ref="A1:M324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,24 +484,15 @@
         <v>7381.5686</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>268</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -534,24 +517,15 @@
         <v>8218.568599999999</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>265</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -578,20 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -618,20 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -658,20 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -698,20 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -738,20 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -778,20 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -816,24 +748,15 @@
         <v>7372.728499999998</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>266</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -858,24 +781,15 @@
         <v>7372.728499999998</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>264</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -900,24 +814,15 @@
         <v>7215.707699999998</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>264</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -942,24 +847,15 @@
         <v>13378.9946</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>263</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -984,24 +880,15 @@
         <v>16975.3754</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>264</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1026,24 +913,15 @@
         <v>16893.7102</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>267</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1068,24 +946,15 @@
         <v>17615.3253</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>266</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1110,24 +979,15 @@
         <v>17615.3253</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>268</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1154,20 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1194,20 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1234,20 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1274,20 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1314,20 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1354,20 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1394,20 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1434,20 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1474,20 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1514,20 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1554,20 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1594,20 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1634,20 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1674,20 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1714,20 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1754,20 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1794,20 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1834,20 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1874,20 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1914,20 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1954,20 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1994,20 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2032,24 +1738,15 @@
         <v>18894.20737777778</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>261</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2074,24 +1771,19 @@
         <v>17247.04397777778</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>261</v>
       </c>
       <c r="J42" t="n">
         <v>261</v>
       </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2116,24 +1808,23 @@
         <v>17247.04397777778</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="J43" t="n">
-        <v>260</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
+        <v>261</v>
+      </c>
+      <c r="K43" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2158,24 +1849,23 @@
         <v>18178.89697777777</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="J44" t="n">
-        <v>260</v>
-      </c>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
+        <v>261</v>
+      </c>
+      <c r="K44" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2200,24 +1890,19 @@
         <v>18411.31357777778</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>261</v>
       </c>
       <c r="J45" t="n">
         <v>261</v>
       </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2242,24 +1927,23 @@
         <v>18411.31357777778</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>262</v>
       </c>
       <c r="J46" t="n">
-        <v>262</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
+        <v>261</v>
+      </c>
+      <c r="K46" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2284,24 +1968,23 @@
         <v>18411.31357777778</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>262</v>
       </c>
       <c r="J47" t="n">
-        <v>262</v>
-      </c>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
+        <v>261</v>
+      </c>
+      <c r="K47" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2326,24 +2009,19 @@
         <v>18411.31357777778</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>262</v>
       </c>
       <c r="J48" t="n">
         <v>262</v>
       </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2368,24 +2046,23 @@
         <v>18411.31357777778</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>262</v>
       </c>
       <c r="J49" t="n">
         <v>262</v>
       </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2410,24 +2087,23 @@
         <v>18411.31357777778</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>262</v>
       </c>
       <c r="J50" t="n">
         <v>262</v>
       </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2452,24 +2128,19 @@
         <v>18433.77187777777</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>262</v>
       </c>
       <c r="J51" t="n">
         <v>262</v>
       </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2494,24 +2165,23 @@
         <v>18423.77187777777</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>264</v>
       </c>
       <c r="J52" t="n">
-        <v>264</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
+        <v>262</v>
+      </c>
+      <c r="K52" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2536,24 +2206,23 @@
         <v>18453.77187777777</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>263</v>
       </c>
       <c r="J53" t="n">
-        <v>263</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
+        <v>262</v>
+      </c>
+      <c r="K53" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2580,20 +2249,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2620,20 +2282,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2660,20 +2315,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2700,20 +2348,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2740,20 +2381,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2780,20 +2414,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2820,20 +2447,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2860,20 +2480,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2898,22 +2511,19 @@
         <v>15875.71447777777</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
+        <v>270</v>
+      </c>
+      <c r="J62" t="n">
+        <v>270</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2940,20 +2550,19 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>270</v>
+      </c>
+      <c r="K63" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2978,22 +2587,23 @@
         <v>17780.29417777777</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
+        <v>268</v>
+      </c>
+      <c r="J64" t="n">
+        <v>270</v>
+      </c>
+      <c r="K64" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3020,20 +2630,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3060,20 +2663,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3100,20 +2696,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3140,20 +2729,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3180,20 +2762,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3220,20 +2795,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3260,20 +2828,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3300,20 +2861,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3340,20 +2894,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3380,20 +2927,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3420,20 +2960,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3460,20 +2993,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3500,20 +3026,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3540,20 +3059,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3580,20 +3092,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3620,20 +3125,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3660,20 +3158,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3700,20 +3191,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3740,20 +3224,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3780,20 +3257,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3820,20 +3290,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3858,24 +3321,15 @@
         <v>19577.14817777777</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="n">
-        <v>267</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3900,24 +3354,15 @@
         <v>19572.03417777777</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>266</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3942,24 +3387,15 @@
         <v>27969.62497777777</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="n">
-        <v>265</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3984,24 +3420,15 @@
         <v>28015.65117777777</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="n">
-        <v>266</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4026,24 +3453,15 @@
         <v>28015.65117777777</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>267</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4068,24 +3486,15 @@
         <v>28015.65117777777</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>267</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4110,24 +3519,15 @@
         <v>28015.65117777777</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="n">
-        <v>267</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4152,24 +3552,15 @@
         <v>28015.65117777777</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="n">
-        <v>267</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4194,24 +3585,15 @@
         <v>28143.65117777777</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>267</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4236,24 +3618,15 @@
         <v>28167.97187777777</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="n">
-        <v>268</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4280,20 +3653,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4320,20 +3686,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4360,20 +3719,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4398,22 +3750,15 @@
         <v>29118.80007079248</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4438,22 +3783,15 @@
         <v>46170.56387079248</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4478,22 +3816,15 @@
         <v>46170.56387079248</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4518,22 +3849,15 @@
         <v>46170.56387079248</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4558,22 +3882,15 @@
         <v>45943.23327079248</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4598,22 +3915,15 @@
         <v>49185.41607079248</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4640,20 +3950,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4680,20 +3983,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4720,20 +4016,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4760,20 +4049,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4800,20 +4082,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4840,20 +4115,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4880,20 +4148,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4920,20 +4181,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4960,20 +4214,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5000,20 +4247,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5040,20 +4280,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5080,20 +4313,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5120,20 +4346,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5160,20 +4379,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5200,20 +4412,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5240,20 +4445,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5280,20 +4478,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5320,20 +4511,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5360,20 +4544,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5400,20 +4577,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5440,20 +4610,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5480,20 +4643,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5520,20 +4676,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5560,20 +4709,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5600,20 +4742,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5640,20 +4775,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5680,20 +4808,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5720,20 +4841,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5760,20 +4874,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5800,20 +4907,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5840,20 +4940,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5880,20 +4973,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5920,20 +5006,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5960,20 +5039,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -6000,20 +5072,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -6040,20 +5105,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6080,20 +5138,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6120,20 +5171,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6160,20 +5204,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6200,20 +5237,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6240,20 +5270,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6280,20 +5303,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6320,20 +5336,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6360,20 +5369,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6400,20 +5402,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6440,18 +5435,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>1</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="L150" t="n">
+        <v>1</v>
       </c>
       <c r="M150" t="inlineStr"/>
-      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6478,16 +5468,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>1</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6514,16 +5501,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>1</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6550,16 +5534,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>1</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6584,18 +5565,15 @@
         <v>59654.74453752438</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6622,16 +5600,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>1</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6658,16 +5633,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>1</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6694,16 +5666,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>1</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6730,16 +5699,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>1</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6766,16 +5732,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>1</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6802,16 +5765,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>1</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6836,18 +5796,15 @@
         <v>43734.19843752438</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6874,16 +5831,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>1</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6910,16 +5864,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6946,16 +5897,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6982,16 +5930,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -7018,16 +5963,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7054,16 +5996,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7090,16 +6029,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7126,16 +6062,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7162,16 +6095,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7198,16 +6128,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7234,16 +6161,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7270,16 +6194,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7306,16 +6227,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7342,16 +6260,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7378,16 +6293,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7414,16 +6326,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7450,16 +6359,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7486,16 +6392,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7522,16 +6425,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7558,16 +6458,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7594,16 +6491,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7630,16 +6524,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7666,16 +6557,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7702,16 +6590,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7738,16 +6623,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7774,16 +6656,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7810,16 +6689,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7846,16 +6722,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7882,16 +6755,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7918,16 +6788,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7954,16 +6821,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7990,16 +6854,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -8026,16 +6887,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -8062,16 +6920,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8098,16 +6953,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8134,16 +6986,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8168,18 +7017,15 @@
         <v>86028.31453752439</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8206,16 +7052,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8242,16 +7085,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8278,16 +7118,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8314,16 +7151,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8350,16 +7184,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8386,16 +7217,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8420,18 +7248,15 @@
         <v>86028.31453752439</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8458,16 +7283,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8494,16 +7316,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8530,16 +7349,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8566,16 +7382,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8602,16 +7415,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8638,16 +7448,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8674,16 +7481,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8710,16 +7514,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8746,16 +7547,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>1</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8780,18 +7578,15 @@
         <v>88951.0521375244</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8816,18 +7611,15 @@
         <v>88951.0521375244</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8852,18 +7644,15 @@
         <v>88951.0521375244</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8888,18 +7677,15 @@
         <v>88951.0521375244</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8924,18 +7710,15 @@
         <v>88951.0521375244</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8962,16 +7745,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>1</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8998,16 +7778,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>1</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -9034,16 +7811,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>1</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -9070,16 +7844,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>1</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9106,16 +7877,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>1</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9142,16 +7910,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9178,16 +7943,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>1</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9214,16 +7976,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9250,16 +8009,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>1</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9286,16 +8042,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9322,16 +8075,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>1</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9358,16 +8108,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9394,16 +8141,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>1</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9430,16 +8174,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9466,16 +8207,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>1</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9502,16 +8240,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9538,16 +8273,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9574,16 +8306,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9610,16 +8339,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9646,16 +8372,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9682,16 +8405,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9718,16 +8438,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9754,16 +8471,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9790,16 +8504,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9826,16 +8537,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9862,16 +8570,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9898,16 +8603,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9934,16 +8636,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9970,16 +8669,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -10006,16 +8702,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -10042,16 +8735,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -10078,16 +8768,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -10114,16 +8801,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -10150,16 +8834,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -10186,16 +8867,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -10222,16 +8900,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -10258,16 +8933,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10292,18 +8964,15 @@
         <v>55839.3134375244</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10330,16 +8999,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10364,18 +9030,15 @@
         <v>56004.2141375244</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10400,18 +9063,15 @@
         <v>56004.2141375244</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10436,18 +9096,15 @@
         <v>56004.2141375244</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10472,18 +9129,15 @@
         <v>64012.3278375244</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10508,18 +9162,15 @@
         <v>57083.0386375244</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10544,18 +9195,15 @@
         <v>56679.29883752439</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10580,18 +9228,15 @@
         <v>58525.97753752439</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10618,16 +9263,13 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10652,18 +9294,15 @@
         <v>66818.4068375244</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10690,16 +9329,13 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10724,18 +9360,15 @@
         <v>70970.79003752439</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10760,18 +9393,15 @@
         <v>70970.79003752439</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10796,18 +9426,15 @@
         <v>82843.41918329905</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10832,18 +9459,15 @@
         <v>84385.32118329905</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10868,18 +9492,15 @@
         <v>84385.32118329905</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10906,16 +9527,13 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>1</v>
-      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10942,16 +9560,13 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
-      <c r="I275" t="n">
-        <v>1</v>
-      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10978,16 +9593,13 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>1</v>
-      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -11014,16 +9626,13 @@
       <c r="H277" t="n">
         <v>0</v>
       </c>
-      <c r="I277" t="n">
-        <v>1</v>
-      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -11050,16 +9659,13 @@
       <c r="H278" t="n">
         <v>0</v>
       </c>
-      <c r="I278" t="n">
-        <v>1</v>
-      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -11086,16 +9692,13 @@
       <c r="H279" t="n">
         <v>0</v>
       </c>
-      <c r="I279" t="n">
-        <v>1</v>
-      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -11122,16 +9725,13 @@
       <c r="H280" t="n">
         <v>0</v>
       </c>
-      <c r="I280" t="n">
-        <v>1</v>
-      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -11156,18 +9756,15 @@
         <v>54236.42792162659</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -11192,18 +9789,15 @@
         <v>52533.66912162659</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -11228,18 +9822,15 @@
         <v>52533.66912162659</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -11264,18 +9855,15 @@
         <v>52533.66912162659</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -11300,18 +9888,15 @@
         <v>53134.29642162659</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -11336,18 +9921,15 @@
         <v>53254.93272162659</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -11372,18 +9954,15 @@
         <v>53254.93272162659</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -11408,18 +9987,15 @@
         <v>52412.04522162659</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -11446,16 +10022,13 @@
       <c r="H289" t="n">
         <v>0</v>
       </c>
-      <c r="I289" t="n">
-        <v>0</v>
-      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -11482,16 +10055,13 @@
       <c r="H290" t="n">
         <v>0</v>
       </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -11518,16 +10088,13 @@
       <c r="H291" t="n">
         <v>0</v>
       </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -11554,16 +10121,13 @@
       <c r="H292" t="n">
         <v>0</v>
       </c>
-      <c r="I292" t="n">
-        <v>0</v>
-      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -11590,16 +10154,13 @@
       <c r="H293" t="n">
         <v>0</v>
       </c>
-      <c r="I293" t="n">
-        <v>0</v>
-      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -11624,18 +10185,15 @@
         <v>55110.4542216266</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11660,18 +10218,15 @@
         <v>55110.4542216266</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11696,18 +10251,15 @@
         <v>55110.4542216266</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11732,18 +10284,15 @@
         <v>55110.4542216266</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11770,16 +10319,13 @@
       <c r="H298" t="n">
         <v>0</v>
       </c>
-      <c r="I298" t="n">
-        <v>0</v>
-      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11806,16 +10352,13 @@
       <c r="H299" t="n">
         <v>0</v>
       </c>
-      <c r="I299" t="n">
-        <v>0</v>
-      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -11842,16 +10385,13 @@
       <c r="H300" t="n">
         <v>0</v>
       </c>
-      <c r="I300" t="n">
-        <v>0</v>
-      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -11878,16 +10418,13 @@
       <c r="H301" t="n">
         <v>0</v>
       </c>
-      <c r="I301" t="n">
-        <v>0</v>
-      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -11914,16 +10451,13 @@
       <c r="H302" t="n">
         <v>0</v>
       </c>
-      <c r="I302" t="n">
-        <v>0</v>
-      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -11950,16 +10484,13 @@
       <c r="H303" t="n">
         <v>0</v>
       </c>
-      <c r="I303" t="n">
-        <v>0</v>
-      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-      <c r="N303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -11986,16 +10517,13 @@
       <c r="H304" t="n">
         <v>0</v>
       </c>
-      <c r="I304" t="n">
-        <v>0</v>
-      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
-      <c r="M304" t="n">
-        <v>1</v>
-      </c>
-      <c r="N304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -12022,16 +10550,13 @@
       <c r="H305" t="n">
         <v>0</v>
       </c>
-      <c r="I305" t="n">
-        <v>0</v>
-      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
-      <c r="M305" t="n">
-        <v>1</v>
-      </c>
-      <c r="N305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -12058,16 +10583,13 @@
       <c r="H306" t="n">
         <v>0</v>
       </c>
-      <c r="I306" t="n">
-        <v>0</v>
-      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
-      <c r="M306" t="n">
-        <v>1</v>
-      </c>
-      <c r="N306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -12094,16 +10616,13 @@
       <c r="H307" t="n">
         <v>0</v>
       </c>
-      <c r="I307" t="n">
-        <v>0</v>
-      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
-      <c r="M307" t="n">
-        <v>1</v>
-      </c>
-      <c r="N307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -12128,18 +10647,15 @@
         <v>55438.4974216266</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
-      <c r="M308" t="n">
-        <v>1</v>
-      </c>
-      <c r="N308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -12164,18 +10680,15 @@
         <v>55438.4974216266</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
-      <c r="M309" t="n">
-        <v>1</v>
-      </c>
-      <c r="N309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -12200,18 +10713,15 @@
         <v>55438.4974216266</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
-      <c r="M310" t="n">
-        <v>1</v>
-      </c>
-      <c r="N310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -12238,16 +10748,13 @@
       <c r="H311" t="n">
         <v>0</v>
       </c>
-      <c r="I311" t="n">
-        <v>0</v>
-      </c>
+      <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
-      <c r="M311" t="n">
-        <v>1</v>
-      </c>
-      <c r="N311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -12274,16 +10781,13 @@
       <c r="H312" t="n">
         <v>0</v>
       </c>
-      <c r="I312" t="n">
-        <v>0</v>
-      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
-      <c r="M312" t="n">
-        <v>1</v>
-      </c>
-      <c r="N312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -12310,16 +10814,13 @@
       <c r="H313" t="n">
         <v>0</v>
       </c>
-      <c r="I313" t="n">
-        <v>0</v>
-      </c>
+      <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
-      <c r="M313" t="n">
-        <v>1</v>
-      </c>
-      <c r="N313" t="inlineStr"/>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -12346,16 +10847,13 @@
       <c r="H314" t="n">
         <v>0</v>
       </c>
-      <c r="I314" t="n">
-        <v>0</v>
-      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
-      <c r="M314" t="n">
-        <v>1</v>
-      </c>
-      <c r="N314" t="inlineStr"/>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -12382,16 +10880,13 @@
       <c r="H315" t="n">
         <v>0</v>
       </c>
-      <c r="I315" t="n">
-        <v>0</v>
-      </c>
+      <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
-      <c r="M315" t="n">
-        <v>1</v>
-      </c>
-      <c r="N315" t="inlineStr"/>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -12418,16 +10913,13 @@
       <c r="H316" t="n">
         <v>0</v>
       </c>
-      <c r="I316" t="n">
-        <v>0</v>
-      </c>
+      <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
-      <c r="M316" t="n">
-        <v>1</v>
-      </c>
-      <c r="N316" t="inlineStr"/>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -12454,16 +10946,13 @@
       <c r="H317" t="n">
         <v>0</v>
       </c>
-      <c r="I317" t="n">
-        <v>0</v>
-      </c>
+      <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
-      <c r="M317" t="n">
-        <v>1</v>
-      </c>
-      <c r="N317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -12488,18 +10977,15 @@
         <v>45009.29782162661</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I318" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
-      <c r="M318" t="n">
-        <v>1</v>
-      </c>
-      <c r="N318" t="inlineStr"/>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -12526,16 +11012,13 @@
       <c r="H319" t="n">
         <v>0</v>
       </c>
-      <c r="I319" t="n">
-        <v>0</v>
-      </c>
+      <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
-      <c r="M319" t="n">
-        <v>1</v>
-      </c>
-      <c r="N319" t="inlineStr"/>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -12562,16 +11045,13 @@
       <c r="H320" t="n">
         <v>0</v>
       </c>
-      <c r="I320" t="n">
-        <v>0</v>
-      </c>
+      <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
-      <c r="M320" t="n">
-        <v>1</v>
-      </c>
-      <c r="N320" t="inlineStr"/>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -12598,16 +11078,13 @@
       <c r="H321" t="n">
         <v>0</v>
       </c>
-      <c r="I321" t="n">
-        <v>0</v>
-      </c>
+      <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
-      <c r="M321" t="n">
-        <v>1</v>
-      </c>
-      <c r="N321" t="inlineStr"/>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -12632,18 +11109,15 @@
         <v>43782.7679216266</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
-      <c r="M322" t="n">
-        <v>1</v>
-      </c>
-      <c r="N322" t="inlineStr"/>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -12670,16 +11144,13 @@
       <c r="H323" t="n">
         <v>0</v>
       </c>
-      <c r="I323" t="n">
-        <v>0</v>
-      </c>
+      <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
-      <c r="M323" t="n">
-        <v>1</v>
-      </c>
-      <c r="N323" t="inlineStr"/>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -12706,18 +11177,15 @@
       <c r="H324" t="n">
         <v>0</v>
       </c>
-      <c r="I324" t="n">
-        <v>0</v>
-      </c>
+      <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
-      <c r="M324" t="n">
-        <v>1</v>
-      </c>
-      <c r="N324" t="inlineStr"/>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-08 BackTest ZRX.xlsx
+++ b/BackTest/2019-10-08 BackTest ZRX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -517,10 +517,14 @@
         <v>8218.568599999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>265</v>
+      </c>
+      <c r="J4" t="n">
+        <v>265</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
@@ -553,8 +557,14 @@
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>265</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -586,8 +596,14 @@
         <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>265</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -715,10 +731,14 @@
         <v>7538.876499999998</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>267</v>
+      </c>
+      <c r="J10" t="n">
+        <v>267</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
@@ -748,11 +768,19 @@
         <v>7372.728499999998</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>266</v>
+      </c>
+      <c r="J11" t="n">
+        <v>267</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +809,19 @@
         <v>7372.728499999998</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>264</v>
+      </c>
+      <c r="J12" t="n">
+        <v>267</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,10 +850,14 @@
         <v>7215.707699999998</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>264</v>
+      </c>
+      <c r="J13" t="n">
+        <v>264</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
@@ -847,11 +887,19 @@
         <v>13378.9946</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>263</v>
+      </c>
+      <c r="J14" t="n">
+        <v>264</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +928,19 @@
         <v>16975.3754</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>264</v>
+      </c>
+      <c r="J15" t="n">
+        <v>264</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +969,19 @@
         <v>16893.7102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>267</v>
+      </c>
+      <c r="J16" t="n">
+        <v>264</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1010,19 @@
         <v>17615.3253</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>266</v>
+      </c>
+      <c r="J17" t="n">
+        <v>264</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1051,19 @@
         <v>17615.3253</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>268</v>
+      </c>
+      <c r="J18" t="n">
+        <v>264</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1092,19 @@
         <v>17443.8255</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>268</v>
+      </c>
+      <c r="J19" t="n">
+        <v>264</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +1133,19 @@
         <v>16443.8255</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>267</v>
+      </c>
+      <c r="J20" t="n">
+        <v>264</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1174,19 @@
         <v>17543.8255</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>266</v>
+      </c>
+      <c r="J21" t="n">
+        <v>264</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,11 +1215,19 @@
         <v>17926.8255</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>267</v>
+      </c>
+      <c r="J22" t="n">
+        <v>264</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1147,8 +1259,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>264</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1180,8 +1298,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>264</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1213,8 +1337,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>264</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1246,8 +1376,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>264</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1279,8 +1415,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>264</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1312,8 +1454,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>264</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1345,8 +1493,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>264</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1378,8 +1532,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>264</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1411,8 +1571,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>264</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1444,8 +1610,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>264</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1477,8 +1649,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>264</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1510,8 +1688,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>264</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1543,8 +1727,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>264</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1576,8 +1766,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>264</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1609,8 +1805,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>264</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1642,8 +1844,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>264</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1672,11 +1880,19 @@
         <v>18894.20737777778</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>263</v>
+      </c>
+      <c r="J39" t="n">
+        <v>264</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1705,11 +1921,19 @@
         <v>18894.20737777778</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>261</v>
+      </c>
+      <c r="J40" t="n">
+        <v>264</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1738,11 +1962,19 @@
         <v>18894.20737777778</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>261</v>
+      </c>
+      <c r="J41" t="n">
+        <v>264</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1771,15 +2003,19 @@
         <v>17247.04397777778</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>261</v>
       </c>
       <c r="J42" t="n">
-        <v>261</v>
-      </c>
-      <c r="K42" t="inlineStr"/>
+        <v>264</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1808,17 +2044,17 @@
         <v>17247.04397777778</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>260</v>
       </c>
       <c r="J43" t="n">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L43" t="n">
@@ -1849,17 +2085,17 @@
         <v>18178.89697777777</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>260</v>
       </c>
       <c r="J44" t="n">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L44" t="n">
@@ -1890,15 +2126,19 @@
         <v>18411.31357777778</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>261</v>
       </c>
       <c r="J45" t="n">
-        <v>261</v>
-      </c>
-      <c r="K45" t="inlineStr"/>
+        <v>264</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1927,17 +2167,17 @@
         <v>18411.31357777778</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>262</v>
       </c>
       <c r="J46" t="n">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L46" t="n">
@@ -1968,17 +2208,17 @@
         <v>18411.31357777778</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>262</v>
       </c>
       <c r="J47" t="n">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L47" t="n">
@@ -2009,15 +2249,19 @@
         <v>18411.31357777778</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>262</v>
       </c>
       <c r="J48" t="n">
-        <v>262</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
+        <v>264</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2046,17 +2290,17 @@
         <v>18411.31357777778</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>262</v>
       </c>
       <c r="J49" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L49" t="n">
@@ -2087,17 +2331,17 @@
         <v>18411.31357777778</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>262</v>
       </c>
       <c r="J50" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L50" t="n">
@@ -2128,15 +2372,19 @@
         <v>18433.77187777777</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>262</v>
       </c>
       <c r="J51" t="n">
-        <v>262</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
+        <v>264</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2165,17 +2413,17 @@
         <v>18423.77187777777</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>264</v>
       </c>
       <c r="J52" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L52" t="n">
@@ -2206,17 +2454,17 @@
         <v>18453.77187777777</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>263</v>
       </c>
       <c r="J53" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L53" t="n">
@@ -2247,11 +2495,19 @@
         <v>18459.17357777777</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>266</v>
+      </c>
+      <c r="J54" t="n">
+        <v>264</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2283,8 +2539,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>264</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2316,8 +2578,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>264</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2349,8 +2617,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>264</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2382,8 +2656,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>264</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2415,8 +2695,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>264</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2448,8 +2734,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>264</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2481,8 +2773,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>264</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2511,15 +2809,17 @@
         <v>15875.71447777777</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
-      </c>
-      <c r="I62" t="n">
-        <v>270</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
-        <v>270</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
+        <v>264</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2552,11 +2852,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L63" t="n">
@@ -2587,17 +2887,15 @@
         <v>17780.29417777777</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
-      </c>
-      <c r="I64" t="n">
-        <v>268</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L64" t="n">
@@ -2631,8 +2929,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>264</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2664,8 +2968,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>264</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2697,8 +3007,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>264</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2730,8 +3046,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>264</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2763,8 +3085,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>264</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2796,8 +3124,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>264</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2829,8 +3163,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>264</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2862,8 +3202,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>264</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2895,8 +3241,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>264</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2928,8 +3280,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>264</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2961,8 +3319,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>264</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2994,8 +3358,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>264</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3027,8 +3397,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>264</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3060,8 +3436,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>264</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3093,8 +3475,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>264</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3126,8 +3514,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>264</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3159,8 +3553,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>264</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3192,8 +3592,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>264</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3225,8 +3631,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>264</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3258,8 +3670,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>264</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3288,11 +3706,19 @@
         <v>19582.13567777777</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>268</v>
+      </c>
+      <c r="J85" t="n">
+        <v>264</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3321,11 +3747,19 @@
         <v>19577.14817777777</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>267</v>
+      </c>
+      <c r="J86" t="n">
+        <v>264</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3354,11 +3788,19 @@
         <v>19572.03417777777</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>266</v>
+      </c>
+      <c r="J87" t="n">
+        <v>264</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3387,11 +3829,19 @@
         <v>27969.62497777777</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>265</v>
+      </c>
+      <c r="J88" t="n">
+        <v>264</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3420,11 +3870,19 @@
         <v>28015.65117777777</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>266</v>
+      </c>
+      <c r="J89" t="n">
+        <v>264</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3453,11 +3911,19 @@
         <v>28015.65117777777</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>267</v>
+      </c>
+      <c r="J90" t="n">
+        <v>264</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3486,11 +3952,19 @@
         <v>28015.65117777777</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>267</v>
+      </c>
+      <c r="J91" t="n">
+        <v>264</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3519,11 +3993,19 @@
         <v>28015.65117777777</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>267</v>
+      </c>
+      <c r="J92" t="n">
+        <v>264</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3552,11 +4034,19 @@
         <v>28015.65117777777</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>267</v>
+      </c>
+      <c r="J93" t="n">
+        <v>264</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3585,11 +4075,19 @@
         <v>28143.65117777777</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>267</v>
+      </c>
+      <c r="J94" t="n">
+        <v>264</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3618,11 +4116,19 @@
         <v>28167.97187777777</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>268</v>
+      </c>
+      <c r="J95" t="n">
+        <v>264</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3651,11 +4157,19 @@
         <v>29128.92457079248</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>270</v>
+      </c>
+      <c r="J96" t="n">
+        <v>264</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3687,8 +4201,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>264</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3720,8 +4240,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>264</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3750,11 +4276,17 @@
         <v>29118.80007079248</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>264</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3783,11 +4315,17 @@
         <v>46170.56387079248</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>264</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3816,11 +4354,17 @@
         <v>46170.56387079248</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>264</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3849,11 +4393,17 @@
         <v>46170.56387079248</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>264</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3882,11 +4432,17 @@
         <v>45943.23327079248</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>264</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3915,11 +4471,17 @@
         <v>49185.41607079248</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>264</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3951,8 +4513,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>264</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3984,8 +4552,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>264</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4017,8 +4591,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>264</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4050,8 +4630,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>264</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4083,8 +4669,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>264</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4116,8 +4708,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>264</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4149,8 +4747,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>264</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4182,8 +4786,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>264</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4215,8 +4825,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>264</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4248,8 +4864,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>264</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4281,8 +4903,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>264</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4314,8 +4942,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>264</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4347,8 +4981,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>264</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4380,8 +5020,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>264</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4413,8 +5059,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>264</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4446,8 +5098,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>264</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4479,8 +5137,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>264</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4512,8 +5176,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>264</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4545,8 +5215,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>264</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4578,8 +5254,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>264</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4611,8 +5293,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>264</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4644,8 +5332,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>264</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4677,8 +5371,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>264</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4710,8 +5410,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>264</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4743,8 +5449,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>264</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4776,8 +5488,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>264</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4809,8 +5527,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>264</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4842,8 +5566,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>264</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4875,8 +5605,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>264</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4908,8 +5644,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>264</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4941,8 +5683,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>264</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4974,8 +5722,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>264</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5007,8 +5761,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>264</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5040,8 +5800,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>264</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5073,8 +5839,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>264</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5106,8 +5878,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>264</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5139,8 +5917,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>264</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5172,8 +5956,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>264</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5205,8 +5995,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>264</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5238,8 +6034,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>264</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5271,8 +6073,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>264</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5304,8 +6112,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>264</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5337,8 +6151,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>264</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5370,8 +6190,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>264</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5403,8 +6229,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>264</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5436,8 +6268,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>264</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5469,8 +6307,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>264</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5502,8 +6346,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>264</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5535,8 +6385,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>264</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5565,11 +6421,17 @@
         <v>59654.74453752438</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>264</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5601,8 +6463,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>264</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5634,8 +6502,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>264</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5667,8 +6541,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>264</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5700,8 +6580,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>264</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5733,8 +6619,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>264</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5766,8 +6658,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>264</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5796,11 +6694,17 @@
         <v>43734.19843752438</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>264</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5832,8 +6736,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>264</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5865,8 +6775,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>264</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5898,8 +6814,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>264</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5931,8 +6853,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>264</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5964,8 +6892,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>264</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5997,8 +6931,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>264</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6030,8 +6970,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>264</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6063,8 +7009,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>264</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6096,8 +7048,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>264</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6129,8 +7087,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>264</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6162,8 +7126,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>264</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6195,8 +7165,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>264</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6228,8 +7204,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>264</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6261,8 +7243,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>264</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6294,8 +7282,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>264</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6327,8 +7321,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>264</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6360,8 +7360,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>264</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6393,8 +7399,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>264</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6426,8 +7438,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>264</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6459,8 +7477,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>264</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6492,8 +7516,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>264</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6525,8 +7555,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>264</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6558,8 +7594,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>264</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6591,8 +7633,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>264</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6624,8 +7672,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>264</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6657,8 +7711,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>264</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6690,8 +7750,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>264</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6723,8 +7789,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>264</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6756,8 +7828,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>264</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6789,8 +7867,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>264</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6822,8 +7906,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>264</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6855,8 +7945,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>264</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6888,8 +7984,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>264</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6921,8 +8023,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>264</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6954,8 +8062,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>264</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6987,8 +8101,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>264</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7017,11 +8137,17 @@
         <v>86028.31453752439</v>
       </c>
       <c r="H198" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>264</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7053,8 +8179,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>264</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7086,8 +8218,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>264</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7119,8 +8257,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>264</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7152,8 +8296,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>264</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7185,8 +8335,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>264</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7218,8 +8374,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>264</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7248,11 +8410,17 @@
         <v>86028.31453752439</v>
       </c>
       <c r="H205" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>264</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7284,8 +8452,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>264</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7317,8 +8491,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>264</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7350,8 +8530,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>264</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7383,8 +8569,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>264</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7416,8 +8608,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>264</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7449,8 +8647,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>264</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7482,8 +8686,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>264</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7515,8 +8725,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>264</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7548,8 +8764,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>264</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7578,11 +8800,17 @@
         <v>88951.0521375244</v>
       </c>
       <c r="H215" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>264</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7611,11 +8839,17 @@
         <v>88951.0521375244</v>
       </c>
       <c r="H216" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>264</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7644,11 +8878,17 @@
         <v>88951.0521375244</v>
       </c>
       <c r="H217" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>264</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7677,11 +8917,17 @@
         <v>88951.0521375244</v>
       </c>
       <c r="H218" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>264</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7710,11 +8956,17 @@
         <v>88951.0521375244</v>
       </c>
       <c r="H219" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>264</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7746,8 +8998,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>264</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7776,15 +9034,23 @@
         <v>87182.6997375244</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>264</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+        <v>1.082121212121212</v>
+      </c>
+      <c r="M221" t="n">
+        <v>1.019011406844107</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7809,7 +9075,7 @@
         <v>87182.6997375244</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7842,7 +9108,7 @@
         <v>70641.06023752439</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7875,7 +9141,7 @@
         <v>71718.06023752439</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7908,7 +9174,7 @@
         <v>71718.06023752439</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8040,7 +9306,7 @@
         <v>58105.80253752439</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8073,7 +9339,7 @@
         <v>58105.80253752439</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8337,7 +9603,7 @@
         <v>57976.5868375244</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8370,7 +9636,7 @@
         <v>57971.64533752439</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8403,7 +9669,7 @@
         <v>57971.64533752439</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8436,7 +9702,7 @@
         <v>57793.7094375244</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8469,7 +9735,7 @@
         <v>57793.7094375244</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8502,7 +9768,7 @@
         <v>57793.7094375244</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8535,7 +9801,7 @@
         <v>56950.95813752439</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8568,7 +9834,7 @@
         <v>56950.95813752439</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8601,7 +9867,7 @@
         <v>57008.4560375244</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8634,7 +9900,7 @@
         <v>56789.5792375244</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8766,7 +10032,7 @@
         <v>61677.8257375244</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8964,7 +10230,7 @@
         <v>55839.3134375244</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9030,7 +10296,7 @@
         <v>56004.2141375244</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9063,7 +10329,7 @@
         <v>56004.2141375244</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9096,7 +10362,7 @@
         <v>56004.2141375244</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9129,7 +10395,7 @@
         <v>64012.3278375244</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9162,7 +10428,7 @@
         <v>57083.0386375244</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9195,7 +10461,7 @@
         <v>56679.29883752439</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9228,7 +10494,7 @@
         <v>58525.97753752439</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9294,7 +10560,7 @@
         <v>66818.4068375244</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9360,7 +10626,7 @@
         <v>70970.79003752439</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9393,7 +10659,7 @@
         <v>70970.79003752439</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9426,7 +10692,7 @@
         <v>82843.41918329905</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9459,7 +10725,7 @@
         <v>84385.32118329905</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9492,7 +10758,7 @@
         <v>84385.32118329905</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9756,7 +11022,7 @@
         <v>54236.42792162659</v>
       </c>
       <c r="H281" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9789,7 +11055,7 @@
         <v>52533.66912162659</v>
       </c>
       <c r="H282" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9822,7 +11088,7 @@
         <v>52533.66912162659</v>
       </c>
       <c r="H283" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9855,7 +11121,7 @@
         <v>52533.66912162659</v>
       </c>
       <c r="H284" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9888,7 +11154,7 @@
         <v>53134.29642162659</v>
       </c>
       <c r="H285" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9921,7 +11187,7 @@
         <v>53254.93272162659</v>
       </c>
       <c r="H286" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9954,7 +11220,7 @@
         <v>53254.93272162659</v>
       </c>
       <c r="H287" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9987,7 +11253,7 @@
         <v>52412.04522162659</v>
       </c>
       <c r="H288" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10185,7 +11451,7 @@
         <v>55110.4542216266</v>
       </c>
       <c r="H294" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10218,7 +11484,7 @@
         <v>55110.4542216266</v>
       </c>
       <c r="H295" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10251,7 +11517,7 @@
         <v>55110.4542216266</v>
       </c>
       <c r="H296" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10284,7 +11550,7 @@
         <v>55110.4542216266</v>
       </c>
       <c r="H297" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10317,7 +11583,7 @@
         <v>55110.4542216266</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10647,7 +11913,7 @@
         <v>55438.4974216266</v>
       </c>
       <c r="H308" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10680,7 +11946,7 @@
         <v>55438.4974216266</v>
       </c>
       <c r="H309" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10713,7 +11979,7 @@
         <v>55438.4974216266</v>
       </c>
       <c r="H310" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10845,7 +12111,7 @@
         <v>43804.0955216266</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10878,7 +12144,7 @@
         <v>48563.3175216266</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10911,7 +12177,7 @@
         <v>45009.29782162661</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10944,7 +12210,7 @@
         <v>45009.29782162661</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10977,7 +12243,7 @@
         <v>45009.29782162661</v>
       </c>
       <c r="H318" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11010,7 +12276,7 @@
         <v>45009.29782162661</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11043,7 +12309,7 @@
         <v>45319.29782162661</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11076,7 +12342,7 @@
         <v>45258.7679216266</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11109,7 +12375,7 @@
         <v>43782.7679216266</v>
       </c>
       <c r="H322" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11142,7 +12408,7 @@
         <v>43782.7679216266</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11175,7 +12441,7 @@
         <v>40639.5404216266</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11186,6 +12452,6 @@
       <c r="M324" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-08 BackTest ZRX.xlsx
+++ b/BackTest/2019-10-08 BackTest ZRX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -517,14 +517,10 @@
         <v>8218.568599999999</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>265</v>
-      </c>
-      <c r="J4" t="n">
-        <v>265</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
@@ -557,14 +553,8 @@
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>265</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -596,14 +586,8 @@
         <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="n">
-        <v>265</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -731,14 +715,10 @@
         <v>7538.876499999998</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>267</v>
-      </c>
-      <c r="J10" t="n">
-        <v>267</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
@@ -768,1254 +748,1054 @@
         <v>7372.728499999998</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>264</v>
+      </c>
+      <c r="C12" t="n">
+        <v>264</v>
+      </c>
+      <c r="D12" t="n">
+        <v>264</v>
+      </c>
+      <c r="E12" t="n">
+        <v>264</v>
+      </c>
+      <c r="F12" t="n">
+        <v>166</v>
+      </c>
+      <c r="G12" t="n">
+        <v>7372.728499999998</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>263</v>
+      </c>
+      <c r="C13" t="n">
+        <v>263</v>
+      </c>
+      <c r="D13" t="n">
+        <v>263</v>
+      </c>
+      <c r="E13" t="n">
+        <v>263</v>
+      </c>
+      <c r="F13" t="n">
+        <v>157.0208</v>
+      </c>
+      <c r="G13" t="n">
+        <v>7215.707699999998</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>263</v>
+      </c>
+      <c r="C14" t="n">
+        <v>264</v>
+      </c>
+      <c r="D14" t="n">
+        <v>264</v>
+      </c>
+      <c r="E14" t="n">
+        <v>263</v>
+      </c>
+      <c r="F14" t="n">
+        <v>6163.2869</v>
+      </c>
+      <c r="G14" t="n">
+        <v>13378.9946</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>268</v>
+      </c>
+      <c r="C15" t="n">
+        <v>267</v>
+      </c>
+      <c r="D15" t="n">
+        <v>268</v>
+      </c>
+      <c r="E15" t="n">
+        <v>267</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3596.3808</v>
+      </c>
+      <c r="G15" t="n">
+        <v>16975.3754</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>267</v>
+      </c>
+      <c r="C16" t="n">
         <v>266</v>
       </c>
-      <c r="J11" t="n">
+      <c r="D16" t="n">
         <v>267</v>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="E16" t="n">
+        <v>266</v>
+      </c>
+      <c r="F16" t="n">
+        <v>81.6652</v>
+      </c>
+      <c r="G16" t="n">
+        <v>16893.7102</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>268</v>
+      </c>
+      <c r="C17" t="n">
+        <v>268</v>
+      </c>
+      <c r="D17" t="n">
+        <v>268</v>
+      </c>
+      <c r="E17" t="n">
+        <v>268</v>
+      </c>
+      <c r="F17" t="n">
+        <v>721.6151</v>
+      </c>
+      <c r="G17" t="n">
+        <v>17615.3253</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>268</v>
+      </c>
+      <c r="C18" t="n">
+        <v>268</v>
+      </c>
+      <c r="D18" t="n">
+        <v>268</v>
+      </c>
+      <c r="E18" t="n">
+        <v>268</v>
+      </c>
+      <c r="F18" t="n">
+        <v>6693.5283</v>
+      </c>
+      <c r="G18" t="n">
+        <v>17615.3253</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>267</v>
+      </c>
+      <c r="C19" t="n">
+        <v>267</v>
+      </c>
+      <c r="D19" t="n">
+        <v>267</v>
+      </c>
+      <c r="E19" t="n">
+        <v>267</v>
+      </c>
+      <c r="F19" t="n">
+        <v>171.4998</v>
+      </c>
+      <c r="G19" t="n">
+        <v>17443.8255</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>266</v>
+      </c>
+      <c r="C20" t="n">
+        <v>266</v>
+      </c>
+      <c r="D20" t="n">
+        <v>266</v>
+      </c>
+      <c r="E20" t="n">
+        <v>266</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G20" t="n">
+        <v>16443.8255</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>267</v>
+      </c>
+      <c r="C21" t="n">
+        <v>267</v>
+      </c>
+      <c r="D21" t="n">
+        <v>267</v>
+      </c>
+      <c r="E21" t="n">
+        <v>267</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1100</v>
+      </c>
+      <c r="G21" t="n">
+        <v>17543.8255</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>268</v>
+      </c>
+      <c r="C22" t="n">
+        <v>268</v>
+      </c>
+      <c r="D22" t="n">
+        <v>268</v>
+      </c>
+      <c r="E22" t="n">
+        <v>268</v>
+      </c>
+      <c r="F22" t="n">
+        <v>383</v>
+      </c>
+      <c r="G22" t="n">
+        <v>17926.8255</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>268</v>
+      </c>
+      <c r="C23" t="n">
+        <v>268</v>
+      </c>
+      <c r="D23" t="n">
+        <v>268</v>
+      </c>
+      <c r="E23" t="n">
+        <v>268</v>
+      </c>
+      <c r="F23" t="n">
+        <v>192</v>
+      </c>
+      <c r="G23" t="n">
+        <v>17926.8255</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>268</v>
+      </c>
+      <c r="C24" t="n">
+        <v>268</v>
+      </c>
+      <c r="D24" t="n">
+        <v>268</v>
+      </c>
+      <c r="E24" t="n">
+        <v>268</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1765.1149</v>
+      </c>
+      <c r="G24" t="n">
+        <v>17926.8255</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>269</v>
+      </c>
+      <c r="C25" t="n">
+        <v>270</v>
+      </c>
+      <c r="D25" t="n">
+        <v>270</v>
+      </c>
+      <c r="E25" t="n">
+        <v>269</v>
+      </c>
+      <c r="F25" t="n">
+        <v>3032.477777777778</v>
+      </c>
+      <c r="G25" t="n">
+        <v>20959.30327777777</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>268</v>
+      </c>
+      <c r="C26" t="n">
+        <v>268</v>
+      </c>
+      <c r="D26" t="n">
+        <v>268</v>
+      </c>
+      <c r="E26" t="n">
+        <v>268</v>
+      </c>
+      <c r="F26" t="n">
+        <v>524.7685</v>
+      </c>
+      <c r="G26" t="n">
+        <v>20434.53477777778</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>266</v>
+      </c>
+      <c r="C27" t="n">
+        <v>266</v>
+      </c>
+      <c r="D27" t="n">
+        <v>266</v>
+      </c>
+      <c r="E27" t="n">
+        <v>266</v>
+      </c>
+      <c r="F27" t="n">
+        <v>169.6997</v>
+      </c>
+      <c r="G27" t="n">
+        <v>20264.83507777777</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>265</v>
+      </c>
+      <c r="C28" t="n">
+        <v>265</v>
+      </c>
+      <c r="D28" t="n">
+        <v>265</v>
+      </c>
+      <c r="E28" t="n">
+        <v>265</v>
+      </c>
+      <c r="F28" t="n">
+        <v>132.7379</v>
+      </c>
+      <c r="G28" t="n">
+        <v>20132.09717777777</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>265</v>
+      </c>
+      <c r="C29" t="n">
+        <v>265</v>
+      </c>
+      <c r="D29" t="n">
+        <v>265</v>
+      </c>
+      <c r="E29" t="n">
+        <v>265</v>
+      </c>
+      <c r="F29" t="n">
+        <v>5500</v>
+      </c>
+      <c r="G29" t="n">
+        <v>20132.09717777777</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>265</v>
+      </c>
+      <c r="C30" t="n">
+        <v>265</v>
+      </c>
+      <c r="D30" t="n">
+        <v>265</v>
+      </c>
+      <c r="E30" t="n">
+        <v>265</v>
+      </c>
+      <c r="F30" t="n">
+        <v>11.193</v>
+      </c>
+      <c r="G30" t="n">
+        <v>20132.09717777777</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>265</v>
+      </c>
+      <c r="C31" t="n">
+        <v>265</v>
+      </c>
+      <c r="D31" t="n">
+        <v>265</v>
+      </c>
+      <c r="E31" t="n">
+        <v>265</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1903</v>
+      </c>
+      <c r="G31" t="n">
+        <v>20132.09717777777</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>265</v>
+      </c>
+      <c r="C32" t="n">
+        <v>265</v>
+      </c>
+      <c r="D32" t="n">
+        <v>265</v>
+      </c>
+      <c r="E32" t="n">
+        <v>265</v>
+      </c>
+      <c r="F32" t="n">
+        <v>139</v>
+      </c>
+      <c r="G32" t="n">
+        <v>20132.09717777777</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>265</v>
+      </c>
+      <c r="C33" t="n">
+        <v>265</v>
+      </c>
+      <c r="D33" t="n">
+        <v>265</v>
+      </c>
+      <c r="E33" t="n">
+        <v>265</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G33" t="n">
+        <v>20132.09717777777</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>265</v>
+      </c>
+      <c r="C34" t="n">
+        <v>265</v>
+      </c>
+      <c r="D34" t="n">
+        <v>265</v>
+      </c>
+      <c r="E34" t="n">
+        <v>265</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1214</v>
+      </c>
+      <c r="G34" t="n">
+        <v>20132.09717777777</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>265</v>
+      </c>
+      <c r="C35" t="n">
+        <v>264</v>
+      </c>
+      <c r="D35" t="n">
+        <v>265</v>
+      </c>
+      <c r="E35" t="n">
+        <v>263</v>
+      </c>
+      <c r="F35" t="n">
+        <v>7665.9437</v>
+      </c>
+      <c r="G35" t="n">
+        <v>12466.15347777777</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>263</v>
+      </c>
+      <c r="C36" t="n">
+        <v>266</v>
+      </c>
+      <c r="D36" t="n">
+        <v>266</v>
+      </c>
+      <c r="E36" t="n">
+        <v>262</v>
+      </c>
+      <c r="F36" t="n">
+        <v>6763.3325</v>
+      </c>
+      <c r="G36" t="n">
+        <v>19229.48597777777</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>263</v>
+      </c>
+      <c r="C37" t="n">
+        <v>263</v>
+      </c>
+      <c r="D37" t="n">
+        <v>263</v>
+      </c>
+      <c r="E37" t="n">
+        <v>263</v>
+      </c>
+      <c r="F37" t="n">
+        <v>167.6393</v>
+      </c>
+      <c r="G37" t="n">
+        <v>19061.84667777778</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>263</v>
+      </c>
+      <c r="C38" t="n">
+        <v>263</v>
+      </c>
+      <c r="D38" t="n">
+        <v>263</v>
+      </c>
+      <c r="E38" t="n">
+        <v>263</v>
+      </c>
+      <c r="F38" t="n">
+        <v>361.8556</v>
+      </c>
+      <c r="G38" t="n">
+        <v>19061.84667777778</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>261</v>
+      </c>
+      <c r="C39" t="n">
+        <v>261</v>
+      </c>
+      <c r="D39" t="n">
+        <v>261</v>
+      </c>
+      <c r="E39" t="n">
+        <v>261</v>
+      </c>
+      <c r="F39" t="n">
+        <v>167.6393</v>
+      </c>
+      <c r="G39" t="n">
+        <v>18894.20737777778</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>261</v>
+      </c>
+      <c r="C40" t="n">
+        <v>261</v>
+      </c>
+      <c r="D40" t="n">
+        <v>261</v>
+      </c>
+      <c r="E40" t="n">
+        <v>261</v>
+      </c>
+      <c r="F40" t="n">
+        <v>44.1327</v>
+      </c>
+      <c r="G40" t="n">
+        <v>18894.20737777778</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>261</v>
+      </c>
+      <c r="J40" t="n">
+        <v>261</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>261</v>
+      </c>
+      <c r="C41" t="n">
+        <v>261</v>
+      </c>
+      <c r="D41" t="n">
+        <v>261</v>
+      </c>
+      <c r="E41" t="n">
+        <v>261</v>
+      </c>
+      <c r="F41" t="n">
+        <v>14.4994</v>
+      </c>
+      <c r="G41" t="n">
+        <v>18894.20737777778</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>261</v>
+      </c>
+      <c r="J41" t="n">
+        <v>261</v>
+      </c>
+      <c r="K41" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>264</v>
-      </c>
-      <c r="C12" t="n">
-        <v>264</v>
-      </c>
-      <c r="D12" t="n">
-        <v>264</v>
-      </c>
-      <c r="E12" t="n">
-        <v>264</v>
-      </c>
-      <c r="F12" t="n">
-        <v>166</v>
-      </c>
-      <c r="G12" t="n">
-        <v>7372.728499999998</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>264</v>
-      </c>
-      <c r="J12" t="n">
-        <v>267</v>
-      </c>
-      <c r="K12" t="inlineStr">
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>260</v>
+      </c>
+      <c r="C42" t="n">
+        <v>260</v>
+      </c>
+      <c r="D42" t="n">
+        <v>260</v>
+      </c>
+      <c r="E42" t="n">
+        <v>260</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1647.1634</v>
+      </c>
+      <c r="G42" t="n">
+        <v>17247.04397777778</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>261</v>
+      </c>
+      <c r="J42" t="n">
+        <v>261</v>
+      </c>
+      <c r="K42" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>263</v>
-      </c>
-      <c r="C13" t="n">
-        <v>263</v>
-      </c>
-      <c r="D13" t="n">
-        <v>263</v>
-      </c>
-      <c r="E13" t="n">
-        <v>263</v>
-      </c>
-      <c r="F13" t="n">
-        <v>157.0208</v>
-      </c>
-      <c r="G13" t="n">
-        <v>7215.707699999998</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>264</v>
-      </c>
-      <c r="J13" t="n">
-        <v>264</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>263</v>
-      </c>
-      <c r="C14" t="n">
-        <v>264</v>
-      </c>
-      <c r="D14" t="n">
-        <v>264</v>
-      </c>
-      <c r="E14" t="n">
-        <v>263</v>
-      </c>
-      <c r="F14" t="n">
-        <v>6163.2869</v>
-      </c>
-      <c r="G14" t="n">
-        <v>13378.9946</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>263</v>
-      </c>
-      <c r="J14" t="n">
-        <v>264</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>268</v>
-      </c>
-      <c r="C15" t="n">
-        <v>267</v>
-      </c>
-      <c r="D15" t="n">
-        <v>268</v>
-      </c>
-      <c r="E15" t="n">
-        <v>267</v>
-      </c>
-      <c r="F15" t="n">
-        <v>3596.3808</v>
-      </c>
-      <c r="G15" t="n">
-        <v>16975.3754</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>264</v>
-      </c>
-      <c r="J15" t="n">
-        <v>264</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>267</v>
-      </c>
-      <c r="C16" t="n">
-        <v>266</v>
-      </c>
-      <c r="D16" t="n">
-        <v>267</v>
-      </c>
-      <c r="E16" t="n">
-        <v>266</v>
-      </c>
-      <c r="F16" t="n">
-        <v>81.6652</v>
-      </c>
-      <c r="G16" t="n">
-        <v>16893.7102</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>267</v>
-      </c>
-      <c r="J16" t="n">
-        <v>264</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>268</v>
-      </c>
-      <c r="C17" t="n">
-        <v>268</v>
-      </c>
-      <c r="D17" t="n">
-        <v>268</v>
-      </c>
-      <c r="E17" t="n">
-        <v>268</v>
-      </c>
-      <c r="F17" t="n">
-        <v>721.6151</v>
-      </c>
-      <c r="G17" t="n">
-        <v>17615.3253</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>266</v>
-      </c>
-      <c r="J17" t="n">
-        <v>264</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>268</v>
-      </c>
-      <c r="C18" t="n">
-        <v>268</v>
-      </c>
-      <c r="D18" t="n">
-        <v>268</v>
-      </c>
-      <c r="E18" t="n">
-        <v>268</v>
-      </c>
-      <c r="F18" t="n">
-        <v>6693.5283</v>
-      </c>
-      <c r="G18" t="n">
-        <v>17615.3253</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>268</v>
-      </c>
-      <c r="J18" t="n">
-        <v>264</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>267</v>
-      </c>
-      <c r="C19" t="n">
-        <v>267</v>
-      </c>
-      <c r="D19" t="n">
-        <v>267</v>
-      </c>
-      <c r="E19" t="n">
-        <v>267</v>
-      </c>
-      <c r="F19" t="n">
-        <v>171.4998</v>
-      </c>
-      <c r="G19" t="n">
-        <v>17443.8255</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>268</v>
-      </c>
-      <c r="J19" t="n">
-        <v>264</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>266</v>
-      </c>
-      <c r="C20" t="n">
-        <v>266</v>
-      </c>
-      <c r="D20" t="n">
-        <v>266</v>
-      </c>
-      <c r="E20" t="n">
-        <v>266</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G20" t="n">
-        <v>16443.8255</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>267</v>
-      </c>
-      <c r="J20" t="n">
-        <v>264</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>267</v>
-      </c>
-      <c r="C21" t="n">
-        <v>267</v>
-      </c>
-      <c r="D21" t="n">
-        <v>267</v>
-      </c>
-      <c r="E21" t="n">
-        <v>267</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1100</v>
-      </c>
-      <c r="G21" t="n">
-        <v>17543.8255</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>266</v>
-      </c>
-      <c r="J21" t="n">
-        <v>264</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>268</v>
-      </c>
-      <c r="C22" t="n">
-        <v>268</v>
-      </c>
-      <c r="D22" t="n">
-        <v>268</v>
-      </c>
-      <c r="E22" t="n">
-        <v>268</v>
-      </c>
-      <c r="F22" t="n">
-        <v>383</v>
-      </c>
-      <c r="G22" t="n">
-        <v>17926.8255</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>267</v>
-      </c>
-      <c r="J22" t="n">
-        <v>264</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>268</v>
-      </c>
-      <c r="C23" t="n">
-        <v>268</v>
-      </c>
-      <c r="D23" t="n">
-        <v>268</v>
-      </c>
-      <c r="E23" t="n">
-        <v>268</v>
-      </c>
-      <c r="F23" t="n">
-        <v>192</v>
-      </c>
-      <c r="G23" t="n">
-        <v>17926.8255</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>264</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>268</v>
-      </c>
-      <c r="C24" t="n">
-        <v>268</v>
-      </c>
-      <c r="D24" t="n">
-        <v>268</v>
-      </c>
-      <c r="E24" t="n">
-        <v>268</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1765.1149</v>
-      </c>
-      <c r="G24" t="n">
-        <v>17926.8255</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>264</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>269</v>
-      </c>
-      <c r="C25" t="n">
-        <v>270</v>
-      </c>
-      <c r="D25" t="n">
-        <v>270</v>
-      </c>
-      <c r="E25" t="n">
-        <v>269</v>
-      </c>
-      <c r="F25" t="n">
-        <v>3032.477777777778</v>
-      </c>
-      <c r="G25" t="n">
-        <v>20959.30327777777</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>264</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>268</v>
-      </c>
-      <c r="C26" t="n">
-        <v>268</v>
-      </c>
-      <c r="D26" t="n">
-        <v>268</v>
-      </c>
-      <c r="E26" t="n">
-        <v>268</v>
-      </c>
-      <c r="F26" t="n">
-        <v>524.7685</v>
-      </c>
-      <c r="G26" t="n">
-        <v>20434.53477777778</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>264</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>266</v>
-      </c>
-      <c r="C27" t="n">
-        <v>266</v>
-      </c>
-      <c r="D27" t="n">
-        <v>266</v>
-      </c>
-      <c r="E27" t="n">
-        <v>266</v>
-      </c>
-      <c r="F27" t="n">
-        <v>169.6997</v>
-      </c>
-      <c r="G27" t="n">
-        <v>20264.83507777777</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>264</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>265</v>
-      </c>
-      <c r="C28" t="n">
-        <v>265</v>
-      </c>
-      <c r="D28" t="n">
-        <v>265</v>
-      </c>
-      <c r="E28" t="n">
-        <v>265</v>
-      </c>
-      <c r="F28" t="n">
-        <v>132.7379</v>
-      </c>
-      <c r="G28" t="n">
-        <v>20132.09717777777</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>264</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>265</v>
-      </c>
-      <c r="C29" t="n">
-        <v>265</v>
-      </c>
-      <c r="D29" t="n">
-        <v>265</v>
-      </c>
-      <c r="E29" t="n">
-        <v>265</v>
-      </c>
-      <c r="F29" t="n">
-        <v>5500</v>
-      </c>
-      <c r="G29" t="n">
-        <v>20132.09717777777</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>264</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>265</v>
-      </c>
-      <c r="C30" t="n">
-        <v>265</v>
-      </c>
-      <c r="D30" t="n">
-        <v>265</v>
-      </c>
-      <c r="E30" t="n">
-        <v>265</v>
-      </c>
-      <c r="F30" t="n">
-        <v>11.193</v>
-      </c>
-      <c r="G30" t="n">
-        <v>20132.09717777777</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>264</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>265</v>
-      </c>
-      <c r="C31" t="n">
-        <v>265</v>
-      </c>
-      <c r="D31" t="n">
-        <v>265</v>
-      </c>
-      <c r="E31" t="n">
-        <v>265</v>
-      </c>
-      <c r="F31" t="n">
-        <v>1903</v>
-      </c>
-      <c r="G31" t="n">
-        <v>20132.09717777777</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>264</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>265</v>
-      </c>
-      <c r="C32" t="n">
-        <v>265</v>
-      </c>
-      <c r="D32" t="n">
-        <v>265</v>
-      </c>
-      <c r="E32" t="n">
-        <v>265</v>
-      </c>
-      <c r="F32" t="n">
-        <v>139</v>
-      </c>
-      <c r="G32" t="n">
-        <v>20132.09717777777</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>264</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>265</v>
-      </c>
-      <c r="C33" t="n">
-        <v>265</v>
-      </c>
-      <c r="D33" t="n">
-        <v>265</v>
-      </c>
-      <c r="E33" t="n">
-        <v>265</v>
-      </c>
-      <c r="F33" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G33" t="n">
-        <v>20132.09717777777</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>264</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>265</v>
-      </c>
-      <c r="C34" t="n">
-        <v>265</v>
-      </c>
-      <c r="D34" t="n">
-        <v>265</v>
-      </c>
-      <c r="E34" t="n">
-        <v>265</v>
-      </c>
-      <c r="F34" t="n">
-        <v>1214</v>
-      </c>
-      <c r="G34" t="n">
-        <v>20132.09717777777</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>264</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>265</v>
-      </c>
-      <c r="C35" t="n">
-        <v>264</v>
-      </c>
-      <c r="D35" t="n">
-        <v>265</v>
-      </c>
-      <c r="E35" t="n">
-        <v>263</v>
-      </c>
-      <c r="F35" t="n">
-        <v>7665.9437</v>
-      </c>
-      <c r="G35" t="n">
-        <v>12466.15347777777</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>264</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>263</v>
-      </c>
-      <c r="C36" t="n">
-        <v>266</v>
-      </c>
-      <c r="D36" t="n">
-        <v>266</v>
-      </c>
-      <c r="E36" t="n">
-        <v>262</v>
-      </c>
-      <c r="F36" t="n">
-        <v>6763.3325</v>
-      </c>
-      <c r="G36" t="n">
-        <v>19229.48597777777</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>264</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>263</v>
-      </c>
-      <c r="C37" t="n">
-        <v>263</v>
-      </c>
-      <c r="D37" t="n">
-        <v>263</v>
-      </c>
-      <c r="E37" t="n">
-        <v>263</v>
-      </c>
-      <c r="F37" t="n">
-        <v>167.6393</v>
-      </c>
-      <c r="G37" t="n">
-        <v>19061.84667777778</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>264</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>263</v>
-      </c>
-      <c r="C38" t="n">
-        <v>263</v>
-      </c>
-      <c r="D38" t="n">
-        <v>263</v>
-      </c>
-      <c r="E38" t="n">
-        <v>263</v>
-      </c>
-      <c r="F38" t="n">
-        <v>361.8556</v>
-      </c>
-      <c r="G38" t="n">
-        <v>19061.84667777778</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>264</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>261</v>
-      </c>
-      <c r="C39" t="n">
-        <v>261</v>
-      </c>
-      <c r="D39" t="n">
-        <v>261</v>
-      </c>
-      <c r="E39" t="n">
-        <v>261</v>
-      </c>
-      <c r="F39" t="n">
-        <v>167.6393</v>
-      </c>
-      <c r="G39" t="n">
-        <v>18894.20737777778</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>263</v>
-      </c>
-      <c r="J39" t="n">
-        <v>264</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>261</v>
-      </c>
-      <c r="C40" t="n">
-        <v>261</v>
-      </c>
-      <c r="D40" t="n">
-        <v>261</v>
-      </c>
-      <c r="E40" t="n">
-        <v>261</v>
-      </c>
-      <c r="F40" t="n">
-        <v>44.1327</v>
-      </c>
-      <c r="G40" t="n">
-        <v>18894.20737777778</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>261</v>
-      </c>
-      <c r="J40" t="n">
-        <v>264</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>261</v>
-      </c>
-      <c r="C41" t="n">
-        <v>261</v>
-      </c>
-      <c r="D41" t="n">
-        <v>261</v>
-      </c>
-      <c r="E41" t="n">
-        <v>261</v>
-      </c>
-      <c r="F41" t="n">
-        <v>14.4994</v>
-      </c>
-      <c r="G41" t="n">
-        <v>18894.20737777778</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>261</v>
-      </c>
-      <c r="J41" t="n">
-        <v>264</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>260</v>
-      </c>
-      <c r="C42" t="n">
-        <v>260</v>
-      </c>
-      <c r="D42" t="n">
-        <v>260</v>
-      </c>
-      <c r="E42" t="n">
-        <v>260</v>
-      </c>
-      <c r="F42" t="n">
-        <v>1647.1634</v>
-      </c>
-      <c r="G42" t="n">
-        <v>17247.04397777778</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>261</v>
-      </c>
-      <c r="J42" t="n">
-        <v>264</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2050,13 +1830,9 @@
         <v>260</v>
       </c>
       <c r="J43" t="n">
-        <v>264</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2091,11 +1867,11 @@
         <v>260</v>
       </c>
       <c r="J44" t="n">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L44" t="n">
@@ -2132,11 +1908,11 @@
         <v>261</v>
       </c>
       <c r="J45" t="n">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L45" t="n">
@@ -2173,13 +1949,9 @@
         <v>262</v>
       </c>
       <c r="J46" t="n">
-        <v>264</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2214,11 +1986,11 @@
         <v>262</v>
       </c>
       <c r="J47" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L47" t="n">
@@ -2255,11 +2027,11 @@
         <v>262</v>
       </c>
       <c r="J48" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L48" t="n">
@@ -2296,13 +2068,9 @@
         <v>262</v>
       </c>
       <c r="J49" t="n">
-        <v>264</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2337,11 +2105,11 @@
         <v>262</v>
       </c>
       <c r="J50" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L50" t="n">
@@ -2378,11 +2146,11 @@
         <v>262</v>
       </c>
       <c r="J51" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L51" t="n">
@@ -2413,19 +2181,11 @@
         <v>18423.77187777777</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>264</v>
-      </c>
-      <c r="J52" t="n">
-        <v>264</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2454,19 +2214,11 @@
         <v>18453.77187777777</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>263</v>
-      </c>
-      <c r="J53" t="n">
-        <v>264</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2495,19 +2247,11 @@
         <v>18459.17357777777</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>266</v>
-      </c>
-      <c r="J54" t="n">
-        <v>264</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2539,14 +2283,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>264</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2578,14 +2316,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>264</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2617,14 +2349,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>264</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2656,14 +2382,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>264</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2695,14 +2415,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>264</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2734,14 +2448,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>264</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2773,14 +2481,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>264</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2812,14 +2514,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>264</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2851,14 +2547,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>264</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2890,14 +2580,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>264</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2929,14 +2613,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>264</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2968,14 +2646,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>264</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -3007,14 +2679,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>264</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3046,14 +2712,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>264</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3085,14 +2745,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>264</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3124,14 +2778,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>264</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3163,14 +2811,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>264</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3202,14 +2844,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>264</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3241,14 +2877,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>264</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3280,14 +2910,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>264</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3319,14 +2943,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>264</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3358,14 +2976,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>264</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3397,14 +3009,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>264</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3436,14 +3042,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>264</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3475,14 +3075,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>264</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3514,14 +3108,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>264</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3553,14 +3141,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>264</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3592,14 +3174,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>264</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3631,14 +3207,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>264</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3670,14 +3240,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>264</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3706,19 +3270,11 @@
         <v>19582.13567777777</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>268</v>
-      </c>
-      <c r="J85" t="n">
-        <v>264</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3747,19 +3303,11 @@
         <v>19577.14817777777</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>267</v>
-      </c>
-      <c r="J86" t="n">
-        <v>264</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3788,19 +3336,11 @@
         <v>19572.03417777777</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>266</v>
-      </c>
-      <c r="J87" t="n">
-        <v>264</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3829,19 +3369,11 @@
         <v>27969.62497777777</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>265</v>
-      </c>
-      <c r="J88" t="n">
-        <v>264</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3870,19 +3402,11 @@
         <v>28015.65117777777</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>266</v>
-      </c>
-      <c r="J89" t="n">
-        <v>264</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3911,19 +3435,11 @@
         <v>28015.65117777777</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>267</v>
-      </c>
-      <c r="J90" t="n">
-        <v>264</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3952,19 +3468,11 @@
         <v>28015.65117777777</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>267</v>
-      </c>
-      <c r="J91" t="n">
-        <v>264</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3993,19 +3501,11 @@
         <v>28015.65117777777</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>267</v>
-      </c>
-      <c r="J92" t="n">
-        <v>264</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4034,19 +3534,11 @@
         <v>28015.65117777777</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>267</v>
-      </c>
-      <c r="J93" t="n">
-        <v>264</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4075,19 +3567,11 @@
         <v>28143.65117777777</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>267</v>
-      </c>
-      <c r="J94" t="n">
-        <v>264</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4116,19 +3600,11 @@
         <v>28167.97187777777</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>268</v>
-      </c>
-      <c r="J95" t="n">
-        <v>264</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4157,19 +3633,11 @@
         <v>29128.92457079248</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>270</v>
-      </c>
-      <c r="J96" t="n">
-        <v>264</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4198,17 +3666,11 @@
         <v>29127.92457079248</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>264</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4240,14 +3702,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>264</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4276,17 +3732,11 @@
         <v>29118.80007079248</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>264</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4315,17 +3765,11 @@
         <v>46170.56387079248</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>264</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4354,17 +3798,11 @@
         <v>46170.56387079248</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>264</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4393,17 +3831,11 @@
         <v>46170.56387079248</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>264</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4432,17 +3864,11 @@
         <v>45943.23327079248</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>264</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4474,14 +3900,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>264</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4513,14 +3933,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>264</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4552,14 +3966,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>264</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4591,14 +3999,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>264</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4630,14 +4032,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>264</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4669,14 +4065,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>264</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4708,14 +4098,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>264</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4747,14 +4131,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>264</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4786,14 +4164,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>264</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4825,14 +4197,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>264</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4864,14 +4230,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>264</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4903,14 +4263,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>264</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4942,14 +4296,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>264</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4981,14 +4329,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>264</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -5020,14 +4362,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>264</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5059,14 +4395,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>264</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5098,14 +4428,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>264</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5137,14 +4461,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>264</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5176,14 +4494,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>264</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5215,14 +4527,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>264</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5254,14 +4560,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>264</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5293,14 +4593,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>264</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5332,14 +4626,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>264</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5371,14 +4659,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>264</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5410,14 +4692,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>264</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5446,17 +4722,11 @@
         <v>38801.80095833736</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>264</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5485,17 +4755,11 @@
         <v>38801.80095833736</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>264</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5524,17 +4788,11 @@
         <v>37551.69595833736</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>264</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5563,17 +4821,11 @@
         <v>31829.40415833736</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>264</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5602,17 +4854,11 @@
         <v>31829.40415833736</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>264</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5641,17 +4887,11 @@
         <v>31829.40415833736</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>264</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5680,17 +4920,11 @@
         <v>30584.86015833736</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>264</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5719,17 +4953,11 @@
         <v>43067.07845833736</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>264</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5758,17 +4986,11 @@
         <v>43067.07845833736</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>264</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5797,17 +5019,11 @@
         <v>24556.56455833736</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>264</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5836,17 +5052,11 @@
         <v>24913.14565833736</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>264</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5875,17 +5085,11 @@
         <v>25737.52575833736</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>264</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5914,17 +5118,11 @@
         <v>25784.97375833736</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>264</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5953,17 +5151,11 @@
         <v>25784.97375833736</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>264</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5992,17 +5184,11 @@
         <v>26153.78165833736</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>264</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -6031,17 +5217,11 @@
         <v>26168.78165833736</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>264</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6070,17 +5250,11 @@
         <v>26168.78165833736</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>264</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6109,17 +5283,11 @@
         <v>26391.80665833736</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>264</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6151,14 +5319,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>264</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6190,14 +5352,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>264</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6229,14 +5385,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>264</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6268,14 +5418,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>264</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6307,14 +5451,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>264</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6346,14 +5484,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>264</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6385,14 +5517,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>264</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6424,14 +5550,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>264</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6463,14 +5583,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>264</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6502,14 +5616,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>264</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6541,14 +5649,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>264</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6580,14 +5682,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>264</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6619,14 +5715,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>264</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6658,14 +5748,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>264</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6697,14 +5781,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>264</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6736,14 +5814,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>264</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6775,14 +5847,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>264</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6814,14 +5880,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>264</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6853,14 +5913,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>264</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6892,14 +5946,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>264</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6931,14 +5979,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>264</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6970,14 +6012,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>264</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -7009,14 +6045,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>264</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -7048,14 +6078,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>264</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7087,14 +6111,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>264</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7126,14 +6144,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>264</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7165,14 +6177,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>264</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7204,14 +6210,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>264</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7243,14 +6243,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>264</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7282,14 +6276,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>264</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7321,14 +6309,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>264</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7360,14 +6342,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>264</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7399,14 +6375,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>264</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7438,14 +6408,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>264</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7477,14 +6441,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>264</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7516,14 +6474,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>264</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7555,14 +6507,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>264</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7594,14 +6540,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>264</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7633,14 +6573,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>264</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7672,14 +6606,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>264</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7711,14 +6639,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>264</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7750,14 +6672,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>264</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7789,14 +6705,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>264</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7828,14 +6738,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>264</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7867,14 +6771,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>264</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7906,14 +6804,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>264</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7945,14 +6837,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>264</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7984,14 +6870,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>264</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -8023,14 +6903,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>264</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -8062,14 +6936,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>264</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -8101,14 +6969,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>264</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8140,14 +7002,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>264</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8179,14 +7035,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>264</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8218,14 +7068,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>264</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8257,14 +7101,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>264</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8296,14 +7134,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>264</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8335,14 +7167,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>264</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8374,14 +7200,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>264</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8413,14 +7233,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>264</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8452,14 +7266,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>264</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8491,14 +7299,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>264</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8530,14 +7332,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>264</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8569,14 +7365,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>264</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8608,14 +7398,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>264</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8647,14 +7431,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>264</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8686,14 +7464,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>264</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8725,14 +7497,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>264</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8764,14 +7530,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>264</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8803,14 +7563,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>264</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8842,14 +7596,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>264</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8881,14 +7629,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>264</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8920,14 +7662,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>264</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8959,14 +7695,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>264</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8998,14 +7728,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>264</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -9034,23 +7758,15 @@
         <v>87182.6997375244</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>264</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
-        <v>1.082121212121212</v>
-      </c>
-      <c r="M221" t="n">
-        <v>1.019011406844107</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -9075,7 +7791,7 @@
         <v>87182.6997375244</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -9108,7 +7824,7 @@
         <v>70641.06023752439</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -9141,7 +7857,7 @@
         <v>71718.06023752439</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -9174,7 +7890,7 @@
         <v>71718.06023752439</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -9306,7 +8022,7 @@
         <v>58105.80253752439</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -9339,7 +8055,7 @@
         <v>58105.80253752439</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -9603,7 +8319,7 @@
         <v>57976.5868375244</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -9636,7 +8352,7 @@
         <v>57971.64533752439</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -9669,7 +8385,7 @@
         <v>57971.64533752439</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9702,7 +8418,7 @@
         <v>57793.7094375244</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9735,7 +8451,7 @@
         <v>57793.7094375244</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9768,7 +8484,7 @@
         <v>57793.7094375244</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9801,7 +8517,7 @@
         <v>56950.95813752439</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9834,7 +8550,7 @@
         <v>56950.95813752439</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9867,7 +8583,7 @@
         <v>57008.4560375244</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9900,7 +8616,7 @@
         <v>56789.5792375244</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -10032,7 +8748,7 @@
         <v>61677.8257375244</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -10230,7 +8946,7 @@
         <v>55839.3134375244</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -10296,7 +9012,7 @@
         <v>56004.2141375244</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -11154,7 +9870,7 @@
         <v>53134.29642162659</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -11220,7 +9936,7 @@
         <v>53254.93272162659</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -11484,7 +10200,7 @@
         <v>55110.4542216266</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11517,7 +10233,7 @@
         <v>55110.4542216266</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11550,7 +10266,7 @@
         <v>55110.4542216266</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11583,7 +10299,7 @@
         <v>55110.4542216266</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -12111,7 +10827,7 @@
         <v>43804.0955216266</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -12144,7 +10860,7 @@
         <v>48563.3175216266</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -12177,7 +10893,7 @@
         <v>45009.29782162661</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -12210,7 +10926,7 @@
         <v>45009.29782162661</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -12243,7 +10959,7 @@
         <v>45009.29782162661</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -12276,7 +10992,7 @@
         <v>45009.29782162661</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -12309,7 +11025,7 @@
         <v>45319.29782162661</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -12342,7 +11058,7 @@
         <v>45258.7679216266</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -12375,7 +11091,7 @@
         <v>43782.7679216266</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -12408,7 +11124,7 @@
         <v>43782.7679216266</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -12441,7 +11157,7 @@
         <v>40639.5404216266</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -12452,6 +11168,6 @@
       <c r="M324" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-08 BackTest ZRX.xlsx
+++ b/BackTest/2019-10-08 BackTest ZRX.xlsx
@@ -451,7 +451,7 @@
         <v>11472.8915</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,11 +484,17 @@
         <v>7381.5686</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>268</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -517,11 +523,17 @@
         <v>8218.568599999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>265</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -554,7 +566,11 @@
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -587,7 +603,11 @@
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -620,7 +640,11 @@
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -653,7 +677,11 @@
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +710,17 @@
         <v>7921.216299999998</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>267</v>
+      </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +749,17 @@
         <v>7538.876499999998</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>267</v>
+      </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +788,17 @@
         <v>7372.728499999998</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>266</v>
+      </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +827,17 @@
         <v>7372.728499999998</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>264</v>
+      </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +866,17 @@
         <v>7215.707699999998</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>264</v>
+      </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +905,17 @@
         <v>13378.9946</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>263</v>
+      </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +944,17 @@
         <v>16975.3754</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>264</v>
+      </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +983,17 @@
         <v>16893.7102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>267</v>
+      </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1022,17 @@
         <v>17615.3253</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>266</v>
+      </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1061,17 @@
         <v>17615.3253</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>268</v>
+      </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1016,7 +1104,11 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +1137,17 @@
         <v>16443.8255</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>267</v>
+      </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1082,7 +1180,11 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1115,7 +1217,11 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1148,7 +1254,11 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1181,7 +1291,11 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1214,7 +1328,11 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1247,7 +1365,11 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1280,7 +1402,11 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1313,7 +1439,11 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1346,7 +1476,11 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1379,7 +1513,11 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1412,7 +1550,11 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1445,7 +1587,11 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1478,7 +1624,11 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1511,7 +1661,11 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1544,7 +1698,11 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1577,7 +1735,11 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1610,7 +1772,11 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1643,7 +1809,11 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1676,7 +1846,11 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1705,15 +1879,15 @@
         <v>18894.20737777778</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>261</v>
-      </c>
-      <c r="J40" t="n">
-        <v>261</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1742,17 +1916,13 @@
         <v>18894.20737777778</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>261</v>
-      </c>
-      <c r="J41" t="n">
-        <v>261</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L41" t="n">
@@ -1788,12 +1958,10 @@
       <c r="I42" t="n">
         <v>261</v>
       </c>
-      <c r="J42" t="n">
-        <v>261</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L42" t="n">
@@ -1829,10 +1997,12 @@
       <c r="I43" t="n">
         <v>260</v>
       </c>
-      <c r="J43" t="n">
-        <v>260</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1866,12 +2036,10 @@
       <c r="I44" t="n">
         <v>260</v>
       </c>
-      <c r="J44" t="n">
-        <v>260</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L44" t="n">
@@ -1907,12 +2075,10 @@
       <c r="I45" t="n">
         <v>261</v>
       </c>
-      <c r="J45" t="n">
-        <v>260</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L45" t="n">
@@ -1948,10 +2114,12 @@
       <c r="I46" t="n">
         <v>262</v>
       </c>
-      <c r="J46" t="n">
-        <v>262</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1985,12 +2153,10 @@
       <c r="I47" t="n">
         <v>262</v>
       </c>
-      <c r="J47" t="n">
-        <v>262</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L47" t="n">
@@ -2026,12 +2192,10 @@
       <c r="I48" t="n">
         <v>262</v>
       </c>
-      <c r="J48" t="n">
-        <v>262</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L48" t="n">
@@ -2067,10 +2231,12 @@
       <c r="I49" t="n">
         <v>262</v>
       </c>
-      <c r="J49" t="n">
-        <v>262</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2104,12 +2270,10 @@
       <c r="I50" t="n">
         <v>262</v>
       </c>
-      <c r="J50" t="n">
-        <v>262</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L50" t="n">
@@ -2145,12 +2309,10 @@
       <c r="I51" t="n">
         <v>262</v>
       </c>
-      <c r="J51" t="n">
-        <v>262</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L51" t="n">
@@ -2185,7 +2347,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2218,7 +2384,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2251,7 +2421,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2284,7 +2458,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2317,7 +2495,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2350,7 +2532,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2383,7 +2569,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2416,7 +2606,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2449,7 +2643,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2482,7 +2680,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2515,7 +2717,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2548,7 +2754,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2581,7 +2791,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2614,7 +2828,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2647,7 +2865,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2680,7 +2902,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2713,7 +2939,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2746,7 +2976,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2779,7 +3013,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2812,7 +3050,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2845,7 +3087,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2878,7 +3124,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2911,7 +3161,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2944,7 +3198,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2977,7 +3235,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3010,7 +3272,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3043,7 +3309,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3076,7 +3346,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3109,7 +3383,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3142,7 +3420,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3175,7 +3457,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3208,7 +3494,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3241,7 +3531,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3274,7 +3568,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3307,7 +3605,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3340,7 +3642,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3373,7 +3679,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3406,7 +3716,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3439,7 +3753,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3468,11 +3786,15 @@
         <v>28015.65117777777</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3501,11 +3823,15 @@
         <v>28015.65117777777</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3538,7 +3864,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3571,7 +3901,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3604,7 +3938,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3633,11 +3971,15 @@
         <v>29128.92457079248</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3666,11 +4008,15 @@
         <v>29127.92457079248</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3703,7 +4049,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3732,11 +4082,15 @@
         <v>29118.80007079248</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3765,11 +4119,15 @@
         <v>46170.56387079248</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3798,11 +4156,15 @@
         <v>46170.56387079248</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3831,11 +4193,15 @@
         <v>46170.56387079248</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3864,11 +4230,15 @@
         <v>45943.23327079248</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3901,7 +4271,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3934,7 +4308,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3967,7 +4345,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4000,7 +4382,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4033,7 +4419,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4066,7 +4456,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4099,7 +4493,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4132,7 +4530,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4165,7 +4567,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4198,7 +4604,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4231,7 +4641,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4264,7 +4678,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4297,7 +4715,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4330,7 +4752,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4363,7 +4789,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4396,7 +4826,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4429,7 +4863,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4462,7 +4900,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4495,7 +4937,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4528,7 +4974,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4561,7 +5011,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4594,7 +5048,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4627,7 +5085,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4660,7 +5122,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4693,7 +5159,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4722,11 +5192,15 @@
         <v>38801.80095833736</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4755,11 +5229,15 @@
         <v>38801.80095833736</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4788,11 +5266,15 @@
         <v>37551.69595833736</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4821,11 +5303,15 @@
         <v>31829.40415833736</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4854,11 +5340,15 @@
         <v>31829.40415833736</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4887,11 +5377,15 @@
         <v>31829.40415833736</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4920,11 +5414,15 @@
         <v>30584.86015833736</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4953,11 +5451,15 @@
         <v>43067.07845833736</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4986,11 +5488,15 @@
         <v>43067.07845833736</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5019,11 +5525,15 @@
         <v>24556.56455833736</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5052,11 +5562,15 @@
         <v>24913.14565833736</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5085,11 +5599,15 @@
         <v>25737.52575833736</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5118,11 +5636,15 @@
         <v>25784.97375833736</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5151,11 +5673,15 @@
         <v>25784.97375833736</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5184,11 +5710,15 @@
         <v>26153.78165833736</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5217,11 +5747,15 @@
         <v>26168.78165833736</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5250,11 +5784,15 @@
         <v>26168.78165833736</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5283,11 +5821,15 @@
         <v>26391.80665833736</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5320,7 +5862,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5353,7 +5899,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5386,7 +5936,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5419,7 +5973,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5452,7 +6010,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5485,7 +6047,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5518,7 +6084,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5551,7 +6121,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5584,7 +6158,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5617,7 +6195,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5650,7 +6232,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5683,7 +6269,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5716,7 +6306,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5749,7 +6343,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5782,7 +6380,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5815,7 +6417,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5848,7 +6454,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5881,7 +6491,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5914,7 +6528,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5947,7 +6565,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5980,7 +6602,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6013,7 +6639,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6046,7 +6676,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6079,7 +6713,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6112,7 +6750,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6145,7 +6787,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6178,7 +6824,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6211,7 +6861,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6244,7 +6898,11 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6277,7 +6935,11 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6310,7 +6972,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6343,7 +7009,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6376,7 +7046,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6409,7 +7083,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6442,7 +7120,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6475,7 +7157,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6508,7 +7194,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6541,7 +7231,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6574,7 +7268,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6607,7 +7305,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6640,7 +7342,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6673,7 +7379,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6706,7 +7416,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6739,7 +7453,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6772,7 +7490,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6805,7 +7527,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6838,7 +7564,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6871,7 +7601,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6904,7 +7638,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6937,7 +7675,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6970,7 +7712,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7003,7 +7749,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7036,7 +7786,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7069,7 +7823,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7102,7 +7860,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7135,7 +7897,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7168,7 +7934,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7201,7 +7971,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7234,7 +8008,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7267,7 +8045,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7300,7 +8082,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7333,7 +8119,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7366,7 +8156,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7399,7 +8193,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7432,7 +8230,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7461,14 +8263,16 @@
         <v>102842.7831375244</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
@@ -7494,7 +8298,7 @@
         <v>88951.0521375244</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7593,7 +8397,7 @@
         <v>88951.0521375244</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7626,7 +8430,7 @@
         <v>88951.0521375244</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7659,7 +8463,7 @@
         <v>88951.0521375244</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7692,7 +8496,7 @@
         <v>88951.0521375244</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7725,7 +8529,7 @@
         <v>87178.64423752439</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7758,7 +8562,7 @@
         <v>87182.6997375244</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7791,7 +8595,7 @@
         <v>87182.6997375244</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7824,7 +8628,7 @@
         <v>70641.06023752439</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7857,7 +8661,7 @@
         <v>71718.06023752439</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7890,7 +8694,7 @@
         <v>71718.06023752439</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7923,7 +8727,7 @@
         <v>71540.67013752439</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7956,7 +8760,7 @@
         <v>58105.80253752439</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -9441,7 +10245,7 @@
         <v>84385.32118329905</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9474,7 +10278,7 @@
         <v>84385.32118329905</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9507,7 +10311,7 @@
         <v>78914.62798329905</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9540,7 +10344,7 @@
         <v>79779.62798329905</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9573,7 +10377,7 @@
         <v>78610.25362162659</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9606,7 +10410,7 @@
         <v>52784.95662162659</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9639,7 +10443,7 @@
         <v>52784.95662162659</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9672,7 +10476,7 @@
         <v>52784.95662162659</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9738,7 +10542,7 @@
         <v>54236.42792162659</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9771,7 +10575,7 @@
         <v>52533.66912162659</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9903,7 +10707,7 @@
         <v>53254.93272162659</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9936,7 +10740,7 @@
         <v>53254.93272162659</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10266,7 +11070,7 @@
         <v>55110.4542216266</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10299,7 +11103,7 @@
         <v>55110.4542216266</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10332,7 +11136,7 @@
         <v>55110.4542216266</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10365,7 +11169,7 @@
         <v>55110.4542216266</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10398,7 +11202,7 @@
         <v>55169.0671216266</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10431,7 +11235,7 @@
         <v>55169.0671216266</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10464,7 +11268,7 @@
         <v>55169.0671216266</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10497,7 +11301,7 @@
         <v>56248.0218216266</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10563,7 +11367,7 @@
         <v>56237.4974216266</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10596,7 +11400,7 @@
         <v>55437.4974216266</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10629,7 +11433,7 @@
         <v>55438.4974216266</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10695,7 +11499,7 @@
         <v>55438.4974216266</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10728,7 +11532,7 @@
         <v>55438.4974216266</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>

--- a/BackTest/2019-10-08 BackTest ZRX.xlsx
+++ b/BackTest/2019-10-08 BackTest ZRX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M324"/>
+  <dimension ref="A1:L324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>172.4915</v>
       </c>
       <c r="G2" t="n">
-        <v>11472.8915</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,24 +473,15 @@
         <v>4091.3229</v>
       </c>
       <c r="G3" t="n">
-        <v>7381.5686</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>268</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,24 +503,15 @@
         <v>837</v>
       </c>
       <c r="G4" t="n">
-        <v>8218.568599999999</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>265</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,22 +533,15 @@
         <v>838</v>
       </c>
       <c r="G5" t="n">
-        <v>8218.568599999999</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -596,22 +563,15 @@
         <v>297.3523</v>
       </c>
       <c r="G6" t="n">
-        <v>7921.216299999998</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -633,22 +593,15 @@
         <v>2.9541</v>
       </c>
       <c r="G7" t="n">
-        <v>7921.216299999998</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -670,22 +623,15 @@
         <v>306.5868</v>
       </c>
       <c r="G8" t="n">
-        <v>7921.216299999998</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -707,24 +653,15 @@
         <v>724.653</v>
       </c>
       <c r="G9" t="n">
-        <v>7921.216299999998</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>267</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,24 +683,15 @@
         <v>382.3398</v>
       </c>
       <c r="G10" t="n">
-        <v>7538.876499999998</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>267</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -785,24 +713,15 @@
         <v>166.148</v>
       </c>
       <c r="G11" t="n">
-        <v>7372.728499999998</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>266</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -824,24 +743,15 @@
         <v>166</v>
       </c>
       <c r="G12" t="n">
-        <v>7372.728499999998</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>264</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -863,24 +773,15 @@
         <v>157.0208</v>
       </c>
       <c r="G13" t="n">
-        <v>7215.707699999998</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>264</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -902,24 +803,15 @@
         <v>6163.2869</v>
       </c>
       <c r="G14" t="n">
-        <v>13378.9946</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>263</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -941,24 +833,15 @@
         <v>3596.3808</v>
       </c>
       <c r="G15" t="n">
-        <v>16975.3754</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>264</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -980,24 +863,15 @@
         <v>81.6652</v>
       </c>
       <c r="G16" t="n">
-        <v>16893.7102</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>267</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1019,24 +893,15 @@
         <v>721.6151</v>
       </c>
       <c r="G17" t="n">
-        <v>17615.3253</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>266</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1058,24 +923,15 @@
         <v>6693.5283</v>
       </c>
       <c r="G18" t="n">
-        <v>17615.3253</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>268</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1097,22 +953,15 @@
         <v>171.4998</v>
       </c>
       <c r="G19" t="n">
-        <v>17443.8255</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1134,24 +983,15 @@
         <v>1000</v>
       </c>
       <c r="G20" t="n">
-        <v>16443.8255</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>267</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1173,22 +1013,15 @@
         <v>1100</v>
       </c>
       <c r="G21" t="n">
-        <v>17543.8255</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1210,22 +1043,15 @@
         <v>383</v>
       </c>
       <c r="G22" t="n">
-        <v>17926.8255</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1247,22 +1073,15 @@
         <v>192</v>
       </c>
       <c r="G23" t="n">
-        <v>17926.8255</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1284,22 +1103,15 @@
         <v>1765.1149</v>
       </c>
       <c r="G24" t="n">
-        <v>17926.8255</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1321,22 +1133,15 @@
         <v>3032.477777777778</v>
       </c>
       <c r="G25" t="n">
-        <v>20959.30327777777</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1358,22 +1163,15 @@
         <v>524.7685</v>
       </c>
       <c r="G26" t="n">
-        <v>20434.53477777778</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1395,22 +1193,15 @@
         <v>169.6997</v>
       </c>
       <c r="G27" t="n">
-        <v>20264.83507777777</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1432,22 +1223,15 @@
         <v>132.7379</v>
       </c>
       <c r="G28" t="n">
-        <v>20132.09717777777</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1469,22 +1253,15 @@
         <v>5500</v>
       </c>
       <c r="G29" t="n">
-        <v>20132.09717777777</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1506,22 +1283,15 @@
         <v>11.193</v>
       </c>
       <c r="G30" t="n">
-        <v>20132.09717777777</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1543,22 +1313,15 @@
         <v>1903</v>
       </c>
       <c r="G31" t="n">
-        <v>20132.09717777777</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1580,22 +1343,15 @@
         <v>139</v>
       </c>
       <c r="G32" t="n">
-        <v>20132.09717777777</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1617,22 +1373,15 @@
         <v>2000</v>
       </c>
       <c r="G33" t="n">
-        <v>20132.09717777777</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1654,22 +1403,15 @@
         <v>1214</v>
       </c>
       <c r="G34" t="n">
-        <v>20132.09717777777</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1691,22 +1433,15 @@
         <v>7665.9437</v>
       </c>
       <c r="G35" t="n">
-        <v>12466.15347777777</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1728,22 +1463,15 @@
         <v>6763.3325</v>
       </c>
       <c r="G36" t="n">
-        <v>19229.48597777777</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1765,22 +1493,15 @@
         <v>167.6393</v>
       </c>
       <c r="G37" t="n">
-        <v>19061.84667777778</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1802,22 +1523,15 @@
         <v>361.8556</v>
       </c>
       <c r="G38" t="n">
-        <v>19061.84667777778</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1839,22 +1553,15 @@
         <v>167.6393</v>
       </c>
       <c r="G39" t="n">
-        <v>18894.20737777778</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1876,22 +1583,15 @@
         <v>44.1327</v>
       </c>
       <c r="G40" t="n">
-        <v>18894.20737777778</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1913,22 +1613,15 @@
         <v>14.4994</v>
       </c>
       <c r="G41" t="n">
-        <v>18894.20737777778</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1950,24 +1643,15 @@
         <v>1647.1634</v>
       </c>
       <c r="G42" t="n">
-        <v>17247.04397777778</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>261</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1989,24 +1673,15 @@
         <v>1176.8349</v>
       </c>
       <c r="G43" t="n">
-        <v>17247.04397777778</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>260</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2028,24 +1703,15 @@
         <v>931.853</v>
       </c>
       <c r="G44" t="n">
-        <v>18178.89697777777</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>260</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2067,24 +1733,15 @@
         <v>232.4166</v>
       </c>
       <c r="G45" t="n">
-        <v>18411.31357777778</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>261</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2106,24 +1763,15 @@
         <v>5334.7565</v>
       </c>
       <c r="G46" t="n">
-        <v>18411.31357777778</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>262</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2145,24 +1793,19 @@
         <v>1507.6824</v>
       </c>
       <c r="G47" t="n">
-        <v>18411.31357777778</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>262</v>
       </c>
       <c r="I47" t="n">
         <v>262</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2184,24 +1827,23 @@
         <v>937.9999</v>
       </c>
       <c r="G48" t="n">
-        <v>18411.31357777778</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>262</v>
       </c>
       <c r="I48" t="n">
         <v>262</v>
       </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2223,24 +1865,23 @@
         <v>3614.8123</v>
       </c>
       <c r="G49" t="n">
-        <v>18411.31357777778</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>262</v>
       </c>
       <c r="I49" t="n">
         <v>262</v>
       </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2262,24 +1903,19 @@
         <v>2372.3323</v>
       </c>
       <c r="G50" t="n">
-        <v>18411.31357777778</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>262</v>
       </c>
       <c r="I50" t="n">
         <v>262</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2301,24 +1937,21 @@
         <v>22.4583</v>
       </c>
       <c r="G51" t="n">
-        <v>18433.77187777777</v>
-      </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="n">
         <v>262</v>
       </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2340,22 +1973,21 @@
         <v>10</v>
       </c>
       <c r="G52" t="n">
-        <v>18423.77187777777</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>262</v>
+      </c>
+      <c r="J52" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2377,22 +2009,15 @@
         <v>30</v>
       </c>
       <c r="G53" t="n">
-        <v>18453.77187777777</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2414,22 +2039,15 @@
         <v>5.4017</v>
       </c>
       <c r="G54" t="n">
-        <v>18459.17357777777</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2451,22 +2069,15 @@
         <v>70</v>
       </c>
       <c r="G55" t="n">
-        <v>18529.17357777777</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2488,22 +2099,15 @@
         <v>1676.4199</v>
       </c>
       <c r="G56" t="n">
-        <v>18529.17357777777</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2525,22 +2129,15 @@
         <v>142</v>
       </c>
       <c r="G57" t="n">
-        <v>18387.17357777777</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2562,22 +2159,15 @@
         <v>143</v>
       </c>
       <c r="G58" t="n">
-        <v>18387.17357777777</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2599,22 +2189,15 @@
         <v>420.5619</v>
       </c>
       <c r="G59" t="n">
-        <v>17966.61167777777</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2636,22 +2219,15 @@
         <v>9.1028</v>
       </c>
       <c r="G60" t="n">
-        <v>17975.71447777777</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2673,22 +2249,15 @@
         <v>100</v>
       </c>
       <c r="G61" t="n">
-        <v>18075.71447777777</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2710,22 +2279,15 @@
         <v>2200</v>
       </c>
       <c r="G62" t="n">
-        <v>15875.71447777777</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2747,22 +2309,15 @@
         <v>73.9559</v>
       </c>
       <c r="G63" t="n">
-        <v>15801.75857777777</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2784,22 +2339,15 @@
         <v>1978.5356</v>
       </c>
       <c r="G64" t="n">
-        <v>17780.29417777777</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2821,22 +2369,15 @@
         <v>268</v>
       </c>
       <c r="G65" t="n">
-        <v>17512.29417777777</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2858,22 +2399,15 @@
         <v>138.1642</v>
       </c>
       <c r="G66" t="n">
-        <v>17512.29417777777</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2895,22 +2429,15 @@
         <v>119</v>
       </c>
       <c r="G67" t="n">
-        <v>17631.29417777777</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2932,22 +2459,15 @@
         <v>576.9999</v>
       </c>
       <c r="G68" t="n">
-        <v>17631.29417777777</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2969,22 +2489,15 @@
         <v>899.8799222222223</v>
       </c>
       <c r="G69" t="n">
-        <v>17631.29417777777</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3006,22 +2519,15 @@
         <v>50</v>
       </c>
       <c r="G70" t="n">
-        <v>17681.29417777777</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3043,22 +2549,15 @@
         <v>152</v>
       </c>
       <c r="G71" t="n">
-        <v>17529.29417777777</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3080,22 +2579,15 @@
         <v>348</v>
       </c>
       <c r="G72" t="n">
-        <v>17877.29417777777</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3117,22 +2609,15 @@
         <v>427</v>
       </c>
       <c r="G73" t="n">
-        <v>17877.29417777777</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3154,22 +2639,15 @@
         <v>1732.8955</v>
       </c>
       <c r="G74" t="n">
-        <v>17877.29417777777</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3191,22 +2669,15 @@
         <v>595.41</v>
       </c>
       <c r="G75" t="n">
-        <v>17877.29417777777</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3228,22 +2699,15 @@
         <v>745.3874</v>
       </c>
       <c r="G76" t="n">
-        <v>17877.29417777777</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3265,22 +2729,15 @@
         <v>3056.1693</v>
       </c>
       <c r="G77" t="n">
-        <v>20933.46347777777</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3302,22 +2759,15 @@
         <v>1372.408</v>
       </c>
       <c r="G78" t="n">
-        <v>20933.46347777777</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3339,22 +2789,15 @@
         <v>17.975</v>
       </c>
       <c r="G79" t="n">
-        <v>20915.48847777777</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3376,22 +2819,15 @@
         <v>50</v>
       </c>
       <c r="G80" t="n">
-        <v>20965.48847777777</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3413,22 +2849,15 @@
         <v>84.02</v>
       </c>
       <c r="G81" t="n">
-        <v>20881.46847777777</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3450,22 +2879,15 @@
         <v>1</v>
       </c>
       <c r="G82" t="n">
-        <v>20880.46847777777</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3487,22 +2909,15 @@
         <v>168.1247</v>
       </c>
       <c r="G83" t="n">
-        <v>20712.34377777777</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3524,22 +2939,15 @@
         <v>292.823</v>
       </c>
       <c r="G84" t="n">
-        <v>20712.34377777777</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3561,22 +2969,15 @@
         <v>1130.2081</v>
       </c>
       <c r="G85" t="n">
-        <v>19582.13567777777</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3598,22 +2999,15 @@
         <v>4.9875</v>
       </c>
       <c r="G86" t="n">
-        <v>19577.14817777777</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3635,22 +3029,15 @@
         <v>5.114</v>
       </c>
       <c r="G87" t="n">
-        <v>19572.03417777777</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3672,22 +3059,15 @@
         <v>8397.5908</v>
       </c>
       <c r="G88" t="n">
-        <v>27969.62497777777</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3709,22 +3089,15 @@
         <v>46.0262</v>
       </c>
       <c r="G89" t="n">
-        <v>28015.65117777777</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3746,22 +3119,15 @@
         <v>525.4794000000001</v>
       </c>
       <c r="G90" t="n">
-        <v>28015.65117777777</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3783,22 +3149,15 @@
         <v>674.8873</v>
       </c>
       <c r="G91" t="n">
-        <v>28015.65117777777</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3820,22 +3179,15 @@
         <v>1383.6525</v>
       </c>
       <c r="G92" t="n">
-        <v>28015.65117777777</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3857,22 +3209,15 @@
         <v>592.994</v>
       </c>
       <c r="G93" t="n">
-        <v>28015.65117777777</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3894,22 +3239,15 @@
         <v>128</v>
       </c>
       <c r="G94" t="n">
-        <v>28143.65117777777</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3931,22 +3269,15 @@
         <v>24.3207</v>
       </c>
       <c r="G95" t="n">
-        <v>28167.97187777777</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3968,22 +3299,15 @@
         <v>960.9526930147059</v>
       </c>
       <c r="G96" t="n">
-        <v>29128.92457079248</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4005,22 +3329,15 @@
         <v>1</v>
       </c>
       <c r="G97" t="n">
-        <v>29127.92457079248</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4042,22 +3359,15 @@
         <v>1</v>
       </c>
       <c r="G98" t="n">
-        <v>29128.92457079248</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4079,22 +3389,15 @@
         <v>10.1245</v>
       </c>
       <c r="G99" t="n">
-        <v>29118.80007079248</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4116,22 +3419,15 @@
         <v>17051.7638</v>
       </c>
       <c r="G100" t="n">
-        <v>46170.56387079248</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4153,22 +3449,15 @@
         <v>1244.7663</v>
       </c>
       <c r="G101" t="n">
-        <v>46170.56387079248</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4190,22 +3479,15 @@
         <v>3637.5356</v>
       </c>
       <c r="G102" t="n">
-        <v>46170.56387079248</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4227,22 +3509,15 @@
         <v>227.3306</v>
       </c>
       <c r="G103" t="n">
-        <v>45943.23327079248</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4264,22 +3539,15 @@
         <v>3242.1828</v>
       </c>
       <c r="G104" t="n">
-        <v>49185.41607079248</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4301,22 +3569,15 @@
         <v>1650.799006985294</v>
       </c>
       <c r="G105" t="n">
-        <v>49185.41607079248</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4338,22 +3599,15 @@
         <v>240.2624</v>
       </c>
       <c r="G106" t="n">
-        <v>49425.67847079248</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4375,22 +3629,15 @@
         <v>15000</v>
       </c>
       <c r="G107" t="n">
-        <v>34425.67847079248</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4412,22 +3659,15 @@
         <v>733.8013</v>
       </c>
       <c r="G108" t="n">
-        <v>35159.47977079248</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4449,22 +3689,15 @@
         <v>395.9062</v>
       </c>
       <c r="G109" t="n">
-        <v>35159.47977079248</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4486,22 +3719,15 @@
         <v>500</v>
       </c>
       <c r="G110" t="n">
-        <v>35659.47977079248</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4523,22 +3749,15 @@
         <v>385.2109090909091</v>
       </c>
       <c r="G111" t="n">
-        <v>35659.47977079248</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4560,22 +3779,15 @@
         <v>3323.4582</v>
       </c>
       <c r="G112" t="n">
-        <v>35659.47977079248</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4597,22 +3809,15 @@
         <v>1221.771419428947</v>
       </c>
       <c r="G113" t="n">
-        <v>36881.25119022142</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4634,22 +3839,15 @@
         <v>106.3202</v>
       </c>
       <c r="G114" t="n">
-        <v>36774.93099022142</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4671,22 +3869,15 @@
         <v>1000</v>
       </c>
       <c r="G115" t="n">
-        <v>36774.93099022142</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4708,22 +3899,15 @@
         <v>19771.9061</v>
       </c>
       <c r="G116" t="n">
-        <v>36774.93099022142</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4745,22 +3929,15 @@
         <v>893</v>
       </c>
       <c r="G117" t="n">
-        <v>36774.93099022142</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4782,22 +3959,15 @@
         <v>494.463768115942</v>
       </c>
       <c r="G118" t="n">
-        <v>37269.39475833737</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4819,22 +3989,15 @@
         <v>8349.413</v>
       </c>
       <c r="G119" t="n">
-        <v>37269.39475833737</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4856,22 +4019,15 @@
         <v>4.0198</v>
       </c>
       <c r="G120" t="n">
-        <v>37269.39475833737</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4893,22 +4049,15 @@
         <v>419.9695</v>
       </c>
       <c r="G121" t="n">
-        <v>36849.42525833737</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4930,22 +4079,15 @@
         <v>819.9999</v>
       </c>
       <c r="G122" t="n">
-        <v>36849.42525833737</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4967,22 +4109,15 @@
         <v>236.7767</v>
       </c>
       <c r="G123" t="n">
-        <v>36849.42525833737</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5004,22 +4139,15 @@
         <v>200.5375</v>
       </c>
       <c r="G124" t="n">
-        <v>36849.42525833737</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5041,22 +4169,15 @@
         <v>3323.1032</v>
       </c>
       <c r="G125" t="n">
-        <v>36849.42525833737</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5078,22 +4199,15 @@
         <v>921.4307</v>
       </c>
       <c r="G126" t="n">
-        <v>36849.42525833737</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5115,22 +4229,15 @@
         <v>1021.277</v>
       </c>
       <c r="G127" t="n">
-        <v>36849.42525833737</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5152,22 +4259,15 @@
         <v>29001.9182</v>
       </c>
       <c r="G128" t="n">
-        <v>36849.42525833737</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5189,22 +4289,15 @@
         <v>1952.3757</v>
       </c>
       <c r="G129" t="n">
-        <v>38801.80095833736</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5226,22 +4319,15 @@
         <v>343.7463</v>
       </c>
       <c r="G130" t="n">
-        <v>38801.80095833736</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5263,22 +4349,15 @@
         <v>1250.105</v>
       </c>
       <c r="G131" t="n">
-        <v>37551.69595833736</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5300,22 +4379,15 @@
         <v>5722.2918</v>
       </c>
       <c r="G132" t="n">
-        <v>31829.40415833736</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5337,22 +4409,15 @@
         <v>360</v>
       </c>
       <c r="G133" t="n">
-        <v>31829.40415833736</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5374,22 +4439,15 @@
         <v>2412.4087</v>
       </c>
       <c r="G134" t="n">
-        <v>31829.40415833736</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5411,22 +4469,15 @@
         <v>1244.544</v>
       </c>
       <c r="G135" t="n">
-        <v>30584.86015833736</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5448,22 +4499,15 @@
         <v>12482.2183</v>
       </c>
       <c r="G136" t="n">
-        <v>43067.07845833736</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5485,22 +4529,15 @@
         <v>16859.6012</v>
       </c>
       <c r="G137" t="n">
-        <v>43067.07845833736</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5522,22 +4559,15 @@
         <v>18510.5139</v>
       </c>
       <c r="G138" t="n">
-        <v>24556.56455833736</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5559,22 +4589,15 @@
         <v>356.5811</v>
       </c>
       <c r="G139" t="n">
-        <v>24913.14565833736</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5596,22 +4619,15 @@
         <v>824.3801</v>
       </c>
       <c r="G140" t="n">
-        <v>25737.52575833736</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5633,22 +4649,15 @@
         <v>47.448</v>
       </c>
       <c r="G141" t="n">
-        <v>25784.97375833736</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5670,22 +4679,15 @@
         <v>5772.4585</v>
       </c>
       <c r="G142" t="n">
-        <v>25784.97375833736</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5707,22 +4709,15 @@
         <v>368.8079</v>
       </c>
       <c r="G143" t="n">
-        <v>26153.78165833736</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5744,22 +4739,15 @@
         <v>15</v>
       </c>
       <c r="G144" t="n">
-        <v>26168.78165833736</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5781,22 +4769,15 @@
         <v>1387</v>
       </c>
       <c r="G145" t="n">
-        <v>26168.78165833736</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5818,22 +4799,15 @@
         <v>223.025</v>
       </c>
       <c r="G146" t="n">
-        <v>26391.80665833736</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5855,22 +4829,15 @@
         <v>21776.0202</v>
       </c>
       <c r="G147" t="n">
-        <v>48167.82685833736</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5892,22 +4859,15 @@
         <v>7741.7146</v>
       </c>
       <c r="G148" t="n">
-        <v>55909.54145833736</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5929,22 +4889,15 @@
         <v>8330.852000000001</v>
       </c>
       <c r="G149" t="n">
-        <v>55909.54145833736</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5966,22 +4919,15 @@
         <v>9378.0015</v>
       </c>
       <c r="G150" t="n">
-        <v>65287.54295833736</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6003,22 +4949,15 @@
         <v>18677.3286</v>
       </c>
       <c r="G151" t="n">
-        <v>65287.54295833736</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6040,22 +4979,15 @@
         <v>2141.530269257951</v>
       </c>
       <c r="G152" t="n">
-        <v>67429.07322759531</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6077,22 +5009,15 @@
         <v>6213.232690070922</v>
       </c>
       <c r="G153" t="n">
-        <v>61215.84053752438</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6114,22 +5039,15 @@
         <v>1561.096</v>
       </c>
       <c r="G154" t="n">
-        <v>59654.74453752438</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6151,22 +5069,15 @@
         <v>3190.8631</v>
       </c>
       <c r="G155" t="n">
-        <v>59654.74453752438</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6188,22 +5099,15 @@
         <v>1016.0057</v>
       </c>
       <c r="G156" t="n">
-        <v>60670.75023752439</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6225,22 +5129,15 @@
         <v>327.308409929078</v>
       </c>
       <c r="G157" t="n">
-        <v>60670.75023752439</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6262,22 +5159,15 @@
         <v>2.691590070921986</v>
       </c>
       <c r="G158" t="n">
-        <v>60670.75023752439</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6299,22 +5189,15 @@
         <v>16936.5518</v>
       </c>
       <c r="G159" t="n">
-        <v>43734.19843752438</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6336,22 +5219,15 @@
         <v>6024.9653</v>
       </c>
       <c r="G160" t="n">
-        <v>43734.19843752438</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6373,22 +5249,15 @@
         <v>6162.4487</v>
       </c>
       <c r="G161" t="n">
-        <v>43734.19843752438</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6410,22 +5279,15 @@
         <v>7139.7642</v>
       </c>
       <c r="G162" t="n">
-        <v>36594.43423752439</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6447,22 +5309,15 @@
         <v>2558.1434</v>
       </c>
       <c r="G163" t="n">
-        <v>34036.29083752439</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6484,22 +5339,15 @@
         <v>61</v>
       </c>
       <c r="G164" t="n">
-        <v>34097.29083752439</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6521,22 +5369,15 @@
         <v>129.546</v>
       </c>
       <c r="G165" t="n">
-        <v>33967.74483752438</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6558,22 +5399,15 @@
         <v>862.9126</v>
       </c>
       <c r="G166" t="n">
-        <v>34830.65743752439</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6595,22 +5429,15 @@
         <v>746</v>
       </c>
       <c r="G167" t="n">
-        <v>34830.65743752439</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6632,22 +5459,15 @@
         <v>3477.6228</v>
       </c>
       <c r="G168" t="n">
-        <v>34830.65743752439</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6669,22 +5489,15 @@
         <v>1414.926</v>
       </c>
       <c r="G169" t="n">
-        <v>34830.65743752439</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6706,22 +5519,15 @@
         <v>4.5386</v>
       </c>
       <c r="G170" t="n">
-        <v>34830.65743752439</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6743,22 +5549,15 @@
         <v>7465.5342</v>
       </c>
       <c r="G171" t="n">
-        <v>27365.12323752439</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6780,22 +5579,15 @@
         <v>8337.7575</v>
       </c>
       <c r="G172" t="n">
-        <v>27365.12323752439</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6817,22 +5609,15 @@
         <v>101</v>
       </c>
       <c r="G173" t="n">
-        <v>27466.12323752439</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6854,22 +5639,15 @@
         <v>699.2137</v>
       </c>
       <c r="G174" t="n">
-        <v>26766.90953752439</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6891,22 +5669,15 @@
         <v>2074.8413</v>
       </c>
       <c r="G175" t="n">
-        <v>26766.90953752439</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6928,22 +5699,15 @@
         <v>738.2374</v>
       </c>
       <c r="G176" t="n">
-        <v>27505.14693752438</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6965,22 +5729,15 @@
         <v>197.9568</v>
       </c>
       <c r="G177" t="n">
-        <v>27505.14693752438</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7002,22 +5759,15 @@
         <v>492.4799</v>
       </c>
       <c r="G178" t="n">
-        <v>27505.14693752438</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7039,22 +5789,15 @@
         <v>1812.1654</v>
       </c>
       <c r="G179" t="n">
-        <v>27505.14693752438</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7076,22 +5819,15 @@
         <v>349.2841</v>
       </c>
       <c r="G180" t="n">
-        <v>27155.86283752438</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7113,22 +5849,15 @@
         <v>395.2136</v>
       </c>
       <c r="G181" t="n">
-        <v>27155.86283752438</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7150,22 +5879,15 @@
         <v>8619.9627</v>
       </c>
       <c r="G182" t="n">
-        <v>27155.86283752438</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7187,22 +5909,15 @@
         <v>238.2134</v>
       </c>
       <c r="G183" t="n">
-        <v>27155.86283752438</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7224,22 +5939,15 @@
         <v>53.21</v>
       </c>
       <c r="G184" t="n">
-        <v>27155.86283752438</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7261,22 +5969,15 @@
         <v>2363.8646</v>
       </c>
       <c r="G185" t="n">
-        <v>27155.86283752438</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7298,22 +5999,15 @@
         <v>3491.9944</v>
       </c>
       <c r="G186" t="n">
-        <v>30647.85723752438</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7335,22 +6029,15 @@
         <v>10668.0661</v>
       </c>
       <c r="G187" t="n">
-        <v>30647.85723752438</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7372,22 +6059,15 @@
         <v>2080.8198</v>
       </c>
       <c r="G188" t="n">
-        <v>30647.85723752438</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7409,22 +6089,15 @@
         <v>5825.0176</v>
       </c>
       <c r="G189" t="n">
-        <v>30647.85723752438</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7446,22 +6119,15 @@
         <v>1402.8943</v>
       </c>
       <c r="G190" t="n">
-        <v>32050.75153752438</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7483,22 +6149,15 @@
         <v>1215.3443</v>
       </c>
       <c r="G191" t="n">
-        <v>33266.09583752438</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7520,22 +6179,15 @@
         <v>10890.5212</v>
       </c>
       <c r="G192" t="n">
-        <v>44156.61703752438</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7557,22 +6209,15 @@
         <v>1.54</v>
       </c>
       <c r="G193" t="n">
-        <v>44155.07703752438</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7594,22 +6239,15 @@
         <v>1</v>
       </c>
       <c r="G194" t="n">
-        <v>44155.07703752438</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7631,22 +6269,15 @@
         <v>711.4165</v>
       </c>
       <c r="G195" t="n">
-        <v>44866.49353752438</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7668,22 +6299,15 @@
         <v>40855.5433</v>
       </c>
       <c r="G196" t="n">
-        <v>85722.03683752439</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7705,22 +6329,15 @@
         <v>306.2777</v>
       </c>
       <c r="G197" t="n">
-        <v>86028.31453752439</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7742,22 +6359,15 @@
         <v>328.8238</v>
       </c>
       <c r="G198" t="n">
-        <v>86028.31453752439</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7779,22 +6389,15 @@
         <v>34.3992</v>
       </c>
       <c r="G199" t="n">
-        <v>86028.31453752439</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7816,22 +6419,15 @@
         <v>685.2963999999999</v>
       </c>
       <c r="G200" t="n">
-        <v>86028.31453752439</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7853,22 +6449,15 @@
         <v>690.8169</v>
       </c>
       <c r="G201" t="n">
-        <v>86028.31453752439</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7890,22 +6479,15 @@
         <v>44655.2566</v>
       </c>
       <c r="G202" t="n">
-        <v>86028.31453752439</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7927,22 +6509,15 @@
         <v>719.9999</v>
       </c>
       <c r="G203" t="n">
-        <v>86028.31453752439</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7964,22 +6539,15 @@
         <v>3204.7993</v>
       </c>
       <c r="G204" t="n">
-        <v>86028.31453752439</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8001,22 +6569,15 @@
         <v>104.4283</v>
       </c>
       <c r="G205" t="n">
-        <v>86028.31453752439</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8038,22 +6599,15 @@
         <v>912.2599</v>
       </c>
       <c r="G206" t="n">
-        <v>86028.31453752439</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8075,22 +6629,15 @@
         <v>85.0257</v>
       </c>
       <c r="G207" t="n">
-        <v>86028.31453752439</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8112,22 +6659,15 @@
         <v>4</v>
       </c>
       <c r="G208" t="n">
-        <v>86028.31453752439</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8149,22 +6689,15 @@
         <v>3.708</v>
       </c>
       <c r="G209" t="n">
-        <v>86028.31453752439</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8186,22 +6719,15 @@
         <v>231.3714</v>
       </c>
       <c r="G210" t="n">
-        <v>86259.68593752439</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8223,22 +6749,15 @@
         <v>812.9541</v>
       </c>
       <c r="G211" t="n">
-        <v>86259.68593752439</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8260,20 +6779,15 @@
         <v>16583.0972</v>
       </c>
       <c r="G212" t="n">
-        <v>102842.7831375244</v>
-      </c>
-      <c r="H212" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="K212" t="n">
+        <v>1</v>
       </c>
       <c r="L212" t="inlineStr"/>
-      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8295,18 +6809,15 @@
         <v>13891.731</v>
       </c>
       <c r="G213" t="n">
-        <v>88951.0521375244</v>
-      </c>
-      <c r="H213" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8328,18 +6839,15 @@
         <v>1225.0015</v>
       </c>
       <c r="G214" t="n">
-        <v>88951.0521375244</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8361,18 +6869,15 @@
         <v>4035.5514</v>
       </c>
       <c r="G215" t="n">
-        <v>88951.0521375244</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8394,18 +6899,15 @@
         <v>1140.3588</v>
       </c>
       <c r="G216" t="n">
-        <v>88951.0521375244</v>
-      </c>
-      <c r="H216" t="n">
         <v>2</v>
       </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8427,18 +6929,15 @@
         <v>9.202</v>
       </c>
       <c r="G217" t="n">
-        <v>88951.0521375244</v>
-      </c>
-      <c r="H217" t="n">
         <v>2</v>
       </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8460,18 +6959,15 @@
         <v>6535</v>
       </c>
       <c r="G218" t="n">
-        <v>88951.0521375244</v>
-      </c>
-      <c r="H218" t="n">
         <v>2</v>
       </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8493,18 +6989,15 @@
         <v>355.4396</v>
       </c>
       <c r="G219" t="n">
-        <v>88951.0521375244</v>
-      </c>
-      <c r="H219" t="n">
         <v>2</v>
       </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8526,18 +7019,15 @@
         <v>1772.4079</v>
       </c>
       <c r="G220" t="n">
-        <v>87178.64423752439</v>
-      </c>
-      <c r="H220" t="n">
         <v>2</v>
       </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8559,18 +7049,15 @@
         <v>4.0555</v>
       </c>
       <c r="G221" t="n">
-        <v>87182.6997375244</v>
-      </c>
-      <c r="H221" t="n">
         <v>2</v>
       </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8592,18 +7079,15 @@
         <v>0.8112</v>
       </c>
       <c r="G222" t="n">
-        <v>87182.6997375244</v>
-      </c>
-      <c r="H222" t="n">
         <v>2</v>
       </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8625,18 +7109,15 @@
         <v>16541.6395</v>
       </c>
       <c r="G223" t="n">
-        <v>70641.06023752439</v>
-      </c>
-      <c r="H223" t="n">
         <v>2</v>
       </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8658,18 +7139,15 @@
         <v>1077</v>
       </c>
       <c r="G224" t="n">
-        <v>71718.06023752439</v>
-      </c>
-      <c r="H224" t="n">
         <v>2</v>
       </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8691,18 +7169,15 @@
         <v>718.3449000000001</v>
       </c>
       <c r="G225" t="n">
-        <v>71718.06023752439</v>
-      </c>
-      <c r="H225" t="n">
         <v>2</v>
       </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8724,18 +7199,15 @@
         <v>177.3901</v>
       </c>
       <c r="G226" t="n">
-        <v>71540.67013752439</v>
-      </c>
-      <c r="H226" t="n">
         <v>2</v>
       </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8757,18 +7229,15 @@
         <v>13434.8676</v>
       </c>
       <c r="G227" t="n">
-        <v>58105.80253752439</v>
-      </c>
-      <c r="H227" t="n">
         <v>2</v>
       </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8790,18 +7259,15 @@
         <v>10115.7948</v>
       </c>
       <c r="G228" t="n">
-        <v>58105.80253752439</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8823,18 +7289,15 @@
         <v>16953.8201</v>
       </c>
       <c r="G229" t="n">
-        <v>58105.80253752439</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8856,18 +7319,15 @@
         <v>1094.3011</v>
       </c>
       <c r="G230" t="n">
-        <v>58105.80253752439</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8889,18 +7349,15 @@
         <v>4543.9999</v>
       </c>
       <c r="G231" t="n">
-        <v>58105.80253752439</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8922,18 +7379,15 @@
         <v>8415.8369</v>
       </c>
       <c r="G232" t="n">
-        <v>58105.80253752439</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8955,18 +7409,15 @@
         <v>12726.5141</v>
       </c>
       <c r="G233" t="n">
-        <v>58105.80253752439</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8988,18 +7439,15 @@
         <v>6133.3452</v>
       </c>
       <c r="G234" t="n">
-        <v>58105.80253752439</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9021,18 +7469,15 @@
         <v>7259.7516</v>
       </c>
       <c r="G235" t="n">
-        <v>58105.80253752439</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9054,18 +7499,15 @@
         <v>42.6428</v>
       </c>
       <c r="G236" t="n">
-        <v>58148.44533752439</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9087,18 +7529,15 @@
         <v>1137.5079</v>
       </c>
       <c r="G237" t="n">
-        <v>57010.93743752439</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9120,18 +7559,15 @@
         <v>965.6494</v>
       </c>
       <c r="G238" t="n">
-        <v>57976.5868375244</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9153,18 +7589,15 @@
         <v>4.9415</v>
       </c>
       <c r="G239" t="n">
-        <v>57971.64533752439</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9186,18 +7619,15 @@
         <v>509</v>
       </c>
       <c r="G240" t="n">
-        <v>57971.64533752439</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9219,18 +7649,15 @@
         <v>177.9359</v>
       </c>
       <c r="G241" t="n">
-        <v>57793.7094375244</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9252,18 +7679,15 @@
         <v>3841.8726</v>
       </c>
       <c r="G242" t="n">
-        <v>57793.7094375244</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9285,18 +7709,15 @@
         <v>57.4979</v>
       </c>
       <c r="G243" t="n">
-        <v>57793.7094375244</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9318,18 +7739,15 @@
         <v>842.7513</v>
       </c>
       <c r="G244" t="n">
-        <v>56950.95813752439</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9351,18 +7769,15 @@
         <v>2437.1723</v>
       </c>
       <c r="G245" t="n">
-        <v>56950.95813752439</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9384,18 +7799,15 @@
         <v>57.4979</v>
       </c>
       <c r="G246" t="n">
-        <v>57008.4560375244</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9417,18 +7829,15 @@
         <v>218.8768</v>
       </c>
       <c r="G247" t="n">
-        <v>56789.5792375244</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9450,18 +7859,15 @@
         <v>2712.1201</v>
       </c>
       <c r="G248" t="n">
-        <v>59501.6993375244</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9483,18 +7889,15 @@
         <v>761.056</v>
       </c>
       <c r="G249" t="n">
-        <v>58740.6433375244</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9516,18 +7919,15 @@
         <v>9585.826800000001</v>
       </c>
       <c r="G250" t="n">
-        <v>49154.8165375244</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9549,18 +7949,15 @@
         <v>12523.0092</v>
       </c>
       <c r="G251" t="n">
-        <v>61677.8257375244</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9582,18 +7979,15 @@
         <v>1210.7168</v>
       </c>
       <c r="G252" t="n">
-        <v>60467.1089375244</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9615,18 +8009,15 @@
         <v>3019.5266</v>
       </c>
       <c r="G253" t="n">
-        <v>57447.5823375244</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9648,18 +8039,15 @@
         <v>1714.5187</v>
       </c>
       <c r="G254" t="n">
-        <v>55733.0636375244</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9681,18 +8069,15 @@
         <v>106.2498</v>
       </c>
       <c r="G255" t="n">
-        <v>55839.3134375244</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9714,18 +8099,15 @@
         <v>605.7528</v>
       </c>
       <c r="G256" t="n">
-        <v>55839.3134375244</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9747,18 +8129,15 @@
         <v>106.2498</v>
       </c>
       <c r="G257" t="n">
-        <v>55839.3134375244</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9780,18 +8159,15 @@
         <v>1854.0019</v>
       </c>
       <c r="G258" t="n">
-        <v>55839.3134375244</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9813,18 +8189,15 @@
         <v>164.9007</v>
       </c>
       <c r="G259" t="n">
-        <v>56004.2141375244</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9846,18 +8219,15 @@
         <v>1824.5999</v>
       </c>
       <c r="G260" t="n">
-        <v>56004.2141375244</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9879,18 +8249,15 @@
         <v>9.4726</v>
       </c>
       <c r="G261" t="n">
-        <v>56004.2141375244</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9912,18 +8279,15 @@
         <v>8008.1137</v>
       </c>
       <c r="G262" t="n">
-        <v>64012.3278375244</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9945,18 +8309,15 @@
         <v>6929.2892</v>
       </c>
       <c r="G263" t="n">
-        <v>57083.0386375244</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9978,18 +8339,15 @@
         <v>403.7398</v>
       </c>
       <c r="G264" t="n">
-        <v>56679.29883752439</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10011,18 +8369,15 @@
         <v>1846.6787</v>
       </c>
       <c r="G265" t="n">
-        <v>58525.97753752439</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10044,18 +8399,15 @@
         <v>922.6188</v>
       </c>
       <c r="G266" t="n">
-        <v>58525.97753752439</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10077,18 +8429,15 @@
         <v>8292.4293</v>
       </c>
       <c r="G267" t="n">
-        <v>66818.4068375244</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10110,18 +8459,15 @@
         <v>876.256</v>
       </c>
       <c r="G268" t="n">
-        <v>67694.66283752439</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10143,18 +8489,15 @@
         <v>3276.1272</v>
       </c>
       <c r="G269" t="n">
-        <v>70970.79003752439</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10176,18 +8519,15 @@
         <v>3449.916054225352</v>
       </c>
       <c r="G270" t="n">
-        <v>70970.79003752439</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10209,18 +8549,15 @@
         <v>11872.62914577465</v>
       </c>
       <c r="G271" t="n">
-        <v>82843.41918329905</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10242,18 +8579,15 @@
         <v>1541.902</v>
       </c>
       <c r="G272" t="n">
-        <v>84385.32118329905</v>
-      </c>
-      <c r="H272" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10275,18 +8609,15 @@
         <v>7154.1188</v>
       </c>
       <c r="G273" t="n">
-        <v>84385.32118329905</v>
-      </c>
-      <c r="H273" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10308,18 +8639,15 @@
         <v>5470.6932</v>
       </c>
       <c r="G274" t="n">
-        <v>78914.62798329905</v>
-      </c>
-      <c r="H274" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10341,18 +8669,15 @@
         <v>865</v>
       </c>
       <c r="G275" t="n">
-        <v>79779.62798329905</v>
-      </c>
-      <c r="H275" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10374,18 +8699,15 @@
         <v>1169.374361672474</v>
       </c>
       <c r="G276" t="n">
-        <v>78610.25362162659</v>
-      </c>
-      <c r="H276" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10407,18 +8729,15 @@
         <v>25825.297</v>
       </c>
       <c r="G277" t="n">
-        <v>52784.95662162659</v>
-      </c>
-      <c r="H277" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10440,18 +8759,15 @@
         <v>2577.3323</v>
       </c>
       <c r="G278" t="n">
-        <v>52784.95662162659</v>
-      </c>
-      <c r="H278" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10473,18 +8789,15 @@
         <v>2305.8961</v>
       </c>
       <c r="G279" t="n">
-        <v>52784.95662162659</v>
-      </c>
-      <c r="H279" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10506,18 +8819,15 @@
         <v>1892.0592</v>
       </c>
       <c r="G280" t="n">
-        <v>54677.01582162659</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10539,18 +8849,15 @@
         <v>440.5879</v>
       </c>
       <c r="G281" t="n">
-        <v>54236.42792162659</v>
-      </c>
-      <c r="H281" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>1</v>
+      </c>
+      <c r="L281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10572,18 +8879,15 @@
         <v>1702.7588</v>
       </c>
       <c r="G282" t="n">
-        <v>52533.66912162659</v>
-      </c>
-      <c r="H282" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10605,18 +8909,15 @@
         <v>420.3455</v>
       </c>
       <c r="G283" t="n">
-        <v>52533.66912162659</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10638,18 +8939,15 @@
         <v>241.5274</v>
       </c>
       <c r="G284" t="n">
-        <v>52533.66912162659</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>1</v>
+      </c>
+      <c r="L284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10671,18 +8969,15 @@
         <v>600.6273</v>
       </c>
       <c r="G285" t="n">
-        <v>53134.29642162659</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>1</v>
+      </c>
+      <c r="L285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -10704,18 +8999,15 @@
         <v>120.6363</v>
       </c>
       <c r="G286" t="n">
-        <v>53254.93272162659</v>
-      </c>
-      <c r="H286" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>1</v>
+      </c>
+      <c r="L286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -10737,18 +9029,15 @@
         <v>6855.6062</v>
       </c>
       <c r="G287" t="n">
-        <v>53254.93272162659</v>
-      </c>
-      <c r="H287" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>1</v>
+      </c>
+      <c r="L287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -10770,18 +9059,15 @@
         <v>842.8875</v>
       </c>
       <c r="G288" t="n">
-        <v>52412.04522162659</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>1</v>
+      </c>
+      <c r="L288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -10803,18 +9089,15 @@
         <v>300</v>
       </c>
       <c r="G289" t="n">
-        <v>52712.04522162659</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>1</v>
+      </c>
+      <c r="L289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -10836,18 +9119,15 @@
         <v>550</v>
       </c>
       <c r="G290" t="n">
-        <v>52162.04522162659</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>1</v>
+      </c>
+      <c r="L290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -10869,18 +9149,15 @@
         <v>1</v>
       </c>
       <c r="G291" t="n">
-        <v>52163.04522162659</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>1</v>
+      </c>
+      <c r="L291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10902,18 +9179,15 @@
         <v>229.3212</v>
       </c>
       <c r="G292" t="n">
-        <v>51933.72402162659</v>
-      </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>1</v>
+      </c>
+      <c r="L292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -10935,18 +9209,15 @@
         <v>3520.6171</v>
       </c>
       <c r="G293" t="n">
-        <v>55454.3411216266</v>
-      </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>1</v>
+      </c>
+      <c r="L293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -10968,18 +9239,15 @@
         <v>343.8869</v>
       </c>
       <c r="G294" t="n">
-        <v>55110.4542216266</v>
-      </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>1</v>
+      </c>
+      <c r="L294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11001,18 +9269,15 @@
         <v>2250</v>
       </c>
       <c r="G295" t="n">
-        <v>55110.4542216266</v>
-      </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>1</v>
+      </c>
+      <c r="L295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11034,18 +9299,15 @@
         <v>158</v>
       </c>
       <c r="G296" t="n">
-        <v>55110.4542216266</v>
-      </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>1</v>
+      </c>
+      <c r="L296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11067,18 +9329,15 @@
         <v>909.7361</v>
       </c>
       <c r="G297" t="n">
-        <v>55110.4542216266</v>
-      </c>
-      <c r="H297" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>1</v>
+      </c>
+      <c r="L297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11100,18 +9359,15 @@
         <v>2967.1435</v>
       </c>
       <c r="G298" t="n">
-        <v>55110.4542216266</v>
-      </c>
-      <c r="H298" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="n">
-        <v>1</v>
-      </c>
-      <c r="M298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>1</v>
+      </c>
+      <c r="L298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11133,18 +9389,15 @@
         <v>850</v>
       </c>
       <c r="G299" t="n">
-        <v>55110.4542216266</v>
-      </c>
-      <c r="H299" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="n">
-        <v>1</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>1</v>
+      </c>
+      <c r="L299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -11166,18 +9419,15 @@
         <v>4110.1829</v>
       </c>
       <c r="G300" t="n">
-        <v>55110.4542216266</v>
-      </c>
-      <c r="H300" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="n">
-        <v>1</v>
-      </c>
-      <c r="M300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>1</v>
+      </c>
+      <c r="L300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -11199,18 +9449,15 @@
         <v>58.6129</v>
       </c>
       <c r="G301" t="n">
-        <v>55169.0671216266</v>
-      </c>
-      <c r="H301" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="n">
-        <v>1</v>
-      </c>
-      <c r="M301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>1</v>
+      </c>
+      <c r="L301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -11232,18 +9479,15 @@
         <v>1370</v>
       </c>
       <c r="G302" t="n">
-        <v>55169.0671216266</v>
-      </c>
-      <c r="H302" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="n">
-        <v>1</v>
-      </c>
-      <c r="M302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>1</v>
+      </c>
+      <c r="L302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -11265,18 +9509,15 @@
         <v>17945.6068</v>
       </c>
       <c r="G303" t="n">
-        <v>55169.0671216266</v>
-      </c>
-      <c r="H303" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
-      <c r="L303" t="n">
-        <v>1</v>
-      </c>
-      <c r="M303" t="inlineStr"/>
+      <c r="K303" t="n">
+        <v>1</v>
+      </c>
+      <c r="L303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -11298,18 +9539,15 @@
         <v>1078.9547</v>
       </c>
       <c r="G304" t="n">
-        <v>56248.0218216266</v>
-      </c>
-      <c r="H304" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H304" t="inlineStr"/>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
-      <c r="L304" t="n">
-        <v>1</v>
-      </c>
-      <c r="M304" t="inlineStr"/>
+      <c r="K304" t="n">
+        <v>1</v>
+      </c>
+      <c r="L304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -11331,18 +9569,15 @@
         <v>11.5244</v>
       </c>
       <c r="G305" t="n">
-        <v>56236.4974216266</v>
-      </c>
-      <c r="H305" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
-      <c r="L305" t="n">
-        <v>1</v>
-      </c>
-      <c r="M305" t="inlineStr"/>
+      <c r="K305" t="n">
+        <v>1</v>
+      </c>
+      <c r="L305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -11364,18 +9599,15 @@
         <v>1</v>
       </c>
       <c r="G306" t="n">
-        <v>56237.4974216266</v>
-      </c>
-      <c r="H306" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
-      <c r="L306" t="n">
-        <v>1</v>
-      </c>
-      <c r="M306" t="inlineStr"/>
+      <c r="K306" t="n">
+        <v>1</v>
+      </c>
+      <c r="L306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -11397,18 +9629,15 @@
         <v>800</v>
       </c>
       <c r="G307" t="n">
-        <v>55437.4974216266</v>
-      </c>
-      <c r="H307" t="n">
         <v>2</v>
       </c>
+      <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
-      <c r="L307" t="n">
-        <v>1</v>
-      </c>
-      <c r="M307" t="inlineStr"/>
+      <c r="K307" t="n">
+        <v>1</v>
+      </c>
+      <c r="L307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -11430,18 +9659,15 @@
         <v>1</v>
       </c>
       <c r="G308" t="n">
-        <v>55438.4974216266</v>
-      </c>
-      <c r="H308" t="n">
         <v>2</v>
       </c>
+      <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
-      <c r="L308" t="n">
-        <v>1</v>
-      </c>
-      <c r="M308" t="inlineStr"/>
+      <c r="K308" t="n">
+        <v>1</v>
+      </c>
+      <c r="L308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -11463,18 +9689,15 @@
         <v>4429.7699</v>
       </c>
       <c r="G309" t="n">
-        <v>55438.4974216266</v>
-      </c>
-      <c r="H309" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H309" t="inlineStr"/>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
-      <c r="L309" t="n">
-        <v>1</v>
-      </c>
-      <c r="M309" t="inlineStr"/>
+      <c r="K309" t="n">
+        <v>1</v>
+      </c>
+      <c r="L309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -11496,18 +9719,15 @@
         <v>3579.0549</v>
       </c>
       <c r="G310" t="n">
-        <v>55438.4974216266</v>
-      </c>
-      <c r="H310" t="n">
         <v>2</v>
       </c>
+      <c r="H310" t="inlineStr"/>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
-      <c r="L310" t="n">
-        <v>1</v>
-      </c>
-      <c r="M310" t="inlineStr"/>
+      <c r="K310" t="n">
+        <v>1</v>
+      </c>
+      <c r="L310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -11529,18 +9749,15 @@
         <v>3096.1184</v>
       </c>
       <c r="G311" t="n">
-        <v>55438.4974216266</v>
-      </c>
-      <c r="H311" t="n">
         <v>2</v>
       </c>
+      <c r="H311" t="inlineStr"/>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
-      <c r="L311" t="n">
-        <v>1</v>
-      </c>
-      <c r="M311" t="inlineStr"/>
+      <c r="K311" t="n">
+        <v>1</v>
+      </c>
+      <c r="L311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -11562,18 +9779,15 @@
         <v>9645.0504</v>
       </c>
       <c r="G312" t="n">
-        <v>45793.4470216266</v>
-      </c>
-      <c r="H312" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H312" t="inlineStr"/>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
-      <c r="L312" t="n">
-        <v>1</v>
-      </c>
-      <c r="M312" t="inlineStr"/>
+      <c r="K312" t="n">
+        <v>1</v>
+      </c>
+      <c r="L312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -11595,18 +9809,15 @@
         <v>7.8148</v>
       </c>
       <c r="G313" t="n">
-        <v>45793.4470216266</v>
-      </c>
-      <c r="H313" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H313" t="inlineStr"/>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
-      <c r="L313" t="n">
-        <v>1</v>
-      </c>
-      <c r="M313" t="inlineStr"/>
+      <c r="K313" t="n">
+        <v>1</v>
+      </c>
+      <c r="L313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -11628,18 +9839,15 @@
         <v>1989.3515</v>
       </c>
       <c r="G314" t="n">
-        <v>43804.0955216266</v>
-      </c>
-      <c r="H314" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
-      <c r="L314" t="n">
-        <v>1</v>
-      </c>
-      <c r="M314" t="inlineStr"/>
+      <c r="K314" t="n">
+        <v>1</v>
+      </c>
+      <c r="L314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -11661,18 +9869,15 @@
         <v>4759.222</v>
       </c>
       <c r="G315" t="n">
-        <v>48563.3175216266</v>
-      </c>
-      <c r="H315" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
-      <c r="L315" t="n">
-        <v>1</v>
-      </c>
-      <c r="M315" t="inlineStr"/>
+      <c r="K315" t="n">
+        <v>1</v>
+      </c>
+      <c r="L315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -11694,18 +9899,15 @@
         <v>3554.0197</v>
       </c>
       <c r="G316" t="n">
-        <v>45009.29782162661</v>
-      </c>
-      <c r="H316" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H316" t="inlineStr"/>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
-      <c r="L316" t="n">
-        <v>1</v>
-      </c>
-      <c r="M316" t="inlineStr"/>
+      <c r="K316" t="n">
+        <v>1</v>
+      </c>
+      <c r="L316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -11727,18 +9929,15 @@
         <v>22.782</v>
       </c>
       <c r="G317" t="n">
-        <v>45009.29782162661</v>
-      </c>
-      <c r="H317" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H317" t="inlineStr"/>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
-      <c r="L317" t="n">
-        <v>1</v>
-      </c>
-      <c r="M317" t="inlineStr"/>
+      <c r="K317" t="n">
+        <v>1</v>
+      </c>
+      <c r="L317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -11760,18 +9959,15 @@
         <v>2.2532</v>
       </c>
       <c r="G318" t="n">
-        <v>45009.29782162661</v>
-      </c>
-      <c r="H318" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H318" t="inlineStr"/>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
-      <c r="L318" t="n">
-        <v>1</v>
-      </c>
-      <c r="M318" t="inlineStr"/>
+      <c r="K318" t="n">
+        <v>1</v>
+      </c>
+      <c r="L318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -11793,18 +9989,15 @@
         <v>6850.8475</v>
       </c>
       <c r="G319" t="n">
-        <v>45009.29782162661</v>
-      </c>
-      <c r="H319" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H319" t="inlineStr"/>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
-      <c r="L319" t="n">
-        <v>1</v>
-      </c>
-      <c r="M319" t="inlineStr"/>
+      <c r="K319" t="n">
+        <v>1</v>
+      </c>
+      <c r="L319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -11826,18 +10019,15 @@
         <v>310</v>
       </c>
       <c r="G320" t="n">
-        <v>45319.29782162661</v>
-      </c>
-      <c r="H320" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H320" t="inlineStr"/>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
-      <c r="L320" t="n">
-        <v>1</v>
-      </c>
-      <c r="M320" t="inlineStr"/>
+      <c r="K320" t="n">
+        <v>1</v>
+      </c>
+      <c r="L320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -11859,18 +10049,15 @@
         <v>60.5299</v>
       </c>
       <c r="G321" t="n">
-        <v>45258.7679216266</v>
-      </c>
-      <c r="H321" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H321" t="inlineStr"/>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
-      <c r="L321" t="n">
-        <v>1</v>
-      </c>
-      <c r="M321" t="inlineStr"/>
+      <c r="K321" t="n">
+        <v>1</v>
+      </c>
+      <c r="L321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -11892,18 +10079,15 @@
         <v>1476</v>
       </c>
       <c r="G322" t="n">
-        <v>43782.7679216266</v>
-      </c>
-      <c r="H322" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H322" t="inlineStr"/>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
-      <c r="L322" t="n">
-        <v>1</v>
-      </c>
-      <c r="M322" t="inlineStr"/>
+      <c r="K322" t="n">
+        <v>1</v>
+      </c>
+      <c r="L322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -11925,18 +10109,15 @@
         <v>1372.673</v>
       </c>
       <c r="G323" t="n">
-        <v>43782.7679216266</v>
-      </c>
-      <c r="H323" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H323" t="inlineStr"/>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
-      <c r="L323" t="n">
-        <v>1</v>
-      </c>
-      <c r="M323" t="inlineStr"/>
+      <c r="K323" t="n">
+        <v>1</v>
+      </c>
+      <c r="L323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -11958,18 +10139,15 @@
         <v>3143.2275</v>
       </c>
       <c r="G324" t="n">
-        <v>40639.5404216266</v>
-      </c>
-      <c r="H324" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H324" t="inlineStr"/>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
-      <c r="L324" t="n">
-        <v>1</v>
-      </c>
-      <c r="M324" t="inlineStr"/>
+      <c r="K324" t="n">
+        <v>1</v>
+      </c>
+      <c r="L324" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
